--- a/CNA/Calibrations/Detectors_E-Calib.xlsx
+++ b/CNA/Calibrations/Detectors_E-Calib.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - Universidade de Lisboa\NUCRIA\TESE\Activations\CNA\Calibrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - Universidade de Lisboa\NUCRIA\TESE\Activations\116Sn(p,g)117Sb_Analysis\CNA\Calibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8835F01F617C31814375B9C99A6B64A2EF4C5387" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="4005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9590" windowHeight="4010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="152Eu" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,9 @@
     <sheet name="60Co" sheetId="4" r:id="rId4"/>
     <sheet name="Background" sheetId="5" r:id="rId5"/>
     <sheet name="Calibration" sheetId="6" r:id="rId6"/>
+    <sheet name="Resolution" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="77">
   <si>
     <t>Energy (keV)</t>
   </si>
@@ -231,15 +231,59 @@
   <si>
     <t>60Co</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Energy (keV) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROId </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROIu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Centroid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sigma </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FWHM </t>
+  </si>
+  <si>
+    <t>Peak nr.</t>
+  </si>
+  <si>
+    <t>R = FWHM/E (%)</t>
+  </si>
+  <si>
+    <t>1/sqrt(E') (keV)^-0.5</t>
+  </si>
+  <si>
+    <t>SDD           R (%)</t>
+  </si>
+  <si>
+    <t>HPGe       R (%)</t>
+  </si>
+  <si>
+    <t>HPGe FWHM (keV)</t>
+  </si>
+  <si>
+    <t>SDD FWHM (keV)</t>
+  </si>
+  <si>
+    <t>1/sqrtE'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +337,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -707,11 +769,240 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="35">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -724,6 +1015,52 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -763,77 +1100,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -898,13 +1164,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -918,6 +1177,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -951,9 +1217,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1023,7 +1289,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1107,6 +1373,10 @@
                       </a:rPr>
                       <a:t>y = 0,0310270x + 0,0021333</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
                     </a:br>
@@ -1145,7 +1415,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1217,7 +1487,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A22B-4931-85AE-6ACDED5A488A}"/>
             </c:ext>
@@ -1231,11 +1501,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1457968656"/>
-        <c:axId val="-1457973008"/>
+        <c:axId val="-1161144176"/>
+        <c:axId val="-1161139824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1457968656"/>
+        <c:axId val="-1161144176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,15 +1559,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1457973008"/>
+        <c:crossAx val="-1161139824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1457973008"/>
+        <c:axId val="-1161139824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,10 +1621,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1457968656"/>
+        <c:crossAx val="-1161144176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1392,7 +1662,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1404,9 +1674,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1476,7 +1746,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1560,6 +1830,10 @@
                       </a:rPr>
                       <a:t>y = 0,031067x - 0,005703</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
                     </a:br>
@@ -1600,14 +1874,14 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Calibration!$G$3:$G$10,Calibration!$G$16:$G$23)</c:f>
+              <c:f>(Calibration!$H$3:$H$10,Calibration!$H$16:$H$23)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1720,7 +1994,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-908C-47C8-BDDB-A13AF11564CB}"/>
             </c:ext>
@@ -1734,11 +2008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1457970832"/>
-        <c:axId val="-1457974640"/>
+        <c:axId val="-1161139280"/>
+        <c:axId val="-1161136560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1457970832"/>
+        <c:axId val="-1161139280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,6 +2058,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1809,7 +2084,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1847,15 +2122,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1457974640"/>
+        <c:crossAx val="-1161136560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1457974640"/>
+        <c:axId val="-1161136560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +2209,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1972,10 +2247,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1457970832"/>
+        <c:crossAx val="-1161139280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2013,7 +2288,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2025,9 +2300,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2097,7 +2372,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2181,6 +2456,10 @@
                       </a:rPr>
                       <a:t>y = 0,3225491x - 0,1494213</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
                     </a:br>
@@ -2221,14 +2500,14 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Calibration!$H$11:$H$15,Calibration!$H$24:$H$32,Calibration!$H$34:$H$36)</c:f>
+              <c:f>(Calibration!$K$11:$K$15,Calibration!$K$24:$K$32,Calibration!$K$34:$K$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2347,7 +2626,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A443-4643-92A1-3537822C444D}"/>
             </c:ext>
@@ -2361,11 +2640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1545991056"/>
-        <c:axId val="-1545995952"/>
+        <c:axId val="-1161138736"/>
+        <c:axId val="-1161135472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1545991056"/>
+        <c:axId val="-1161138736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,6 +2690,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2436,7 +2716,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2474,15 +2754,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1545995952"/>
+        <c:crossAx val="-1161135472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1545995952"/>
+        <c:axId val="-1161135472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2841,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2599,10 +2879,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1545991056"/>
+        <c:crossAx val="-1161138736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2640,7 +2920,1258 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12628608082103912"/>
+          <c:y val="2.4390243902439025E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HPGe Resolution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.8935669442859092E-2"/>
+                  <c:y val="-0.19696210229818834"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 509,04x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 20,521x + 0,7879</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0,9856</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Calibration!$G$11:$G$15,Calibration!$G$24:$G$32,Calibration!$G$34,Calibration!$G$35,Calibration!$G$36)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0149355833923029E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7462724169482615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2999149635466099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1041006228231954E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0617487201407901E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.392680735026228E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3894457272424652E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9319163014348515E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7460037675311581E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5831018077417842E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3954340381471874E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2206829048425763E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0347092047291954E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9986928548108603E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.887608828450579E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9194996009471293E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Calibration!$M$11:$M$15,Calibration!$M$24:$M$32,Calibration!$M$34,Calibration!$M$35,Calibration!$M$36)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.8165291305970737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4064226738374965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.294568977195496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2490143600506221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67684218562341802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0327898298963869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6859259896210379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2740602805436505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99145091245162242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96040483865254322</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7911100600803519</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55342600552518495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.712211982106009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47733418183663429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70645749673929126</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86336451599051622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66825332438817886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1011847680"/>
+        <c:axId val="-1011848768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1011847680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1"/>
+                  <a:t>1/sqrt(E)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1011848768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1011848768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1"/>
+                  <a:t>R (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1011847680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" b="1"/>
+              <a:t>HPGe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" b="1" baseline="0"/>
+              <a:t> Resolution</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14818044619422568"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11377996500437446"/>
+                  <c:y val="-0.19514362787984835"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 509,05x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 20,521x + 0,788</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0,9856</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resolution!$J$4:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.0617487201407901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.392680735026228E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3894457272424652E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9319163014348515E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7460037675311581E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5831018077417842E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3954340381471874E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2206829048425763E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0347092047291954E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9986928548108603E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0149355833923029E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7462724169482615E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2999149635466099E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1041006228231954E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.887608828450579E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9195369280985633E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resolution!$K$4:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.0327898298963869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6859259896210379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2740602805436505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99145091245162242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96040483865254322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7911100600803519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55342600552518495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.712211982106009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47733418183663429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70645749673929126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8165291305970737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4064226738374965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.294568977195496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2490143600506221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67684218562341802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86336451599051622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66827041235249141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1118806208"/>
+        <c:axId val="-1118795872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1118806208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600" b="1"/>
+                  <a:t>1/sqrt(E)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1118795872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1118795872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1"/>
+                  <a:t>R (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1118806208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2771,6 +4302,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3804,6 +5415,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4339,7 +6982,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4366,23 +7009,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>320675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4402,23 +7045,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,12 +7081,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B2:F203" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
-  <autoFilter ref="B2:F203" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:F203" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+  <autoFilter ref="B2:F203">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4451,19 +7159,55 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Energy (keV)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="intensity (%)" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="shell" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HPGe Channel" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SDD Channel" dataDxfId="11"/>
+    <tableColumn id="1" name="Energy (keV)" dataDxfId="30"/>
+    <tableColumn id="3" name="intensity (%)" dataDxfId="29"/>
+    <tableColumn id="5" name="shell" dataDxfId="28"/>
+    <tableColumn id="6" name="HPGe Channel" dataDxfId="27"/>
+    <tableColumn id="7" name="SDD Channel" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="B2:H36" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="B2:H36" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:M36" totalsRowShown="0" headerRowDxfId="12" dataDxfId="21" headerRowBorderDxfId="13" tableBorderDxfId="20">
+  <autoFilter ref="B2:M36">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source" dataDxfId="25"/>
+    <tableColumn id="2" name="Line" dataDxfId="24"/>
+    <tableColumn id="3" name="Parent" dataDxfId="23"/>
+    <tableColumn id="4" name="Shell" dataDxfId="19"/>
+    <tableColumn id="5" name="Energy (keV)" dataDxfId="11"/>
+    <tableColumn id="6" name="1/sqrtE'" dataDxfId="9">
+      <calculatedColumnFormula>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="SDD Channel" dataDxfId="10"/>
+    <tableColumn id="8" name="SDD FWHM (keV)" dataDxfId="18"/>
+    <tableColumn id="9" name="SDD           R (%)" dataDxfId="17"/>
+    <tableColumn id="10" name="HPGe Channel" dataDxfId="16"/>
+    <tableColumn id="11" name="HPGe FWHM (keV)" dataDxfId="15"/>
+    <tableColumn id="12" name="HPGe       R (%)" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:H20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="22" headerRowBorderDxfId="8">
+  <autoFilter ref="B3:H20">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4473,15 +7217,15 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Source" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Line" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Parent" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Shell" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Energy (keV)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="SDD Channel" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="HPGe Channel" dataDxfId="0"/>
+    <tableColumn id="1" name="Peak nr." dataDxfId="6"/>
+    <tableColumn id="2" name=" Energy (keV) " dataDxfId="5"/>
+    <tableColumn id="3" name=" ROId " dataDxfId="4"/>
+    <tableColumn id="4" name=" ROIu " dataDxfId="3"/>
+    <tableColumn id="5" name=" Centroid " dataDxfId="2"/>
+    <tableColumn id="6" name=" Sigma " dataDxfId="1"/>
+    <tableColumn id="7" name=" FWHM " dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4747,24 +7491,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="45.75" thickBot="1">
+    <row r="2" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -4787,7 +7531,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -4807,7 +7551,7 @@
         <v>5.6333243243243238</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="60">
         <v>5.6360000000000001</v>
       </c>
@@ -4823,7 +7567,7 @@
       </c>
       <c r="G4" s="76"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="28">
         <v>6.2050000000000001</v>
       </c>
@@ -4836,7 +7580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="28">
         <v>6.5869999999999997</v>
       </c>
@@ -4849,7 +7593,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="28">
         <v>7.1779999999999999</v>
       </c>
@@ -4862,7 +7606,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="60">
         <v>39.521999999999998</v>
       </c>
@@ -4876,7 +7620,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="60">
         <v>40.116999999999997</v>
       </c>
@@ -4890,7 +7634,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="60">
         <v>45.289000000000001</v>
       </c>
@@ -4907,7 +7651,7 @@
         <v>45.37024137931035</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="60">
         <v>45.412999999999997</v>
       </c>
@@ -4923,7 +7667,7 @@
       </c>
       <c r="G11" s="76"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="60">
         <v>46.578000000000003</v>
       </c>
@@ -4937,7 +7681,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="31">
         <v>118.97</v>
       </c>
@@ -4949,7 +7693,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="30">
         <v>121.7817</v>
       </c>
@@ -4963,7 +7707,7 @@
       <c r="F14" s="29"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="26">
         <v>125.68</v>
       </c>
@@ -4975,7 +7719,7 @@
       <c r="F15" s="29"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="26">
         <v>137.56</v>
       </c>
@@ -4987,7 +7731,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="26">
         <v>148</v>
       </c>
@@ -4998,7 +7742,7 @@
       <c r="E17" s="35"/>
       <c r="F17" s="29"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="26">
         <v>150.13</v>
       </c>
@@ -5009,7 +7753,7 @@
       <c r="E18" s="35"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="26">
         <v>166.91</v>
       </c>
@@ -5020,7 +7764,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -5034,7 +7778,7 @@
       <c r="E20" s="35"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="26">
         <v>174.8</v>
       </c>
@@ -5045,7 +7789,7 @@
       <c r="E21" s="35"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="26">
         <v>175.18</v>
       </c>
@@ -5056,7 +7800,7 @@
       <c r="E22" s="35"/>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="26">
         <v>192.6</v>
       </c>
@@ -5067,7 +7811,7 @@
       <c r="E23" s="35"/>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" s="26">
         <v>195.22</v>
       </c>
@@ -5078,7 +7822,7 @@
       <c r="E24" s="35"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="26">
         <v>202.74</v>
       </c>
@@ -5089,7 +7833,7 @@
       <c r="E25" s="35"/>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="26">
         <v>207.03</v>
       </c>
@@ -5100,7 +7844,7 @@
       <c r="E26" s="35"/>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="26">
         <v>207.64</v>
       </c>
@@ -5111,7 +7855,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" s="26">
         <v>209.3</v>
       </c>
@@ -5122,7 +7866,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" s="26">
         <v>209.41</v>
       </c>
@@ -5133,7 +7877,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="26">
         <v>209.97</v>
       </c>
@@ -5144,7 +7888,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" s="26">
         <v>210.95</v>
       </c>
@@ -5155,7 +7899,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="26">
         <v>212.43</v>
       </c>
@@ -5166,7 +7910,7 @@
       <c r="E32" s="35"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="26">
         <v>237.1</v>
       </c>
@@ -5177,7 +7921,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="26">
         <v>239.33</v>
       </c>
@@ -5188,7 +7932,7 @@
       <c r="E34" s="35"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="26">
         <v>241</v>
       </c>
@@ -5199,7 +7943,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="29"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="30">
         <v>244.69739999999999</v>
       </c>
@@ -5212,7 +7956,7 @@
       </c>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="26">
         <v>251.63300000000001</v>
       </c>
@@ -5223,7 +7967,7 @@
       <c r="E37" s="35"/>
       <c r="F37" s="29"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="26">
         <v>269.83999999999997</v>
       </c>
@@ -5235,7 +7979,7 @@
       <c r="F38" s="29"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="26">
         <v>271.08</v>
       </c>
@@ -5246,7 +7990,7 @@
       <c r="E39" s="35"/>
       <c r="F39" s="29"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="26">
         <v>272.41000000000003</v>
       </c>
@@ -5257,7 +8001,7 @@
       <c r="E40" s="35"/>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="26">
         <v>275.42</v>
       </c>
@@ -5268,7 +8012,7 @@
       <c r="E41" s="35"/>
       <c r="F41" s="29"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="26">
         <v>285.98</v>
       </c>
@@ -5279,7 +8023,7 @@
       <c r="E42" s="35"/>
       <c r="F42" s="29"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="26">
         <v>286.5</v>
       </c>
@@ -5290,7 +8034,7 @@
       <c r="E43" s="35"/>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="26">
         <v>287.10000000000002</v>
       </c>
@@ -5301,7 +8045,7 @@
       <c r="E44" s="35"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="26">
         <v>295.93869999999998</v>
       </c>
@@ -5312,7 +8056,7 @@
       <c r="E45" s="35"/>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="26">
         <v>315.10000000000002</v>
       </c>
@@ -5323,7 +8067,7 @@
       <c r="E46" s="35"/>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="26">
         <v>316.13</v>
       </c>
@@ -5334,7 +8078,7 @@
       <c r="E47" s="35"/>
       <c r="F47" s="29"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="26">
         <v>320.10000000000002</v>
       </c>
@@ -5345,7 +8089,7 @@
       <c r="E48" s="35"/>
       <c r="F48" s="29"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="26">
         <v>324.83</v>
       </c>
@@ -5356,7 +8100,7 @@
       <c r="E49" s="35"/>
       <c r="F49" s="29"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="26">
         <v>324.91399999999999</v>
       </c>
@@ -5367,7 +8111,7 @@
       <c r="E50" s="35"/>
       <c r="F50" s="29"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="26">
         <v>328.76400000000001</v>
       </c>
@@ -5378,7 +8122,7 @@
       <c r="E51" s="35"/>
       <c r="F51" s="29"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="26">
         <v>329.41</v>
       </c>
@@ -5389,7 +8133,7 @@
       <c r="E52" s="35"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="26">
         <v>330.58</v>
       </c>
@@ -5400,7 +8144,7 @@
       <c r="E53" s="35"/>
       <c r="F53" s="29"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="26">
         <v>340.46</v>
       </c>
@@ -5411,7 +8155,7 @@
       <c r="E54" s="35"/>
       <c r="F54" s="29"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="30">
         <v>344.27850000000001</v>
       </c>
@@ -5424,7 +8168,7 @@
       </c>
       <c r="F55" s="29"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="26">
         <v>345.54</v>
       </c>
@@ -5435,7 +8179,7 @@
       <c r="E56" s="35"/>
       <c r="F56" s="29"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="26">
         <v>348.75200000000001</v>
       </c>
@@ -5447,7 +8191,7 @@
       <c r="F57" s="29"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="26">
         <v>351.66</v>
       </c>
@@ -5458,7 +8202,7 @@
       <c r="E58" s="35"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="26">
         <v>354.16</v>
       </c>
@@ -5469,7 +8213,7 @@
       <c r="E59" s="35"/>
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="26">
         <v>357.26</v>
       </c>
@@ -5480,7 +8224,7 @@
       <c r="E60" s="35"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="26">
         <v>358.48</v>
       </c>
@@ -5491,7 +8235,7 @@
       <c r="E61" s="35"/>
       <c r="F61" s="29"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="26">
         <v>367.78910000000002</v>
       </c>
@@ -5502,7 +8246,7 @@
       <c r="E62" s="35"/>
       <c r="F62" s="29"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="26">
         <v>378.15</v>
       </c>
@@ -5513,7 +8257,7 @@
       <c r="E63" s="35"/>
       <c r="F63" s="29"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="26">
         <v>379.36</v>
       </c>
@@ -5524,7 +8268,7 @@
       <c r="E64" s="35"/>
       <c r="F64" s="29"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="26">
         <v>385.61</v>
       </c>
@@ -5535,7 +8279,7 @@
       <c r="E65" s="35"/>
       <c r="F65" s="29"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="26">
         <v>387.9</v>
       </c>
@@ -5546,7 +8290,7 @@
       <c r="E66" s="35"/>
       <c r="F66" s="29"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="26">
         <v>389.07</v>
       </c>
@@ -5557,7 +8301,7 @@
       <c r="E67" s="35"/>
       <c r="F67" s="29"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="26">
         <v>391.19</v>
       </c>
@@ -5568,7 +8312,7 @@
       <c r="E68" s="35"/>
       <c r="F68" s="29"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="26">
         <v>395.75</v>
       </c>
@@ -5579,7 +8323,7 @@
       <c r="E69" s="35"/>
       <c r="F69" s="29"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="26">
         <v>397.75</v>
       </c>
@@ -5590,7 +8334,7 @@
       <c r="E70" s="35"/>
       <c r="F70" s="29"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="26">
         <v>401.29</v>
       </c>
@@ -5601,7 +8345,7 @@
       <c r="E71" s="35"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="26">
         <v>406.74</v>
       </c>
@@ -5612,7 +8356,7 @@
       <c r="E72" s="35"/>
       <c r="F72" s="29"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="30">
         <v>411.11649999999997</v>
       </c>
@@ -5625,7 +8369,7 @@
       </c>
       <c r="F73" s="29"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="26">
         <v>416.02</v>
       </c>
@@ -5636,7 +8380,7 @@
       <c r="E74" s="35"/>
       <c r="F74" s="29"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="26">
         <v>423.45</v>
       </c>
@@ -5648,7 +8392,7 @@
       <c r="F75" s="29"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="26">
         <v>440.86</v>
       </c>
@@ -5659,7 +8403,7 @@
       <c r="E76" s="35"/>
       <c r="F76" s="29"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="26">
         <v>441</v>
       </c>
@@ -5668,7 +8412,7 @@
       <c r="E77" s="35"/>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="30">
         <v>443.9606</v>
       </c>
@@ -5681,7 +8425,7 @@
       </c>
       <c r="F78" s="29"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="26">
         <v>444.01</v>
       </c>
@@ -5692,7 +8436,7 @@
       <c r="E79" s="35"/>
       <c r="F79" s="29"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="26">
         <v>464.28</v>
       </c>
@@ -5704,7 +8448,7 @@
       <c r="F80" s="29"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81" s="26">
         <v>476.42</v>
       </c>
@@ -5715,7 +8459,7 @@
       <c r="E81" s="35"/>
       <c r="F81" s="29"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82" s="26">
         <v>482.33</v>
       </c>
@@ -5726,7 +8470,7 @@
       <c r="E82" s="35"/>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83" s="26">
         <v>482.4</v>
       </c>
@@ -5737,7 +8481,7 @@
       <c r="E83" s="35"/>
       <c r="F83" s="29"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84" s="26">
         <v>488.67919999999998</v>
       </c>
@@ -5748,7 +8492,7 @@
       <c r="E84" s="35"/>
       <c r="F84" s="29"/>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85" s="26">
         <v>493.54</v>
       </c>
@@ -5759,7 +8503,7 @@
       <c r="E85" s="35"/>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86" s="26">
         <v>493.78</v>
       </c>
@@ -5770,7 +8514,7 @@
       <c r="E86" s="35"/>
       <c r="F86" s="29"/>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87" s="26">
         <v>496.4</v>
       </c>
@@ -5781,7 +8525,7 @@
       <c r="E87" s="35"/>
       <c r="F87" s="29"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88" s="26">
         <v>496.56</v>
       </c>
@@ -5792,7 +8536,7 @@
       <c r="E88" s="35"/>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89" s="26">
         <v>503.46699999999998</v>
       </c>
@@ -5803,7 +8547,7 @@
       <c r="E89" s="35"/>
       <c r="F89" s="29"/>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90" s="26">
         <v>514.78</v>
       </c>
@@ -5814,7 +8558,7 @@
       <c r="E90" s="35"/>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91" s="26">
         <v>520.24</v>
       </c>
@@ -5825,7 +8569,7 @@
       <c r="E91" s="35"/>
       <c r="F91" s="29"/>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92" s="26">
         <v>523.13</v>
       </c>
@@ -5836,7 +8580,7 @@
       <c r="E92" s="35"/>
       <c r="F92" s="29"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93" s="26">
         <v>526.88</v>
       </c>
@@ -5847,7 +8591,7 @@
       <c r="E93" s="35"/>
       <c r="F93" s="29"/>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="26">
         <v>527.1</v>
       </c>
@@ -5858,7 +8602,7 @@
       <c r="E94" s="35"/>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="26">
         <v>534.25</v>
       </c>
@@ -5869,7 +8613,7 @@
       <c r="E95" s="35"/>
       <c r="F95" s="29"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="26">
         <v>535.44000000000005</v>
       </c>
@@ -5880,7 +8624,7 @@
       <c r="E96" s="35"/>
       <c r="F96" s="29"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="26">
         <v>536.23</v>
       </c>
@@ -5889,7 +8633,7 @@
       <c r="E97" s="35"/>
       <c r="F97" s="29"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="26">
         <v>538.29</v>
       </c>
@@ -5900,7 +8644,7 @@
       <c r="E98" s="35"/>
       <c r="F98" s="29"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="26">
         <v>556.48</v>
       </c>
@@ -5911,7 +8655,7 @@
       <c r="E99" s="35"/>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="26">
         <v>557.79999999999995</v>
       </c>
@@ -5922,7 +8666,7 @@
       <c r="E100" s="35"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="26">
         <v>561.26</v>
       </c>
@@ -5933,7 +8677,7 @@
       <c r="E101" s="35"/>
       <c r="F101" s="29"/>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="26">
         <v>562.98</v>
       </c>
@@ -5944,7 +8688,7 @@
       <c r="E102" s="35"/>
       <c r="F102" s="29"/>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="26">
         <v>563.1</v>
       </c>
@@ -5955,7 +8699,7 @@
       <c r="E103" s="35"/>
       <c r="F103" s="29"/>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="26">
         <v>563.98599999999999</v>
       </c>
@@ -5966,7 +8710,7 @@
       <c r="E104" s="35"/>
       <c r="F104" s="29"/>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="26">
         <v>566.43799999999999</v>
       </c>
@@ -5977,7 +8721,7 @@
       <c r="E105" s="35"/>
       <c r="F105" s="29"/>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="26">
         <v>571.83000000000004</v>
       </c>
@@ -5988,7 +8732,7 @@
       <c r="E106" s="35"/>
       <c r="F106" s="29"/>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="26">
         <v>586.26480000000004</v>
       </c>
@@ -5999,7 +8743,7 @@
       <c r="E107" s="35"/>
       <c r="F107" s="29"/>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="26">
         <v>588.6</v>
       </c>
@@ -6010,7 +8754,7 @@
       <c r="E108" s="35"/>
       <c r="F108" s="29"/>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="26">
         <v>589.83000000000004</v>
       </c>
@@ -6021,7 +8765,7 @@
       <c r="E109" s="35"/>
       <c r="F109" s="29"/>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B110" s="26">
         <v>595.61</v>
       </c>
@@ -6032,7 +8776,7 @@
       <c r="E110" s="35"/>
       <c r="F110" s="29"/>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B111" s="26">
         <v>608.05999999999995</v>
       </c>
@@ -6043,7 +8787,7 @@
       <c r="E111" s="35"/>
       <c r="F111" s="29"/>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B112" s="26">
         <v>609.23</v>
       </c>
@@ -6054,7 +8798,7 @@
       <c r="E112" s="35"/>
       <c r="F112" s="29"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B113" s="26">
         <v>615.41</v>
       </c>
@@ -6063,7 +8807,7 @@
       <c r="E113" s="35"/>
       <c r="F113" s="29"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B114" s="26">
         <v>616.04999999999995</v>
       </c>
@@ -6074,7 +8818,7 @@
       <c r="E114" s="35"/>
       <c r="F114" s="29"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B115" s="26">
         <v>644.39</v>
       </c>
@@ -6085,7 +8829,7 @@
       <c r="E115" s="35"/>
       <c r="F115" s="29"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B116" s="26">
         <v>656.48900000000003</v>
       </c>
@@ -6096,7 +8840,7 @@
       <c r="E116" s="35"/>
       <c r="F116" s="29"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B117" s="26">
         <v>664.77</v>
       </c>
@@ -6107,7 +8851,7 @@
       <c r="E117" s="35"/>
       <c r="F117" s="29"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B118" s="26">
         <v>671.15499999999997</v>
       </c>
@@ -6118,7 +8862,7 @@
       <c r="E118" s="35"/>
       <c r="F118" s="29"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119" s="26">
         <v>674.64</v>
       </c>
@@ -6129,7 +8873,7 @@
       <c r="E119" s="35"/>
       <c r="F119" s="29"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B120" s="26">
         <v>675</v>
       </c>
@@ -6140,7 +8884,7 @@
       <c r="E120" s="35"/>
       <c r="F120" s="29"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B121" s="26">
         <v>678.62300000000005</v>
       </c>
@@ -6151,7 +8895,7 @@
       <c r="E121" s="35"/>
       <c r="F121" s="29"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B122" s="26">
         <v>683.25</v>
       </c>
@@ -6162,7 +8906,7 @@
       <c r="E122" s="35"/>
       <c r="F122" s="29"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B123" s="26">
         <v>686.6</v>
       </c>
@@ -6173,7 +8917,7 @@
       <c r="E123" s="35"/>
       <c r="F123" s="29"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B124" s="26">
         <v>688.67</v>
       </c>
@@ -6184,7 +8928,7 @@
       <c r="E124" s="35"/>
       <c r="F124" s="29"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B125" s="26">
         <v>696.87</v>
       </c>
@@ -6195,7 +8939,7 @@
       <c r="E125" s="35"/>
       <c r="F125" s="29"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B126" s="26">
         <v>703.01</v>
       </c>
@@ -6206,7 +8950,7 @@
       <c r="E126" s="35"/>
       <c r="F126" s="29"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B127" s="26">
         <v>703.55</v>
       </c>
@@ -6217,7 +8961,7 @@
       <c r="E127" s="35"/>
       <c r="F127" s="29"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B128" s="26">
         <v>707.16</v>
       </c>
@@ -6228,7 +8972,7 @@
       <c r="E128" s="35"/>
       <c r="F128" s="29"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B129" s="26">
         <v>712.83</v>
       </c>
@@ -6239,7 +8983,7 @@
       <c r="E129" s="35"/>
       <c r="F129" s="29"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B130" s="26">
         <v>719.346</v>
       </c>
@@ -6250,7 +8994,7 @@
       <c r="E130" s="35"/>
       <c r="F130" s="29"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B131" s="26">
         <v>719.36</v>
       </c>
@@ -6261,7 +9005,7 @@
       <c r="E131" s="35"/>
       <c r="F131" s="29"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B132" s="26">
         <v>728.04</v>
       </c>
@@ -6272,7 +9016,7 @@
       <c r="E132" s="35"/>
       <c r="F132" s="29"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B133" s="26">
         <v>734.14</v>
       </c>
@@ -6283,7 +9027,7 @@
       <c r="E133" s="35"/>
       <c r="F133" s="29"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B134" s="26">
         <v>735.43</v>
       </c>
@@ -6294,7 +9038,7 @@
       <c r="E134" s="35"/>
       <c r="F134" s="29"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B135" s="26">
         <v>756.16</v>
       </c>
@@ -6305,7 +9049,7 @@
       <c r="E135" s="35"/>
       <c r="F135" s="29"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B136" s="26">
         <v>764.88</v>
       </c>
@@ -6316,7 +9060,7 @@
       <c r="E136" s="35"/>
       <c r="F136" s="29"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B137" s="26">
         <v>766.38</v>
       </c>
@@ -6327,7 +9071,7 @@
       <c r="E137" s="35"/>
       <c r="F137" s="29"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B138" s="26">
         <v>768.96</v>
       </c>
@@ -6338,7 +9082,7 @@
       <c r="E138" s="35"/>
       <c r="F138" s="29"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B139" s="30">
         <v>778.90449999999998</v>
       </c>
@@ -6351,7 +9095,7 @@
       </c>
       <c r="F139" s="29"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B140" s="26">
         <v>794.78</v>
       </c>
@@ -6362,7 +9106,7 @@
       <c r="E140" s="35"/>
       <c r="F140" s="29"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B141" s="26">
         <v>802</v>
       </c>
@@ -6374,7 +9118,7 @@
       <c r="F141" s="29"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B142" s="26">
         <v>805.71</v>
       </c>
@@ -6385,7 +9129,7 @@
       <c r="E142" s="35"/>
       <c r="F142" s="29"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B143" s="26">
         <v>810.45100000000002</v>
       </c>
@@ -6396,7 +9140,7 @@
       <c r="E143" s="35"/>
       <c r="F143" s="29"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B144" s="26">
         <v>813.21</v>
       </c>
@@ -6407,7 +9151,7 @@
       <c r="E144" s="35"/>
       <c r="F144" s="29"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B145" s="26">
         <v>839.36</v>
       </c>
@@ -6418,7 +9162,7 @@
       <c r="E145" s="35"/>
       <c r="F145" s="29"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B146" s="26">
         <v>841.57399999999996</v>
       </c>
@@ -6429,7 +9173,7 @@
       <c r="E146" s="35"/>
       <c r="F146" s="29"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B147" s="26">
         <v>850.1</v>
       </c>
@@ -6440,7 +9184,7 @@
       <c r="E147" s="35"/>
       <c r="F147" s="29"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B148" s="26">
         <v>855.21</v>
       </c>
@@ -6451,7 +9195,7 @@
       <c r="E148" s="35"/>
       <c r="F148" s="29"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B149" s="30">
         <v>867.38</v>
       </c>
@@ -6464,7 +9208,7 @@
       </c>
       <c r="F149" s="29"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B150" s="26">
         <v>896.59</v>
       </c>
@@ -6475,7 +9219,7 @@
       <c r="E150" s="35"/>
       <c r="F150" s="29"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B151" s="26">
         <v>901.19</v>
       </c>
@@ -6487,7 +9231,7 @@
       <c r="F151" s="29"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B152" s="26">
         <v>906.06</v>
       </c>
@@ -6498,7 +9242,7 @@
       <c r="E152" s="35"/>
       <c r="F152" s="29"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B153" s="26">
         <v>919.33699999999999</v>
       </c>
@@ -6509,7 +9253,7 @@
       <c r="E153" s="35"/>
       <c r="F153" s="29"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B154" s="26">
         <v>919.74</v>
       </c>
@@ -6520,7 +9264,7 @@
       <c r="E154" s="35"/>
       <c r="F154" s="29"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B155" s="26">
         <v>926.31</v>
       </c>
@@ -6531,7 +9275,7 @@
       <c r="E155" s="35"/>
       <c r="F155" s="29"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B156" s="26">
         <v>930.59</v>
       </c>
@@ -6542,7 +9286,7 @@
       <c r="E156" s="35"/>
       <c r="F156" s="29"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B157" s="26">
         <v>937.05</v>
       </c>
@@ -6553,7 +9297,7 @@
       <c r="E157" s="35"/>
       <c r="F157" s="29"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B158" s="26">
         <v>947.15</v>
       </c>
@@ -6564,7 +9308,7 @@
       <c r="E158" s="35"/>
       <c r="F158" s="29"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B159" s="26">
         <v>958.63</v>
       </c>
@@ -6575,7 +9319,7 @@
       <c r="E159" s="35"/>
       <c r="F159" s="29"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B160" s="26">
         <v>961.08</v>
       </c>
@@ -6586,7 +9330,7 @@
       <c r="E160" s="35"/>
       <c r="F160" s="29"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B161" s="26">
         <v>963.36699999999996</v>
       </c>
@@ -6597,7 +9341,7 @@
       <c r="E161" s="35"/>
       <c r="F161" s="29"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B162" s="30">
         <v>964.05700000000002</v>
       </c>
@@ -6610,7 +9354,7 @@
       </c>
       <c r="F162" s="29"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B163" s="26">
         <v>968.65</v>
       </c>
@@ -6621,7 +9365,7 @@
       <c r="E163" s="35"/>
       <c r="F163" s="29"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B164" s="26">
         <v>970.22</v>
       </c>
@@ -6633,7 +9377,7 @@
       <c r="F164" s="29"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B165" s="26">
         <v>974.09</v>
       </c>
@@ -6644,7 +9388,7 @@
       <c r="E165" s="35"/>
       <c r="F165" s="29"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B166" s="26">
         <v>990.18</v>
       </c>
@@ -6655,7 +9399,7 @@
       <c r="E166" s="35"/>
       <c r="F166" s="29"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B167" s="26">
         <v>1001.1</v>
       </c>
@@ -6666,7 +9410,7 @@
       <c r="E167" s="35"/>
       <c r="F167" s="29"/>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B168" s="26">
         <v>1005.27</v>
       </c>
@@ -6677,7 +9421,7 @@
       <c r="E168" s="35"/>
       <c r="F168" s="29"/>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B169" s="26">
         <v>1050.0999999999999</v>
       </c>
@@ -6688,7 +9432,7 @@
       <c r="E169" s="35"/>
       <c r="F169" s="29"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B170" s="26">
         <v>1084</v>
       </c>
@@ -6699,7 +9443,7 @@
       <c r="E170" s="35"/>
       <c r="F170" s="29"/>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B171" s="26">
         <v>1084.3800000000001</v>
       </c>
@@ -6710,7 +9454,7 @@
       <c r="E171" s="35"/>
       <c r="F171" s="29"/>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B172" s="30">
         <v>1085.837</v>
       </c>
@@ -6723,7 +9467,7 @@
       </c>
       <c r="F172" s="29"/>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B173" s="30">
         <v>1089.7370000000001</v>
       </c>
@@ -6734,7 +9478,7 @@
       <c r="E173" s="35"/>
       <c r="F173" s="29"/>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B174" s="26">
         <v>1109.18</v>
       </c>
@@ -6746,7 +9490,7 @@
       <c r="F174" s="29"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B175" s="30">
         <v>1112.076</v>
       </c>
@@ -6759,7 +9503,7 @@
       </c>
       <c r="F175" s="29"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B176" s="26">
         <v>1139</v>
       </c>
@@ -6770,7 +9514,7 @@
       <c r="E176" s="35"/>
       <c r="F176" s="29"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B177" s="26">
         <v>1170.97</v>
       </c>
@@ -6782,7 +9526,7 @@
       <c r="F177" s="29"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B178" s="26">
         <v>1206.0899999999999</v>
       </c>
@@ -6793,7 +9537,7 @@
       <c r="E178" s="35"/>
       <c r="F178" s="29"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B179" s="61">
         <v>1212.9480000000001</v>
       </c>
@@ -6804,7 +9548,7 @@
       <c r="E179" s="35"/>
       <c r="F179" s="29"/>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B180" s="61">
         <v>1246.3399999999999</v>
       </c>
@@ -6815,7 +9559,7 @@
       <c r="E180" s="35"/>
       <c r="F180" s="29"/>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181" s="61">
         <v>1249.94</v>
       </c>
@@ -6826,7 +9570,7 @@
       <c r="E181" s="35"/>
       <c r="F181" s="29"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B182" s="61">
         <v>1261.3499999999999</v>
       </c>
@@ -6837,7 +9581,7 @@
       <c r="E182" s="35"/>
       <c r="F182" s="29"/>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B183" s="61">
         <v>1292.78</v>
       </c>
@@ -6848,7 +9592,7 @@
       <c r="E183" s="35"/>
       <c r="F183" s="29"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B184" s="61">
         <v>1299.1420000000001</v>
       </c>
@@ -6859,7 +9603,7 @@
       <c r="E184" s="35"/>
       <c r="F184" s="29"/>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B185" s="61">
         <v>1314.6</v>
       </c>
@@ -6870,7 +9614,7 @@
       <c r="E185" s="35"/>
       <c r="F185" s="29"/>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B186" s="61">
         <v>1315.58</v>
       </c>
@@ -6881,7 +9625,7 @@
       <c r="E186" s="35"/>
       <c r="F186" s="29"/>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B187" s="61">
         <v>1318.38</v>
       </c>
@@ -6892,7 +9636,7 @@
       <c r="E187" s="35"/>
       <c r="F187" s="29"/>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188" s="61">
         <v>1348.1</v>
       </c>
@@ -6903,7 +9647,7 @@
       <c r="E188" s="35"/>
       <c r="F188" s="29"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B189" s="61">
         <v>1363.78</v>
       </c>
@@ -6914,7 +9658,7 @@
       <c r="E189" s="35"/>
       <c r="F189" s="29"/>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B190" s="61">
         <v>1390.5</v>
       </c>
@@ -6925,7 +9669,7 @@
       <c r="E190" s="35"/>
       <c r="F190" s="29"/>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B191" s="61">
         <v>1408.0129999999999</v>
       </c>
@@ -6936,7 +9680,7 @@
       <c r="E191" s="35"/>
       <c r="F191" s="29"/>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B192" s="26">
         <v>1455.1</v>
       </c>
@@ -6947,7 +9691,7 @@
       <c r="E192" s="35"/>
       <c r="F192" s="29"/>
     </row>
-    <row r="193" spans="2:6">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B193" s="26">
         <v>1457.643</v>
       </c>
@@ -6958,7 +9702,7 @@
       <c r="E193" s="35"/>
       <c r="F193" s="29"/>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B194" s="26">
         <v>1485.9</v>
       </c>
@@ -6969,7 +9713,7 @@
       <c r="E194" s="35"/>
       <c r="F194" s="29"/>
     </row>
-    <row r="195" spans="2:6">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B195" s="26">
         <v>1491.4</v>
       </c>
@@ -6980,7 +9724,7 @@
       <c r="E195" s="35"/>
       <c r="F195" s="29"/>
     </row>
-    <row r="196" spans="2:6">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B196" s="26">
         <v>1528.1</v>
       </c>
@@ -6991,7 +9735,7 @@
       <c r="E196" s="35"/>
       <c r="F196" s="29"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B197" s="26">
         <v>1605.62</v>
       </c>
@@ -7002,7 +9746,7 @@
       <c r="E197" s="35"/>
       <c r="F197" s="29"/>
     </row>
-    <row r="198" spans="2:6">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B198" s="26">
         <v>1608.36</v>
       </c>
@@ -7013,7 +9757,7 @@
       <c r="E198" s="35"/>
       <c r="F198" s="29"/>
     </row>
-    <row r="199" spans="2:6">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B199" s="26">
         <v>1635.38</v>
       </c>
@@ -7024,7 +9768,7 @@
       <c r="E199" s="35"/>
       <c r="F199" s="29"/>
     </row>
-    <row r="200" spans="2:6">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B200" s="26">
         <v>1647.44</v>
       </c>
@@ -7035,7 +9779,7 @@
       <c r="E200" s="35"/>
       <c r="F200" s="29"/>
     </row>
-    <row r="201" spans="2:6">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B201" s="26">
         <v>1674.31</v>
       </c>
@@ -7046,7 +9790,7 @@
       <c r="E201" s="35"/>
       <c r="F201" s="29"/>
     </row>
-    <row r="202" spans="2:6">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B202" s="26">
         <v>1698.1</v>
       </c>
@@ -7057,7 +9801,7 @@
       <c r="E202" s="35"/>
       <c r="F202" s="29"/>
     </row>
-    <row r="203" spans="2:6" ht="15.75" thickBot="1">
+    <row r="203" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B203" s="26">
         <v>1769.09</v>
       </c>
@@ -7082,21 +9826,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:9" ht="48" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7116,7 +9860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7136,7 +9880,7 @@
         <v>4.2846126126126123</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="53">
         <v>4.2859999999999996</v>
       </c>
@@ -7152,7 +9896,7 @@
       </c>
       <c r="G4" s="76"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="53">
         <v>4.6189999999999998</v>
       </c>
@@ -7166,7 +9910,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="53">
         <v>4.9359999999999999</v>
       </c>
@@ -7180,7 +9924,7 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="53">
         <v>5.28</v>
       </c>
@@ -7194,7 +9938,7 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="53">
         <v>30.625</v>
       </c>
@@ -7208,7 +9952,7 @@
       </c>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="53">
         <v>30.972999999999999</v>
       </c>
@@ -7222,7 +9966,7 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="53">
         <v>34.918999999999997</v>
       </c>
@@ -7241,7 +9985,7 @@
         <v>34.964333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="53">
         <v>34.987000000000002</v>
       </c>
@@ -7255,7 +9999,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="76"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="53">
         <v>35.822000000000003</v>
       </c>
@@ -7271,7 +10015,7 @@
         <v>4.2720000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -7286,7 +10030,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="44">
         <v>79.614199999999997</v>
       </c>
@@ -7298,7 +10042,7 @@
       <c r="F14" s="29"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="44">
         <v>80.997900000000001</v>
       </c>
@@ -7312,7 +10056,7 @@
       <c r="F15" s="29"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="44">
         <v>160.61199999999999</v>
       </c>
@@ -7324,7 +10068,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="44">
         <v>223.23679999999999</v>
       </c>
@@ -7336,7 +10080,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="44">
         <v>276.39890000000003</v>
       </c>
@@ -7350,7 +10094,7 @@
       <c r="F18" s="29"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="44">
         <v>302.85079999999999</v>
       </c>
@@ -7364,7 +10108,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="44">
         <v>356.0129</v>
       </c>
@@ -7378,7 +10122,7 @@
       <c r="F20" s="29"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="46">
         <v>383.8485</v>
       </c>
@@ -7403,17 +10147,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:5" ht="32.25" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7427,7 +10171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7442,7 +10186,7 @@
       </c>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="44">
         <v>31.815999999999999</v>
       </c>
@@ -7454,7 +10198,7 @@
       </c>
       <c r="E4" s="77"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="44">
         <v>32.192999999999998</v>
       </c>
@@ -7466,7 +10210,7 @@
       </c>
       <c r="E5" s="77"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="44">
         <v>36.481999999999999</v>
       </c>
@@ -7478,7 +10222,7 @@
       </c>
       <c r="E6" s="77"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="44">
         <v>36.826999999999998</v>
       </c>
@@ -7490,7 +10234,7 @@
       </c>
       <c r="E7" s="77"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="46">
         <v>37.255000000000003</v>
       </c>
@@ -7502,7 +10246,7 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -7515,7 +10259,7 @@
       <c r="D9" s="43"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="49">
         <v>661.65700000000004</v>
       </c>
@@ -7538,17 +10282,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:5" ht="32.25" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7562,7 +10306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7577,7 +10321,7 @@
       </c>
       <c r="E3" s="37"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="9">
         <v>7.4610000000000003</v>
       </c>
@@ -7589,7 +10333,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>7.4779999999999998</v>
       </c>
@@ -7601,7 +10345,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>8.2959999999999994</v>
       </c>
@@ -7613,7 +10357,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="38">
         <v>8.2959999999999994</v>
       </c>
@@ -7625,7 +10369,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -7638,7 +10382,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>826.1</v>
       </c>
@@ -7648,7 +10392,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="39">
         <v>1173.2280000000001</v>
       </c>
@@ -7660,7 +10404,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>1332.492</v>
       </c>
@@ -7670,7 +10414,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>2158.5700000000002</v>
       </c>
@@ -7680,7 +10424,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="38">
         <v>2505.692</v>
       </c>
@@ -7696,21 +10440,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:7" ht="32.25" thickBot="1">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7727,7 +10471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="8"/>
       <c r="C3" s="36">
         <f>F3*0.3225-0.0825</f>
@@ -7742,7 +10486,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C4" s="9">
         <f t="shared" ref="C4:C50" si="0">F4*0.3225-0.0825</f>
         <v>27.6525</v>
@@ -7756,7 +10500,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>47.002499999999998</v>
@@ -7770,7 +10514,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>59.58</v>
@@ -7784,7 +10528,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>63.772500000000001</v>
@@ -7798,7 +10542,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
@@ -7813,7 +10557,7 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C9" s="9">
         <f t="shared" si="0"/>
         <v>77.31750000000001</v>
@@ -7827,7 +10571,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C10" s="9">
         <f t="shared" si="0"/>
         <v>84.412500000000009</v>
@@ -7841,7 +10585,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C11" s="9">
         <f t="shared" si="0"/>
         <v>87.637500000000003</v>
@@ -7855,7 +10599,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C12" s="9">
         <f t="shared" si="0"/>
         <v>90.217500000000001</v>
@@ -7869,7 +10613,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1">
+    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="38">
         <f t="shared" si="0"/>
         <v>93.12</v>
@@ -7883,7 +10627,7 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>144.39750000000001</v>
@@ -7895,7 +10639,7 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C15" s="9">
         <f t="shared" si="0"/>
         <v>186.32249999999999</v>
@@ -7909,7 +10653,7 @@
       </c>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C16" s="9">
         <f t="shared" si="0"/>
         <v>209.86500000000001</v>
@@ -7921,7 +10665,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="9">
         <f t="shared" si="0"/>
         <v>238.89</v>
@@ -7937,7 +10681,7 @@
       </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" s="9">
         <f t="shared" si="0"/>
         <v>242.11500000000001</v>
@@ -7953,7 +10697,7 @@
       </c>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="9">
         <f t="shared" si="0"/>
         <v>270.495</v>
@@ -7965,7 +10709,7 @@
       </c>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="9">
         <f t="shared" si="0"/>
         <v>295.32750000000004</v>
@@ -7981,7 +10725,7 @@
       </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21" s="9">
         <f t="shared" si="0"/>
         <v>300.16500000000002</v>
@@ -7997,7 +10741,7 @@
       </c>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" s="9">
         <f t="shared" si="0"/>
         <v>338.54250000000002</v>
@@ -8009,7 +10753,7 @@
       </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" s="9">
         <f t="shared" si="0"/>
         <v>352.08750000000003</v>
@@ -8025,7 +10769,7 @@
       </c>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="9">
         <f t="shared" si="0"/>
         <v>409.49250000000001</v>
@@ -8037,7 +10781,7 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="9">
         <f t="shared" si="0"/>
         <v>462.70500000000004</v>
@@ -8049,7 +10793,7 @@
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="9">
         <f t="shared" si="0"/>
         <v>481.08750000000003</v>
@@ -8061,7 +10805,7 @@
       </c>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="73">
         <f t="shared" si="0"/>
         <v>511.08000000000004</v>
@@ -8073,7 +10817,7 @@
       </c>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28" s="9">
         <f t="shared" si="0"/>
         <v>533.97750000000008</v>
@@ -8085,7 +10829,7 @@
       </c>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="9">
         <f t="shared" si="0"/>
         <v>570.09750000000008</v>
@@ -8099,7 +10843,7 @@
       </c>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C30" s="9">
         <f t="shared" si="0"/>
         <v>583.32000000000005</v>
@@ -8115,7 +10859,7 @@
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="3:7">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C31" s="9">
         <f t="shared" si="0"/>
         <v>609.4425</v>
@@ -8131,7 +10875,7 @@
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C32" s="9">
         <f t="shared" si="0"/>
         <v>665.5575</v>
@@ -8147,7 +10891,7 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="9">
         <f t="shared" si="0"/>
         <v>727.15500000000009</v>
@@ -8163,7 +10907,7 @@
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="9">
         <f t="shared" si="0"/>
         <v>768.75750000000005</v>
@@ -8179,7 +10923,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="9">
         <f t="shared" si="0"/>
         <v>784.88250000000005</v>
@@ -8195,7 +10939,7 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="9">
         <f t="shared" si="0"/>
         <v>794.88</v>
@@ -8207,7 +10951,7 @@
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="9">
         <f t="shared" si="0"/>
         <v>806.16750000000002</v>
@@ -8223,7 +10967,7 @@
       </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="9">
         <f t="shared" si="0"/>
         <v>839.38499999999999</v>
@@ -8235,7 +10979,7 @@
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="3:7">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="9">
         <f t="shared" si="0"/>
         <v>860.99250000000006</v>
@@ -8251,7 +10995,7 @@
       </c>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="3:7">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="9">
         <f t="shared" si="0"/>
         <v>911.30250000000001</v>
@@ -8263,7 +11007,7 @@
       </c>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="3:7">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="9">
         <f t="shared" si="0"/>
         <v>934.2</v>
@@ -8279,7 +11023,7 @@
       </c>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="3:7">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C42" s="9">
         <f t="shared" si="0"/>
         <v>964.83750000000009</v>
@@ -8293,7 +11037,7 @@
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="3:7">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C43" s="9">
         <f t="shared" si="0"/>
         <v>968.7075000000001</v>
@@ -8305,7 +11049,7 @@
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="3:7">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C44" s="9">
         <f t="shared" si="0"/>
         <v>1001.2800000000001</v>
@@ -8321,7 +11065,7 @@
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="3:7">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C45" s="9">
         <f t="shared" si="0"/>
         <v>1051.9125000000001</v>
@@ -8333,7 +11077,7 @@
       </c>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="3:7">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C46" s="9">
         <f t="shared" si="0"/>
         <v>1069.9725000000001</v>
@@ -8345,7 +11089,7 @@
       </c>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="3:7">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C47" s="9">
         <f t="shared" si="0"/>
         <v>1120.605</v>
@@ -8361,7 +11105,7 @@
       </c>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="3:7">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C48" s="9">
         <f t="shared" si="0"/>
         <v>1155.4349999999999</v>
@@ -8377,7 +11121,7 @@
       </c>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C49" s="9">
         <f t="shared" si="0"/>
         <v>1238.6400000000001</v>
@@ -8393,7 +11137,7 @@
       </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="3:7" ht="15.75" thickBot="1">
+    <row r="50" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C50" s="38">
         <f t="shared" si="0"/>
         <v>1280.8875</v>
@@ -8415,308 +11159,446 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" customWidth="1"/>
+    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="88" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="66" t="s">
+      <c r="L2" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="90">
         <v>4.2850000000000001</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="95">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.48308615039636987</v>
+      </c>
+      <c r="H3" s="84">
         <v>138</v>
       </c>
-      <c r="H3" s="66"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="28" t="s">
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="91">
         <v>4.6189999999999998</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.46529246425173987</v>
+      </c>
+      <c r="H4" s="84">
         <v>149</v>
       </c>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="28" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="91">
         <v>4.9359999999999999</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.45010353572119338</v>
+      </c>
+      <c r="H5" s="84">
         <v>159</v>
       </c>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="28" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="91">
         <v>5.28</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.4351941398892446</v>
+      </c>
+      <c r="H6" s="84">
         <v>170</v>
       </c>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="28" t="s">
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="91">
         <v>30.625</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.18070158058105026</v>
+      </c>
+      <c r="H7" s="84">
         <v>987</v>
       </c>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="28" t="s">
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="91">
         <v>30.972999999999999</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.17968356836825425</v>
+      </c>
+      <c r="H8" s="84">
         <v>998</v>
       </c>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="28" t="s">
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="91">
         <v>34.963999999999999</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.16911784821555328</v>
+      </c>
+      <c r="H9" s="84">
         <v>1126</v>
       </c>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="28" t="s">
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="91">
         <v>35.822000000000003</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.16708023799754768</v>
+      </c>
+      <c r="H10" s="84">
         <v>1154</v>
       </c>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="28" t="s">
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="91">
         <v>81</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H11" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="28">
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="53">
         <v>252</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="28" t="s">
+      <c r="L11" s="86">
+        <v>3.9013885957836298</v>
+      </c>
+      <c r="M11" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>4.8165291305970737</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="91">
         <v>276.39999999999998</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>6.0149355833923029E-2</v>
+      </c>
+      <c r="H12" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="28">
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="53">
         <v>857</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="28" t="s">
+      <c r="L12" s="86">
+        <v>3.88735227048684</v>
+      </c>
+      <c r="M12" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>1.4064226738374965</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="91">
         <v>302.85000000000002</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>5.7462724169482615E-2</v>
+      </c>
+      <c r="H13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="28">
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="53">
         <v>940</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="28" t="s">
+      <c r="L13" s="86">
+        <v>3.92060214743656</v>
+      </c>
+      <c r="M13" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>1.294568977195496</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="91">
         <v>356.01</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>5.2999149635466099E-2</v>
+      </c>
+      <c r="H14" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="28">
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="53">
         <v>1103</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B15" s="67" t="s">
+      <c r="L14" s="86">
+        <v>4.4466160232162197</v>
+      </c>
+      <c r="M14" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>1.2490143600506221</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="67" t="s">
@@ -8728,18 +11610,31 @@
       <c r="E15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="91">
         <v>383.85</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>5.1041006228231954E-2</v>
+      </c>
+      <c r="H15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="67">
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="85">
         <v>1191</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="66" t="s">
+      <c r="L15" s="47">
+        <v>2.5980587295154902</v>
+      </c>
+      <c r="M15" s="48">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.67684218562341802</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="81" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="66" t="s">
@@ -8751,391 +11646,580 @@
       <c r="E16" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="91">
         <v>5.633</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.4213375100259566</v>
+      </c>
+      <c r="H16" s="66">
         <v>181</v>
       </c>
-      <c r="H16" s="66"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="28" t="s">
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="91">
         <v>6.2050000000000001</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.40144782295185016</v>
+      </c>
+      <c r="H17" s="84">
         <v>200</v>
       </c>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="91">
         <v>6.5869999999999997</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.3896333910798202</v>
+      </c>
+      <c r="H18" s="84">
         <v>212</v>
       </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="28" t="s">
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="91">
         <v>7.1779999999999999</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.37324867354655528</v>
+      </c>
+      <c r="H19" s="84">
         <v>231</v>
       </c>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="28" t="s">
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="91">
         <v>39.521999999999998</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.15906716581597435</v>
+      </c>
+      <c r="H20" s="84">
         <v>1272</v>
       </c>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="91">
         <v>40.116999999999997</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.15788314750732441</v>
+      </c>
+      <c r="H21" s="84">
         <v>1292</v>
       </c>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="28" t="s">
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="91">
         <v>45.37</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.14846210376062519</v>
+      </c>
+      <c r="H22" s="84">
         <v>1461</v>
       </c>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="28" t="s">
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="91">
         <v>46.578000000000003</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>0.14652427518567335</v>
+      </c>
+      <c r="H23" s="84">
         <v>1497</v>
       </c>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="91">
         <v>121.78</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>9.0617487201407901E-2</v>
+      </c>
+      <c r="H24" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="28">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="53">
         <v>378</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="28" t="s">
+      <c r="L24" s="86">
+        <v>3.69333145484782</v>
+      </c>
+      <c r="M24" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>3.0327898298963869</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="91">
         <v>244.7</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>6.392680735026228E-2</v>
+      </c>
+      <c r="H25" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="28">
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="53">
         <v>759</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="28" t="s">
+      <c r="L25" s="86">
+        <v>4.1254608966026796</v>
+      </c>
+      <c r="M25" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>1.6859259896210379</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="91">
         <v>344.28</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>5.3894457272424652E-2</v>
+      </c>
+      <c r="H26" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="28">
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="53">
         <v>1068</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="28" t="s">
+      <c r="L26" s="86">
+        <v>4.38633473385568</v>
+      </c>
+      <c r="M26" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>1.2740602805436505</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="91">
         <v>411.12</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>4.9319163014348515E-2</v>
+      </c>
+      <c r="H27" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="28">
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="53">
         <v>1275</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="28" t="s">
+      <c r="L27" s="86">
+        <v>4.0760529912711103</v>
+      </c>
+      <c r="M27" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.99145091245162242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="91">
         <v>443.96</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>4.7460037675311581E-2</v>
+      </c>
+      <c r="H28" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="28">
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="53">
         <v>1377</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="28" t="s">
+      <c r="L28" s="86">
+        <v>4.2638133216818304</v>
+      </c>
+      <c r="M28" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.96040483865254322</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="91">
         <v>778.9</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>3.5831018077417842E-2</v>
+      </c>
+      <c r="H29" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="28">
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="53">
         <v>2415</v>
       </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="28" t="s">
+      <c r="L29" s="86">
+        <v>6.1619562579658602</v>
+      </c>
+      <c r="M29" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.7911100600803519</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="91">
         <v>867.38</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>3.3954340381471874E-2</v>
+      </c>
+      <c r="H30" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="28">
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="53">
         <v>2689</v>
       </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="28" t="s">
+      <c r="L30" s="86">
+        <v>4.8003064867243497</v>
+      </c>
+      <c r="M30" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.55342600552518495</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="91">
         <v>964.06</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>3.2206829048425763E-2</v>
+      </c>
+      <c r="H31" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="28">
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="53">
         <v>2990</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="28" t="s">
+      <c r="L31" s="86">
+        <v>6.8661508346911901</v>
+      </c>
+      <c r="M31" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.712211982106009</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B32" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="91">
         <v>1085.8399999999999</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>3.0347092047291954E-2</v>
+      </c>
+      <c r="H32" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="28">
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="53">
         <v>3366</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="28" t="s">
+      <c r="L32" s="86">
+        <v>5.1830854800549098</v>
+      </c>
+      <c r="M32" s="45">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.47733418183663429</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="91">
         <v>1089.74</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>3.0292739751809464E-2</v>
+      </c>
+      <c r="H33" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B34" s="67" t="s">
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="45"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="67" t="s">
@@ -9147,18 +12231,31 @@
       <c r="E34" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="91">
         <v>1112.08</v>
       </c>
-      <c r="G34" s="67" t="s">
+      <c r="G34" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>2.9986928548108603E-2</v>
+      </c>
+      <c r="H34" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="67">
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="85">
         <v>3449</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B35" s="65" t="s">
+      <c r="L34" s="47">
+        <v>7.8563725297383096</v>
+      </c>
+      <c r="M34" s="48">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.70645749673929126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="82" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -9170,37 +12267,63 @@
       <c r="E35" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="91">
         <v>661.66</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="96">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>3.887608828450579E-2</v>
+      </c>
+      <c r="H35" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="65">
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="82">
         <v>2052</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="28" t="s">
+      <c r="L35" s="98">
+        <v>5.7125376565028496</v>
+      </c>
+      <c r="M35" s="99">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.86336451599051622</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="92">
         <v>1173.23</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="97">
+        <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
+        <v>2.9194996009471293E-2</v>
+      </c>
+      <c r="H36" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="28">
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="85">
         <v>3638</v>
+      </c>
+      <c r="L36" s="26">
+        <v>7.8401484777194304</v>
+      </c>
+      <c r="M36" s="48">
+        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
+        <v>0.66825332438817886</v>
       </c>
     </row>
   </sheetData>
@@ -9211,4 +12334,616 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="81">
+        <v>1</v>
+      </c>
+      <c r="C4" s="66">
+        <v>121.78</v>
+      </c>
+      <c r="D4" s="66">
+        <v>366</v>
+      </c>
+      <c r="E4" s="66">
+        <v>393</v>
+      </c>
+      <c r="F4" s="31">
+        <v>379.17355907366499</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1.5684134901384399</v>
+      </c>
+      <c r="H4" s="43">
+        <v>3.69333145484782</v>
+      </c>
+      <c r="J4" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>9.0617487201407901E-2</v>
+      </c>
+      <c r="K4" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>3.0327898298963869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="79"/>
+      <c r="B5" s="53">
+        <v>2</v>
+      </c>
+      <c r="C5" s="84">
+        <v>244.7</v>
+      </c>
+      <c r="D5" s="84">
+        <v>747</v>
+      </c>
+      <c r="E5" s="84">
+        <v>771</v>
+      </c>
+      <c r="F5" s="86">
+        <v>760.14525671702097</v>
+      </c>
+      <c r="G5" s="86">
+        <v>1.751921971362</v>
+      </c>
+      <c r="H5" s="45">
+        <v>4.1254608966026796</v>
+      </c>
+      <c r="J5" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>6.392680735026228E-2</v>
+      </c>
+      <c r="K5" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>1.6859259896210379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="79"/>
+      <c r="B6" s="53">
+        <v>3</v>
+      </c>
+      <c r="C6" s="84">
+        <v>344.28</v>
+      </c>
+      <c r="D6" s="84">
+        <v>1057</v>
+      </c>
+      <c r="E6" s="84">
+        <v>1081</v>
+      </c>
+      <c r="F6" s="86">
+        <v>1068.8567579523001</v>
+      </c>
+      <c r="G6" s="86">
+        <v>1.8627048920323701</v>
+      </c>
+      <c r="H6" s="45">
+        <v>4.38633473385568</v>
+      </c>
+      <c r="J6" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>5.3894457272424652E-2</v>
+      </c>
+      <c r="K6" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>1.2740602805436505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="79"/>
+      <c r="B7" s="53">
+        <v>4</v>
+      </c>
+      <c r="C7" s="84">
+        <v>411.12</v>
+      </c>
+      <c r="D7" s="84">
+        <v>1267</v>
+      </c>
+      <c r="E7" s="84">
+        <v>1282</v>
+      </c>
+      <c r="F7" s="86">
+        <v>1276.2186355311301</v>
+      </c>
+      <c r="G7" s="86">
+        <v>1.7309403654084401</v>
+      </c>
+      <c r="H7" s="45">
+        <v>4.0760529912711103</v>
+      </c>
+      <c r="J7" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>4.9319163014348515E-2</v>
+      </c>
+      <c r="K7" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.99145091245162242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="79"/>
+      <c r="B8" s="53">
+        <v>5</v>
+      </c>
+      <c r="C8" s="84">
+        <v>443.96</v>
+      </c>
+      <c r="D8" s="84">
+        <v>1369</v>
+      </c>
+      <c r="E8" s="84">
+        <v>1385</v>
+      </c>
+      <c r="F8" s="86">
+        <v>1377.8445563247301</v>
+      </c>
+      <c r="G8" s="86">
+        <v>1.8106748378567501</v>
+      </c>
+      <c r="H8" s="45">
+        <v>4.2638133216818304</v>
+      </c>
+      <c r="J8" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>4.7460037675311581E-2</v>
+      </c>
+      <c r="K8" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.96040483865254322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="79"/>
+      <c r="B9" s="53">
+        <v>6</v>
+      </c>
+      <c r="C9" s="84">
+        <v>778.9</v>
+      </c>
+      <c r="D9" s="84">
+        <v>2399</v>
+      </c>
+      <c r="E9" s="84">
+        <v>2431</v>
+      </c>
+      <c r="F9" s="86">
+        <v>2416.18044453109</v>
+      </c>
+      <c r="G9" s="86">
+        <v>2.61674194119544</v>
+      </c>
+      <c r="H9" s="45">
+        <v>6.1619562579658602</v>
+      </c>
+      <c r="J9" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>3.5831018077417842E-2</v>
+      </c>
+      <c r="K9" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.7911100600803519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="79"/>
+      <c r="B10" s="53">
+        <v>7</v>
+      </c>
+      <c r="C10" s="84">
+        <v>867.38</v>
+      </c>
+      <c r="D10" s="84">
+        <v>2679</v>
+      </c>
+      <c r="E10" s="84">
+        <v>2699</v>
+      </c>
+      <c r="F10" s="86">
+        <v>2690.7052384675499</v>
+      </c>
+      <c r="G10" s="86">
+        <v>2.0385025126015299</v>
+      </c>
+      <c r="H10" s="45">
+        <v>4.8003064867243497</v>
+      </c>
+      <c r="J10" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>3.3954340381471874E-2</v>
+      </c>
+      <c r="K10" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.55342600552518495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="79"/>
+      <c r="B11" s="53">
+        <v>8</v>
+      </c>
+      <c r="C11" s="84">
+        <v>964.06</v>
+      </c>
+      <c r="D11" s="84">
+        <v>2978</v>
+      </c>
+      <c r="E11" s="84">
+        <v>3001</v>
+      </c>
+      <c r="F11" s="86">
+        <v>2990.29747392233</v>
+      </c>
+      <c r="G11" s="86">
+        <v>2.91578584974273</v>
+      </c>
+      <c r="H11" s="45">
+        <v>6.8661508346911901</v>
+      </c>
+      <c r="J11" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>3.2206829048425763E-2</v>
+      </c>
+      <c r="K11" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.712211982106009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="79"/>
+      <c r="B12" s="53">
+        <v>9</v>
+      </c>
+      <c r="C12" s="84">
+        <v>1085.8399999999999</v>
+      </c>
+      <c r="D12" s="84">
+        <v>3358</v>
+      </c>
+      <c r="E12" s="84">
+        <v>3373</v>
+      </c>
+      <c r="F12" s="86">
+        <v>3367.8899165350699</v>
+      </c>
+      <c r="G12" s="86">
+        <v>2.20105378757395</v>
+      </c>
+      <c r="H12" s="45">
+        <v>5.1830854800549098</v>
+      </c>
+      <c r="J12" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>3.0347092047291954E-2</v>
+      </c>
+      <c r="K12" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.47733418183663429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="80"/>
+      <c r="B13" s="85">
+        <v>10</v>
+      </c>
+      <c r="C13" s="67">
+        <v>1112.08</v>
+      </c>
+      <c r="D13" s="67">
+        <v>3432</v>
+      </c>
+      <c r="E13" s="67">
+        <v>3458</v>
+      </c>
+      <c r="F13" s="47">
+        <v>3449.0405673550299</v>
+      </c>
+      <c r="G13" s="47">
+        <v>3.3362942941449001</v>
+      </c>
+      <c r="H13" s="48">
+        <v>7.8563725297383096</v>
+      </c>
+      <c r="J13" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>2.9986928548108603E-2</v>
+      </c>
+      <c r="K13" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.70645749673929126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="81">
+        <v>1</v>
+      </c>
+      <c r="C14" s="66">
+        <v>81</v>
+      </c>
+      <c r="D14" s="66">
+        <v>240</v>
+      </c>
+      <c r="E14" s="66">
+        <v>261</v>
+      </c>
+      <c r="F14" s="31">
+        <v>252.54684027453001</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1.65676722457921</v>
+      </c>
+      <c r="H14" s="43">
+        <v>3.9013885957836298</v>
+      </c>
+      <c r="J14" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K14" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>4.8165291305970737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
+      <c r="B15" s="53">
+        <v>2</v>
+      </c>
+      <c r="C15" s="84">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="D15" s="84">
+        <v>850</v>
+      </c>
+      <c r="E15" s="84">
+        <v>865</v>
+      </c>
+      <c r="F15" s="86">
+        <v>858.40388723410604</v>
+      </c>
+      <c r="G15" s="86">
+        <v>1.6508065459299801</v>
+      </c>
+      <c r="H15" s="45">
+        <v>3.88735227048684</v>
+      </c>
+      <c r="J15" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>6.0149355833923029E-2</v>
+      </c>
+      <c r="K15" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>1.4064226738374965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="79"/>
+      <c r="B16" s="53">
+        <v>3</v>
+      </c>
+      <c r="C16" s="84">
+        <v>302.85000000000002</v>
+      </c>
+      <c r="D16" s="84">
+        <v>931</v>
+      </c>
+      <c r="E16" s="84">
+        <v>947</v>
+      </c>
+      <c r="F16" s="86">
+        <v>940.35810749072505</v>
+      </c>
+      <c r="G16" s="86">
+        <v>1.66492646887514</v>
+      </c>
+      <c r="H16" s="45">
+        <v>3.92060214743656</v>
+      </c>
+      <c r="J16" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>5.7462724169482615E-2</v>
+      </c>
+      <c r="K16" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>1.294568977195496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="79"/>
+      <c r="B17" s="53">
+        <v>4</v>
+      </c>
+      <c r="C17" s="84">
+        <v>356.01</v>
+      </c>
+      <c r="D17" s="84">
+        <v>1095</v>
+      </c>
+      <c r="E17" s="84">
+        <v>1117</v>
+      </c>
+      <c r="F17" s="86">
+        <v>1105.35351348926</v>
+      </c>
+      <c r="G17" s="86">
+        <v>1.8883039991235899</v>
+      </c>
+      <c r="H17" s="45">
+        <v>4.4466160232162197</v>
+      </c>
+      <c r="J17" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>5.2999149635466099E-2</v>
+      </c>
+      <c r="K17" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>1.2490143600506221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="80"/>
+      <c r="B18" s="85">
+        <v>5</v>
+      </c>
+      <c r="C18" s="67">
+        <v>383.85</v>
+      </c>
+      <c r="D18" s="67">
+        <v>1184</v>
+      </c>
+      <c r="E18" s="67">
+        <v>1195</v>
+      </c>
+      <c r="F18" s="47">
+        <v>1191.6811957397199</v>
+      </c>
+      <c r="G18" s="47">
+        <v>1.10329397980121</v>
+      </c>
+      <c r="H18" s="48">
+        <v>2.5980587295154902</v>
+      </c>
+      <c r="J18" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>5.1041006228231954E-2</v>
+      </c>
+      <c r="K18" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.67684218562341802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="53">
+        <v>1</v>
+      </c>
+      <c r="C19" s="84">
+        <v>661.66</v>
+      </c>
+      <c r="D19" s="84">
+        <v>2037</v>
+      </c>
+      <c r="E19" s="84">
+        <v>2071</v>
+      </c>
+      <c r="F19" s="86">
+        <v>2052.4599344932099</v>
+      </c>
+      <c r="G19" s="86">
+        <v>2.4258914297070899</v>
+      </c>
+      <c r="H19" s="45">
+        <v>5.7125376565028496</v>
+      </c>
+      <c r="J19" s="100">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>3.887608828450579E-2</v>
+      </c>
+      <c r="K19" s="45">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.86336451599051622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="82">
+        <v>1</v>
+      </c>
+      <c r="C20" s="65">
+        <v>1173.2</v>
+      </c>
+      <c r="D20" s="65">
+        <v>3617</v>
+      </c>
+      <c r="E20" s="65">
+        <v>3651</v>
+      </c>
+      <c r="F20" s="98">
+        <v>3638.71054493984</v>
+      </c>
+      <c r="G20" s="98">
+        <v>3.32940457347883</v>
+      </c>
+      <c r="H20" s="99">
+        <v>7.8401484777194304</v>
+      </c>
+      <c r="J20" s="101">
+        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
+        <v>2.9195369280985633E-2</v>
+      </c>
+      <c r="K20" s="48">
+        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
+        <v>0.66827041235249141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/CNA/Calibrations/Detectors_E-Calib.xlsx
+++ b/CNA/Calibrations/Detectors_E-Calib.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9590" windowHeight="4010" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="4005" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="152Eu" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="79">
   <si>
     <t>Energy (keV)</t>
   </si>
@@ -241,9 +241,6 @@
     <t xml:space="preserve"> ROIu </t>
   </si>
   <si>
-    <t xml:space="preserve"> Centroid </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sigma </t>
   </si>
   <si>
@@ -251,12 +248,6 @@
   </si>
   <si>
     <t>Peak nr.</t>
-  </si>
-  <si>
-    <t>R = FWHM/E (%)</t>
-  </si>
-  <si>
-    <t>1/sqrt(E') (keV)^-0.5</t>
   </si>
   <si>
     <t>SDD           R (%)</t>
@@ -273,6 +264,21 @@
   <si>
     <t>1/sqrtE'</t>
   </si>
+  <si>
+    <t>Energy (MeV)</t>
+  </si>
+  <si>
+    <t>FWHM (MeV)</t>
+  </si>
+  <si>
+    <t>1/sqrt(E') (MeV)^-0.5</t>
+  </si>
+  <si>
+    <t>R = FWHM/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centroid </t>
+  </si>
 </sst>
 </file>
 
@@ -280,8 +286,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -540,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -763,12 +769,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -814,13 +814,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -829,16 +829,61 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="39">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -850,6 +895,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -883,96 +954,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1032,7 +1013,9 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top/>
         <bottom style="medium">
@@ -1041,26 +1024,50 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1097,6 +1104,52 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1501,11 +1554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1161144176"/>
-        <c:axId val="-1161139824"/>
+        <c:axId val="-603187008"/>
+        <c:axId val="-651586624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1161144176"/>
+        <c:axId val="-603187008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,12 +1615,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1161139824"/>
+        <c:crossAx val="-651586624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1161139824"/>
+        <c:axId val="-651586624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +1677,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1161144176"/>
+        <c:crossAx val="-603187008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2008,11 +2061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1161139280"/>
-        <c:axId val="-1161136560"/>
+        <c:axId val="-341418800"/>
+        <c:axId val="-341412816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1161139280"/>
+        <c:axId val="-341418800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,12 +2178,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1161136560"/>
+        <c:crossAx val="-341412816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1161136560"/>
+        <c:axId val="-341412816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2303,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1161139280"/>
+        <c:crossAx val="-341418800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2640,11 +2693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1161138736"/>
-        <c:axId val="-1161135472"/>
+        <c:axId val="-341425328"/>
+        <c:axId val="-341412272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1161138736"/>
+        <c:axId val="-341425328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,12 +2810,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1161135472"/>
+        <c:crossAx val="-341412272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1161135472"/>
+        <c:axId val="-341412272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2935,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1161138736"/>
+        <c:crossAx val="-341425328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3259,11 +3312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1011847680"/>
-        <c:axId val="-1011848768"/>
+        <c:axId val="-341423696"/>
+        <c:axId val="-341417168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1011847680"/>
+        <c:axId val="-341423696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,12 +3429,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1011848768"/>
+        <c:crossAx val="-341417168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1011848768"/>
+        <c:axId val="-341417168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3547,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1011847680"/>
+        <c:crossAx val="-341423696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3673,8 +3726,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11377996500437446"/>
-                  <c:y val="-0.19514362787984835"/>
+                  <c:x val="7.7679726971065552E-2"/>
+                  <c:y val="-0.19658806954307823"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3701,7 +3754,7 @@
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 509,05x</a:t>
+                      <a:t>y = 0,002162x</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="1400" b="1" baseline="30000">
@@ -3717,29 +3770,29 @@
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t> - 20,521x + 0,788</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t/>
+                      <a:t> - 0,002756x + 0,003346</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
                     </a:br>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0,9856</a:t>
+                      <a:t>R² = 0,985621</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
-                <a:ln w="19050">
+                <a:ln w="28575">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3770,120 +3823,120 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Resolution!$J$4:$J$20</c:f>
+              <c:f>Resolution!$K$4:$K$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>9.0617487201407901E-2</c:v>
+                  <c:v>2.8655765539760623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.392680735026228E-2</c:v>
+                  <c:v>2.0215431476962218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3894457272424652E-2</c:v>
+                  <c:v>1.7042923823948775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9319163014348515E-2</c:v>
+                  <c:v>1.5596088741847689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7460037675311581E-2</c:v>
+                  <c:v>1.5008181689138744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5831018077417842E-2</c:v>
+                  <c:v>1.133076280073078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3954340381471874E-2</c:v>
+                  <c:v>1.0737305205408159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2206829048425763E-2</c:v>
+                  <c:v>1.0184693600469881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0347092047291954E-2</c:v>
+                  <c:v>0.95965931232224844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9986928548108603E-2</c:v>
+                  <c:v>0.94826994244749252</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>3.5136418446315325</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0149355833923029E-2</c:v>
+                  <c:v>1.9020896422713336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7462724169482615E-2</c:v>
+                  <c:v>1.8171308893357248</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2999149635466099E-2</c:v>
+                  <c:v>1.6759802690015555</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1041006228231954E-2</c:v>
+                  <c:v>1.6140583374805302</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.887608828450579E-2</c:v>
+                  <c:v>1.2293698549682632</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9195369280985633E-2</c:v>
+                  <c:v>0.92323864057627025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Resolution!$K$4:$K$20</c:f>
+              <c:f>Resolution!$L$4:$L$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3.0327898298963869</c:v>
+                  <c:v>1.2879072837398916E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6859259896210379</c:v>
+                  <c:v>7.1594686201961587E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2740602805436505</c:v>
+                  <c:v>5.4104359591970784E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99145091245162242</c:v>
+                  <c:v>4.2103044498162092E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96040483865254322</c:v>
+                  <c:v>4.0784639108405038E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7911100600803519</c:v>
+                  <c:v>3.3595351665110284E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55342600552518495</c:v>
+                  <c:v>2.3501839016365723E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.712211982106009</c:v>
+                  <c:v>3.0244858719817545E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47733418183663429</c:v>
+                  <c:v>2.0270516720455592E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70645749673929126</c:v>
+                  <c:v>3.0000488221574887E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8165291305970737</c:v>
+                  <c:v>2.0453916352829754E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4064226738374965</c:v>
+                  <c:v>5.9725273007596967E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.294568977195496</c:v>
+                  <c:v>5.4975283766720813E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2490143600506221</c:v>
+                  <c:v>5.3040757257481249E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67684218562341802</c:v>
+                  <c:v>2.8742841729873909E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86336451599051622</c:v>
+                  <c:v>3.6663715952408942E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66827041235249141</c:v>
+                  <c:v>2.83788320276068E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,11 +3951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1118806208"/>
-        <c:axId val="-1118795872"/>
+        <c:axId val="-341413360"/>
+        <c:axId val="-341420432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1118806208"/>
+        <c:axId val="-341413360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3943,7 +3996,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" sz="1600" b="1"/>
-                  <a:t>1/sqrt(E)</a:t>
+                  <a:t>1/sqrt(E) (MeV^-0.5)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3963,124 +4016,6 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1118795872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1118795872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1400" b="1"/>
-                  <a:t>R (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4133,7 +4068,130 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1118806208"/>
+        <c:crossAx val="-341420432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-341420432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1"/>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0"/>
+                  <a:t> = FWHM/E</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-341413360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6982,7 +7040,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7025,7 +7083,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7061,7 +7119,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7118,16 +7176,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7150,7 +7208,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:F203" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:F203" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="B2:F203">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7159,18 +7217,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Energy (keV)" dataDxfId="30"/>
-    <tableColumn id="3" name="intensity (%)" dataDxfId="29"/>
-    <tableColumn id="5" name="shell" dataDxfId="28"/>
-    <tableColumn id="6" name="HPGe Channel" dataDxfId="27"/>
-    <tableColumn id="7" name="SDD Channel" dataDxfId="26"/>
+    <tableColumn id="1" name="Energy (keV)" dataDxfId="34"/>
+    <tableColumn id="3" name="intensity (%)" dataDxfId="33"/>
+    <tableColumn id="5" name="shell" dataDxfId="32"/>
+    <tableColumn id="6" name="HPGe Channel" dataDxfId="31"/>
+    <tableColumn id="7" name="SDD Channel" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:M36" totalsRowShown="0" headerRowDxfId="12" dataDxfId="21" headerRowBorderDxfId="13" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:M36" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="B2:M36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7189,12 +7247,12 @@
     <tableColumn id="1" name="Source" dataDxfId="25"/>
     <tableColumn id="2" name="Line" dataDxfId="24"/>
     <tableColumn id="3" name="Parent" dataDxfId="23"/>
-    <tableColumn id="4" name="Shell" dataDxfId="19"/>
-    <tableColumn id="5" name="Energy (keV)" dataDxfId="11"/>
-    <tableColumn id="6" name="1/sqrtE'" dataDxfId="9">
+    <tableColumn id="4" name="Shell" dataDxfId="22"/>
+    <tableColumn id="5" name="Energy (keV)" dataDxfId="21"/>
+    <tableColumn id="6" name="1/sqrtE'" dataDxfId="20">
       <calculatedColumnFormula>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="SDD Channel" dataDxfId="10"/>
+    <tableColumn id="7" name="SDD Channel" dataDxfId="19"/>
     <tableColumn id="8" name="SDD FWHM (keV)" dataDxfId="18"/>
     <tableColumn id="9" name="SDD           R (%)" dataDxfId="17"/>
     <tableColumn id="10" name="HPGe Channel" dataDxfId="16"/>
@@ -7206,8 +7264,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:H20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="22" headerRowBorderDxfId="8">
-  <autoFilter ref="B3:H20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:L20" totalsRowShown="0" headerRowDxfId="0" dataDxfId="13" headerRowBorderDxfId="1">
+  <autoFilter ref="B3:L20">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -7215,15 +7273,31 @@
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Peak nr." dataDxfId="6"/>
-    <tableColumn id="2" name=" Energy (keV) " dataDxfId="5"/>
-    <tableColumn id="3" name=" ROId " dataDxfId="4"/>
-    <tableColumn id="4" name=" ROIu " dataDxfId="3"/>
-    <tableColumn id="5" name=" Centroid " dataDxfId="2"/>
-    <tableColumn id="6" name=" Sigma " dataDxfId="1"/>
-    <tableColumn id="7" name=" FWHM " dataDxfId="0"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Peak nr." dataDxfId="12"/>
+    <tableColumn id="2" name=" Energy (keV) " dataDxfId="11"/>
+    <tableColumn id="3" name="Energy (MeV)" dataDxfId="10">
+      <calculatedColumnFormula>Tabela3[[#This Row],[ Energy (keV) ]]/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name=" ROId " dataDxfId="9"/>
+    <tableColumn id="5" name=" ROIu " dataDxfId="8"/>
+    <tableColumn id="6" name="Centroid " dataDxfId="7"/>
+    <tableColumn id="7" name=" Sigma " dataDxfId="6"/>
+    <tableColumn id="8" name=" FWHM " dataDxfId="5"/>
+    <tableColumn id="9" name="FWHM (MeV)" dataDxfId="4">
+      <calculatedColumnFormula>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="1/sqrt(E') (MeV)^-0.5" dataDxfId="3">
+      <calculatedColumnFormula>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="R = FWHM/E" dataDxfId="2">
+      <calculatedColumnFormula>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7498,17 +7572,17 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -7531,7 +7605,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7546,12 +7620,12 @@
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="32"/>
-      <c r="G3" s="76">
+      <c r="G3" s="99">
         <f>(Tabela1[[#This Row],[Energy (keV)]]*Tabela1[[#This Row],[intensity (%)]]+B4*C4)/(Tabela1[[#This Row],[intensity (%)]]+C4)</f>
         <v>5.6333243243243238</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="60">
         <v>5.6360000000000001</v>
       </c>
@@ -7565,9 +7639,9 @@
       <c r="F4" s="29">
         <v>181</v>
       </c>
-      <c r="G4" s="76"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G4" s="99"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="28">
         <v>6.2050000000000001</v>
       </c>
@@ -7580,7 +7654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="28">
         <v>6.5869999999999997</v>
       </c>
@@ -7593,7 +7667,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="28">
         <v>7.1779999999999999</v>
       </c>
@@ -7606,7 +7680,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="60">
         <v>39.521999999999998</v>
       </c>
@@ -7620,7 +7694,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="60">
         <v>40.116999999999997</v>
       </c>
@@ -7634,7 +7708,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="60">
         <v>45.289000000000001</v>
       </c>
@@ -7646,12 +7720,12 @@
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="76">
+      <c r="G10" s="99">
         <f>(Tabela1[[#This Row],[Energy (keV)]]*Tabela1[[#This Row],[intensity (%)]]+B11*C11)/(Tabela1[[#This Row],[intensity (%)]]+C11)</f>
         <v>45.37024137931035</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="60">
         <v>45.412999999999997</v>
       </c>
@@ -7665,9 +7739,9 @@
       <c r="F11" s="29">
         <v>1461</v>
       </c>
-      <c r="G11" s="76"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="99"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="60">
         <v>46.578000000000003</v>
       </c>
@@ -7681,7 +7755,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="31">
         <v>118.97</v>
       </c>
@@ -7693,7 +7767,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
         <v>121.7817</v>
       </c>
@@ -7707,7 +7781,7 @@
       <c r="F14" s="29"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>125.68</v>
       </c>
@@ -7719,7 +7793,7 @@
       <c r="F15" s="29"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>137.56</v>
       </c>
@@ -7731,7 +7805,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="26">
         <v>148</v>
       </c>
@@ -7742,7 +7816,7 @@
       <c r="E17" s="35"/>
       <c r="F17" s="29"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>150.13</v>
       </c>
@@ -7753,7 +7827,7 @@
       <c r="E18" s="35"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="26">
         <v>166.91</v>
       </c>
@@ -7764,7 +7838,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -7778,7 +7852,7 @@
       <c r="E20" s="35"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>174.8</v>
       </c>
@@ -7789,7 +7863,7 @@
       <c r="E21" s="35"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="26">
         <v>175.18</v>
       </c>
@@ -7800,7 +7874,7 @@
       <c r="E22" s="35"/>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="26">
         <v>192.6</v>
       </c>
@@ -7811,7 +7885,7 @@
       <c r="E23" s="35"/>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="26">
         <v>195.22</v>
       </c>
@@ -7822,7 +7896,7 @@
       <c r="E24" s="35"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="26">
         <v>202.74</v>
       </c>
@@ -7833,7 +7907,7 @@
       <c r="E25" s="35"/>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="26">
         <v>207.03</v>
       </c>
@@ -7844,7 +7918,7 @@
       <c r="E26" s="35"/>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="26">
         <v>207.64</v>
       </c>
@@ -7855,7 +7929,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="26">
         <v>209.3</v>
       </c>
@@ -7866,7 +7940,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="26">
         <v>209.41</v>
       </c>
@@ -7877,7 +7951,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
         <v>209.97</v>
       </c>
@@ -7888,7 +7962,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="26">
         <v>210.95</v>
       </c>
@@ -7899,7 +7973,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="26">
         <v>212.43</v>
       </c>
@@ -7910,7 +7984,7 @@
       <c r="E32" s="35"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="26">
         <v>237.1</v>
       </c>
@@ -7921,7 +7995,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="26">
         <v>239.33</v>
       </c>
@@ -7932,7 +8006,7 @@
       <c r="E34" s="35"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="26">
         <v>241</v>
       </c>
@@ -7943,7 +8017,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="29"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="30">
         <v>244.69739999999999</v>
       </c>
@@ -7956,7 +8030,7 @@
       </c>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="26">
         <v>251.63300000000001</v>
       </c>
@@ -7967,7 +8041,7 @@
       <c r="E37" s="35"/>
       <c r="F37" s="29"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="26">
         <v>269.83999999999997</v>
       </c>
@@ -7979,7 +8053,7 @@
       <c r="F38" s="29"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="26">
         <v>271.08</v>
       </c>
@@ -7990,7 +8064,7 @@
       <c r="E39" s="35"/>
       <c r="F39" s="29"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="26">
         <v>272.41000000000003</v>
       </c>
@@ -8001,7 +8075,7 @@
       <c r="E40" s="35"/>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="26">
         <v>275.42</v>
       </c>
@@ -8012,7 +8086,7 @@
       <c r="E41" s="35"/>
       <c r="F41" s="29"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="26">
         <v>285.98</v>
       </c>
@@ -8023,7 +8097,7 @@
       <c r="E42" s="35"/>
       <c r="F42" s="29"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="26">
         <v>286.5</v>
       </c>
@@ -8034,7 +8108,7 @@
       <c r="E43" s="35"/>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="26">
         <v>287.10000000000002</v>
       </c>
@@ -8045,7 +8119,7 @@
       <c r="E44" s="35"/>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="26">
         <v>295.93869999999998</v>
       </c>
@@ -8056,7 +8130,7 @@
       <c r="E45" s="35"/>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="26">
         <v>315.10000000000002</v>
       </c>
@@ -8067,7 +8141,7 @@
       <c r="E46" s="35"/>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="26">
         <v>316.13</v>
       </c>
@@ -8078,7 +8152,7 @@
       <c r="E47" s="35"/>
       <c r="F47" s="29"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="26">
         <v>320.10000000000002</v>
       </c>
@@ -8089,7 +8163,7 @@
       <c r="E48" s="35"/>
       <c r="F48" s="29"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="26">
         <v>324.83</v>
       </c>
@@ -8100,7 +8174,7 @@
       <c r="E49" s="35"/>
       <c r="F49" s="29"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="26">
         <v>324.91399999999999</v>
       </c>
@@ -8111,7 +8185,7 @@
       <c r="E50" s="35"/>
       <c r="F50" s="29"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="26">
         <v>328.76400000000001</v>
       </c>
@@ -8122,7 +8196,7 @@
       <c r="E51" s="35"/>
       <c r="F51" s="29"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="26">
         <v>329.41</v>
       </c>
@@ -8133,7 +8207,7 @@
       <c r="E52" s="35"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="26">
         <v>330.58</v>
       </c>
@@ -8144,7 +8218,7 @@
       <c r="E53" s="35"/>
       <c r="F53" s="29"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="26">
         <v>340.46</v>
       </c>
@@ -8155,7 +8229,7 @@
       <c r="E54" s="35"/>
       <c r="F54" s="29"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="30">
         <v>344.27850000000001</v>
       </c>
@@ -8168,7 +8242,7 @@
       </c>
       <c r="F55" s="29"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="26">
         <v>345.54</v>
       </c>
@@ -8179,7 +8253,7 @@
       <c r="E56" s="35"/>
       <c r="F56" s="29"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="26">
         <v>348.75200000000001</v>
       </c>
@@ -8191,7 +8265,7 @@
       <c r="F57" s="29"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="26">
         <v>351.66</v>
       </c>
@@ -8202,7 +8276,7 @@
       <c r="E58" s="35"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="26">
         <v>354.16</v>
       </c>
@@ -8213,7 +8287,7 @@
       <c r="E59" s="35"/>
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="26">
         <v>357.26</v>
       </c>
@@ -8224,7 +8298,7 @@
       <c r="E60" s="35"/>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="26">
         <v>358.48</v>
       </c>
@@ -8235,7 +8309,7 @@
       <c r="E61" s="35"/>
       <c r="F61" s="29"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="26">
         <v>367.78910000000002</v>
       </c>
@@ -8246,7 +8320,7 @@
       <c r="E62" s="35"/>
       <c r="F62" s="29"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="26">
         <v>378.15</v>
       </c>
@@ -8257,7 +8331,7 @@
       <c r="E63" s="35"/>
       <c r="F63" s="29"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="26">
         <v>379.36</v>
       </c>
@@ -8268,7 +8342,7 @@
       <c r="E64" s="35"/>
       <c r="F64" s="29"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="26">
         <v>385.61</v>
       </c>
@@ -8279,7 +8353,7 @@
       <c r="E65" s="35"/>
       <c r="F65" s="29"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="26">
         <v>387.9</v>
       </c>
@@ -8290,7 +8364,7 @@
       <c r="E66" s="35"/>
       <c r="F66" s="29"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="26">
         <v>389.07</v>
       </c>
@@ -8301,7 +8375,7 @@
       <c r="E67" s="35"/>
       <c r="F67" s="29"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="26">
         <v>391.19</v>
       </c>
@@ -8312,7 +8386,7 @@
       <c r="E68" s="35"/>
       <c r="F68" s="29"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="26">
         <v>395.75</v>
       </c>
@@ -8323,7 +8397,7 @@
       <c r="E69" s="35"/>
       <c r="F69" s="29"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="26">
         <v>397.75</v>
       </c>
@@ -8334,7 +8408,7 @@
       <c r="E70" s="35"/>
       <c r="F70" s="29"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="26">
         <v>401.29</v>
       </c>
@@ -8345,7 +8419,7 @@
       <c r="E71" s="35"/>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="26">
         <v>406.74</v>
       </c>
@@ -8356,7 +8430,7 @@
       <c r="E72" s="35"/>
       <c r="F72" s="29"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="30">
         <v>411.11649999999997</v>
       </c>
@@ -8369,7 +8443,7 @@
       </c>
       <c r="F73" s="29"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="26">
         <v>416.02</v>
       </c>
@@ -8380,7 +8454,7 @@
       <c r="E74" s="35"/>
       <c r="F74" s="29"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="26">
         <v>423.45</v>
       </c>
@@ -8392,7 +8466,7 @@
       <c r="F75" s="29"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="26">
         <v>440.86</v>
       </c>
@@ -8403,7 +8477,7 @@
       <c r="E76" s="35"/>
       <c r="F76" s="29"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="26">
         <v>441</v>
       </c>
@@ -8412,7 +8486,7 @@
       <c r="E77" s="35"/>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="30">
         <v>443.9606</v>
       </c>
@@ -8425,7 +8499,7 @@
       </c>
       <c r="F78" s="29"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="26">
         <v>444.01</v>
       </c>
@@ -8436,7 +8510,7 @@
       <c r="E79" s="35"/>
       <c r="F79" s="29"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="26">
         <v>464.28</v>
       </c>
@@ -8448,7 +8522,7 @@
       <c r="F80" s="29"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="26">
         <v>476.42</v>
       </c>
@@ -8459,7 +8533,7 @@
       <c r="E81" s="35"/>
       <c r="F81" s="29"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="26">
         <v>482.33</v>
       </c>
@@ -8470,7 +8544,7 @@
       <c r="E82" s="35"/>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="26">
         <v>482.4</v>
       </c>
@@ -8481,7 +8555,7 @@
       <c r="E83" s="35"/>
       <c r="F83" s="29"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="26">
         <v>488.67919999999998</v>
       </c>
@@ -8492,7 +8566,7 @@
       <c r="E84" s="35"/>
       <c r="F84" s="29"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="26">
         <v>493.54</v>
       </c>
@@ -8503,7 +8577,7 @@
       <c r="E85" s="35"/>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="26">
         <v>493.78</v>
       </c>
@@ -8514,7 +8588,7 @@
       <c r="E86" s="35"/>
       <c r="F86" s="29"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="26">
         <v>496.4</v>
       </c>
@@ -8525,7 +8599,7 @@
       <c r="E87" s="35"/>
       <c r="F87" s="29"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="26">
         <v>496.56</v>
       </c>
@@ -8536,7 +8610,7 @@
       <c r="E88" s="35"/>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="26">
         <v>503.46699999999998</v>
       </c>
@@ -8547,7 +8621,7 @@
       <c r="E89" s="35"/>
       <c r="F89" s="29"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="26">
         <v>514.78</v>
       </c>
@@ -8558,7 +8632,7 @@
       <c r="E90" s="35"/>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="26">
         <v>520.24</v>
       </c>
@@ -8569,7 +8643,7 @@
       <c r="E91" s="35"/>
       <c r="F91" s="29"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="26">
         <v>523.13</v>
       </c>
@@ -8580,7 +8654,7 @@
       <c r="E92" s="35"/>
       <c r="F92" s="29"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="26">
         <v>526.88</v>
       </c>
@@ -8591,7 +8665,7 @@
       <c r="E93" s="35"/>
       <c r="F93" s="29"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="26">
         <v>527.1</v>
       </c>
@@ -8602,7 +8676,7 @@
       <c r="E94" s="35"/>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="26">
         <v>534.25</v>
       </c>
@@ -8613,7 +8687,7 @@
       <c r="E95" s="35"/>
       <c r="F95" s="29"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="26">
         <v>535.44000000000005</v>
       </c>
@@ -8624,7 +8698,7 @@
       <c r="E96" s="35"/>
       <c r="F96" s="29"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="26">
         <v>536.23</v>
       </c>
@@ -8633,7 +8707,7 @@
       <c r="E97" s="35"/>
       <c r="F97" s="29"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="26">
         <v>538.29</v>
       </c>
@@ -8644,7 +8718,7 @@
       <c r="E98" s="35"/>
       <c r="F98" s="29"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="26">
         <v>556.48</v>
       </c>
@@ -8655,7 +8729,7 @@
       <c r="E99" s="35"/>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="26">
         <v>557.79999999999995</v>
       </c>
@@ -8666,7 +8740,7 @@
       <c r="E100" s="35"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="26">
         <v>561.26</v>
       </c>
@@ -8677,7 +8751,7 @@
       <c r="E101" s="35"/>
       <c r="F101" s="29"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="26">
         <v>562.98</v>
       </c>
@@ -8688,7 +8762,7 @@
       <c r="E102" s="35"/>
       <c r="F102" s="29"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="26">
         <v>563.1</v>
       </c>
@@ -8699,7 +8773,7 @@
       <c r="E103" s="35"/>
       <c r="F103" s="29"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="26">
         <v>563.98599999999999</v>
       </c>
@@ -8710,7 +8784,7 @@
       <c r="E104" s="35"/>
       <c r="F104" s="29"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="26">
         <v>566.43799999999999</v>
       </c>
@@ -8721,7 +8795,7 @@
       <c r="E105" s="35"/>
       <c r="F105" s="29"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="26">
         <v>571.83000000000004</v>
       </c>
@@ -8732,7 +8806,7 @@
       <c r="E106" s="35"/>
       <c r="F106" s="29"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="26">
         <v>586.26480000000004</v>
       </c>
@@ -8743,7 +8817,7 @@
       <c r="E107" s="35"/>
       <c r="F107" s="29"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="26">
         <v>588.6</v>
       </c>
@@ -8754,7 +8828,7 @@
       <c r="E108" s="35"/>
       <c r="F108" s="29"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="26">
         <v>589.83000000000004</v>
       </c>
@@ -8765,7 +8839,7 @@
       <c r="E109" s="35"/>
       <c r="F109" s="29"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="26">
         <v>595.61</v>
       </c>
@@ -8776,7 +8850,7 @@
       <c r="E110" s="35"/>
       <c r="F110" s="29"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="26">
         <v>608.05999999999995</v>
       </c>
@@ -8787,7 +8861,7 @@
       <c r="E111" s="35"/>
       <c r="F111" s="29"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="26">
         <v>609.23</v>
       </c>
@@ -8798,7 +8872,7 @@
       <c r="E112" s="35"/>
       <c r="F112" s="29"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="26">
         <v>615.41</v>
       </c>
@@ -8807,7 +8881,7 @@
       <c r="E113" s="35"/>
       <c r="F113" s="29"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="26">
         <v>616.04999999999995</v>
       </c>
@@ -8818,7 +8892,7 @@
       <c r="E114" s="35"/>
       <c r="F114" s="29"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="26">
         <v>644.39</v>
       </c>
@@ -8829,7 +8903,7 @@
       <c r="E115" s="35"/>
       <c r="F115" s="29"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="26">
         <v>656.48900000000003</v>
       </c>
@@ -8840,7 +8914,7 @@
       <c r="E116" s="35"/>
       <c r="F116" s="29"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="26">
         <v>664.77</v>
       </c>
@@ -8851,7 +8925,7 @@
       <c r="E117" s="35"/>
       <c r="F117" s="29"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="26">
         <v>671.15499999999997</v>
       </c>
@@ -8862,7 +8936,7 @@
       <c r="E118" s="35"/>
       <c r="F118" s="29"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="26">
         <v>674.64</v>
       </c>
@@ -8873,7 +8947,7 @@
       <c r="E119" s="35"/>
       <c r="F119" s="29"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="26">
         <v>675</v>
       </c>
@@ -8884,7 +8958,7 @@
       <c r="E120" s="35"/>
       <c r="F120" s="29"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="26">
         <v>678.62300000000005</v>
       </c>
@@ -8895,7 +8969,7 @@
       <c r="E121" s="35"/>
       <c r="F121" s="29"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="26">
         <v>683.25</v>
       </c>
@@ -8906,7 +8980,7 @@
       <c r="E122" s="35"/>
       <c r="F122" s="29"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="26">
         <v>686.6</v>
       </c>
@@ -8917,7 +8991,7 @@
       <c r="E123" s="35"/>
       <c r="F123" s="29"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="26">
         <v>688.67</v>
       </c>
@@ -8928,7 +9002,7 @@
       <c r="E124" s="35"/>
       <c r="F124" s="29"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="26">
         <v>696.87</v>
       </c>
@@ -8939,7 +9013,7 @@
       <c r="E125" s="35"/>
       <c r="F125" s="29"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="26">
         <v>703.01</v>
       </c>
@@ -8950,7 +9024,7 @@
       <c r="E126" s="35"/>
       <c r="F126" s="29"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="26">
         <v>703.55</v>
       </c>
@@ -8961,7 +9035,7 @@
       <c r="E127" s="35"/>
       <c r="F127" s="29"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="26">
         <v>707.16</v>
       </c>
@@ -8972,7 +9046,7 @@
       <c r="E128" s="35"/>
       <c r="F128" s="29"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="26">
         <v>712.83</v>
       </c>
@@ -8983,7 +9057,7 @@
       <c r="E129" s="35"/>
       <c r="F129" s="29"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="26">
         <v>719.346</v>
       </c>
@@ -8994,7 +9068,7 @@
       <c r="E130" s="35"/>
       <c r="F130" s="29"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="26">
         <v>719.36</v>
       </c>
@@ -9005,7 +9079,7 @@
       <c r="E131" s="35"/>
       <c r="F131" s="29"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="26">
         <v>728.04</v>
       </c>
@@ -9016,7 +9090,7 @@
       <c r="E132" s="35"/>
       <c r="F132" s="29"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="26">
         <v>734.14</v>
       </c>
@@ -9027,7 +9101,7 @@
       <c r="E133" s="35"/>
       <c r="F133" s="29"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="26">
         <v>735.43</v>
       </c>
@@ -9038,7 +9112,7 @@
       <c r="E134" s="35"/>
       <c r="F134" s="29"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="26">
         <v>756.16</v>
       </c>
@@ -9049,7 +9123,7 @@
       <c r="E135" s="35"/>
       <c r="F135" s="29"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="26">
         <v>764.88</v>
       </c>
@@ -9060,7 +9134,7 @@
       <c r="E136" s="35"/>
       <c r="F136" s="29"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="26">
         <v>766.38</v>
       </c>
@@ -9071,7 +9145,7 @@
       <c r="E137" s="35"/>
       <c r="F137" s="29"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="26">
         <v>768.96</v>
       </c>
@@ -9082,7 +9156,7 @@
       <c r="E138" s="35"/>
       <c r="F138" s="29"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="30">
         <v>778.90449999999998</v>
       </c>
@@ -9095,7 +9169,7 @@
       </c>
       <c r="F139" s="29"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="26">
         <v>794.78</v>
       </c>
@@ -9106,7 +9180,7 @@
       <c r="E140" s="35"/>
       <c r="F140" s="29"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="26">
         <v>802</v>
       </c>
@@ -9118,7 +9192,7 @@
       <c r="F141" s="29"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="26">
         <v>805.71</v>
       </c>
@@ -9129,7 +9203,7 @@
       <c r="E142" s="35"/>
       <c r="F142" s="29"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="26">
         <v>810.45100000000002</v>
       </c>
@@ -9140,7 +9214,7 @@
       <c r="E143" s="35"/>
       <c r="F143" s="29"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="26">
         <v>813.21</v>
       </c>
@@ -9151,7 +9225,7 @@
       <c r="E144" s="35"/>
       <c r="F144" s="29"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="26">
         <v>839.36</v>
       </c>
@@ -9162,7 +9236,7 @@
       <c r="E145" s="35"/>
       <c r="F145" s="29"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="26">
         <v>841.57399999999996</v>
       </c>
@@ -9173,7 +9247,7 @@
       <c r="E146" s="35"/>
       <c r="F146" s="29"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="26">
         <v>850.1</v>
       </c>
@@ -9184,7 +9258,7 @@
       <c r="E147" s="35"/>
       <c r="F147" s="29"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="26">
         <v>855.21</v>
       </c>
@@ -9195,7 +9269,7 @@
       <c r="E148" s="35"/>
       <c r="F148" s="29"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="30">
         <v>867.38</v>
       </c>
@@ -9208,7 +9282,7 @@
       </c>
       <c r="F149" s="29"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="26">
         <v>896.59</v>
       </c>
@@ -9219,7 +9293,7 @@
       <c r="E150" s="35"/>
       <c r="F150" s="29"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="26">
         <v>901.19</v>
       </c>
@@ -9231,7 +9305,7 @@
       <c r="F151" s="29"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="26">
         <v>906.06</v>
       </c>
@@ -9242,7 +9316,7 @@
       <c r="E152" s="35"/>
       <c r="F152" s="29"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="26">
         <v>919.33699999999999</v>
       </c>
@@ -9253,7 +9327,7 @@
       <c r="E153" s="35"/>
       <c r="F153" s="29"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="26">
         <v>919.74</v>
       </c>
@@ -9264,7 +9338,7 @@
       <c r="E154" s="35"/>
       <c r="F154" s="29"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="26">
         <v>926.31</v>
       </c>
@@ -9275,7 +9349,7 @@
       <c r="E155" s="35"/>
       <c r="F155" s="29"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="26">
         <v>930.59</v>
       </c>
@@ -9286,7 +9360,7 @@
       <c r="E156" s="35"/>
       <c r="F156" s="29"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="26">
         <v>937.05</v>
       </c>
@@ -9297,7 +9371,7 @@
       <c r="E157" s="35"/>
       <c r="F157" s="29"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="26">
         <v>947.15</v>
       </c>
@@ -9308,7 +9382,7 @@
       <c r="E158" s="35"/>
       <c r="F158" s="29"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="26">
         <v>958.63</v>
       </c>
@@ -9319,7 +9393,7 @@
       <c r="E159" s="35"/>
       <c r="F159" s="29"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="26">
         <v>961.08</v>
       </c>
@@ -9330,7 +9404,7 @@
       <c r="E160" s="35"/>
       <c r="F160" s="29"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="26">
         <v>963.36699999999996</v>
       </c>
@@ -9341,7 +9415,7 @@
       <c r="E161" s="35"/>
       <c r="F161" s="29"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="30">
         <v>964.05700000000002</v>
       </c>
@@ -9354,7 +9428,7 @@
       </c>
       <c r="F162" s="29"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="26">
         <v>968.65</v>
       </c>
@@ -9365,7 +9439,7 @@
       <c r="E163" s="35"/>
       <c r="F163" s="29"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="26">
         <v>970.22</v>
       </c>
@@ -9377,7 +9451,7 @@
       <c r="F164" s="29"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="26">
         <v>974.09</v>
       </c>
@@ -9388,7 +9462,7 @@
       <c r="E165" s="35"/>
       <c r="F165" s="29"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="26">
         <v>990.18</v>
       </c>
@@ -9399,7 +9473,7 @@
       <c r="E166" s="35"/>
       <c r="F166" s="29"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="26">
         <v>1001.1</v>
       </c>
@@ -9410,7 +9484,7 @@
       <c r="E167" s="35"/>
       <c r="F167" s="29"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="26">
         <v>1005.27</v>
       </c>
@@ -9421,7 +9495,7 @@
       <c r="E168" s="35"/>
       <c r="F168" s="29"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="26">
         <v>1050.0999999999999</v>
       </c>
@@ -9432,7 +9506,7 @@
       <c r="E169" s="35"/>
       <c r="F169" s="29"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="26">
         <v>1084</v>
       </c>
@@ -9443,7 +9517,7 @@
       <c r="E170" s="35"/>
       <c r="F170" s="29"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="26">
         <v>1084.3800000000001</v>
       </c>
@@ -9454,7 +9528,7 @@
       <c r="E171" s="35"/>
       <c r="F171" s="29"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="30">
         <v>1085.837</v>
       </c>
@@ -9467,7 +9541,7 @@
       </c>
       <c r="F172" s="29"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="30">
         <v>1089.7370000000001</v>
       </c>
@@ -9478,7 +9552,7 @@
       <c r="E173" s="35"/>
       <c r="F173" s="29"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="26">
         <v>1109.18</v>
       </c>
@@ -9490,7 +9564,7 @@
       <c r="F174" s="29"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="30">
         <v>1112.076</v>
       </c>
@@ -9503,7 +9577,7 @@
       </c>
       <c r="F175" s="29"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="26">
         <v>1139</v>
       </c>
@@ -9514,7 +9588,7 @@
       <c r="E176" s="35"/>
       <c r="F176" s="29"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="26">
         <v>1170.97</v>
       </c>
@@ -9526,7 +9600,7 @@
       <c r="F177" s="29"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="26">
         <v>1206.0899999999999</v>
       </c>
@@ -9537,7 +9611,7 @@
       <c r="E178" s="35"/>
       <c r="F178" s="29"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="61">
         <v>1212.9480000000001</v>
       </c>
@@ -9548,7 +9622,7 @@
       <c r="E179" s="35"/>
       <c r="F179" s="29"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="61">
         <v>1246.3399999999999</v>
       </c>
@@ -9559,7 +9633,7 @@
       <c r="E180" s="35"/>
       <c r="F180" s="29"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="61">
         <v>1249.94</v>
       </c>
@@ -9570,7 +9644,7 @@
       <c r="E181" s="35"/>
       <c r="F181" s="29"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="61">
         <v>1261.3499999999999</v>
       </c>
@@ -9581,7 +9655,7 @@
       <c r="E182" s="35"/>
       <c r="F182" s="29"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="61">
         <v>1292.78</v>
       </c>
@@ -9592,7 +9666,7 @@
       <c r="E183" s="35"/>
       <c r="F183" s="29"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="61">
         <v>1299.1420000000001</v>
       </c>
@@ -9603,7 +9677,7 @@
       <c r="E184" s="35"/>
       <c r="F184" s="29"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="61">
         <v>1314.6</v>
       </c>
@@ -9614,7 +9688,7 @@
       <c r="E185" s="35"/>
       <c r="F185" s="29"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="61">
         <v>1315.58</v>
       </c>
@@ -9625,7 +9699,7 @@
       <c r="E186" s="35"/>
       <c r="F186" s="29"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="61">
         <v>1318.38</v>
       </c>
@@ -9636,7 +9710,7 @@
       <c r="E187" s="35"/>
       <c r="F187" s="29"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="61">
         <v>1348.1</v>
       </c>
@@ -9647,7 +9721,7 @@
       <c r="E188" s="35"/>
       <c r="F188" s="29"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="61">
         <v>1363.78</v>
       </c>
@@ -9658,7 +9732,7 @@
       <c r="E189" s="35"/>
       <c r="F189" s="29"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="61">
         <v>1390.5</v>
       </c>
@@ -9669,7 +9743,7 @@
       <c r="E190" s="35"/>
       <c r="F190" s="29"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="61">
         <v>1408.0129999999999</v>
       </c>
@@ -9680,7 +9754,7 @@
       <c r="E191" s="35"/>
       <c r="F191" s="29"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="26">
         <v>1455.1</v>
       </c>
@@ -9691,7 +9765,7 @@
       <c r="E192" s="35"/>
       <c r="F192" s="29"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="26">
         <v>1457.643</v>
       </c>
@@ -9702,7 +9776,7 @@
       <c r="E193" s="35"/>
       <c r="F193" s="29"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="26">
         <v>1485.9</v>
       </c>
@@ -9713,7 +9787,7 @@
       <c r="E194" s="35"/>
       <c r="F194" s="29"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="26">
         <v>1491.4</v>
       </c>
@@ -9724,7 +9798,7 @@
       <c r="E195" s="35"/>
       <c r="F195" s="29"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="26">
         <v>1528.1</v>
       </c>
@@ -9735,7 +9809,7 @@
       <c r="E196" s="35"/>
       <c r="F196" s="29"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="26">
         <v>1605.62</v>
       </c>
@@ -9746,7 +9820,7 @@
       <c r="E197" s="35"/>
       <c r="F197" s="29"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="26">
         <v>1608.36</v>
       </c>
@@ -9757,7 +9831,7 @@
       <c r="E198" s="35"/>
       <c r="F198" s="29"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="26">
         <v>1635.38</v>
       </c>
@@ -9768,7 +9842,7 @@
       <c r="E199" s="35"/>
       <c r="F199" s="29"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="26">
         <v>1647.44</v>
       </c>
@@ -9779,7 +9853,7 @@
       <c r="E200" s="35"/>
       <c r="F200" s="29"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="26">
         <v>1674.31</v>
       </c>
@@ -9790,7 +9864,7 @@
       <c r="E201" s="35"/>
       <c r="F201" s="29"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="26">
         <v>1698.1</v>
       </c>
@@ -9801,7 +9875,7 @@
       <c r="E202" s="35"/>
       <c r="F202" s="29"/>
     </row>
-    <row r="203" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="26">
         <v>1769.09</v>
       </c>
@@ -9833,14 +9907,14 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:9" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -9860,7 +9934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -9875,12 +9949,12 @@
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
-      <c r="G3" s="76">
+      <c r="G3" s="99">
         <f>(B3*C3+B4*C4)/(C3+C4)</f>
         <v>4.2846126126126123</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="53">
         <v>4.2859999999999996</v>
       </c>
@@ -9894,9 +9968,9 @@
       <c r="F4" s="29">
         <v>138</v>
       </c>
-      <c r="G4" s="76"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="53">
         <v>4.6189999999999998</v>
       </c>
@@ -9910,7 +9984,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="53">
         <v>4.9359999999999999</v>
       </c>
@@ -9924,7 +9998,7 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="53">
         <v>5.28</v>
       </c>
@@ -9938,7 +10012,7 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="53">
         <v>30.625</v>
       </c>
@@ -9952,7 +10026,7 @@
       </c>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="53">
         <v>30.972999999999999</v>
       </c>
@@ -9966,7 +10040,7 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="53">
         <v>34.918999999999997</v>
       </c>
@@ -9980,12 +10054,12 @@
       <c r="F10" s="29">
         <v>1126</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="99">
         <f>(B10*C10+B11*C11)/(C10+C11)</f>
         <v>34.964333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="53">
         <v>34.987000000000002</v>
       </c>
@@ -9997,9 +10071,9 @@
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="76"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="99"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53">
         <v>35.822000000000003</v>
       </c>
@@ -10015,7 +10089,7 @@
         <v>4.2720000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -10030,7 +10104,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="44">
         <v>79.614199999999997</v>
       </c>
@@ -10042,7 +10116,7 @@
       <c r="F14" s="29"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="44">
         <v>80.997900000000001</v>
       </c>
@@ -10056,7 +10130,7 @@
       <c r="F15" s="29"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="44">
         <v>160.61199999999999</v>
       </c>
@@ -10068,7 +10142,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="44">
         <v>223.23679999999999</v>
       </c>
@@ -10080,7 +10154,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="44">
         <v>276.39890000000003</v>
       </c>
@@ -10094,7 +10168,7 @@
       <c r="F18" s="29"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="44">
         <v>302.85079999999999</v>
       </c>
@@ -10108,7 +10182,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="44">
         <v>356.0129</v>
       </c>
@@ -10122,7 +10196,7 @@
       <c r="F20" s="29"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="46">
         <v>383.8485</v>
       </c>
@@ -10154,10 +10228,10 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -10171,7 +10245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -10186,7 +10260,7 @@
       </c>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="44">
         <v>31.815999999999999</v>
       </c>
@@ -10196,9 +10270,9 @@
       <c r="D4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="77"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="100"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="44">
         <v>32.192999999999998</v>
       </c>
@@ -10208,9 +10282,9 @@
       <c r="D5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="77"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="100"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="44">
         <v>36.481999999999999</v>
       </c>
@@ -10220,9 +10294,9 @@
       <c r="D6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="77"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="100"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="44">
         <v>36.826999999999998</v>
       </c>
@@ -10232,9 +10306,9 @@
       <c r="D7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="77"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="100"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="46">
         <v>37.255000000000003</v>
       </c>
@@ -10246,7 +10320,7 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -10259,7 +10333,7 @@
       <c r="D9" s="43"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="49">
         <v>661.65700000000004</v>
       </c>
@@ -10289,10 +10363,10 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -10306,7 +10380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -10321,7 +10395,7 @@
       </c>
       <c r="E3" s="37"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>7.4610000000000003</v>
       </c>
@@ -10333,7 +10407,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>7.4779999999999998</v>
       </c>
@@ -10345,7 +10419,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>8.2959999999999994</v>
       </c>
@@ -10357,7 +10431,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="38">
         <v>8.2959999999999994</v>
       </c>
@@ -10369,7 +10443,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -10382,7 +10456,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>826.1</v>
       </c>
@@ -10392,7 +10466,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="39">
         <v>1173.2280000000001</v>
       </c>
@@ -10404,7 +10478,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>1332.492</v>
       </c>
@@ -10414,7 +10488,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2158.5700000000002</v>
       </c>
@@ -10424,7 +10498,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="38">
         <v>2505.692</v>
       </c>
@@ -10447,14 +10521,14 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -10471,7 +10545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="36">
         <f>F3*0.3225-0.0825</f>
@@ -10486,7 +10560,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="9">
         <f t="shared" ref="C4:C50" si="0">F4*0.3225-0.0825</f>
         <v>27.6525</v>
@@ -10500,7 +10574,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>47.002499999999998</v>
@@ -10514,7 +10588,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>59.58</v>
@@ -10528,7 +10602,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>63.772500000000001</v>
@@ -10542,7 +10616,7 @@
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
@@ -10557,7 +10631,7 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="9">
         <f t="shared" si="0"/>
         <v>77.31750000000001</v>
@@ -10571,7 +10645,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="9">
         <f t="shared" si="0"/>
         <v>84.412500000000009</v>
@@ -10585,7 +10659,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" s="9">
         <f t="shared" si="0"/>
         <v>87.637500000000003</v>
@@ -10599,7 +10673,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="9">
         <f t="shared" si="0"/>
         <v>90.217500000000001</v>
@@ -10613,7 +10687,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <f t="shared" si="0"/>
         <v>93.12</v>
@@ -10627,7 +10701,7 @@
       </c>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>144.39750000000001</v>
@@ -10639,7 +10713,7 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="9">
         <f t="shared" si="0"/>
         <v>186.32249999999999</v>
@@ -10653,7 +10727,7 @@
       </c>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="9">
         <f t="shared" si="0"/>
         <v>209.86500000000001</v>
@@ -10665,7 +10739,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="9">
         <f t="shared" si="0"/>
         <v>238.89</v>
@@ -10681,7 +10755,7 @@
       </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="9">
         <f t="shared" si="0"/>
         <v>242.11500000000001</v>
@@ -10697,7 +10771,7 @@
       </c>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="9">
         <f t="shared" si="0"/>
         <v>270.495</v>
@@ -10709,7 +10783,7 @@
       </c>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="9">
         <f t="shared" si="0"/>
         <v>295.32750000000004</v>
@@ -10725,7 +10799,7 @@
       </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="9">
         <f t="shared" si="0"/>
         <v>300.16500000000002</v>
@@ -10741,7 +10815,7 @@
       </c>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="9">
         <f t="shared" si="0"/>
         <v>338.54250000000002</v>
@@ -10753,7 +10827,7 @@
       </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="9">
         <f t="shared" si="0"/>
         <v>352.08750000000003</v>
@@ -10769,7 +10843,7 @@
       </c>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="9">
         <f t="shared" si="0"/>
         <v>409.49250000000001</v>
@@ -10781,7 +10855,7 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="9">
         <f t="shared" si="0"/>
         <v>462.70500000000004</v>
@@ -10793,7 +10867,7 @@
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="9">
         <f t="shared" si="0"/>
         <v>481.08750000000003</v>
@@ -10805,7 +10879,7 @@
       </c>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="73">
         <f t="shared" si="0"/>
         <v>511.08000000000004</v>
@@ -10817,7 +10891,7 @@
       </c>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="9">
         <f t="shared" si="0"/>
         <v>533.97750000000008</v>
@@ -10829,7 +10903,7 @@
       </c>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="9">
         <f t="shared" si="0"/>
         <v>570.09750000000008</v>
@@ -10843,7 +10917,7 @@
       </c>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="9">
         <f t="shared" si="0"/>
         <v>583.32000000000005</v>
@@ -10859,7 +10933,7 @@
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="9">
         <f t="shared" si="0"/>
         <v>609.4425</v>
@@ -10875,7 +10949,7 @@
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="9">
         <f t="shared" si="0"/>
         <v>665.5575</v>
@@ -10891,7 +10965,7 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="9">
         <f t="shared" si="0"/>
         <v>727.15500000000009</v>
@@ -10907,7 +10981,7 @@
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="9">
         <f t="shared" si="0"/>
         <v>768.75750000000005</v>
@@ -10923,7 +10997,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="9">
         <f t="shared" si="0"/>
         <v>784.88250000000005</v>
@@ -10939,7 +11013,7 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="9">
         <f t="shared" si="0"/>
         <v>794.88</v>
@@ -10951,7 +11025,7 @@
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="9">
         <f t="shared" si="0"/>
         <v>806.16750000000002</v>
@@ -10967,7 +11041,7 @@
       </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="9">
         <f t="shared" si="0"/>
         <v>839.38499999999999</v>
@@ -10979,7 +11053,7 @@
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="9">
         <f t="shared" si="0"/>
         <v>860.99250000000006</v>
@@ -10995,7 +11069,7 @@
       </c>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="9">
         <f t="shared" si="0"/>
         <v>911.30250000000001</v>
@@ -11007,7 +11081,7 @@
       </c>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="9">
         <f t="shared" si="0"/>
         <v>934.2</v>
@@ -11023,7 +11097,7 @@
       </c>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="9">
         <f t="shared" si="0"/>
         <v>964.83750000000009</v>
@@ -11037,7 +11111,7 @@
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="9">
         <f t="shared" si="0"/>
         <v>968.7075000000001</v>
@@ -11049,7 +11123,7 @@
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="9">
         <f t="shared" si="0"/>
         <v>1001.2800000000001</v>
@@ -11065,7 +11139,7 @@
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" s="9">
         <f t="shared" si="0"/>
         <v>1051.9125000000001</v>
@@ -11077,7 +11151,7 @@
       </c>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" s="9">
         <f t="shared" si="0"/>
         <v>1069.9725000000001</v>
@@ -11089,7 +11163,7 @@
       </c>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" s="9">
         <f t="shared" si="0"/>
         <v>1120.605</v>
@@ -11105,7 +11179,7 @@
       </c>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" s="9">
         <f t="shared" si="0"/>
         <v>1155.4349999999999</v>
@@ -11121,7 +11195,7 @@
       </c>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="9">
         <f t="shared" si="0"/>
         <v>1238.6400000000001</v>
@@ -11137,7 +11211,7 @@
       </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <f t="shared" si="0"/>
         <v>1280.8875</v>
@@ -11162,326 +11236,326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="87" t="s">
+      <c r="G2" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="89" t="s">
+      <c r="I2" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="J2" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L2" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="88">
         <v>4.2850000000000001</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="93">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.48308615039636987</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="82">
         <v>138</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="79"/>
       <c r="L3" s="66"/>
       <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="89">
         <v>4.6189999999999998</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.46529246425173987</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="82">
         <v>149</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="53"/>
-      <c r="L4" s="84"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="27"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="91">
+      <c r="F5" s="89">
         <v>4.9359999999999999</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.45010353572119338</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="82">
         <v>159</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="84"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="89">
         <v>5.28</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.4351941398892446</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="82">
         <v>170</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
       <c r="K6" s="53"/>
-      <c r="L6" s="84"/>
+      <c r="L6" s="82"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="89">
         <v>30.625</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.18070158058105026</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="82">
         <v>987</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="53"/>
-      <c r="L7" s="84"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="89">
         <v>30.972999999999999</v>
       </c>
-      <c r="G8" s="96">
+      <c r="G8" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.17968356836825425</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="82">
         <v>998</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
       <c r="K8" s="53"/>
-      <c r="L8" s="84"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="89">
         <v>34.963999999999999</v>
       </c>
-      <c r="G9" s="96">
+      <c r="G9" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.16911784821555328</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="82">
         <v>1126</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="53"/>
-      <c r="L9" s="84"/>
+      <c r="L9" s="82"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="89">
         <v>35.822000000000003</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G10" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.16708023799754768</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="82">
         <v>1154</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="53"/>
-      <c r="L10" s="84"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="89">
         <v>81</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="53">
         <v>252</v>
       </c>
-      <c r="L11" s="86">
+      <c r="L11" s="84">
         <v>3.9013885957836298</v>
       </c>
       <c r="M11" s="45">
@@ -11489,35 +11563,35 @@
         <v>4.8165291305970737</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="89">
         <v>276.39999999999998</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>6.0149355833923029E-2</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="53">
         <v>857</v>
       </c>
-      <c r="L12" s="86">
+      <c r="L12" s="84">
         <v>3.88735227048684</v>
       </c>
       <c r="M12" s="45">
@@ -11525,35 +11599,35 @@
         <v>1.4064226738374965</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="89">
         <v>302.85000000000002</v>
       </c>
-      <c r="G13" s="96">
+      <c r="G13" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>5.7462724169482615E-2</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="53">
         <v>940</v>
       </c>
-      <c r="L13" s="86">
+      <c r="L13" s="84">
         <v>3.92060214743656</v>
       </c>
       <c r="M13" s="45">
@@ -11561,35 +11635,35 @@
         <v>1.294568977195496</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="89">
         <v>356.01</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>5.2999149635466099E-2</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="53">
         <v>1103</v>
       </c>
-      <c r="L14" s="86">
+      <c r="L14" s="84">
         <v>4.4466160232162197</v>
       </c>
       <c r="M14" s="45">
@@ -11597,8 +11671,8 @@
         <v>1.2490143600506221</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="85" t="s">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="83" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="67" t="s">
@@ -11610,10 +11684,10 @@
       <c r="E15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="89">
         <v>383.85</v>
       </c>
-      <c r="G15" s="96">
+      <c r="G15" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>5.1041006228231954E-2</v>
       </c>
@@ -11622,7 +11696,7 @@
       </c>
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
-      <c r="K15" s="85">
+      <c r="K15" s="83">
         <v>1191</v>
       </c>
       <c r="L15" s="47">
@@ -11633,8 +11707,8 @@
         <v>0.67684218562341802</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="81" t="s">
+    <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="79" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="66" t="s">
@@ -11646,10 +11720,10 @@
       <c r="E16" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="89">
         <v>5.633</v>
       </c>
-      <c r="G16" s="96">
+      <c r="G16" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.4213375100259566</v>
       </c>
@@ -11659,241 +11733,241 @@
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
       <c r="K16" s="53"/>
-      <c r="L16" s="84"/>
+      <c r="L16" s="82"/>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="89">
         <v>6.2050000000000001</v>
       </c>
-      <c r="G17" s="96">
+      <c r="G17" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.40144782295185016</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="82">
         <v>200</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
       <c r="K17" s="53"/>
-      <c r="L17" s="84"/>
+      <c r="L17" s="82"/>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="91">
+      <c r="F18" s="89">
         <v>6.5869999999999997</v>
       </c>
-      <c r="G18" s="96">
+      <c r="G18" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.3896333910798202</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="82">
         <v>212</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="53"/>
-      <c r="L18" s="84"/>
+      <c r="L18" s="82"/>
       <c r="M18" s="45"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="89">
         <v>7.1779999999999999</v>
       </c>
-      <c r="G19" s="96">
+      <c r="G19" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.37324867354655528</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="82">
         <v>231</v>
       </c>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="53"/>
-      <c r="L19" s="84"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="45"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="89">
         <v>39.521999999999998</v>
       </c>
-      <c r="G20" s="96">
+      <c r="G20" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.15906716581597435</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="82">
         <v>1272</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
       <c r="K20" s="53"/>
-      <c r="L20" s="84"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="45"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="89">
         <v>40.116999999999997</v>
       </c>
-      <c r="G21" s="96">
+      <c r="G21" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.15788314750732441</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="82">
         <v>1292</v>
       </c>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
       <c r="K21" s="53"/>
-      <c r="L21" s="84"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="45"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="91">
+      <c r="F22" s="89">
         <v>45.37</v>
       </c>
-      <c r="G22" s="96">
+      <c r="G22" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.14846210376062519</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="82">
         <v>1461</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
       <c r="K22" s="53"/>
-      <c r="L22" s="84"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="45"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="89">
         <v>46.578000000000003</v>
       </c>
-      <c r="G23" s="96">
+      <c r="G23" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.14652427518567335</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="82">
         <v>1497</v>
       </c>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
       <c r="K23" s="53"/>
-      <c r="L23" s="84"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="45"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="89">
         <v>121.78</v>
       </c>
-      <c r="G24" s="96">
+      <c r="G24" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>9.0617487201407901E-2</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
       <c r="K24" s="53">
         <v>378</v>
       </c>
-      <c r="L24" s="86">
+      <c r="L24" s="84">
         <v>3.69333145484782</v>
       </c>
       <c r="M24" s="45">
@@ -11901,35 +11975,35 @@
         <v>3.0327898298963869</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="89">
         <v>244.7</v>
       </c>
-      <c r="G25" s="96">
+      <c r="G25" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>6.392680735026228E-2</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
       <c r="K25" s="53">
         <v>759</v>
       </c>
-      <c r="L25" s="86">
+      <c r="L25" s="84">
         <v>4.1254608966026796</v>
       </c>
       <c r="M25" s="45">
@@ -11937,35 +12011,35 @@
         <v>1.6859259896210379</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="89">
         <v>344.28</v>
       </c>
-      <c r="G26" s="96">
+      <c r="G26" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>5.3894457272424652E-2</v>
       </c>
-      <c r="H26" s="84" t="s">
+      <c r="H26" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
       <c r="K26" s="53">
         <v>1068</v>
       </c>
-      <c r="L26" s="86">
+      <c r="L26" s="84">
         <v>4.38633473385568</v>
       </c>
       <c r="M26" s="45">
@@ -11973,35 +12047,35 @@
         <v>1.2740602805436505</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="84" t="s">
+      <c r="E27" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="89">
         <v>411.12</v>
       </c>
-      <c r="G27" s="96">
+      <c r="G27" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>4.9319163014348515E-2</v>
       </c>
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
       <c r="K27" s="53">
         <v>1275</v>
       </c>
-      <c r="L27" s="86">
+      <c r="L27" s="84">
         <v>4.0760529912711103</v>
       </c>
       <c r="M27" s="45">
@@ -12009,35 +12083,35 @@
         <v>0.99145091245162242</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="89">
         <v>443.96</v>
       </c>
-      <c r="G28" s="96">
+      <c r="G28" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>4.7460037675311581E-2</v>
       </c>
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
       <c r="K28" s="53">
         <v>1377</v>
       </c>
-      <c r="L28" s="86">
+      <c r="L28" s="84">
         <v>4.2638133216818304</v>
       </c>
       <c r="M28" s="45">
@@ -12045,35 +12119,35 @@
         <v>0.96040483865254322</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="91">
+      <c r="F29" s="89">
         <v>778.9</v>
       </c>
-      <c r="G29" s="96">
+      <c r="G29" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.5831018077417842E-2</v>
       </c>
-      <c r="H29" s="84" t="s">
+      <c r="H29" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
       <c r="K29" s="53">
         <v>2415</v>
       </c>
-      <c r="L29" s="86">
+      <c r="L29" s="84">
         <v>6.1619562579658602</v>
       </c>
       <c r="M29" s="45">
@@ -12081,35 +12155,35 @@
         <v>0.7911100600803519</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="91">
+      <c r="F30" s="89">
         <v>867.38</v>
       </c>
-      <c r="G30" s="96">
+      <c r="G30" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.3954340381471874E-2</v>
       </c>
-      <c r="H30" s="84" t="s">
+      <c r="H30" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
       <c r="K30" s="53">
         <v>2689</v>
       </c>
-      <c r="L30" s="86">
+      <c r="L30" s="84">
         <v>4.8003064867243497</v>
       </c>
       <c r="M30" s="45">
@@ -12117,35 +12191,35 @@
         <v>0.55342600552518495</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="91">
+      <c r="F31" s="89">
         <v>964.06</v>
       </c>
-      <c r="G31" s="96">
+      <c r="G31" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.2206829048425763E-2</v>
       </c>
-      <c r="H31" s="84" t="s">
+      <c r="H31" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
       <c r="K31" s="53">
         <v>2990</v>
       </c>
-      <c r="L31" s="86">
+      <c r="L31" s="84">
         <v>6.8661508346911901</v>
       </c>
       <c r="M31" s="45">
@@ -12153,35 +12227,35 @@
         <v>0.712211982106009</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="89">
         <v>1085.8399999999999</v>
       </c>
-      <c r="G32" s="96">
+      <c r="G32" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.0347092047291954E-2</v>
       </c>
-      <c r="H32" s="84" t="s">
+      <c r="H32" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
       <c r="K32" s="53">
         <v>3366</v>
       </c>
-      <c r="L32" s="86">
+      <c r="L32" s="84">
         <v>5.1830854800549098</v>
       </c>
       <c r="M32" s="45">
@@ -12189,37 +12263,37 @@
         <v>0.47733418183663429</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="91">
+      <c r="F33" s="89">
         <v>1089.74</v>
       </c>
-      <c r="G33" s="96">
+      <c r="G33" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.0292739751809464E-2</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
       <c r="K33" s="53"/>
-      <c r="L33" s="84"/>
+      <c r="L33" s="82"/>
       <c r="M33" s="45"/>
     </row>
-    <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="85" t="s">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="83" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="67" t="s">
@@ -12231,10 +12305,10 @@
       <c r="E34" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="91">
+      <c r="F34" s="89">
         <v>1112.08</v>
       </c>
-      <c r="G34" s="96">
+      <c r="G34" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>2.9986928548108603E-2</v>
       </c>
@@ -12243,7 +12317,7 @@
       </c>
       <c r="I34" s="67"/>
       <c r="J34" s="67"/>
-      <c r="K34" s="85">
+      <c r="K34" s="83">
         <v>3449</v>
       </c>
       <c r="L34" s="47">
@@ -12254,8 +12328,8 @@
         <v>0.70645749673929126</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="82" t="s">
+    <row r="35" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="80" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -12267,10 +12341,10 @@
       <c r="E35" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="91">
+      <c r="F35" s="89">
         <v>661.66</v>
       </c>
-      <c r="G35" s="96">
+      <c r="G35" s="94">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.887608828450579E-2</v>
       </c>
@@ -12279,19 +12353,19 @@
       </c>
       <c r="I35" s="65"/>
       <c r="J35" s="65"/>
-      <c r="K35" s="82">
+      <c r="K35" s="80">
         <v>2052</v>
       </c>
-      <c r="L35" s="98">
+      <c r="L35" s="96">
         <v>5.7125376565028496</v>
       </c>
-      <c r="M35" s="99">
+      <c r="M35" s="97">
         <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
         <v>0.86336451599051622</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="85" t="s">
+    <row r="36" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -12303,19 +12377,19 @@
       <c r="E36" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="92">
+      <c r="F36" s="90">
         <v>1173.23</v>
       </c>
-      <c r="G36" s="97">
+      <c r="G36" s="95">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>2.9194996009471293E-2</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="85">
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="83">
         <v>3638</v>
       </c>
       <c r="L36" s="26">
@@ -12338,605 +12412,748 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:11" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="82" t="s">
-        <v>69</v>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="65" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="F3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="G3" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="I3" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="78" t="s">
+      <c r="J3" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="53">
         <v>1</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="82">
         <v>121.78</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.12178</v>
+      </c>
+      <c r="E4" s="82">
         <v>366</v>
       </c>
-      <c r="E4" s="66">
+      <c r="F4" s="82">
         <v>393</v>
       </c>
-      <c r="F4" s="31">
+      <c r="G4" s="84">
         <v>379.17355907366499</v>
       </c>
-      <c r="G4" s="31">
+      <c r="H4" s="84">
         <v>1.5684134901384399</v>
       </c>
-      <c r="H4" s="43">
+      <c r="I4" s="45">
         <v>3.69333145484782</v>
       </c>
-      <c r="J4" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>9.0617487201407901E-2</v>
-      </c>
-      <c r="K4" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>3.0327898298963869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
+      <c r="J4" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.1910993941884221E-3</v>
+      </c>
+      <c r="K4" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>2.8655765539760623</v>
+      </c>
+      <c r="L4" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>1.2879072837398916E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="82">
         <v>244.7</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.2447</v>
+      </c>
+      <c r="E5" s="82">
         <v>747</v>
       </c>
-      <c r="E5" s="84">
+      <c r="F5" s="82">
         <v>771</v>
       </c>
-      <c r="F5" s="86">
+      <c r="G5" s="84">
         <v>760.14525671702097</v>
       </c>
-      <c r="G5" s="86">
+      <c r="H5" s="84">
         <v>1.751921971362</v>
       </c>
-      <c r="H5" s="45">
+      <c r="I5" s="45">
         <v>4.1254608966026796</v>
       </c>
-      <c r="J5" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>6.392680735026228E-2</v>
-      </c>
-      <c r="K5" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>1.6859259896210379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
+      <c r="J5" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.330461139154364E-3</v>
+      </c>
+      <c r="K5" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>2.0215431476962218</v>
+      </c>
+      <c r="L5" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>7.1594686201961587E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="77"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="82">
         <v>344.28</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.34427999999999997</v>
+      </c>
+      <c r="E6" s="82">
         <v>1057</v>
       </c>
-      <c r="E6" s="84">
+      <c r="F6" s="82">
         <v>1081</v>
       </c>
-      <c r="F6" s="86">
+      <c r="G6" s="84">
         <v>1068.8567579523001</v>
       </c>
-      <c r="G6" s="86">
+      <c r="H6" s="84">
         <v>1.8627048920323701</v>
       </c>
-      <c r="H6" s="45">
+      <c r="I6" s="45">
         <v>4.38633473385568</v>
       </c>
-      <c r="J6" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>5.3894457272424652E-2</v>
-      </c>
-      <c r="K6" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>1.2740602805436505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
+      <c r="J6" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.4145929516684568E-3</v>
+      </c>
+      <c r="K6" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.7042923823948775</v>
+      </c>
+      <c r="L6" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>5.4104359591970784E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="77"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="82">
         <v>411.12</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.41111999999999999</v>
+      </c>
+      <c r="E7" s="82">
         <v>1267</v>
       </c>
-      <c r="E7" s="84">
+      <c r="F7" s="82">
         <v>1282</v>
       </c>
-      <c r="F7" s="86">
+      <c r="G7" s="84">
         <v>1276.2186355311301</v>
       </c>
-      <c r="G7" s="86">
+      <c r="H7" s="84">
         <v>1.7309403654084401</v>
       </c>
-      <c r="H7" s="45">
+      <c r="I7" s="45">
         <v>4.0760529912711103</v>
       </c>
-      <c r="J7" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>4.9319163014348515E-2</v>
-      </c>
-      <c r="K7" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.99145091245162242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="79"/>
+      <c r="J7" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.3145270896849331E-3</v>
+      </c>
+      <c r="K7" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.5596088741847689</v>
+      </c>
+      <c r="L7" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>4.2103044498162092E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="77"/>
       <c r="B8" s="53">
         <v>5</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="82">
         <v>443.96</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.44395999999999997</v>
+      </c>
+      <c r="E8" s="82">
         <v>1369</v>
       </c>
-      <c r="E8" s="84">
+      <c r="F8" s="82">
         <v>1385</v>
       </c>
-      <c r="F8" s="86">
+      <c r="G8" s="84">
         <v>1377.8445563247301</v>
       </c>
-      <c r="G8" s="86">
+      <c r="H8" s="84">
         <v>1.8106748378567501</v>
       </c>
-      <c r="H8" s="45">
+      <c r="I8" s="45">
         <v>4.2638133216818304</v>
       </c>
-      <c r="J8" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>4.7460037675311581E-2</v>
-      </c>
-      <c r="K8" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.96040483865254322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
+      <c r="J8" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.3750797962423904E-3</v>
+      </c>
+      <c r="K8" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.5008181689138744</v>
+      </c>
+      <c r="L8" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>4.0784639108405038E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
       <c r="B9" s="53">
         <v>6</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="82">
         <v>778.9</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.77889999999999993</v>
+      </c>
+      <c r="E9" s="82">
         <v>2399</v>
       </c>
-      <c r="E9" s="84">
+      <c r="F9" s="82">
         <v>2431</v>
       </c>
-      <c r="F9" s="86">
+      <c r="G9" s="84">
         <v>2416.18044453109</v>
       </c>
-      <c r="G9" s="86">
+      <c r="H9" s="84">
         <v>2.61674194119544</v>
       </c>
-      <c r="H9" s="45">
+      <c r="I9" s="45">
         <v>6.1619562579658602</v>
       </c>
-      <c r="J9" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>3.5831018077417842E-2</v>
-      </c>
-      <c r="K9" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.7911100600803519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
+      <c r="J9" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.9872308931939901E-3</v>
+      </c>
+      <c r="K9" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.133076280073078</v>
+      </c>
+      <c r="L9" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>3.3595351665110284E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
       <c r="B10" s="53">
         <v>7</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="82">
         <v>867.38</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.86738000000000004</v>
+      </c>
+      <c r="E10" s="82">
         <v>2679</v>
       </c>
-      <c r="E10" s="84">
+      <c r="F10" s="82">
         <v>2699</v>
       </c>
-      <c r="F10" s="86">
+      <c r="G10" s="84">
         <v>2690.7052384675499</v>
       </c>
-      <c r="G10" s="86">
+      <c r="H10" s="84">
         <v>2.0385025126015299</v>
       </c>
-      <c r="H10" s="45">
+      <c r="I10" s="45">
         <v>4.8003064867243497</v>
       </c>
-      <c r="J10" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>3.3954340381471874E-2</v>
-      </c>
-      <c r="K10" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.55342600552518495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
+      <c r="J10" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.5480988419686028E-3</v>
+      </c>
+      <c r="K10" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.0737305205408159</v>
+      </c>
+      <c r="L10" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>2.3501839016365723E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
       <c r="B11" s="53">
         <v>8</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="82">
         <v>964.06</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.96405999999999992</v>
+      </c>
+      <c r="E11" s="82">
         <v>2978</v>
       </c>
-      <c r="E11" s="84">
+      <c r="F11" s="82">
         <v>3001</v>
       </c>
-      <c r="F11" s="86">
+      <c r="G11" s="84">
         <v>2990.29747392233</v>
       </c>
-      <c r="G11" s="86">
+      <c r="H11" s="84">
         <v>2.91578584974273</v>
       </c>
-      <c r="H11" s="45">
+      <c r="I11" s="45">
         <v>6.8661508346911901</v>
       </c>
-      <c r="J11" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>3.2206829048425763E-2</v>
-      </c>
-      <c r="K11" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.712211982106009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
+      <c r="J11" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>2.2143336441879085E-3</v>
+      </c>
+      <c r="K11" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.0184693600469881</v>
+      </c>
+      <c r="L11" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>3.0244858719817545E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
       <c r="B12" s="53">
         <v>9</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="82">
         <v>1085.8399999999999</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>1.0858399999999999</v>
+      </c>
+      <c r="E12" s="82">
         <v>3358</v>
       </c>
-      <c r="E12" s="84">
+      <c r="F12" s="82">
         <v>3373</v>
       </c>
-      <c r="F12" s="86">
+      <c r="G12" s="84">
         <v>3367.8899165350699</v>
       </c>
-      <c r="G12" s="86">
+      <c r="H12" s="84">
         <v>2.20105378757395</v>
       </c>
-      <c r="H12" s="45">
+      <c r="I12" s="45">
         <v>5.1830854800549098</v>
       </c>
-      <c r="J12" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>3.0347092047291954E-2</v>
-      </c>
-      <c r="K12" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.47733418183663429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="80"/>
-      <c r="B13" s="85">
+      <c r="J12" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.6715450673177085E-3</v>
+      </c>
+      <c r="K12" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>0.95965931232224844</v>
+      </c>
+      <c r="L12" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>2.0270516720455592E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78"/>
+      <c r="B13" s="53">
         <v>10</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="82">
         <v>1112.08</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>1.11208</v>
+      </c>
+      <c r="E13" s="82">
         <v>3432</v>
       </c>
-      <c r="E13" s="67">
+      <c r="F13" s="82">
         <v>3458</v>
       </c>
-      <c r="F13" s="47">
+      <c r="G13" s="84">
         <v>3449.0405673550299</v>
       </c>
-      <c r="G13" s="47">
+      <c r="H13" s="84">
         <v>3.3362942941449001</v>
       </c>
-      <c r="H13" s="48">
+      <c r="I13" s="45">
         <v>7.8563725297383096</v>
       </c>
-      <c r="J13" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>2.9986928548108603E-2</v>
-      </c>
-      <c r="K13" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.70645749673929126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="78" t="s">
+      <c r="J13" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>2.5336801408406048E-3</v>
+      </c>
+      <c r="K13" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>0.94826994244749252</v>
+      </c>
+      <c r="L13" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>3.0000488221574887E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="79">
         <v>1</v>
       </c>
       <c r="C14" s="66">
         <v>81</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="101">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E14" s="66">
         <v>240</v>
       </c>
-      <c r="E14" s="66">
+      <c r="F14" s="66">
         <v>261</v>
       </c>
-      <c r="F14" s="31">
+      <c r="G14" s="31">
         <v>252.54684027453001</v>
       </c>
-      <c r="G14" s="31">
+      <c r="H14" s="31">
         <v>1.65676722457921</v>
       </c>
-      <c r="H14" s="43">
+      <c r="I14" s="43">
         <v>3.9013885957836298</v>
       </c>
-      <c r="J14" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K14" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>4.8165291305970737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="79"/>
+      <c r="J14" s="107">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.2581978221402207E-3</v>
+      </c>
+      <c r="K14" s="42">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>3.5136418446315325</v>
+      </c>
+      <c r="L14" s="108">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>2.0453916352829754E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
       <c r="B15" s="53">
         <v>2</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="82">
         <v>276.39999999999998</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="105">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="E15" s="82">
         <v>850</v>
       </c>
-      <c r="E15" s="84">
+      <c r="F15" s="82">
         <v>865</v>
       </c>
-      <c r="F15" s="86">
+      <c r="G15" s="84">
         <v>858.40388723410604</v>
       </c>
-      <c r="G15" s="86">
+      <c r="H15" s="84">
         <v>1.6508065459299801</v>
       </c>
-      <c r="H15" s="45">
+      <c r="I15" s="45">
         <v>3.88735227048684</v>
       </c>
-      <c r="J15" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>6.0149355833923029E-2</v>
-      </c>
-      <c r="K15" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>1.4064226738374965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="79"/>
+      <c r="J15" s="109">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.2536711072320059E-3</v>
+      </c>
+      <c r="K15" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.9020896422713336</v>
+      </c>
+      <c r="L15" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>5.9725273007596967E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
       <c r="B16" s="53">
         <v>3</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="82">
         <v>302.85000000000002</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="105">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.30285000000000001</v>
+      </c>
+      <c r="E16" s="82">
         <v>931</v>
       </c>
-      <c r="E16" s="84">
+      <c r="F16" s="82">
         <v>947</v>
       </c>
-      <c r="F16" s="86">
+      <c r="G16" s="84">
         <v>940.35810749072505</v>
       </c>
-      <c r="G16" s="86">
+      <c r="H16" s="84">
         <v>1.66492646887514</v>
       </c>
-      <c r="H16" s="45">
+      <c r="I16" s="45">
         <v>3.92060214743656</v>
       </c>
-      <c r="J16" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>5.7462724169482615E-2</v>
-      </c>
-      <c r="K16" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>1.294568977195496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="79"/>
+      <c r="J16" s="109">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.2643941925482907E-3</v>
+      </c>
+      <c r="K16" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.8171308893357248</v>
+      </c>
+      <c r="L16" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>5.4975283766720813E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
       <c r="B17" s="53">
         <v>4</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="82">
         <v>356.01</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="105">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.35600999999999999</v>
+      </c>
+      <c r="E17" s="82">
         <v>1095</v>
       </c>
-      <c r="E17" s="84">
+      <c r="F17" s="82">
         <v>1117</v>
       </c>
-      <c r="F17" s="86">
+      <c r="G17" s="84">
         <v>1105.35351348926</v>
       </c>
-      <c r="G17" s="86">
+      <c r="H17" s="84">
         <v>1.8883039991235899</v>
       </c>
-      <c r="H17" s="45">
+      <c r="I17" s="45">
         <v>4.4466160232162197</v>
       </c>
-      <c r="J17" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>5.2999149635466099E-2</v>
-      </c>
-      <c r="K17" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>1.2490143600506221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="80"/>
-      <c r="B18" s="85">
+      <c r="J17" s="109">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.434033667487231E-3</v>
+      </c>
+      <c r="K17" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.6759802690015555</v>
+      </c>
+      <c r="L17" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>5.3040757257481249E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78"/>
+      <c r="B18" s="83">
         <v>5</v>
       </c>
       <c r="C18" s="67">
         <v>383.85</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="102">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.38385000000000002</v>
+      </c>
+      <c r="E18" s="67">
         <v>1184</v>
       </c>
-      <c r="E18" s="67">
+      <c r="F18" s="67">
         <v>1195</v>
       </c>
-      <c r="F18" s="47">
+      <c r="G18" s="47">
         <v>1191.6811957397199</v>
       </c>
-      <c r="G18" s="47">
+      <c r="H18" s="47">
         <v>1.10329397980121</v>
       </c>
-      <c r="H18" s="48">
+      <c r="I18" s="48">
         <v>2.5980587295154902</v>
       </c>
-      <c r="J18" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>5.1041006228231954E-2</v>
-      </c>
-      <c r="K18" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.67684218562341802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J18" s="110">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>8.3787394026874561E-4</v>
+      </c>
+      <c r="K18" s="46">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.6140583374805302</v>
+      </c>
+      <c r="L18" s="111">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>2.8742841729873909E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="53">
         <v>1</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="82">
         <v>661.66</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>0.66165999999999991</v>
+      </c>
+      <c r="E19" s="82">
         <v>2037</v>
       </c>
-      <c r="E19" s="84">
+      <c r="F19" s="82">
         <v>2071</v>
       </c>
-      <c r="F19" s="86">
+      <c r="G19" s="84">
         <v>2052.4599344932099</v>
       </c>
-      <c r="G19" s="86">
+      <c r="H19" s="84">
         <v>2.4258914297070899</v>
       </c>
-      <c r="H19" s="45">
+      <c r="I19" s="45">
         <v>5.7125376565028496</v>
       </c>
-      <c r="J19" s="100">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>3.887608828450579E-2</v>
-      </c>
-      <c r="K19" s="45">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.86336451599051622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="102" t="s">
+      <c r="J19" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>1.8422933942221691E-3</v>
+      </c>
+      <c r="K19" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>1.2293698549682632</v>
+      </c>
+      <c r="L19" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>3.6663715952408942E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B20" s="80">
         <v>1</v>
       </c>
       <c r="C20" s="65">
         <v>1173.2</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="106">
+        <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
+        <v>1.1732</v>
+      </c>
+      <c r="E20" s="65">
         <v>3617</v>
       </c>
-      <c r="E20" s="65">
+      <c r="F20" s="65">
         <v>3651</v>
       </c>
-      <c r="F20" s="98">
+      <c r="G20" s="96">
         <v>3638.71054493984</v>
       </c>
-      <c r="G20" s="98">
+      <c r="H20" s="96">
         <v>3.32940457347883</v>
       </c>
-      <c r="H20" s="99">
+      <c r="I20" s="97">
         <v>7.8401484777194304</v>
       </c>
-      <c r="J20" s="101">
-        <f>1/SQRT(Tabela3[[#This Row],[ Energy (keV) ]])</f>
-        <v>2.9195369280985633E-2</v>
-      </c>
-      <c r="K20" s="48">
-        <f>Tabela3[[#This Row],[ FWHM ]]/Tabela3[[#This Row],[ Energy (keV) ]]*100</f>
-        <v>0.66827041235249141</v>
+      <c r="J20" s="103">
+        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
+        <v>2.5284478840645161E-3</v>
+      </c>
+      <c r="K20" s="44">
+        <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
+        <v>0.92323864057627025</v>
+      </c>
+      <c r="L20" s="104">
+        <f>Tabela3[[#This Row],[ Sigma ]]/Tabela3[[#This Row],[ Energy (keV) ]]</f>
+        <v>2.83788320276068E-3</v>
       </c>
     </row>
   </sheetData>

--- a/CNA/Calibrations/Detectors_E-Calib.xlsx
+++ b/CNA/Calibrations/Detectors_E-Calib.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7035" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7035" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="152Eu" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="84">
   <si>
     <t>Energy (keV)</t>
   </si>
@@ -274,19 +274,29 @@
   <si>
     <t>Need to use these values to perform energy calibration</t>
   </si>
+  <si>
+    <t>dSigma</t>
+  </si>
+  <si>
+    <t>dFWHM (MeV)</t>
+  </si>
+  <si>
+    <t>dR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -345,8 +355,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,8 +428,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -597,12 +624,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,9 +917,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,217 +956,376 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,7 +1333,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -1099,53 +1344,40 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1165,14 +1397,36 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1379,6 +1633,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1481,11 +1736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-273750992"/>
-        <c:axId val="-273756976"/>
+        <c:axId val="45139696"/>
+        <c:axId val="2144165840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-273750992"/>
+        <c:axId val="45139696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,12 +1783,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273756976"/>
+        <c:crossAx val="2144165840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-273756976"/>
+        <c:axId val="2144165840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1831,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273750992"/>
+        <c:crossAx val="45139696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1634,7 +1889,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
@@ -1653,7 +1908,12 @@
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1891,11 +2151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-273754800"/>
-        <c:axId val="-273750448"/>
+        <c:axId val="249272096"/>
+        <c:axId val="294378352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-273754800"/>
+        <c:axId val="249272096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,12 +2233,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273750448"/>
+        <c:crossAx val="294378352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-273750448"/>
+        <c:axId val="294378352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,7 +2323,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273754800"/>
+        <c:crossAx val="249272096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2140,7 +2400,12 @@
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2155,6 +2420,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>HPGe Ecalib</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25560">
               <a:noFill/>
@@ -2208,86 +2476,123 @@
             </c:extLst>
           </c:dLbls>
           <c:trendline>
-            <c:spPr>
-              <a:ln w="19080" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="5B9BD5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.6134721126266559E-2"/>
+                  <c:y val="-0.17587127522594267"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,32252559x - 0,45562629</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0,99999998</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>1</c:f>
+              <c:f>(Calibration!$K$11:$K$15,Calibration!$K$24:$K$32,Calibration!$K$34:$K$36)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>252</c:v>
+                  <c:v>252.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>857</c:v>
+                  <c:v>858.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>940</c:v>
+                  <c:v>940.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1103</c:v>
+                  <c:v>1105.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1191</c:v>
+                  <c:v>1191.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>378</c:v>
+                  <c:v>379.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>759</c:v>
+                  <c:v>760.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1068</c:v>
+                  <c:v>1068.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1275</c:v>
+                  <c:v>1276.1600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1377</c:v>
+                  <c:v>1377.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2415</c:v>
+                  <c:v>2416.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2689</c:v>
+                  <c:v>2690.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2990</c:v>
+                  <c:v>2990.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3366</c:v>
+                  <c:v>3368.43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3449</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3638</c:v>
+                  <c:v>3449.51</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2052.5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3639.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>(Calibration!$F$11:$F$15,Calibration!$F$24:$F$32,Calibration!$F$34:$F$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2346,29 +2651,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 0</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>HPGe</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-          </c:extLst>
+          <c:extLst/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2378,11 +2661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-273749360"/>
-        <c:axId val="-273753712"/>
+        <c:axId val="294384880"/>
+        <c:axId val="294386512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-273749360"/>
+        <c:axId val="294384880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,12 +2743,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273753712"/>
+        <c:crossAx val="294386512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-273753712"/>
+        <c:axId val="294386512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,7 +2833,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273749360"/>
+        <c:crossAx val="294384880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2589,487 +2872,6 @@
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-PT" sz="1600" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>HPGe Resolution</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12619911848587001"/>
-          <c:y val="2.4598727324532201E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19080" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="5B9BD5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.11111111111111099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0149355833923002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7462724169482601E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2999149635466099E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1041006228232003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0617487201407901E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3926807350262294E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3894457272424701E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.9319163014348501E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7460037675311602E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5831018077417801E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.3954340381471902E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2206829048425797E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.0347092047291999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.99869285481086E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8876088284505797E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.91949960094713E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>4.8165291305970701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4064226738375001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2945689771955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2490143600506201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67684218562341802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.03278982989639</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6859259896210399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2740602805436501</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99145091245162198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.960404838652543</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79111006008035201</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.55342600552518495</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.712211982106009</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.47733418183663401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.70645749673929104</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.863364515990516</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.66825332438817897</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>label 0</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>HPGe Resolution</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-273752624"/>
-        <c:axId val="-273764048"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-273752624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="pt-PT" sz="1400" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1400" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>1/sqrt(E)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-273764048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-273764048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="pt-PT" sz="1400" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT" sz="1400" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>R (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-273752624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -3082,7 +2884,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3124,7 +2926,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -3217,11 +3019,11 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19080" cap="rnd" cmpd="sng" algn="ctr">
+              <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:srgbClr val="5B9BD5"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -3233,8 +3035,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.024272319966507E-2"/>
-                  <c:y val="-0.13889554259529266"/>
+                  <c:x val="4.4953423751017116E-2"/>
+                  <c:y val="-0.16149430218070965"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3253,15 +3055,15 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
                         <a:solidFill>
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 0,0013x</a:t>
+                      <a:t>y = 0,000565x</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="30000">
+                      <a:rPr lang="en-US" sz="1600" b="1" baseline="30000">
                         <a:solidFill>
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
@@ -3269,12 +3071,12 @@
                       <a:t>2</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
                         <a:solidFill>
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t> - 0,0014x + 0,0024</a:t>
+                      <a:t> - 0,000608x + 0,000997</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -3285,13 +3087,13 @@
                     </a:br>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0,9988</a:t>
+                      <a:t>R² = 0,998770</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
@@ -3324,7 +3126,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Resolution!$K$4:$K$19,Resolution!$K$21:$K$22)</c:f>
+              <c:f>(Resolution!$M$4:$M$19,Resolution!$M$21:$M$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3387,63 +3189,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Resolution!$L$4:$L$19,Resolution!$L$21:$L$22)</c:f>
+              <c:f>(Resolution!$N$4:$N$19,Resolution!$N$21:$N$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>8.7935406060108395E-3</c:v>
+                  <c:v>3.7339875184759404E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0901491622394766E-3</c:v>
+                  <c:v>2.1614221495709031E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8384694144301154E-3</c:v>
+                  <c:v>1.6299233182293484E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1011438266199659E-3</c:v>
+                  <c:v>1.7336179217746646E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6267084872511047E-3</c:v>
+                  <c:v>1.5400036039282822E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3986894980100142E-3</c:v>
+                  <c:v>1.0185518038259083E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5830525548202633E-3</c:v>
+                  <c:v>1.0894014157577993E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0876728367528992E-3</c:v>
+                  <c:v>8.8648528099910789E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0283962185957418E-3</c:v>
+                  <c:v>8.4349443748618581E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9327293225307534E-3</c:v>
+                  <c:v>8.2069185670095683E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.340823611111111E-2</c:v>
+                  <c:v>5.6935185185185179E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4788879341534013E-3</c:v>
+                  <c:v>1.9018632416787265E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1127934621099553E-3</c:v>
+                  <c:v>1.7464091134224864E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.71199755624842E-3</c:v>
+                  <c:v>1.5762197691076094E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5614888628370451E-3</c:v>
+                  <c:v>1.5123094958968348E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6007691731856119E-2</c:v>
+                  <c:v>1.5289890331998351E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4449239412991566E-3</c:v>
+                  <c:v>1.0381842638212981E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8708820959768156E-3</c:v>
+                  <c:v>7.9442976474599389E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,11 +3260,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-273763504"/>
-        <c:axId val="-273762960"/>
+        <c:axId val="294383248"/>
+        <c:axId val="294371280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-273763504"/>
+        <c:axId val="294383248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3285,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3518,7 +3320,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3567,12 +3369,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273762960"/>
+        <c:crossAx val="294371280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-273762960"/>
+        <c:axId val="294371280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +3395,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3628,7 +3430,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3677,7 +3479,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273763504"/>
+        <c:crossAx val="294383248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3724,7 +3526,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -3782,9 +3584,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>SDD Resolution</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25560">
               <a:noFill/>
@@ -3845,47 +3644,98 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5522880765619794E-2"/>
-                  <c:y val="-0.18665070761818731"/>
+                  <c:x val="0.1297172335120183"/>
+                  <c:y val="-0.16953304106141046"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,0000047x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 0,0022348x - 0,0019158</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0,9965335</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Resolution!$K$25:$K$39</c:f>
+              <c:f>(Resolution!$M$28,Resolution!$M$30,Resolution!$M$32,Resolution!$M$34,Resolution!$M$36:$M$39)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15.276525413351823</c:v>
+                  <c:v>13.762047064079507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.713839651479711</c:v>
+                  <c:v>5.6820933415026795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2835410407526107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.762047064079507</c:v>
+                  <c:v>12.694894822438663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.803159420437522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6820933415026795</c:v>
+                  <c:v>5.0301454492615498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.992703502794809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2835410407526107</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.323861953460529</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.694894822438663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0301454492615498</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.992703502794809</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>4.6947839410382493</c:v>
                 </c:pt>
               </c:numCache>
@@ -3893,38 +3743,32 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Resolution!$L$25:$L$39</c:f>
+              <c:f>(Resolution!$N$28,Resolution!$N$30,Resolution!$N$32,Resolution!$N$34,Resolution!$N$36:$N$39)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.0384084693115522E-2</c:v>
+                  <c:v>2.9506837355113634E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4362816543624164E-2</c:v>
+                  <c:v>1.0201815292028541E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8622108448718684E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.715183155681818E-2</c:v>
+                  <c:v>2.6994213497985496E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5780661052521591E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0201815292028541E-2</c:v>
+                  <c:v>9.4756285775011388E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0616007232594675E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8622108448718684E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4411534503816792E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.6994213497985496E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.4756285775011388E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.0616007232594675E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>9.6245965553228997E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3940,11 +3784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-273761872"/>
-        <c:axId val="-273752080"/>
+        <c:axId val="294375632"/>
+        <c:axId val="294378896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-273761872"/>
+        <c:axId val="294375632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,12 +3866,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273752080"/>
+        <c:crossAx val="294378896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-273752080"/>
+        <c:axId val="294378896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +3949,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-273761872"/>
+        <c:crossAx val="294375632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4656,7 +4500,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>2205</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>153390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4686,7 +4530,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>2520</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>169035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4705,36 +4549,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>158040</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>113430</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4742,16 +4556,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476640</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>569089</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>2437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>8865</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>206209</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4772,16 +4586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495720</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13867</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>186045</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>242287</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>69504</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4852,8 +4666,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:L21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B3:L21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:O40" totalsRowShown="0" headerRowDxfId="0" dataDxfId="16" headerRowBorderDxfId="1">
+  <autoFilter ref="B3:O40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4865,23 +4679,27 @@
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Peak nr." dataDxfId="7"/>
-    <tableColumn id="2" name=" Energy (keV) " dataDxfId="5"/>
-    <tableColumn id="3" name="Energy (MeV)" dataDxfId="6"/>
-    <tableColumn id="4" name=" ROId " dataDxfId="8"/>
-    <tableColumn id="5" name=" ROIu " dataDxfId="4"/>
-    <tableColumn id="6" name="Centroid " dataDxfId="2"/>
-    <tableColumn id="7" name=" Sigma " dataDxfId="3"/>
-    <tableColumn id="8" name=" FWHM " dataDxfId="12">
-      <calculatedColumnFormula>Tabela3[[#This Row],[ Sigma ]]*2.355</calculatedColumnFormula>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Peak nr." dataDxfId="14"/>
+    <tableColumn id="2" name=" Energy (keV) " dataDxfId="13"/>
+    <tableColumn id="3" name="Energy (MeV)" dataDxfId="12"/>
+    <tableColumn id="4" name=" ROId " dataDxfId="11"/>
+    <tableColumn id="5" name=" ROIu " dataDxfId="10"/>
+    <tableColumn id="6" name="Centroid " dataDxfId="9"/>
+    <tableColumn id="7" name=" Sigma " dataDxfId="8"/>
+    <tableColumn id="8" name="dSigma" dataDxfId="7"/>
+    <tableColumn id="9" name=" FWHM " dataDxfId="6" dataCellStyle="Vírgula"/>
+    <tableColumn id="10" name="FWHM (MeV)" dataDxfId="5" dataCellStyle="Vírgula"/>
+    <tableColumn id="11" name="dFWHM (MeV)" dataDxfId="4"/>
+    <tableColumn id="13" name="1/sqrt(E') (MeV)^-0.5" dataDxfId="3"/>
+    <tableColumn id="14" name="R = FWHM/E" dataDxfId="2">
+      <calculatedColumnFormula>K4/D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="FWHM (MeV)" dataDxfId="11"/>
-    <tableColumn id="10" name="1/sqrt(E') (MeV)^-0.5" dataDxfId="10"/>
-    <tableColumn id="11" name="R = FWHM/E" dataDxfId="9">
-      <calculatedColumnFormula>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="15" name="dR" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5204,7 +5022,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="126">
+      <c r="G3" s="121">
         <f>(Tabela1[[#This Row],[Energy (keV)]]*Tabela1[[#This Row],[intensity (%)]]+B4*C4)/(Tabela1[[#This Row],[intensity (%)]]+C4)</f>
         <v>5.6333243243243238</v>
       </c>
@@ -5223,7 +5041,7 @@
       <c r="F4" s="17">
         <v>181</v>
       </c>
-      <c r="G4" s="126"/>
+      <c r="G4" s="121"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
@@ -5304,7 +5122,7 @@
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="126">
+      <c r="G10" s="121">
         <f>(Tabela1[[#This Row],[Energy (keV)]]*Tabela1[[#This Row],[intensity (%)]]+B11*C11)/(Tabela1[[#This Row],[intensity (%)]]+C11)</f>
         <v>45.37024137931035</v>
       </c>
@@ -5323,7 +5141,7 @@
       <c r="F11" s="17">
         <v>1461</v>
       </c>
-      <c r="G11" s="126"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
@@ -7532,7 +7350,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="126">
+      <c r="G3" s="121">
         <f>(B3*C3+B4*C4)/(C3+C4)</f>
         <v>4.2846126126126123</v>
       </c>
@@ -7551,7 +7369,7 @@
       <c r="F4" s="17">
         <v>138</v>
       </c>
-      <c r="G4" s="126"/>
+      <c r="G4" s="121"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="32">
@@ -7637,7 +7455,7 @@
       <c r="F10" s="17">
         <v>1126</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="121">
         <f>(B10*C10+B11*C11)/(C10+C11)</f>
         <v>34.964333333333336</v>
       </c>
@@ -7654,7 +7472,7 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="126"/>
+      <c r="G11" s="121"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
@@ -7853,7 +7671,7 @@
       <c r="D4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="127"/>
+      <c r="E4" s="122"/>
       <c r="F4">
         <f>(B4*C4+B5*C5)/(C4+C5)</f>
         <v>32.060360902255638</v>
@@ -7869,7 +7687,7 @@
       <c r="D5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="127"/>
+      <c r="E5" s="122"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="36">
@@ -7881,7 +7699,7 @@
       <c r="D6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="127"/>
+      <c r="E6" s="122"/>
       <c r="F6">
         <f>(B6*C6+B7*C7+B8*C8)/(C6+C7+C8)</f>
         <v>36.732293929712462</v>
@@ -7897,7 +7715,7 @@
       <c r="D7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="127"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="37">
@@ -8827,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8847,7 +8665,7 @@
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="73" t="s">
         <v>48</v>
       </c>
@@ -8866,22 +8684,22 @@
       <c r="G2" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="124" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8889,1102 +8707,1017 @@
       <c r="B3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="78">
         <v>4.2850000000000001</v>
       </c>
-      <c r="G3" s="80">
+      <c r="G3" s="79">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.48308615039636987</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="77">
         <v>138.05000000000001</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="82">
         <v>4.6189999999999998</v>
       </c>
-      <c r="G4" s="84">
+      <c r="G4" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.46529246425173987</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="77">
         <v>149.34</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="78"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="83">
+      <c r="F5" s="82">
         <v>4.9359999999999999</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.45010353572119338</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="77">
         <v>158.41999999999999</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="32"/>
-      <c r="L5" s="78"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F6" s="82">
         <v>5.28</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.4351941398892446</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="78"/>
+      <c r="L6" s="77"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="83">
+      <c r="F7" s="82">
         <v>30.625</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.18070158058105026</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="77">
         <v>986.01</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="78"/>
+      <c r="L7" s="77"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="82">
         <v>30.972999999999999</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.17968356836825425</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="77">
         <v>997.27</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="32"/>
-      <c r="L8" s="78"/>
+      <c r="L8" s="77"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="82">
         <v>34.963999999999999</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.16911784821555328</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="77">
         <v>1125.99</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="32"/>
-      <c r="L9" s="78"/>
+      <c r="L9" s="77"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="82">
         <v>35.822000000000003</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.16708023799754768</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="77">
         <v>1152.94</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="78"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="82">
         <v>81</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H11" s="78" t="s">
+      <c r="H11" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="32">
-        <v>252</v>
-      </c>
-      <c r="L11" s="85">
-        <v>3.9013885957836298</v>
-      </c>
-      <c r="M11" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>4.8165291305970737</v>
-      </c>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="36">
+        <v>252.75</v>
+      </c>
+      <c r="L11" s="84"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="82">
         <v>276.39999999999998</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>6.0149355833923029E-2</v>
       </c>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="32">
-        <v>857</v>
-      </c>
-      <c r="L12" s="85">
-        <v>3.88735227048684</v>
-      </c>
-      <c r="M12" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>1.4064226738374965</v>
-      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="36">
+        <v>858.41</v>
+      </c>
+      <c r="L12" s="84"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="82">
         <v>302.85000000000002</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>5.7462724169482615E-2</v>
       </c>
-      <c r="H13" s="78" t="s">
+      <c r="H13" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="32">
-        <v>940</v>
-      </c>
-      <c r="L13" s="85">
-        <v>3.92060214743656</v>
-      </c>
-      <c r="M13" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>1.294568977195496</v>
-      </c>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="36">
+        <v>940.36</v>
+      </c>
+      <c r="L13" s="84"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="82">
         <v>356.01</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>5.2999149635466099E-2</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="32">
-        <v>1103</v>
-      </c>
-      <c r="L14" s="85">
-        <v>4.4466160232162197</v>
-      </c>
-      <c r="M14" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>1.2490143600506221</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="86" t="s">
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="36">
+        <v>1105.28</v>
+      </c>
+      <c r="L14" s="84"/>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="82">
         <v>383.85</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>5.1041006228231954E-2</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="86">
-        <v>1191</v>
-      </c>
-      <c r="L15" s="38">
-        <v>2.5980587295154902</v>
-      </c>
-      <c r="M15" s="44">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.67684218562341802</v>
-      </c>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="36">
+        <v>1191.52</v>
+      </c>
+      <c r="L15" s="84"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="82">
         <v>5.633</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.4213375100259566</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="81">
         <v>181.47</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="43"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="82">
         <v>6.2050000000000001</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.40144782295185016</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="77">
         <v>200.13</v>
       </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="78"/>
+      <c r="L17" s="77"/>
       <c r="M17" s="43"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="82">
         <v>6.5869999999999997</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.3896333910798202</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="77">
         <v>212.12</v>
       </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="78"/>
+      <c r="L18" s="77"/>
       <c r="M18" s="43"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="82">
         <v>7.1779999999999999</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.37324867354655528</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="77">
         <v>231.5</v>
       </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="78"/>
+      <c r="L19" s="77"/>
       <c r="M19" s="43"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="83">
+      <c r="F20" s="82">
         <v>39.521999999999998</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.15906716581597435</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="77">
         <v>1272.7</v>
       </c>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="78"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="43"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="83">
+      <c r="F21" s="82">
         <v>40.116999999999997</v>
       </c>
-      <c r="G21" s="84">
+      <c r="G21" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.15788314750732441</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="77">
         <v>1292.07</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="78"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="43"/>
     </row>
     <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="83">
+      <c r="F22" s="82">
         <v>45.37</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.14846210376062519</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="77">
         <v>1461.06</v>
       </c>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="78"/>
+      <c r="L22" s="77"/>
       <c r="M22" s="43"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="83">
+      <c r="F23" s="82">
         <v>46.578000000000003</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>0.14652427518567335</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
       <c r="K23" s="32"/>
-      <c r="L23" s="78"/>
+      <c r="L23" s="77"/>
       <c r="M23" s="43"/>
     </row>
-    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="82">
         <v>121.78</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>9.0617487201407901E-2</v>
       </c>
-      <c r="H24" s="78" t="s">
+      <c r="H24" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="32">
-        <v>378</v>
-      </c>
-      <c r="L24" s="85">
-        <v>3.69333145484782</v>
-      </c>
-      <c r="M24" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>3.0327898298963869</v>
-      </c>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="36">
+        <v>379.09</v>
+      </c>
+      <c r="L24" s="84"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="82">
         <v>244.7</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>6.392680735026228E-2</v>
       </c>
-      <c r="H25" s="78" t="s">
+      <c r="H25" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="32">
-        <v>759</v>
-      </c>
-      <c r="L25" s="85">
-        <v>4.1254608966026796</v>
-      </c>
-      <c r="M25" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>1.6859259896210379</v>
-      </c>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="36">
+        <v>760.15</v>
+      </c>
+      <c r="L25" s="84"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="82">
         <v>344.28</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>5.3894457272424652E-2</v>
       </c>
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="32">
-        <v>1068</v>
-      </c>
-      <c r="L26" s="85">
-        <v>4.38633473385568</v>
-      </c>
-      <c r="M26" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>1.2740602805436505</v>
-      </c>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="36">
+        <v>1068.82</v>
+      </c>
+      <c r="L26" s="84"/>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="82">
         <v>411.12</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>4.9319163014348515E-2</v>
       </c>
-      <c r="H27" s="78" t="s">
+      <c r="H27" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="32">
-        <v>1275</v>
-      </c>
-      <c r="L27" s="85">
-        <v>4.0760529912711103</v>
-      </c>
-      <c r="M27" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.99145091245162242</v>
-      </c>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="36">
+        <v>1276.1600000000001</v>
+      </c>
+      <c r="L27" s="84"/>
+      <c r="M27" s="43"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="82">
         <v>443.96</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>4.7460037675311581E-2</v>
       </c>
-      <c r="H28" s="78" t="s">
+      <c r="H28" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="32">
-        <v>1377</v>
-      </c>
-      <c r="L28" s="85">
-        <v>4.2638133216818304</v>
-      </c>
-      <c r="M28" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.96040483865254322</v>
-      </c>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="36">
+        <v>1377.88</v>
+      </c>
+      <c r="L28" s="84"/>
+      <c r="M28" s="43"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="82">
         <v>778.9</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.5831018077417842E-2</v>
       </c>
-      <c r="H29" s="78" t="s">
+      <c r="H29" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="32">
-        <v>2415</v>
-      </c>
-      <c r="L29" s="85">
-        <v>6.1619562579658602</v>
-      </c>
-      <c r="M29" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.7911100600803519</v>
-      </c>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="36">
+        <v>2416.1799999999998</v>
+      </c>
+      <c r="L29" s="84"/>
+      <c r="M29" s="43"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="82">
         <v>867.38</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.3954340381471874E-2</v>
       </c>
-      <c r="H30" s="78" t="s">
+      <c r="H30" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="32">
-        <v>2689</v>
-      </c>
-      <c r="L30" s="85">
-        <v>4.8003064867243497</v>
-      </c>
-      <c r="M30" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.55342600552518495</v>
-      </c>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="36">
+        <v>2690.65</v>
+      </c>
+      <c r="L30" s="84"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="83">
+      <c r="F31" s="82">
         <v>964.06</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.2206829048425763E-2</v>
       </c>
-      <c r="H31" s="78" t="s">
+      <c r="H31" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="32">
-        <v>2990</v>
-      </c>
-      <c r="L31" s="85">
-        <v>6.8661508346911901</v>
-      </c>
-      <c r="M31" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.712211982106009</v>
-      </c>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="36">
+        <v>2990.47</v>
+      </c>
+      <c r="L31" s="84"/>
+      <c r="M31" s="43"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="83">
+      <c r="F32" s="82">
         <v>1085.8399999999999</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.0347092047291954E-2</v>
       </c>
-      <c r="H32" s="78" t="s">
+      <c r="H32" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="32">
-        <v>3366</v>
-      </c>
-      <c r="L32" s="85">
-        <v>5.1830854800549098</v>
-      </c>
-      <c r="M32" s="43">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.47733418183663429</v>
-      </c>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="36">
+        <v>3368.43</v>
+      </c>
+      <c r="L32" s="84"/>
+      <c r="M32" s="43"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="83">
+      <c r="F33" s="82">
         <v>1089.74</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.0292739751809464E-2</v>
       </c>
-      <c r="H33" s="78" t="s">
+      <c r="H33" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="78"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="77"/>
       <c r="M33" s="43"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="86" t="s">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="87" t="s">
+      <c r="E34" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="83">
+      <c r="F34" s="82">
         <v>1112.08</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>2.9986928548108603E-2</v>
       </c>
-      <c r="H34" s="87" t="s">
+      <c r="H34" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="86">
-        <v>3449</v>
-      </c>
-      <c r="L34" s="38">
-        <v>7.8563725297383096</v>
-      </c>
-      <c r="M34" s="44">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.70645749673929126</v>
-      </c>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="37">
+        <v>3449.51</v>
+      </c>
+      <c r="L34" s="38"/>
+      <c r="M34" s="44"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="89" t="s">
+      <c r="E35" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="83">
+      <c r="F35" s="82">
         <v>661.66</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="83">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>3.887608828450579E-2</v>
       </c>
-      <c r="H35" s="89" t="s">
+      <c r="H35" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="88">
-        <v>2052</v>
-      </c>
-      <c r="L35" s="90">
-        <v>5.7125376565028496</v>
-      </c>
-      <c r="M35" s="91">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.86336451599051622</v>
-      </c>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="85">
+        <v>2052.5</v>
+      </c>
+      <c r="L35" s="38"/>
+      <c r="M35" s="119"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="92">
+      <c r="F36" s="90">
         <v>1173.23</v>
       </c>
-      <c r="G36" s="93">
+      <c r="G36" s="91">
         <f>1/SQRT(Tabela2[[#This Row],[Energy (keV)]])</f>
         <v>2.9194996009471293E-2</v>
       </c>
-      <c r="H36" s="88" t="s">
+      <c r="H36" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="89"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="88">
-        <v>3638</v>
-      </c>
-      <c r="L36" s="90">
-        <v>7.8401484777194304</v>
-      </c>
-      <c r="M36" s="141">
-        <f>Tabela2[[#This Row],[HPGe FWHM (keV)]]/Tabela2[[#This Row],[Energy (keV)]]*100</f>
-        <v>0.66825332438817886</v>
-      </c>
+      <c r="I36" s="88"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="87">
+        <v>3639.15</v>
+      </c>
+      <c r="L36" s="89"/>
+      <c r="M36" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9998,78 +9731,91 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD40"/>
+  <dimension ref="A2:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="156" t="s">
+    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:34" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="157" t="s">
+      <c r="E3" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="157" t="s">
+      <c r="K3" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="157" t="s">
+      <c r="L3" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="158" t="s">
+      <c r="N3" s="109" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="O3" s="132" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="80">
         <v>1</v>
       </c>
-      <c r="C4" s="148">
+      <c r="C4" s="42">
         <v>121.78</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.12178</v>
       </c>
-      <c r="E4" s="135">
+      <c r="E4" s="199">
         <v>366</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="100">
         <v>393</v>
       </c>
       <c r="G4" s="9">
@@ -10078,1340 +9824,1809 @@
       <c r="H4" s="9">
         <v>1.41</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="140">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="141">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>3.3205499999999999</v>
       </c>
-      <c r="J4" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.070877375E-3</v>
-      </c>
-      <c r="K4" s="36">
+      <c r="K4" s="142">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>4.5472500000000001E-4</v>
+      </c>
+      <c r="L4" s="192">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>7.5954776445000003E-6</v>
+      </c>
+      <c r="M4" s="49">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>2.8655765539760623</v>
       </c>
-      <c r="L4" s="136">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>8.7935406060108395E-3</v>
-      </c>
-      <c r="Y4" s="153" t="s">
+      <c r="N4" s="203">
+        <f t="shared" ref="N4:N22" si="0">K4/D4</f>
+        <v>3.7339875184759404E-3</v>
+      </c>
+      <c r="O4" s="192">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>6.2370484845623259E-5</v>
+      </c>
+      <c r="AC4" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="153"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="114"/>
       <c r="B5" s="32">
         <v>2</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="43">
         <v>244.7</v>
       </c>
-      <c r="D5" s="144">
+      <c r="D5" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.2447</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="98">
         <v>747</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="77">
         <v>771</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="84">
         <v>760.15</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="84">
         <v>1.64</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="133">
+        <v>0.04</v>
+      </c>
+      <c r="J5" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>3.8621999999999996</v>
       </c>
-      <c r="J5" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.2455595E-3</v>
-      </c>
-      <c r="K5" s="36">
+      <c r="K5" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>5.2890000000000001E-4</v>
+      </c>
+      <c r="L5" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>3.0381910578000001E-5</v>
+      </c>
+      <c r="M5" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>2.0215431476962218</v>
       </c>
-      <c r="L5" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>5.0901491622394766E-3</v>
-      </c>
-      <c r="Y5" s="154" t="s">
+      <c r="N5" s="139">
+        <f t="shared" si="0"/>
+        <v>2.1614221495709031E-3</v>
+      </c>
+      <c r="O5" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.241598307233347E-4</v>
+      </c>
+      <c r="AC5" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="154"/>
-      <c r="AC5" s="154"/>
-      <c r="AD5" s="154"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="114"/>
       <c r="B6" s="32">
         <v>3</v>
       </c>
-      <c r="C6" s="149">
+      <c r="C6" s="43">
         <v>344.28</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.34427999999999997</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="98">
         <v>1057</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="77">
         <v>1081</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="84">
         <v>1068.82</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="84">
         <v>1.74</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="133">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>4.0976999999999997</v>
       </c>
-      <c r="J6" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.32150825E-3</v>
-      </c>
-      <c r="K6" s="36">
+      <c r="K6" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>5.6115000000000006E-4</v>
+      </c>
+      <c r="L6" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>1.5190955289000001E-5</v>
+      </c>
+      <c r="M6" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.7042923823948775</v>
       </c>
-      <c r="L6" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>3.8384694144301154E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
+      <c r="N6" s="139">
+        <f t="shared" si="0"/>
+        <v>1.6299233182293484E-3</v>
+      </c>
+      <c r="O6" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>4.4123838994423148E-5</v>
+      </c>
+      <c r="AE6" s="22"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="114"/>
       <c r="B7" s="32">
         <v>4</v>
       </c>
-      <c r="C7" s="149">
+      <c r="C7" s="43">
         <v>411.12</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D7" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.41111999999999999</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="98">
         <v>1267</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="77">
         <v>1282</v>
       </c>
-      <c r="G7" s="85">
-        <v>1276.1600000000001</v>
-      </c>
-      <c r="H7" s="85">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="I7" s="43">
+      <c r="G7" s="84">
+        <v>1276.1500000000001</v>
+      </c>
+      <c r="H7" s="84">
+        <v>2.21</v>
+      </c>
+      <c r="I7" s="133">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
-        <v>5.2281000000000004</v>
-      </c>
-      <c r="J7" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.6860622500000002E-3</v>
-      </c>
-      <c r="K7" s="36">
+        <v>5.2045500000000002</v>
+      </c>
+      <c r="K7" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>7.127250000000001E-4</v>
+      </c>
+      <c r="L7" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>1.1393216466749999E-4</v>
+      </c>
+      <c r="M7" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.5596088741847689</v>
       </c>
-      <c r="L7" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>4.1011438266199659E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="163"/>
+      <c r="N7" s="139">
+        <f t="shared" si="0"/>
+        <v>1.7336179217746646E-3</v>
+      </c>
+      <c r="O7" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>2.7712630051444833E-4</v>
+      </c>
+      <c r="AE7" s="22"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="114"/>
       <c r="B8" s="32">
         <v>5</v>
       </c>
-      <c r="C8" s="149">
+      <c r="C8" s="43">
         <v>443.96</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.44395999999999997</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="98">
         <v>1369</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="77">
         <v>1385</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="84">
         <v>1377.88</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="84">
         <v>2.12</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="133">
+        <v>0.11</v>
+      </c>
+      <c r="J8" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>4.9926000000000004</v>
       </c>
-      <c r="J8" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.6101135000000002E-3</v>
-      </c>
-      <c r="K8" s="36">
+      <c r="K8" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>6.8370000000000008E-4</v>
+      </c>
+      <c r="L8" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>8.3550254089499994E-5</v>
+      </c>
+      <c r="M8" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.5008181689138744</v>
       </c>
-      <c r="L8" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>3.6267084872511047E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
+      <c r="N8" s="139">
+        <f t="shared" si="0"/>
+        <v>1.5400036039282822E-3</v>
+      </c>
+      <c r="O8" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.8819320229187313E-4</v>
+      </c>
+      <c r="AE8" s="22"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="114"/>
       <c r="B9" s="32">
         <v>6</v>
       </c>
-      <c r="C9" s="149">
+      <c r="C9" s="43">
         <v>778.9</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.77889999999999993</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="98">
         <v>2399</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="77">
         <v>2431</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="84">
         <v>2416.1799999999998</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="84">
         <v>2.46</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="133">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J9" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>5.7932999999999995</v>
       </c>
-      <c r="J9" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.8683392499999998E-3</v>
-      </c>
-      <c r="K9" s="36">
+      <c r="K9" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>7.9334999999999996E-4</v>
+      </c>
+      <c r="L9" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>5.3168343511500003E-5</v>
+      </c>
+      <c r="M9" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.133076280073078</v>
       </c>
-      <c r="L9" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>2.3986894980100142E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
+      <c r="N9" s="139">
+        <f t="shared" si="0"/>
+        <v>1.0185518038259083E-3</v>
+      </c>
+      <c r="O9" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>6.8260808205803064E-5</v>
+      </c>
+      <c r="AE9" s="22"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="114"/>
       <c r="B10" s="32">
         <v>7</v>
       </c>
-      <c r="C10" s="149">
+      <c r="C10" s="43">
         <v>867.38</v>
       </c>
-      <c r="D10" s="144">
+      <c r="D10" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.86738000000000004</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="98">
         <v>2679</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="77">
         <v>2699</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="84">
         <v>2690.65</v>
       </c>
-      <c r="H10" s="85">
-        <v>2.95</v>
-      </c>
-      <c r="I10" s="43">
+      <c r="H10" s="84">
+        <v>2.93</v>
+      </c>
+      <c r="I10" s="133">
+        <v>0.19</v>
+      </c>
+      <c r="J10" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
-        <v>6.9472500000000004</v>
-      </c>
-      <c r="J10" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>2.240488125E-3</v>
-      </c>
-      <c r="K10" s="36">
+        <v>6.90015</v>
+      </c>
+      <c r="K10" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>9.4492500000000011E-4</v>
+      </c>
+      <c r="L10" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>1.443140752455E-4</v>
+      </c>
+      <c r="M10" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.0737305205408159</v>
       </c>
-      <c r="L10" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>2.5830525548202633E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
+      <c r="N10" s="139">
+        <f t="shared" si="0"/>
+        <v>1.0894014157577993E-3</v>
+      </c>
+      <c r="O10" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.6637929770746385E-4</v>
+      </c>
+      <c r="AE10" s="22"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="114"/>
       <c r="B11" s="32">
         <v>8</v>
       </c>
-      <c r="C11" s="149">
+      <c r="C11" s="43">
         <v>964.06</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.96405999999999992</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="98">
         <v>2978</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="77">
         <v>3001</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="84">
         <v>2990.47</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="84">
         <v>2.65</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="133">
+        <v>0.09</v>
+      </c>
+      <c r="J11" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>6.2407499999999994</v>
       </c>
-      <c r="J11" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>2.0126418749999999E-3</v>
-      </c>
-      <c r="K11" s="36">
+      <c r="K11" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>8.5462499999999992E-4</v>
+      </c>
+      <c r="L11" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>6.8359298800499995E-5</v>
+      </c>
+      <c r="M11" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.0184693600469881</v>
       </c>
-      <c r="L11" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>2.0876728367528992E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
+      <c r="N11" s="139">
+        <f t="shared" si="0"/>
+        <v>8.8648528099910789E-4</v>
+      </c>
+      <c r="O11" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>7.090772234145178E-5</v>
+      </c>
+      <c r="AE11" s="22"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="114"/>
       <c r="B12" s="32">
         <v>9</v>
       </c>
-      <c r="C12" s="149">
+      <c r="C12" s="43">
         <v>1085.8399999999999</v>
       </c>
-      <c r="D12" s="144">
+      <c r="D12" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>1.0858399999999999</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="98">
         <v>3358</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="77">
         <v>3373</v>
       </c>
-      <c r="G12" s="85">
-        <v>3368.43</v>
-      </c>
-      <c r="H12" s="85">
-        <v>2.9</v>
-      </c>
-      <c r="I12" s="43">
+      <c r="G12" s="84">
+        <v>3368.42</v>
+      </c>
+      <c r="H12" s="84">
+        <v>2.84</v>
+      </c>
+      <c r="I12" s="133">
+        <v>0.11</v>
+      </c>
+      <c r="J12" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
-        <v>6.8294999999999995</v>
-      </c>
-      <c r="J12" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>2.2025137500000002E-3</v>
-      </c>
-      <c r="K12" s="36">
+        <v>6.6881999999999993</v>
+      </c>
+      <c r="K12" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>9.1589999999999998E-4</v>
+      </c>
+      <c r="L12" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>8.3550254089499994E-5</v>
+      </c>
+      <c r="M12" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>0.95965931232224844</v>
       </c>
-      <c r="L12" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>2.0283962185957418E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="164"/>
-      <c r="B13" s="133">
+      <c r="N12" s="139">
+        <f t="shared" si="0"/>
+        <v>8.4349443748618581E-4</v>
+      </c>
+      <c r="O12" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>7.694527194568261E-5</v>
+      </c>
+      <c r="AE12" s="22"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="115"/>
+      <c r="B13" s="32">
         <v>10</v>
       </c>
-      <c r="C13" s="150">
+      <c r="C13" s="43">
         <v>1112.08</v>
       </c>
-      <c r="D13" s="145">
+      <c r="D13" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>1.11208</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="98">
         <v>3432</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="77">
         <v>3458</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="84">
         <v>3449.51</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="84">
         <v>2.83</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="133">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>6.66465</v>
       </c>
-      <c r="J13" s="94">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>2.1493496250000002E-3</v>
-      </c>
-      <c r="K13" s="36">
+      <c r="K13" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>9.1267500000000005E-4</v>
+      </c>
+      <c r="L13" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>7.5954776444999995E-5</v>
+      </c>
+      <c r="M13" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>0.94826994244749252</v>
       </c>
-      <c r="L13" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>1.9327293225307534E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="162" t="s">
+      <c r="N13" s="139">
+        <f t="shared" si="0"/>
+        <v>8.2069185670095683E-4</v>
+      </c>
+      <c r="O13" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>6.829974142597654E-5</v>
+      </c>
+      <c r="AE13" s="22"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="174">
         <v>1</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="175">
         <v>81</v>
       </c>
-      <c r="D14" s="144">
+      <c r="D14" s="194">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="E14" s="134">
+      <c r="E14" s="174">
         <v>240</v>
       </c>
-      <c r="F14" s="134">
+      <c r="F14" s="173">
         <v>261</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="168">
         <v>252.75</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="168">
         <v>1.43</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="158">
+        <v>0.04</v>
+      </c>
+      <c r="J14" s="169">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>3.3676499999999998</v>
       </c>
-      <c r="J14" s="95">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.086067125E-3</v>
-      </c>
-      <c r="K14" s="34">
+      <c r="K14" s="159">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>4.6117499999999997E-4</v>
+      </c>
+      <c r="L14" s="200">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>3.0381910578000001E-5</v>
+      </c>
+      <c r="M14" s="160">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>3.5136418446315325</v>
       </c>
-      <c r="L14" s="136">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>1.340823611111111E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
+      <c r="N14" s="195">
+        <f t="shared" si="0"/>
+        <v>5.6935185185185179E-3</v>
+      </c>
+      <c r="O14" s="200">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>3.7508531577777778E-4</v>
+      </c>
+      <c r="AE14" s="22"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="114"/>
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="149">
+      <c r="C15" s="43">
         <v>276.39999999999998</v>
       </c>
-      <c r="D15" s="144">
+      <c r="D15" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.27639999999999998</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="98">
         <v>850</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="77">
         <v>865</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="84">
         <v>858.41</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="84">
         <v>1.63</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="133">
+        <v>0.04</v>
+      </c>
+      <c r="J15" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>3.8386499999999999</v>
       </c>
-      <c r="J15" s="96">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.2379646250000001E-3</v>
-      </c>
-      <c r="K15" s="36">
+      <c r="K15" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>5.2567499999999997E-4</v>
+      </c>
+      <c r="L15" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>3.0381910578000001E-5</v>
+      </c>
+      <c r="M15" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.9020896422713336</v>
       </c>
-      <c r="L15" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>4.4788879341534013E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
+      <c r="N15" s="139">
+        <f t="shared" si="0"/>
+        <v>1.9018632416787265E-3</v>
+      </c>
+      <c r="O15" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.0992008168596239E-4</v>
+      </c>
+      <c r="AE15" s="22"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="114"/>
       <c r="B16" s="32">
         <v>3</v>
       </c>
-      <c r="C16" s="149">
+      <c r="C16" s="43">
         <v>302.85000000000002</v>
       </c>
-      <c r="D16" s="144">
+      <c r="D16" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.30285000000000001</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="98">
         <v>931</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="77">
         <v>947</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="84">
         <v>940.36</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="84">
         <v>1.64</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="133">
+        <v>0.02</v>
+      </c>
+      <c r="J16" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>3.8621999999999996</v>
       </c>
-      <c r="J16" s="96">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.2455595E-3</v>
-      </c>
-      <c r="K16" s="36">
+      <c r="K16" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>5.2890000000000001E-4</v>
+      </c>
+      <c r="L16" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>1.5190955289000001E-5</v>
+      </c>
+      <c r="M16" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.8171308893357248</v>
       </c>
-      <c r="L16" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>4.1127934621099553E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
+      <c r="N16" s="139">
+        <f t="shared" si="0"/>
+        <v>1.7464091134224864E-3</v>
+      </c>
+      <c r="O16" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>5.0159997652303121E-5</v>
+      </c>
+      <c r="AE16" s="22"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="114"/>
       <c r="B17" s="32">
         <v>4</v>
       </c>
-      <c r="C17" s="149">
+      <c r="C17" s="43">
         <v>356.01</v>
       </c>
-      <c r="D17" s="144">
+      <c r="D17" s="186">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.35600999999999999</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="98">
         <v>1095</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="77">
         <v>1117</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="84">
         <v>1105.28</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="84">
         <v>1.74</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="133">
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>4.0976999999999997</v>
       </c>
-      <c r="J17" s="96">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.32150825E-3</v>
-      </c>
-      <c r="K17" s="36">
+      <c r="K17" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>5.6115000000000006E-4</v>
+      </c>
+      <c r="L17" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>7.5954776445000003E-6</v>
+      </c>
+      <c r="M17" s="53">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.6759802690015555</v>
       </c>
-      <c r="L17" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>3.71199755624842E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="164"/>
-      <c r="B18" s="131">
+      <c r="N17" s="139">
+        <f t="shared" si="0"/>
+        <v>1.5762197691076094E-3</v>
+      </c>
+      <c r="O17" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>2.1335012062863405E-5</v>
+      </c>
+      <c r="AE17" s="22"/>
+    </row>
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="115"/>
+      <c r="B18" s="176">
         <v>5</v>
       </c>
-      <c r="C18" s="149">
+      <c r="C18" s="177">
         <v>383.85</v>
       </c>
-      <c r="D18" s="144">
+      <c r="D18" s="188">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.38385000000000002</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="176">
         <v>1184</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="170">
         <v>1195</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="171">
         <v>1191.52</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="171">
         <v>1.8</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="163">
+        <v>0.02</v>
+      </c>
+      <c r="J18" s="172">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>4.2389999999999999</v>
       </c>
-      <c r="J18" s="97">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.3670774999999999E-3</v>
-      </c>
-      <c r="K18" s="37">
+      <c r="K18" s="165">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>5.8050000000000007E-4</v>
+      </c>
+      <c r="L18" s="193">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>1.5190955289000001E-5</v>
+      </c>
+      <c r="M18" s="166">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.6140583374805302</v>
       </c>
-      <c r="L18" s="139">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>3.5614888628370451E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="165" t="s">
+      <c r="N18" s="196">
+        <f t="shared" si="0"/>
+        <v>1.5123094958968348E-3</v>
+      </c>
+      <c r="O18" s="193">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>3.9575238475967177E-5</v>
+      </c>
+      <c r="AE18" s="22"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="178">
         <v>1</v>
       </c>
-      <c r="C19" s="102">
+      <c r="C19" s="179">
         <v>32.060400000000001</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="194">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>3.2060400000000003E-2</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102">
+      <c r="E19" s="178"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="156">
         <v>100.99</v>
       </c>
-      <c r="H19" s="101">
+      <c r="H19" s="157">
         <v>1.52</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="158">
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="169">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>3.5796000000000001</v>
       </c>
-      <c r="J19" s="96">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.1544210000000001E-3</v>
-      </c>
-      <c r="K19" s="36">
+      <c r="K19" s="159">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>4.9019999999999999E-4</v>
+      </c>
+      <c r="L19" s="200">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>3.7977388222499997E-5</v>
+      </c>
+      <c r="M19" s="160">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>5.584901677582395</v>
       </c>
-      <c r="L19" s="137">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>3.6007691731856119E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
-      <c r="B20" s="132">
+      <c r="N19" s="195">
+        <f t="shared" si="0"/>
+        <v>1.5289890331998351E-2</v>
+      </c>
+      <c r="O19" s="200">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.1845575296159747E-3</v>
+      </c>
+      <c r="AE19" s="22"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="105"/>
+      <c r="B20" s="99">
         <v>2</v>
       </c>
-      <c r="C20" s="151">
+      <c r="C20" s="180">
         <v>36.732300000000002</v>
       </c>
-      <c r="D20" s="146">
+      <c r="D20" s="197">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>3.6732300000000002E-2</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="151">
-        <v>114.7</v>
-      </c>
-      <c r="H20" s="142">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I20" s="128">
+      <c r="E20" s="99"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="104">
+        <v>114.69</v>
+      </c>
+      <c r="H20" s="102">
+        <v>1.99</v>
+      </c>
+      <c r="I20" s="133">
+        <v>0.17</v>
+      </c>
+      <c r="J20" s="134">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
-        <v>4.7335499999999993</v>
-      </c>
-      <c r="J20" s="129">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.5265698749999999E-3</v>
-      </c>
-      <c r="K20" s="130">
+        <v>4.6864499999999998</v>
+      </c>
+      <c r="K20" s="135">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>6.4177500000000003E-4</v>
+      </c>
+      <c r="L20" s="185">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>1.291231199565E-4</v>
+      </c>
+      <c r="M20" s="129">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>5.2176619590881597</v>
       </c>
-      <c r="L20" s="138"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="153"/>
-      <c r="B21" s="133">
+      <c r="N20" s="139">
+        <f t="shared" si="0"/>
+        <v>1.7471680237828833E-2</v>
+      </c>
+      <c r="O20" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>3.5152473424343153E-3</v>
+      </c>
+      <c r="AE20" s="22"/>
+    </row>
+    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="105"/>
+      <c r="B21" s="181">
         <v>3</v>
       </c>
-      <c r="C21" s="150">
+      <c r="C21" s="177">
         <v>661.66</v>
       </c>
-      <c r="D21" s="145">
+      <c r="D21" s="188">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.66165999999999991</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="176">
         <v>2037</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="170">
         <v>2071</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="171">
         <v>2052.5</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="171">
         <v>2.13</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="163">
+        <v>0.02</v>
+      </c>
+      <c r="J21" s="172">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>5.0161499999999997</v>
       </c>
-      <c r="J21" s="96">
-        <f>(Tabela3[[#This Row],[ FWHM ]]*0.3225)/1000</f>
-        <v>1.6177083749999998E-3</v>
-      </c>
-      <c r="K21" s="36">
+      <c r="K21" s="165">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>6.8692500000000001E-4</v>
+      </c>
+      <c r="L21" s="193">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>1.5190955289000001E-5</v>
+      </c>
+      <c r="M21" s="166">
         <f>1/SQRT(Tabela3[[#This Row],[Energy (MeV)]])</f>
         <v>1.2293698549682632</v>
       </c>
-      <c r="L21" s="139">
-        <f>Tabela3[[#This Row],[FWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
-        <v>2.4449239412991566E-3</v>
-      </c>
-      <c r="M21" s="140"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="166" t="s">
+      <c r="N21" s="196">
+        <f t="shared" si="0"/>
+        <v>1.0381842638212981E-3</v>
+      </c>
+      <c r="O21" s="193">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>2.2958853926487927E-5</v>
+      </c>
+      <c r="AE21" s="128"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="88">
+      <c r="B22" s="85">
         <v>1</v>
       </c>
-      <c r="C22" s="152">
+      <c r="C22" s="44">
         <v>1173.2</v>
       </c>
-      <c r="D22" s="147">
+      <c r="D22" s="198">
         <f>C22/1000</f>
         <v>1.1732</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="85">
         <v>3617</v>
       </c>
-      <c r="F22" s="89">
+      <c r="F22" s="86">
         <v>3651</v>
       </c>
-      <c r="G22" s="90">
+      <c r="G22" s="38">
         <v>3639.15</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="38">
         <v>2.89</v>
       </c>
-      <c r="I22" s="141">
-        <f>H22*2.355</f>
+      <c r="I22" s="143">
+        <v>0.06</v>
+      </c>
+      <c r="J22" s="201">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>6.8059500000000002</v>
       </c>
-      <c r="J22" s="98">
-        <f>(I22*0.3225)/1000</f>
-        <v>2.1949188750000001E-3</v>
-      </c>
-      <c r="K22" s="99">
+      <c r="K22" s="144">
+        <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
+        <v>9.3202500000000006E-4</v>
+      </c>
+      <c r="L22" s="202">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
+        <v>4.557286586699999E-5</v>
+      </c>
+      <c r="M22" s="56">
         <f>1/SQRT(D22)</f>
         <v>0.92323864057627025</v>
       </c>
-      <c r="L22" s="100">
-        <f>J22/D22</f>
-        <v>1.8708820959768156E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="167"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="167"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="159" t="s">
+      <c r="N22" s="204">
+        <f t="shared" si="0"/>
+        <v>7.9442976474599389E-4</v>
+      </c>
+      <c r="O22" s="202">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>3.8844924878111139E-5</v>
+      </c>
+      <c r="AE22" s="22"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="118"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="22"/>
+      <c r="AE23" s="22"/>
+    </row>
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="118"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="22"/>
+      <c r="AE24" s="22"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="112">
+      <c r="B25" s="211">
         <v>1</v>
       </c>
-      <c r="C25" s="101">
+      <c r="C25" s="212">
         <v>4.2850000000000001</v>
       </c>
-      <c r="D25" s="101">
-        <f t="shared" ref="D25:D40" si="0">C25/1000</f>
+      <c r="D25" s="213">
+        <f t="shared" ref="D25:D40" si="1">C25/1000</f>
         <v>4.2849999999999997E-3</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102">
+      <c r="E25" s="211"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="212">
         <v>139.04</v>
       </c>
-      <c r="H25" s="102">
+      <c r="H25" s="212">
         <v>1.78</v>
       </c>
-      <c r="I25" s="122">
-        <f>H25*2.355</f>
+      <c r="I25" s="215">
+        <v>0.04</v>
+      </c>
+      <c r="J25" s="216">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>4.1919000000000004</v>
       </c>
-      <c r="J25" s="122">
-        <f>I25*0.0310589/1000</f>
+      <c r="K25" s="217">
+        <f t="shared" ref="K25:K32" si="2">J25*0.0310589/1000</f>
         <v>1.3019580291000001E-4</v>
       </c>
-      <c r="K25" s="102">
-        <f t="shared" ref="K25:K40" si="1">1/SQRT(D25)</f>
+      <c r="L25" s="218">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>2.9257483800000004E-6</v>
+      </c>
+      <c r="M25" s="219">
+        <f>1/SQRT(D25)</f>
         <v>15.276525413351823</v>
       </c>
-      <c r="L25" s="103">
-        <f t="shared" ref="L25:L40" si="2">J25/D25</f>
+      <c r="N25" s="220">
+        <f>K25/D25</f>
         <v>3.0384084693115522E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
-      <c r="B26" s="113">
+      <c r="O25" s="221">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>6.827884200700118E-4</v>
+      </c>
+      <c r="AE25" s="22"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
+      <c r="B26" s="99">
         <v>2</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="104">
         <v>4.6189999999999998</v>
       </c>
-      <c r="D26" s="105">
-        <f t="shared" si="0"/>
+      <c r="D26" s="197">
+        <f t="shared" si="1"/>
         <v>4.6189999999999998E-3</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106">
-        <v>150.38999999999999</v>
-      </c>
-      <c r="H26" s="106">
-        <v>2.17</v>
-      </c>
-      <c r="I26" s="124">
-        <f t="shared" ref="I26:I32" si="3">H26*2.355</f>
-        <v>5.1103499999999995</v>
-      </c>
-      <c r="J26" s="124">
-        <f t="shared" ref="J26:J40" si="4">I26*0.0310589/1000</f>
-        <v>1.58721849615E-4</v>
-      </c>
-      <c r="K26" s="106">
+      <c r="E26" s="99"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="104">
+        <v>150.36000000000001</v>
+      </c>
+      <c r="H26" s="104">
+        <v>2.13</v>
+      </c>
+      <c r="I26" s="205">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="206">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>5.0161499999999997</v>
+      </c>
+      <c r="K26" s="207">
+        <f t="shared" si="2"/>
+        <v>1.5579610123499999E-4</v>
+      </c>
+      <c r="L26" s="208">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>7.3143709500000005E-6</v>
+      </c>
+      <c r="M26" s="129">
+        <f>1/SQRT(D26)</f>
+        <v>14.713839651479711</v>
+      </c>
+      <c r="N26" s="137">
+        <f>K26/D26</f>
+        <v>3.3729400570469796E-2</v>
+      </c>
+      <c r="O26" s="209">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.5835399328859062E-3</v>
+      </c>
+      <c r="AE26" s="22"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
+      <c r="B27" s="99">
+        <v>3</v>
+      </c>
+      <c r="C27" s="104">
+        <v>4.9359999999999999</v>
+      </c>
+      <c r="D27" s="197">
         <f t="shared" si="1"/>
-        <v>14.713839651479711</v>
-      </c>
-      <c r="L26" s="107">
+        <v>4.9360000000000003E-3</v>
+      </c>
+      <c r="E27" s="99"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="104">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="H27" s="104">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I27" s="205">
+        <v>0.26</v>
+      </c>
+      <c r="J27" s="206">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>5.8168500000000005</v>
+      </c>
+      <c r="K27" s="207">
         <f t="shared" si="2"/>
-        <v>3.4362816543624164E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
-      <c r="B27" s="113">
-        <v>3</v>
-      </c>
-      <c r="C27" s="105">
-        <v>4.9359999999999999</v>
-      </c>
-      <c r="D27" s="105">
-        <f t="shared" si="0"/>
-        <v>4.9360000000000003E-3</v>
-      </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106">
-        <v>159.78</v>
-      </c>
-      <c r="H27" s="106">
-        <v>2.17</v>
-      </c>
-      <c r="I27" s="124">
-        <f t="shared" si="3"/>
-        <v>5.1103499999999995</v>
-      </c>
-      <c r="J27" s="124">
-        <f t="shared" si="4"/>
-        <v>1.58721849615E-4</v>
-      </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="107"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="160"/>
-      <c r="B28" s="116">
+        <v>1.8066496246500004E-4</v>
+      </c>
+      <c r="L27" s="208">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>1.9017364470000002E-5</v>
+      </c>
+      <c r="M27" s="129">
+        <f>1/SQRT(D27)</f>
+        <v>14.233523557739298</v>
+      </c>
+      <c r="N27" s="137">
+        <f>K27/D27</f>
+        <v>3.6601491585291739E-2</v>
+      </c>
+      <c r="O27" s="209">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>3.852788587925446E-3</v>
+      </c>
+      <c r="AE27" s="22"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="111"/>
+      <c r="B28" s="96">
         <v>4</v>
       </c>
-      <c r="C28" s="115">
+      <c r="C28" s="97">
         <v>5.28</v>
       </c>
-      <c r="D28" s="115">
-        <f t="shared" si="0"/>
+      <c r="D28" s="187">
+        <f t="shared" si="1"/>
         <v>5.28E-3</v>
       </c>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="106">
-        <v>171.15</v>
-      </c>
-      <c r="H28" s="106">
-        <v>1.96</v>
-      </c>
-      <c r="I28" s="124">
-        <f t="shared" si="3"/>
-        <v>4.6158000000000001</v>
-      </c>
-      <c r="J28" s="124">
-        <f t="shared" si="4"/>
-        <v>1.4336167061999999E-4</v>
-      </c>
-      <c r="K28" s="117">
+      <c r="E28" s="96"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="93">
+        <v>171.19</v>
+      </c>
+      <c r="H28" s="93">
+        <v>2.13</v>
+      </c>
+      <c r="I28" s="133">
+        <v>0.12</v>
+      </c>
+      <c r="J28" s="138">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>5.0161499999999997</v>
+      </c>
+      <c r="K28" s="184">
+        <f t="shared" si="2"/>
+        <v>1.5579610123499999E-4</v>
+      </c>
+      <c r="L28" s="183">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>8.7772451399999986E-6</v>
+      </c>
+      <c r="M28" s="146">
+        <f>1/SQRT(D28)</f>
+        <v>13.762047064079507</v>
+      </c>
+      <c r="N28" s="139">
+        <f>K28/D28</f>
+        <v>2.9506837355113634E-2</v>
+      </c>
+      <c r="O28" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.6623570340909089E-3</v>
+      </c>
+      <c r="AE28" s="22"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="111"/>
+      <c r="B29" s="99">
+        <v>5</v>
+      </c>
+      <c r="C29" s="104">
+        <v>30.625</v>
+      </c>
+      <c r="D29" s="197">
         <f t="shared" si="1"/>
-        <v>13.762047064079507</v>
-      </c>
-      <c r="L28" s="118">
+        <v>3.0624999999999999E-2</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="104">
+        <v>179.97</v>
+      </c>
+      <c r="H29" s="104">
+        <v>2.62</v>
+      </c>
+      <c r="I29" s="205">
+        <v>0.01</v>
+      </c>
+      <c r="J29" s="206">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>6.1701000000000006</v>
+      </c>
+      <c r="K29" s="207">
         <f t="shared" si="2"/>
-        <v>2.715183155681818E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
-      <c r="B29" s="113">
-        <v>5</v>
-      </c>
-      <c r="C29" s="105">
-        <v>30.625</v>
-      </c>
-      <c r="D29" s="105">
-        <f t="shared" si="0"/>
-        <v>3.0624999999999999E-2</v>
-      </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="117">
-        <v>179</v>
-      </c>
-      <c r="H29" s="117">
+        <v>1.9163651889000002E-4</v>
+      </c>
+      <c r="L29" s="208">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>7.3143709500000009E-7</v>
+      </c>
+      <c r="M29" s="129">
+        <f>1/SQRT(D29)</f>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="N29" s="137">
+        <f>K29/D29</f>
+        <v>6.2575189841632666E-3</v>
+      </c>
+      <c r="O29" s="209">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>2.3883660244897964E-5</v>
+      </c>
+      <c r="AE29" s="22"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="111"/>
+      <c r="B30" s="94">
+        <v>6</v>
+      </c>
+      <c r="C30" s="93">
+        <v>30.972999999999999</v>
+      </c>
+      <c r="D30" s="186">
+        <f t="shared" si="1"/>
+        <v>3.0973000000000001E-2</v>
+      </c>
+      <c r="E30" s="94"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="97">
+        <v>987.6</v>
+      </c>
+      <c r="H30" s="97">
+        <v>4.32</v>
+      </c>
+      <c r="I30" s="133">
+        <v>0.23</v>
+      </c>
+      <c r="J30" s="138">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>10.1736</v>
+      </c>
+      <c r="K30" s="184">
+        <f t="shared" si="2"/>
+        <v>3.1598082504000002E-4</v>
+      </c>
+      <c r="L30" s="183">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>1.6823053184999998E-5</v>
+      </c>
+      <c r="M30" s="53">
+        <f>1/SQRT(D30)</f>
+        <v>5.6820933415026795</v>
+      </c>
+      <c r="N30" s="136">
+        <f>K30/D30</f>
+        <v>1.0201815292028541E-2</v>
+      </c>
+      <c r="O30" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>5.4315220304781574E-4</v>
+      </c>
+      <c r="AE30" s="22"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
+      <c r="B31" s="99">
+        <v>7</v>
+      </c>
+      <c r="C31" s="104">
+        <v>34.963999999999999</v>
+      </c>
+      <c r="D31" s="197">
+        <f t="shared" si="1"/>
+        <v>3.4964000000000002E-2</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="210">
+        <v>998.84</v>
+      </c>
+      <c r="H31" s="210">
+        <v>3.86</v>
+      </c>
+      <c r="I31" s="205">
+        <v>0.01</v>
+      </c>
+      <c r="J31" s="206">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>9.0902999999999992</v>
+      </c>
+      <c r="K31" s="207">
+        <f t="shared" si="2"/>
+        <v>2.8233471867E-4</v>
+      </c>
+      <c r="L31" s="208">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>7.3143709500000009E-7</v>
+      </c>
+      <c r="M31" s="129">
+        <f>1/SQRT(D31)</f>
+        <v>5.3479759334779091</v>
+      </c>
+      <c r="N31" s="137">
+        <f>K31/D31</f>
+        <v>8.07501197431644E-3</v>
+      </c>
+      <c r="O31" s="209">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>2.0919720140716168E-5</v>
+      </c>
+      <c r="AE31" s="22"/>
+    </row>
+    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="112"/>
+      <c r="B32" s="182">
+        <v>8</v>
+      </c>
+      <c r="C32" s="161">
+        <v>35.822000000000003</v>
+      </c>
+      <c r="D32" s="188">
+        <f t="shared" si="1"/>
+        <v>3.5822E-2</v>
+      </c>
+      <c r="E32" s="182"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="161">
+        <v>1127</v>
+      </c>
+      <c r="H32" s="161">
+        <v>4.83</v>
+      </c>
+      <c r="I32" s="163">
+        <v>0.01</v>
+      </c>
+      <c r="J32" s="164">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>11.374650000000001</v>
+      </c>
+      <c r="K32" s="189">
+        <f t="shared" si="2"/>
+        <v>3.5328411688500004E-4</v>
+      </c>
+      <c r="L32" s="190">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>7.3143709500000009E-7</v>
+      </c>
+      <c r="M32" s="166">
+        <f>1/SQRT(D32)</f>
+        <v>5.2835410407526107</v>
+      </c>
+      <c r="N32" s="167">
+        <f>K32/D32</f>
+        <v>9.8622108448718684E-3</v>
+      </c>
+      <c r="O32" s="193">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>2.0418655993523536E-5</v>
+      </c>
+      <c r="AE32" s="22"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="99">
+        <v>1</v>
+      </c>
+      <c r="C33" s="104">
+        <v>5.633</v>
+      </c>
+      <c r="D33" s="197">
+        <f t="shared" si="1"/>
+        <v>5.633E-3</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="104">
+        <v>182.47</v>
+      </c>
+      <c r="H33" s="104">
+        <v>1.88</v>
+      </c>
+      <c r="I33" s="205">
+        <v>0.04</v>
+      </c>
+      <c r="J33" s="206">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>4.4273999999999996</v>
+      </c>
+      <c r="K33" s="207">
+        <f>J33*0.0310589/1000</f>
+        <v>1.3751017385999999E-4</v>
+      </c>
+      <c r="L33" s="208">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>2.9257483800000004E-6</v>
+      </c>
+      <c r="M33" s="129">
+        <f>1/SQRT(D33)</f>
+        <v>13.323861953460529</v>
+      </c>
+      <c r="N33" s="137">
+        <f>K33/D33</f>
+        <v>2.4411534503816792E-2</v>
+      </c>
+      <c r="O33" s="209">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>5.1939435114503824E-4</v>
+      </c>
+      <c r="AE33" s="22"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="111"/>
+      <c r="B34" s="94">
         <v>2</v>
       </c>
-      <c r="I29" s="124">
-        <f t="shared" si="3"/>
-        <v>4.71</v>
-      </c>
-      <c r="J29" s="124">
-        <f t="shared" si="4"/>
-        <v>1.46287419E-4</v>
-      </c>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
-      <c r="B30" s="113">
-        <v>6</v>
-      </c>
-      <c r="C30" s="105">
-        <v>30.972999999999999</v>
-      </c>
-      <c r="D30" s="105">
-        <f t="shared" si="0"/>
-        <v>3.0973000000000001E-2</v>
-      </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="117">
-        <v>987.6</v>
-      </c>
-      <c r="H30" s="117">
-        <v>4.32</v>
-      </c>
-      <c r="I30" s="124">
-        <f t="shared" si="3"/>
-        <v>10.1736</v>
-      </c>
-      <c r="J30" s="124">
-        <f t="shared" si="4"/>
-        <v>3.1598082504000002E-4</v>
-      </c>
-      <c r="K30" s="106">
+      <c r="C34" s="93">
+        <v>6.2050000000000001</v>
+      </c>
+      <c r="D34" s="186">
         <f t="shared" si="1"/>
-        <v>5.6820933415026795</v>
-      </c>
-      <c r="L30" s="107">
-        <f t="shared" si="2"/>
-        <v>1.0201815292028541E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
-      <c r="B31" s="113">
-        <v>7</v>
-      </c>
-      <c r="C31" s="105">
-        <v>34.963999999999999</v>
-      </c>
-      <c r="D31" s="105">
-        <f t="shared" si="0"/>
-        <v>3.4964000000000002E-2</v>
-      </c>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="171">
-        <v>998.84</v>
-      </c>
-      <c r="H31" s="171">
-        <v>3.86</v>
-      </c>
-      <c r="I31" s="124">
-        <f t="shared" si="3"/>
-        <v>9.0902999999999992</v>
-      </c>
-      <c r="J31" s="124">
-        <f t="shared" si="4"/>
-        <v>2.8233471867E-4</v>
-      </c>
-      <c r="K31" s="106"/>
-      <c r="L31" s="107"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161"/>
-      <c r="B32" s="114">
-        <v>8</v>
-      </c>
-      <c r="C32" s="68">
-        <v>35.822000000000003</v>
-      </c>
-      <c r="D32" s="68">
-        <f t="shared" si="0"/>
-        <v>3.5822E-2</v>
-      </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="57">
-        <v>1127</v>
-      </c>
-      <c r="H32" s="57">
-        <v>4.83</v>
-      </c>
-      <c r="I32" s="124">
-        <f t="shared" si="3"/>
-        <v>11.374650000000001</v>
-      </c>
-      <c r="J32" s="124">
-        <f t="shared" si="4"/>
-        <v>3.5328411688500004E-4</v>
-      </c>
-      <c r="K32" s="57">
-        <f t="shared" si="1"/>
-        <v>5.2835410407526107</v>
-      </c>
-      <c r="L32" s="107">
-        <f t="shared" si="2"/>
-        <v>9.8622108448718684E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="168" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="120">
-        <v>1</v>
-      </c>
-      <c r="C33" s="121">
-        <v>5.633</v>
-      </c>
-      <c r="D33" s="101">
-        <f t="shared" si="0"/>
-        <v>5.633E-3</v>
-      </c>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="102">
-        <v>182.47</v>
-      </c>
-      <c r="H33" s="102">
-        <v>1.88</v>
-      </c>
-      <c r="I33" s="122">
-        <f t="shared" ref="I33:I40" si="5">H33*2.355</f>
-        <v>4.4273999999999996</v>
-      </c>
-      <c r="J33" s="119">
-        <f t="shared" si="4"/>
-        <v>1.3751017385999999E-4</v>
-      </c>
-      <c r="K33" s="106">
-        <f t="shared" si="1"/>
-        <v>13.323861953460529</v>
-      </c>
-      <c r="L33" s="107">
-        <f t="shared" si="2"/>
-        <v>2.4411534503816792E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
-      <c r="B34" s="123">
-        <v>2</v>
-      </c>
-      <c r="C34" s="104">
-        <v>6.2050000000000001</v>
-      </c>
-      <c r="D34" s="105">
-        <f t="shared" si="0"/>
         <v>6.2050000000000004E-3</v>
       </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="106">
+      <c r="E34" s="94"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="93">
         <v>201.11</v>
       </c>
-      <c r="H34" s="106">
+      <c r="H34" s="93">
         <v>2.29</v>
       </c>
-      <c r="I34" s="124">
-        <f t="shared" si="5"/>
+      <c r="I34" s="133">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="138">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>5.3929499999999999</v>
       </c>
-      <c r="J34" s="119">
-        <f t="shared" si="4"/>
+      <c r="K34" s="184">
+        <f>J34*0.0310589/1000</f>
         <v>1.6749909475500001E-4</v>
       </c>
-      <c r="K34" s="106">
-        <f t="shared" si="1"/>
+      <c r="L34" s="183">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>7.3143709500000005E-6</v>
+      </c>
+      <c r="M34" s="53">
+        <f>1/SQRT(D34)</f>
         <v>12.694894822438663</v>
       </c>
-      <c r="L34" s="107">
-        <f t="shared" si="2"/>
+      <c r="N34" s="136">
+        <f>K34/D34</f>
         <v>2.6994213497985496E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="169"/>
-      <c r="B35" s="123">
+      <c r="O34" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.1787866156325543E-3</v>
+      </c>
+      <c r="AE34" s="22"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="111"/>
+      <c r="B35" s="99">
         <v>3</v>
       </c>
       <c r="C35" s="104">
         <v>6.5869999999999997</v>
       </c>
-      <c r="D35" s="105">
-        <f t="shared" si="0"/>
+      <c r="D35" s="197">
+        <f t="shared" si="1"/>
         <v>6.587E-3</v>
       </c>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="106">
+      <c r="E35" s="99"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="104">
         <v>213.12</v>
       </c>
-      <c r="H35" s="106">
+      <c r="H35" s="104">
         <v>2.92</v>
       </c>
-      <c r="I35" s="124">
-        <f t="shared" si="5"/>
+      <c r="I35" s="205">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J35" s="206">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>6.8765999999999998</v>
       </c>
-      <c r="J35" s="119">
+      <c r="K35" s="207">
+        <f>J35*0.0310589/1000</f>
+        <v>2.1357963174E-4</v>
+      </c>
+      <c r="L35" s="208">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>2.1211675754999999E-5</v>
+      </c>
+      <c r="M35" s="129">
+        <f t="shared" ref="M35:M36" si="3">1/SQRT(D35)</f>
+        <v>12.321289682673649</v>
+      </c>
+      <c r="N35" s="137">
+        <f t="shared" ref="N35:N36" si="4">K35/D35</f>
+        <v>3.2424416538636709E-2</v>
+      </c>
+      <c r="O35" s="209">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>3.2202331493851525E-3</v>
+      </c>
+      <c r="AE35" s="22"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="111"/>
+      <c r="B36" s="94">
+        <v>4</v>
+      </c>
+      <c r="C36" s="93">
+        <v>7.1779999999999999</v>
+      </c>
+      <c r="D36" s="186">
+        <f t="shared" si="1"/>
+        <v>7.1780000000000004E-3</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="93">
+        <v>232.17</v>
+      </c>
+      <c r="H36" s="93">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I36" s="133">
+        <v>0.18</v>
+      </c>
+      <c r="J36" s="138">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
+        <v>5.9581499999999998</v>
+      </c>
+      <c r="K36" s="184">
+        <f>J36*0.0310589/1000</f>
+        <v>1.8505358503499998E-4</v>
+      </c>
+      <c r="L36" s="183">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>1.3165867710000001E-5</v>
+      </c>
+      <c r="M36" s="53">
+        <f t="shared" si="3"/>
+        <v>11.803159420437522</v>
+      </c>
+      <c r="N36" s="136">
         <f t="shared" si="4"/>
-        <v>2.1357963174E-4</v>
-      </c>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="169"/>
-      <c r="B36" s="123">
-        <v>4</v>
-      </c>
-      <c r="C36" s="104">
-        <v>7.1779999999999999</v>
-      </c>
-      <c r="D36" s="105">
-        <f t="shared" si="0"/>
-        <v>7.1780000000000004E-3</v>
-      </c>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="106">
-        <v>232.17</v>
-      </c>
-      <c r="H36" s="106">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="I36" s="124">
-        <f t="shared" si="5"/>
-        <v>5.9581499999999998</v>
-      </c>
-      <c r="J36" s="119">
-        <f t="shared" si="4"/>
-        <v>1.8505358503499998E-4</v>
-      </c>
-      <c r="K36" s="106"/>
-      <c r="L36" s="107"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="169"/>
-      <c r="B37" s="123">
+        <v>2.5780661052521591E-2</v>
+      </c>
+      <c r="O36" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>1.8341972290331569E-3</v>
+      </c>
+      <c r="AE36" s="22"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="111"/>
+      <c r="B37" s="94">
         <v>5</v>
       </c>
-      <c r="C37" s="104">
+      <c r="C37" s="93">
         <v>39.521999999999998</v>
       </c>
-      <c r="D37" s="105">
-        <f t="shared" si="0"/>
+      <c r="D37" s="186">
+        <f t="shared" si="1"/>
         <v>3.9522000000000002E-2</v>
       </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="106">
+      <c r="E37" s="94"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="93">
         <v>1273.83</v>
       </c>
-      <c r="H37" s="106">
+      <c r="H37" s="93">
         <v>5.12</v>
       </c>
-      <c r="I37" s="124">
-        <f t="shared" si="5"/>
+      <c r="I37" s="133">
+        <v>0.23</v>
+      </c>
+      <c r="J37" s="138">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>12.057600000000001</v>
       </c>
-      <c r="J37" s="119">
-        <f t="shared" si="4"/>
+      <c r="K37" s="184">
+        <f>J37*0.0310589/1000</f>
         <v>3.7449579264000005E-4</v>
       </c>
-      <c r="K37" s="106">
+      <c r="L37" s="183">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>1.6823053184999998E-5</v>
+      </c>
+      <c r="M37" s="53">
+        <f>1/SQRT(D37)</f>
+        <v>5.0301454492615498</v>
+      </c>
+      <c r="N37" s="136">
+        <f>K37/D37</f>
+        <v>9.4756285775011388E-3</v>
+      </c>
+      <c r="O37" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>4.2566300250493388E-4</v>
+      </c>
+      <c r="AE37" s="22"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="111"/>
+      <c r="B38" s="94">
+        <v>6</v>
+      </c>
+      <c r="C38" s="93">
+        <v>40.116999999999997</v>
+      </c>
+      <c r="D38" s="186">
         <f t="shared" si="1"/>
-        <v>5.0301454492615498</v>
-      </c>
-      <c r="L37" s="107">
-        <f t="shared" si="2"/>
-        <v>9.4756285775011388E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="169"/>
-      <c r="B38" s="123">
-        <v>6</v>
-      </c>
-      <c r="C38" s="104">
-        <v>40.116999999999997</v>
-      </c>
-      <c r="D38" s="105">
-        <f t="shared" si="0"/>
         <v>4.0117E-2</v>
       </c>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="106">
+      <c r="E38" s="94"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="93">
         <v>1292.93</v>
       </c>
-      <c r="H38" s="106">
+      <c r="H38" s="93">
         <v>4.97</v>
       </c>
-      <c r="I38" s="124">
-        <f t="shared" si="5"/>
+      <c r="I38" s="133">
+        <v>0.13</v>
+      </c>
+      <c r="J38" s="138">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>11.70435</v>
       </c>
-      <c r="J38" s="119">
-        <f t="shared" si="4"/>
+      <c r="K38" s="184">
+        <f>J38*0.0310589/1000</f>
         <v>3.6352423621500003E-4</v>
       </c>
-      <c r="K38" s="106">
+      <c r="L38" s="183">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>9.508682235000001E-6</v>
+      </c>
+      <c r="M38" s="53">
+        <f>1/SQRT(D38)</f>
+        <v>4.992703502794809</v>
+      </c>
+      <c r="N38" s="136">
+        <f>K38/D38</f>
+        <v>9.0616007232594675E-3</v>
+      </c>
+      <c r="O38" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>2.3702376137298405E-4</v>
+      </c>
+      <c r="AE38" s="22"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="111"/>
+      <c r="B39" s="94">
+        <v>7</v>
+      </c>
+      <c r="C39" s="93">
+        <v>45.37</v>
+      </c>
+      <c r="D39" s="186">
         <f t="shared" si="1"/>
-        <v>4.992703502794809</v>
-      </c>
-      <c r="L38" s="107">
-        <f t="shared" si="2"/>
-        <v>9.0616007232594675E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="169"/>
-      <c r="B39" s="123">
-        <v>7</v>
-      </c>
-      <c r="C39" s="104">
-        <v>45.37</v>
-      </c>
-      <c r="D39" s="105">
-        <f t="shared" si="0"/>
         <v>4.5370000000000001E-2</v>
       </c>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="106">
+      <c r="E39" s="94"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="93">
         <v>1462.2</v>
       </c>
-      <c r="H39" s="106">
+      <c r="H39" s="93">
         <v>5.97</v>
       </c>
-      <c r="I39" s="124">
-        <f t="shared" si="5"/>
+      <c r="I39" s="133">
+        <v>0.38</v>
+      </c>
+      <c r="J39" s="138">
+        <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>14.059349999999998</v>
       </c>
-      <c r="J39" s="119">
-        <f t="shared" si="4"/>
+      <c r="K39" s="184">
+        <f>J39*0.0310589/1000</f>
         <v>4.3666794571499998E-4</v>
       </c>
-      <c r="K39" s="106">
+      <c r="L39" s="183">
+        <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
+        <v>2.7794609610000001E-5</v>
+      </c>
+      <c r="M39" s="53">
+        <f>1/SQRT(D39)</f>
+        <v>4.6947839410382493</v>
+      </c>
+      <c r="N39" s="136">
+        <f>K39/D39</f>
+        <v>9.6245965553228997E-3</v>
+      </c>
+      <c r="O39" s="185">
+        <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
+        <v>6.1262088626845936E-4</v>
+      </c>
+      <c r="AE39" s="22"/>
+    </row>
+    <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="112"/>
+      <c r="B40" s="147">
+        <v>8</v>
+      </c>
+      <c r="C40" s="148">
+        <v>46.578000000000003</v>
+      </c>
+      <c r="D40" s="191">
         <f t="shared" si="1"/>
-        <v>4.6947839410382493</v>
-      </c>
-      <c r="L39" s="107">
-        <f t="shared" si="2"/>
-        <v>9.6245965553228997E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="170"/>
-      <c r="B40" s="125">
-        <v>8</v>
-      </c>
-      <c r="C40" s="108">
-        <v>46.578000000000003</v>
-      </c>
-      <c r="D40" s="109">
-        <f t="shared" si="0"/>
         <v>4.6578000000000001E-2</v>
       </c>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="111">
-        <f t="shared" si="5"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="152">
+        <f>J40*0.0310589/1000</f>
         <v>0</v>
       </c>
-      <c r="J40" s="63">
-        <f t="shared" si="4"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="154">
+        <f>1/SQRT(D40)</f>
+        <v>4.6335044209201888</v>
+      </c>
+      <c r="N40" s="155">
+        <f>K40/D40</f>
         <v>0</v>
       </c>
-      <c r="K40" s="110">
-        <f t="shared" si="1"/>
-        <v>4.6335044209201888</v>
-      </c>
-      <c r="L40" s="111">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O40" s="145"/>
+      <c r="AE40" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/CNA/Calibrations/Detectors_E-Calib.xlsx
+++ b/CNA/Calibrations/Detectors_E-Calib.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7035" tabRatio="749" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7040" tabRatio="749" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="152Eu" sheetId="1" r:id="rId1"/>
@@ -1132,9 +1132,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,9 +1146,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1327,9 +1321,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,9 +1461,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1488,9 +1476,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1547,18 +1532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1719,6 +1692,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1726,95 +1726,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1900,6 +1811,95 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2276,11 +2276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="764977808"/>
-        <c:axId val="764978896"/>
+        <c:axId val="627023904"/>
+        <c:axId val="627027712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="764977808"/>
+        <c:axId val="627023904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2322,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2358,12 +2357,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764978896"/>
+        <c:crossAx val="627027712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="764978896"/>
+        <c:axId val="627027712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,7 +2447,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764977808"/>
+        <c:crossAx val="627023904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2499,7 +2498,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2546,7 +2545,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -2861,11 +2860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="545718080"/>
-        <c:axId val="545993456"/>
+        <c:axId val="627022816"/>
+        <c:axId val="627030432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="545718080"/>
+        <c:axId val="627022816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2886,7 +2885,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2911,7 +2910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2921,7 +2919,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2970,12 +2968,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545993456"/>
+        <c:crossAx val="627030432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545993456"/>
+        <c:axId val="627030432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,7 +2994,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3038,7 +3036,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3087,7 +3085,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545718080"/>
+        <c:crossAx val="627022816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3186,7 +3184,12 @@
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3302,8 +3305,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10179569249884361"/>
-                  <c:y val="-0.14236185434993673"/>
+                  <c:x val="5.0091429550742188E-2"/>
+                  <c:y val="-0.27171121837895179"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3327,7 +3330,7 @@
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 0,000447x</a:t>
+                      <a:t>y = 0,000583x</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="1600" b="1" baseline="30000">
@@ -3343,7 +3346,7 @@
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t> - 0,000142x + 0,000606</a:t>
+                      <a:t> - 0,000427x + 0,000702</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -3354,7 +3357,7 @@
                     </a:br>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0,993795</a:t>
+                      <a:t>R² = 0,977218</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -3365,8 +3368,10 @@
                 <a:solidFill>
                   <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -3389,12 +3394,195 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Resolution!$O$4:$O$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>6.2370484845623259E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.241598307233347E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4123838994423148E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7712630051444833E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8819320229187313E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8260808205803064E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.6637929770746385E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.090772234145178E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.694527194568261E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.829974142597654E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.3981925108766212E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.7378967268047135E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.7508531577777778E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.0992008168596239E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5.0159997652303121E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1335012062863405E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.9575238475967177E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.1845575296159747E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.5152473424343153E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.2958853926487927E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.8844924878111139E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Resolution!$O$4:$O$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>6.2370484845623259E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.241598307233347E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4123838994423148E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7712630051444833E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8819320229187313E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8260808205803064E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.6637929770746385E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.090772234145178E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.694527194568261E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.829974142597654E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.3981925108766212E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.7378967268047135E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.7508531577777778E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.0992008168596239E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5.0159997652303121E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1335012062863405E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.9575238475967177E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.1845575296159747E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.5152473424343153E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.2958853926487927E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.8844924878111139E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>(Resolution!$M$4:$M$13,Resolution!$M$16:$M$20,Resolution!$M$23,Resolution!$M$24)</c:f>
+              <c:f>Resolution!$M$4:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.8655765539760623</c:v>
                 </c:pt>
@@ -3426,24 +3614,36 @@
                   <c:v>0.94826994244749252</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5.6980288229818976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3479759334779091</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3.5136418446315325</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.9020896422713336</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.8171308893357248</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.6759802690015555</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>1.6140583374805302</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>5.584901677582395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2176619590881597</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.2293698549682632</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>0.92323864057627025</c:v>
                 </c:pt>
               </c:numCache>
@@ -3451,10 +3651,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Resolution!$N$4:$N$13,Resolution!$N$16:$N$20,Resolution!$N$23,Resolution!$N$24)</c:f>
+              <c:f>Resolution!$N$4:$N$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0\.0000</c:formatCode>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3.7339875184759404E-3</c:v>
                 </c:pt>
@@ -3486,24 +3686,36 @@
                   <c:v>8.2069185670095683E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.5496753246753247E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5864889600732179E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5.6935185185185179E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.9018632416787265E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1.7464091134224864E-3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1.5762197691076094E-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>1.5123094958968348E-3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>1.5289890331998351E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7471680237828833E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.0381842638212981E-3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>7.9442976474599389E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3519,11 +3731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="809339904"/>
-        <c:axId val="809333920"/>
+        <c:axId val="627028256"/>
+        <c:axId val="627028800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="809339904"/>
+        <c:axId val="627028256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,12 +3840,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809333920"/>
+        <c:crossAx val="627028800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="809333920"/>
+        <c:axId val="627028800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,7 +3950,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809339904"/>
+        <c:crossAx val="627028256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3828,7 +4040,12 @@
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3895,6 +4112,144 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Resolution!$O$26:$O$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>6.827884200700118E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5835399328859062E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.852788587925446E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6623570340909089E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3883660244897964E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.4315220304781574E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.0919720140716168E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0418655993523536E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.1939435114503824E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1787866156325543E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.2202331493851525E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.8341972290331569E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.2566300250493388E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.3702376137298405E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6.1262088626845936E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Resolution!$O$26:$O$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>6.827884200700118E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5835399328859062E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.852788587925446E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6623570340909089E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3883660244897964E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5.4315220304781574E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.0919720140716168E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.0418655993523536E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.1939435114503824E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1787866156325543E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.2202331493851525E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.8341972290331569E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.2566300250493388E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.3702376137298405E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6.1262088626845936E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Resolution!$M$26:$M$40</c:f>
@@ -4013,11 +4368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="809346976"/>
-        <c:axId val="809332832"/>
+        <c:axId val="627023360"/>
+        <c:axId val="627030976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="809346976"/>
+        <c:axId val="627023360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,12 +4450,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809332832"/>
+        <c:crossAx val="627030976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="809332832"/>
+        <c:axId val="627030976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4178,7 +4533,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809346976"/>
+        <c:crossAx val="627023360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5220,15 +5575,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>8795</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>383437</xdr:rowOff>
+      <xdr:colOff>46148</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>18499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>217415</xdr:colOff>
+      <xdr:colOff>254768</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1582</xdr:rowOff>
+      <xdr:rowOff>16523</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5281,7 +5636,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:F203" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:F203" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24">
   <autoFilter ref="B2:F203">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5290,18 +5645,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Energy (keV)" dataDxfId="6"/>
+    <tableColumn id="1" name="Energy (keV)" dataDxfId="23"/>
     <tableColumn id="2" name="intensity (%)"/>
     <tableColumn id="3" name="shell"/>
     <tableColumn id="4" name="HPGe Channel"/>
-    <tableColumn id="5" name="SDD Channel" dataDxfId="5"/>
+    <tableColumn id="5" name="SDD Channel" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:I36" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:I36" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="B2:I36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5316,9 +5671,9 @@
     <tableColumn id="1" name="Source"/>
     <tableColumn id="2" name="Line"/>
     <tableColumn id="3" name="Parent"/>
-    <tableColumn id="4" name="Shell" dataDxfId="2"/>
-    <tableColumn id="5" name="Energy (keV)" dataDxfId="1"/>
-    <tableColumn id="7" name="SDD Channel" dataDxfId="0"/>
+    <tableColumn id="4" name="Shell" dataDxfId="19"/>
+    <tableColumn id="5" name="Energy (keV)" dataDxfId="18"/>
+    <tableColumn id="7" name="SDD Channel" dataDxfId="17"/>
     <tableColumn id="10" name="HPGe Channel"/>
     <tableColumn id="11" name="Mean energy (keV)"/>
   </tableColumns>
@@ -5327,7 +5682,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:O41" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:O41" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
   <autoFilter ref="B3:O41">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5345,22 +5700,22 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="Peak nr." dataDxfId="22"/>
-    <tableColumn id="2" name=" Energy (keV) " dataDxfId="21"/>
-    <tableColumn id="3" name="Energy (MeV)" dataDxfId="20"/>
-    <tableColumn id="4" name=" ROId " dataDxfId="19"/>
-    <tableColumn id="5" name=" ROIu " dataDxfId="18"/>
-    <tableColumn id="6" name="Centroid " dataDxfId="17"/>
-    <tableColumn id="7" name=" Sigma " dataDxfId="16"/>
-    <tableColumn id="8" name="dSigma" dataDxfId="15"/>
-    <tableColumn id="9" name=" FWHM " dataDxfId="14" dataCellStyle="Vírgula"/>
-    <tableColumn id="10" name="FWHM (MeV)" dataDxfId="13" dataCellStyle="Vírgula"/>
-    <tableColumn id="11" name="dFWHM (MeV)" dataDxfId="12"/>
-    <tableColumn id="13" name="1/sqrt(E') (MeV)^-0.5" dataDxfId="11"/>
-    <tableColumn id="14" name="R = FWHM/E" dataDxfId="10">
+    <tableColumn id="1" name="Peak nr." dataDxfId="13"/>
+    <tableColumn id="2" name=" Energy (keV) " dataDxfId="12"/>
+    <tableColumn id="3" name="Energy (MeV)" dataDxfId="11"/>
+    <tableColumn id="4" name=" ROId " dataDxfId="10"/>
+    <tableColumn id="5" name=" ROIu " dataDxfId="9"/>
+    <tableColumn id="6" name="Centroid " dataDxfId="8"/>
+    <tableColumn id="7" name=" Sigma " dataDxfId="7"/>
+    <tableColumn id="8" name="dSigma" dataDxfId="6"/>
+    <tableColumn id="9" name=" FWHM " dataDxfId="5" dataCellStyle="Vírgula"/>
+    <tableColumn id="10" name="FWHM (MeV)" dataDxfId="4" dataCellStyle="Vírgula"/>
+    <tableColumn id="11" name="dFWHM (MeV)" dataDxfId="3"/>
+    <tableColumn id="13" name="1/sqrt(E') (MeV)^-0.5" dataDxfId="2"/>
+    <tableColumn id="14" name="R = FWHM/E" dataDxfId="1">
       <calculatedColumnFormula>K4/D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="dR" dataDxfId="9"/>
+    <tableColumn id="15" name="dR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5635,18 +5990,18 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5669,8 +6024,8 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="165" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="125">
@@ -5684,2452 +6039,2452 @@
       </c>
       <c r="E3" s="128"/>
       <c r="F3" s="129"/>
-      <c r="G3" s="130">
+      <c r="G3" s="323">
         <f>(Tabela1[[#This Row],[Energy (keV)]]*Tabela1[[#This Row],[intensity (%)]]+B4*C4)/(Tabela1[[#This Row],[intensity (%)]]+C4)</f>
         <v>5.6333243243243238</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="249">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="245">
         <v>5.6360000000000001</v>
       </c>
-      <c r="C4" s="250">
+      <c r="C4" s="246">
         <v>100</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="252"/>
-      <c r="F4" s="253">
+      <c r="E4" s="248"/>
+      <c r="F4" s="249">
         <v>181</v>
       </c>
-      <c r="G4" s="254"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="137">
+      <c r="G4" s="324"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="135">
         <v>6.2050000000000001</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="133" t="s">
+      <c r="C5" s="136"/>
+      <c r="D5" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135">
+      <c r="E5" s="133"/>
+      <c r="F5" s="134">
         <v>200</v>
       </c>
-      <c r="G5" s="139"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="137">
+      <c r="G5" s="137"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="135">
         <v>6.5869999999999997</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="133" t="s">
+      <c r="C6" s="136"/>
+      <c r="D6" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="135">
+      <c r="E6" s="133"/>
+      <c r="F6" s="134">
         <v>212</v>
       </c>
-      <c r="G6" s="139"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="137">
+      <c r="G6" s="137"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="135">
         <v>7.1779999999999999</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="133" t="s">
+      <c r="C7" s="136"/>
+      <c r="D7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="135">
+      <c r="E7" s="133"/>
+      <c r="F7" s="134">
         <v>231</v>
       </c>
-      <c r="G7" s="139"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="131">
+      <c r="G7" s="137"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="130">
         <v>39.521999999999998</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133" t="s">
+      <c r="C8" s="131"/>
+      <c r="D8" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="135">
+      <c r="E8" s="133"/>
+      <c r="F8" s="134">
         <v>1272</v>
       </c>
-      <c r="G8" s="140"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="131">
+      <c r="G8" s="138"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="130">
         <v>40.116999999999997</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135">
+      <c r="E9" s="133"/>
+      <c r="F9" s="134">
         <v>1292</v>
       </c>
-      <c r="G9" s="140"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="243">
+      <c r="G9" s="138"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="240">
         <v>45.289000000000001</v>
       </c>
-      <c r="C10" s="244">
+      <c r="C10" s="241">
         <v>10</v>
       </c>
-      <c r="D10" s="245" t="s">
+      <c r="D10" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="246"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="248">
+      <c r="E10" s="243"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="325">
         <f>(Tabela1[[#This Row],[Energy (keV)]]*Tabela1[[#This Row],[intensity (%)]]+B11*C11)/(Tabela1[[#This Row],[intensity (%)]]+C11)</f>
         <v>45.37024137931035</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="249">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="245">
         <v>45.412999999999997</v>
       </c>
-      <c r="C11" s="250">
+      <c r="C11" s="246">
         <v>19</v>
       </c>
-      <c r="D11" s="251" t="s">
+      <c r="D11" s="247" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="252"/>
-      <c r="F11" s="253">
+      <c r="E11" s="248"/>
+      <c r="F11" s="249">
         <v>1461</v>
       </c>
-      <c r="G11" s="254"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="131">
+      <c r="G11" s="324"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="130">
         <v>46.578000000000003</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133" t="s">
+      <c r="C12" s="131"/>
+      <c r="D12" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142">
+      <c r="E12" s="139"/>
+      <c r="F12" s="140">
         <v>1497</v>
       </c>
-      <c r="G12" s="143"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="168" t="s">
+      <c r="G12" s="141"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="144">
+      <c r="B13" s="142">
         <v>118.97</v>
       </c>
-      <c r="C13" s="145">
+      <c r="C13" s="143">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="149"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="150">
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="147"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="148">
         <v>121.7817</v>
       </c>
-      <c r="C14" s="151">
+      <c r="C14" s="149">
         <v>28.53</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="147">
+      <c r="D14" s="150"/>
+      <c r="E14" s="145">
         <v>378</v>
       </c>
-      <c r="F14" s="148"/>
-      <c r="G14" s="153"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="154">
+      <c r="F14" s="146"/>
+      <c r="G14" s="151"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="152">
         <v>125.68</v>
       </c>
-      <c r="C15" s="155">
+      <c r="C15" s="153">
         <v>5.13E-3</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="156"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="154">
+      <c r="D15" s="150"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="154"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="152">
         <v>137.56</v>
       </c>
-      <c r="C16" s="155">
+      <c r="C16" s="153">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="D16" s="152"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="149"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="154">
+      <c r="D16" s="150"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="147"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="152">
         <v>148</v>
       </c>
-      <c r="C17" s="155">
+      <c r="C17" s="153">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="157"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="154">
+      <c r="D17" s="150"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="155"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="152">
         <v>150.13</v>
       </c>
-      <c r="C18" s="155">
+      <c r="C18" s="153">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D18" s="152"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="157"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="154">
+      <c r="D18" s="150"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="155"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="152">
         <v>166.91</v>
       </c>
-      <c r="C19" s="155">
+      <c r="C19" s="153">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="157"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="154">
+      <c r="D19" s="150"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="155"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="152">
         <v>172.1</v>
       </c>
-      <c r="C20" s="155">
+      <c r="C20" s="153">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="D20" s="152"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="157"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="154">
+      <c r="D20" s="150"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="155"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="152">
         <v>174.8</v>
       </c>
-      <c r="C21" s="155">
+      <c r="C21" s="153">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="157"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="154">
+      <c r="D21" s="150"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="155"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="152">
         <v>175.18</v>
       </c>
-      <c r="C22" s="155">
+      <c r="C22" s="153">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="157"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="154">
+      <c r="D22" s="150"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="155"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="152">
         <v>192.6</v>
       </c>
-      <c r="C23" s="155">
+      <c r="C23" s="153">
         <v>6.8100000000000001E-3</v>
       </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="157"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="154">
+      <c r="D23" s="150"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="155"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="152">
         <v>195.22</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="153">
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="D24" s="152"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="157"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="154">
+      <c r="D24" s="150"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="155"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="152">
         <v>202.74</v>
       </c>
-      <c r="C25" s="155">
+      <c r="C25" s="153">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="D25" s="152"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="157"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="154">
+      <c r="D25" s="150"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="155"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="152">
         <v>207.03</v>
       </c>
-      <c r="C26" s="155">
+      <c r="C26" s="153">
         <v>1.14E-3</v>
       </c>
-      <c r="D26" s="152"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="157"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="154">
+      <c r="D26" s="150"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="155"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="152">
         <v>207.64</v>
       </c>
-      <c r="C27" s="155">
+      <c r="C27" s="153">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="D27" s="152"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="157"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="154">
+      <c r="D27" s="150"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="155"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="152">
         <v>209.3</v>
       </c>
-      <c r="C28" s="155">
+      <c r="C28" s="153">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D28" s="152"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="157"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="154">
+      <c r="D28" s="150"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="155"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="152">
         <v>209.41</v>
       </c>
-      <c r="C29" s="155">
+      <c r="C29" s="153">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="157"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="154">
+      <c r="D29" s="150"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="155"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="152">
         <v>209.97</v>
       </c>
-      <c r="C30" s="155">
+      <c r="C30" s="153">
         <v>4.3E-3</v>
       </c>
-      <c r="D30" s="152"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="157"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="154">
+      <c r="D30" s="150"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="155"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="152">
         <v>210.95</v>
       </c>
-      <c r="C31" s="155">
+      <c r="C31" s="153">
         <v>3.8E-3</v>
       </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="157"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="154">
+      <c r="D31" s="150"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="155"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="152">
         <v>212.43</v>
       </c>
-      <c r="C32" s="155">
+      <c r="C32" s="153">
         <v>2.07E-2</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="157"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="154">
+      <c r="D32" s="150"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="155"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="152">
         <v>237.1</v>
       </c>
-      <c r="C33" s="155">
+      <c r="C33" s="153">
         <v>6.3299999999999997E-3</v>
       </c>
-      <c r="D33" s="152"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="157"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="154">
+      <c r="D33" s="150"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="155"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="152">
         <v>239.33</v>
       </c>
-      <c r="C34" s="155">
+      <c r="C34" s="153">
         <v>5.3179999999999998E-3</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="157"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="154">
+      <c r="D34" s="150"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="155"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="152">
         <v>241</v>
       </c>
-      <c r="C35" s="155">
+      <c r="C35" s="153">
         <v>3.723E-4</v>
       </c>
-      <c r="D35" s="152"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="157"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="150">
+      <c r="D35" s="150"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="155"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="148">
         <v>244.69739999999999</v>
       </c>
-      <c r="C36" s="151">
+      <c r="C36" s="149">
         <v>7.55</v>
       </c>
-      <c r="D36" s="152"/>
-      <c r="E36" s="147">
+      <c r="D36" s="150"/>
+      <c r="E36" s="145">
         <v>759</v>
       </c>
-      <c r="F36" s="148"/>
-      <c r="G36" s="157"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="154">
+      <c r="F36" s="146"/>
+      <c r="G36" s="155"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="152">
         <v>251.63300000000001</v>
       </c>
-      <c r="C37" s="155">
+      <c r="C37" s="153">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D37" s="152"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="157"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="154">
+      <c r="D37" s="150"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="155"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="152">
         <v>269.83999999999997</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="153">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="D38" s="152"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="158"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="154">
+      <c r="D38" s="150"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="156"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="152">
         <v>271.08</v>
       </c>
-      <c r="C39" s="155">
+      <c r="C39" s="153">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="D39" s="152"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="157"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="154">
+      <c r="D39" s="150"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="155"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="152">
         <v>272.41000000000003</v>
       </c>
-      <c r="C40" s="155">
+      <c r="C40" s="153">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="D40" s="152"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="157"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="154">
+      <c r="D40" s="150"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="155"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="152">
         <v>275.42</v>
       </c>
-      <c r="C41" s="155">
+      <c r="C41" s="153">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="D41" s="152"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="157"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="154">
+      <c r="D41" s="150"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="155"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="152">
         <v>285.98</v>
       </c>
-      <c r="C42" s="155">
+      <c r="C42" s="153">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="D42" s="152"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="157"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="154">
+      <c r="D42" s="150"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="155"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="152">
         <v>286.5</v>
       </c>
-      <c r="C43" s="155">
+      <c r="C43" s="153">
         <v>1.4E-3</v>
       </c>
-      <c r="D43" s="152"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="157"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="154">
+      <c r="D43" s="150"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="155"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="152">
         <v>287.10000000000002</v>
       </c>
-      <c r="C44" s="155">
+      <c r="C44" s="153">
         <v>8.0999999999999996E-4</v>
       </c>
-      <c r="D44" s="152"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="157"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="154">
+      <c r="D44" s="150"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="155"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="152">
         <v>295.93869999999998</v>
       </c>
-      <c r="C45" s="155">
+      <c r="C45" s="153">
         <v>0.44</v>
       </c>
-      <c r="D45" s="152"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="157"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="154">
+      <c r="D45" s="150"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="155"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="152">
         <v>315.10000000000002</v>
       </c>
-      <c r="C46" s="155">
+      <c r="C46" s="153">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="D46" s="152"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="157"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="154">
+      <c r="D46" s="150"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="155"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="152">
         <v>316.13</v>
       </c>
-      <c r="C47" s="155">
+      <c r="C47" s="153">
         <v>1.01E-2</v>
       </c>
-      <c r="D47" s="152"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="157"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="154">
+      <c r="D47" s="150"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="155"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="152">
         <v>320.10000000000002</v>
       </c>
-      <c r="C48" s="155">
+      <c r="C48" s="153">
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="D48" s="152"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="157"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="154">
+      <c r="D48" s="150"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="155"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="152">
         <v>324.83</v>
       </c>
-      <c r="C49" s="155">
+      <c r="C49" s="153">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="D49" s="152"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="148"/>
-      <c r="G49" s="157"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="154">
+      <c r="D49" s="150"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="155"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="152">
         <v>324.91399999999999</v>
       </c>
-      <c r="C50" s="155">
+      <c r="C50" s="153">
         <v>4.9699999999999996E-3</v>
       </c>
-      <c r="D50" s="152"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="157"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="154">
+      <c r="D50" s="150"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="155"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="152">
         <v>328.76400000000001</v>
       </c>
-      <c r="C51" s="155">
+      <c r="C51" s="153">
         <v>3.46E-3</v>
       </c>
-      <c r="D51" s="152"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="157"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="154">
+      <c r="D51" s="150"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="155"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="152">
         <v>329.41</v>
       </c>
-      <c r="C52" s="155">
+      <c r="C52" s="153">
         <v>0.12130000000000001</v>
       </c>
-      <c r="D52" s="152"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="148"/>
-      <c r="G52" s="157"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="154">
+      <c r="D52" s="150"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="155"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="152">
         <v>330.58</v>
       </c>
-      <c r="C53" s="155">
+      <c r="C53" s="153">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="D53" s="152"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="148"/>
-      <c r="G53" s="157"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="154">
+      <c r="D53" s="150"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="155"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="152">
         <v>340.46</v>
       </c>
-      <c r="C54" s="155">
+      <c r="C54" s="153">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="D54" s="152"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="157"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="150">
+      <c r="D54" s="150"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="155"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="148">
         <v>344.27850000000001</v>
       </c>
-      <c r="C55" s="151">
+      <c r="C55" s="149">
         <v>26.59</v>
       </c>
-      <c r="D55" s="152"/>
-      <c r="E55" s="147">
+      <c r="D55" s="150"/>
+      <c r="E55" s="145">
         <v>1068</v>
       </c>
-      <c r="F55" s="148"/>
-      <c r="G55" s="157"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="154">
+      <c r="F55" s="146"/>
+      <c r="G55" s="155"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="152">
         <v>345.54</v>
       </c>
-      <c r="C56" s="155">
+      <c r="C56" s="153">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="D56" s="152"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="148"/>
-      <c r="G56" s="157"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="154">
+      <c r="D56" s="150"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="155"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="152">
         <v>348.75200000000001</v>
       </c>
-      <c r="C57" s="155">
+      <c r="C57" s="153">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D57" s="152"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="148"/>
-      <c r="G57" s="158"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="154">
+      <c r="D57" s="150"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="156"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="152">
         <v>351.66</v>
       </c>
-      <c r="C58" s="155">
+      <c r="C58" s="153">
         <v>1.06E-2</v>
       </c>
-      <c r="D58" s="152"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="148"/>
-      <c r="G58" s="157"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="154">
+      <c r="D58" s="150"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="146"/>
+      <c r="G58" s="155"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="152">
         <v>354.16</v>
       </c>
-      <c r="C59" s="155">
+      <c r="C59" s="153">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="D59" s="152"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="148"/>
-      <c r="G59" s="157"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="154">
+      <c r="D59" s="150"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="155"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="152">
         <v>357.26</v>
       </c>
-      <c r="C60" s="155">
+      <c r="C60" s="153">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="D60" s="152"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="148"/>
-      <c r="G60" s="157"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="154">
+      <c r="D60" s="150"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="155"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="152">
         <v>358.48</v>
       </c>
-      <c r="C61" s="155">
+      <c r="C61" s="153">
         <v>1.65E-3</v>
       </c>
-      <c r="D61" s="152"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="157"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="154">
+      <c r="D61" s="150"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="155"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="152">
         <v>367.78910000000002</v>
       </c>
-      <c r="C62" s="155">
+      <c r="C62" s="153">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D62" s="152"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="157"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="154">
+      <c r="D62" s="150"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="155"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="152">
         <v>378.15</v>
       </c>
-      <c r="C63" s="155">
+      <c r="C63" s="153">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="D63" s="152"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="157"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="154">
+      <c r="D63" s="150"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="155"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="152">
         <v>379.36</v>
       </c>
-      <c r="C64" s="155">
+      <c r="C64" s="153">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="D64" s="152"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="157"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="154">
+      <c r="D64" s="150"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="155"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="152">
         <v>385.61</v>
       </c>
-      <c r="C65" s="155">
+      <c r="C65" s="153">
         <v>5.5599999999999998E-3</v>
       </c>
-      <c r="D65" s="152"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="157"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="154">
+      <c r="D65" s="150"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="155"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="152">
         <v>387.9</v>
       </c>
-      <c r="C66" s="155">
+      <c r="C66" s="153">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="D66" s="152"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="148"/>
-      <c r="G66" s="157"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="154">
+      <c r="D66" s="150"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="155"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="152">
         <v>389.07</v>
       </c>
-      <c r="C67" s="155">
+      <c r="C67" s="153">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D67" s="152"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="157"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="154">
+      <c r="D67" s="150"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="155"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="152">
         <v>391.19</v>
       </c>
-      <c r="C68" s="155">
+      <c r="C68" s="153">
         <v>1.41E-3</v>
       </c>
-      <c r="D68" s="152"/>
-      <c r="E68" s="147"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="157"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="154">
+      <c r="D68" s="150"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="155"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="152">
         <v>395.75</v>
       </c>
-      <c r="C69" s="155">
+      <c r="C69" s="153">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D69" s="152"/>
-      <c r="E69" s="147"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="157"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="154">
+      <c r="D69" s="150"/>
+      <c r="E69" s="145"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="155"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="152">
         <v>397.75</v>
       </c>
-      <c r="C70" s="155">
+      <c r="C70" s="153">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="D70" s="152"/>
-      <c r="E70" s="147"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="157"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="154">
+      <c r="D70" s="150"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="146"/>
+      <c r="G70" s="155"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="152">
         <v>401.29</v>
       </c>
-      <c r="C71" s="155">
+      <c r="C71" s="153">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="D71" s="152"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="157"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="154">
+      <c r="D71" s="150"/>
+      <c r="E71" s="145"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="155"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="152">
         <v>406.74</v>
       </c>
-      <c r="C72" s="155">
+      <c r="C72" s="153">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="D72" s="152"/>
-      <c r="E72" s="147"/>
-      <c r="F72" s="148"/>
-      <c r="G72" s="157"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="150">
+      <c r="D72" s="150"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="155"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="148">
         <v>411.11649999999997</v>
       </c>
-      <c r="C73" s="151">
+      <c r="C73" s="149">
         <v>2.2370000000000001</v>
       </c>
-      <c r="D73" s="152"/>
-      <c r="E73" s="147">
+      <c r="D73" s="150"/>
+      <c r="E73" s="145">
         <v>1275</v>
       </c>
-      <c r="F73" s="148"/>
-      <c r="G73" s="157"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="154">
+      <c r="F73" s="146"/>
+      <c r="G73" s="155"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="152">
         <v>416.02</v>
       </c>
-      <c r="C74" s="155">
+      <c r="C74" s="153">
         <v>0.10879999999999999</v>
       </c>
-      <c r="D74" s="152"/>
-      <c r="E74" s="147"/>
-      <c r="F74" s="148"/>
-      <c r="G74" s="157"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="154">
+      <c r="D74" s="150"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="146"/>
+      <c r="G74" s="155"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="152">
         <v>423.45</v>
       </c>
-      <c r="C75" s="155">
+      <c r="C75" s="153">
         <v>2.98E-3</v>
       </c>
-      <c r="D75" s="152"/>
-      <c r="E75" s="147"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="158"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="154">
+      <c r="D75" s="150"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="156"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="152">
         <v>440.86</v>
       </c>
-      <c r="C76" s="155">
+      <c r="C76" s="153">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="D76" s="152"/>
-      <c r="E76" s="147"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="157"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="154">
+      <c r="D76" s="150"/>
+      <c r="E76" s="145"/>
+      <c r="F76" s="146"/>
+      <c r="G76" s="155"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="152">
         <v>441</v>
       </c>
-      <c r="C77" s="155"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="147"/>
-      <c r="F77" s="148"/>
-      <c r="G77" s="157"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="150">
+      <c r="C77" s="153"/>
+      <c r="D77" s="150"/>
+      <c r="E77" s="145"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="155"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="148">
         <v>443.9606</v>
       </c>
-      <c r="C78" s="151">
+      <c r="C78" s="149">
         <v>2.827</v>
       </c>
-      <c r="D78" s="152"/>
-      <c r="E78" s="147">
+      <c r="D78" s="150"/>
+      <c r="E78" s="145">
         <v>1377</v>
       </c>
-      <c r="F78" s="148"/>
-      <c r="G78" s="157"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="154">
+      <c r="F78" s="146"/>
+      <c r="G78" s="155"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="152">
         <v>444.01</v>
       </c>
-      <c r="C79" s="155">
+      <c r="C79" s="153">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D79" s="152"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="157"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="154">
+      <c r="D79" s="150"/>
+      <c r="E79" s="145"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="155"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="152">
         <v>464.28</v>
       </c>
-      <c r="C80" s="155">
+      <c r="C80" s="153">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="D80" s="152"/>
-      <c r="E80" s="147"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="158"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="154">
+      <c r="D80" s="150"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="156"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="152">
         <v>476.42</v>
       </c>
-      <c r="C81" s="155">
+      <c r="C81" s="153">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D81" s="152"/>
-      <c r="E81" s="147"/>
-      <c r="F81" s="148"/>
-      <c r="G81" s="157"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="154">
+      <c r="D81" s="150"/>
+      <c r="E81" s="145"/>
+      <c r="F81" s="146"/>
+      <c r="G81" s="155"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="152">
         <v>482.33</v>
       </c>
-      <c r="C82" s="155">
+      <c r="C82" s="153">
         <v>2.47E-2</v>
       </c>
-      <c r="D82" s="152"/>
-      <c r="E82" s="147"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="157"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="154">
+      <c r="D82" s="150"/>
+      <c r="E82" s="145"/>
+      <c r="F82" s="146"/>
+      <c r="G82" s="155"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="152">
         <v>482.4</v>
       </c>
-      <c r="C83" s="155">
+      <c r="C83" s="153">
         <v>2.3400000000000001E-3</v>
       </c>
-      <c r="D83" s="152"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="148"/>
-      <c r="G83" s="157"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="154">
+      <c r="D83" s="150"/>
+      <c r="E83" s="145"/>
+      <c r="F83" s="146"/>
+      <c r="G83" s="155"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="152">
         <v>488.67919999999998</v>
       </c>
-      <c r="C84" s="155">
+      <c r="C84" s="153">
         <v>0.41399999999999998</v>
       </c>
-      <c r="D84" s="152"/>
-      <c r="E84" s="147"/>
-      <c r="F84" s="148"/>
-      <c r="G84" s="157"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="154">
+      <c r="D84" s="150"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="146"/>
+      <c r="G84" s="155"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="152">
         <v>493.54</v>
       </c>
-      <c r="C85" s="155">
+      <c r="C85" s="153">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="D85" s="152"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="148"/>
-      <c r="G85" s="157"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="154">
+      <c r="D85" s="150"/>
+      <c r="E85" s="145"/>
+      <c r="F85" s="146"/>
+      <c r="G85" s="155"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="152">
         <v>493.78</v>
       </c>
-      <c r="C86" s="155">
+      <c r="C86" s="153">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="D86" s="152"/>
-      <c r="E86" s="147"/>
-      <c r="F86" s="148"/>
-      <c r="G86" s="157"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="154">
+      <c r="D86" s="150"/>
+      <c r="E86" s="145"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="155"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="152">
         <v>496.4</v>
       </c>
-      <c r="C87" s="155">
+      <c r="C87" s="153">
         <v>5.8799999999999998E-3</v>
       </c>
-      <c r="D87" s="152"/>
-      <c r="E87" s="147"/>
-      <c r="F87" s="148"/>
-      <c r="G87" s="157"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="154">
+      <c r="D87" s="150"/>
+      <c r="E87" s="145"/>
+      <c r="F87" s="146"/>
+      <c r="G87" s="155"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="152">
         <v>496.56</v>
       </c>
-      <c r="C88" s="155">
+      <c r="C88" s="153">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D88" s="152"/>
-      <c r="E88" s="147"/>
-      <c r="F88" s="148"/>
-      <c r="G88" s="157"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="154">
+      <c r="D88" s="150"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="146"/>
+      <c r="G88" s="155"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="152">
         <v>503.46699999999998</v>
       </c>
-      <c r="C89" s="155">
+      <c r="C89" s="153">
         <v>0.15240000000000001</v>
       </c>
-      <c r="D89" s="152"/>
-      <c r="E89" s="147"/>
-      <c r="F89" s="148"/>
-      <c r="G89" s="157"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="154">
+      <c r="D89" s="150"/>
+      <c r="E89" s="145"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="155"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="152">
         <v>514.78</v>
       </c>
-      <c r="C90" s="155">
+      <c r="C90" s="153">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="D90" s="152"/>
-      <c r="E90" s="147"/>
-      <c r="F90" s="148"/>
-      <c r="G90" s="157"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="154">
+      <c r="D90" s="150"/>
+      <c r="E90" s="145"/>
+      <c r="F90" s="146"/>
+      <c r="G90" s="155"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="152">
         <v>520.24</v>
       </c>
-      <c r="C91" s="155">
+      <c r="C91" s="153">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="D91" s="152"/>
-      <c r="E91" s="147"/>
-      <c r="F91" s="148"/>
-      <c r="G91" s="157"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="154">
+      <c r="D91" s="150"/>
+      <c r="E91" s="145"/>
+      <c r="F91" s="146"/>
+      <c r="G91" s="155"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="152">
         <v>523.13</v>
       </c>
-      <c r="C92" s="155">
+      <c r="C92" s="153">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="D92" s="152"/>
-      <c r="E92" s="147"/>
-      <c r="F92" s="148"/>
-      <c r="G92" s="157"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="154">
+      <c r="D92" s="150"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="155"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="152">
         <v>526.88</v>
       </c>
-      <c r="C93" s="155">
+      <c r="C93" s="153">
         <v>1.2E-2</v>
       </c>
-      <c r="D93" s="152"/>
-      <c r="E93" s="147"/>
-      <c r="F93" s="148"/>
-      <c r="G93" s="157"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="154">
+      <c r="D93" s="150"/>
+      <c r="E93" s="145"/>
+      <c r="F93" s="146"/>
+      <c r="G93" s="155"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="152">
         <v>527.1</v>
       </c>
-      <c r="C94" s="155">
+      <c r="C94" s="153">
         <v>1.861E-4</v>
       </c>
-      <c r="D94" s="152"/>
-      <c r="E94" s="147"/>
-      <c r="F94" s="148"/>
-      <c r="G94" s="157"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="154">
+      <c r="D94" s="150"/>
+      <c r="E94" s="145"/>
+      <c r="F94" s="146"/>
+      <c r="G94" s="155"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="152">
         <v>534.25</v>
       </c>
-      <c r="C95" s="155">
+      <c r="C95" s="153">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D95" s="152"/>
-      <c r="E95" s="147"/>
-      <c r="F95" s="148"/>
-      <c r="G95" s="157"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="154">
+      <c r="D95" s="150"/>
+      <c r="E95" s="145"/>
+      <c r="F95" s="146"/>
+      <c r="G95" s="155"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="152">
         <v>535.44000000000005</v>
       </c>
-      <c r="C96" s="155">
+      <c r="C96" s="153">
         <v>1.73E-3</v>
       </c>
-      <c r="D96" s="152"/>
-      <c r="E96" s="147"/>
-      <c r="F96" s="148"/>
-      <c r="G96" s="157"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="154">
+      <c r="D96" s="150"/>
+      <c r="E96" s="145"/>
+      <c r="F96" s="146"/>
+      <c r="G96" s="155"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B97" s="152">
         <v>536.23</v>
       </c>
-      <c r="C97" s="155"/>
-      <c r="D97" s="152"/>
-      <c r="E97" s="147"/>
-      <c r="F97" s="148"/>
-      <c r="G97" s="157"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="154">
+      <c r="C97" s="153"/>
+      <c r="D97" s="150"/>
+      <c r="E97" s="145"/>
+      <c r="F97" s="146"/>
+      <c r="G97" s="155"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B98" s="152">
         <v>538.29</v>
       </c>
-      <c r="C98" s="155">
+      <c r="C98" s="153">
         <v>4.3E-3</v>
       </c>
-      <c r="D98" s="152"/>
-      <c r="E98" s="147"/>
-      <c r="F98" s="148"/>
-      <c r="G98" s="157"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="154">
+      <c r="D98" s="150"/>
+      <c r="E98" s="145"/>
+      <c r="F98" s="146"/>
+      <c r="G98" s="155"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B99" s="152">
         <v>556.48</v>
       </c>
-      <c r="C99" s="155">
+      <c r="C99" s="153">
         <v>1.77E-2</v>
       </c>
-      <c r="D99" s="152"/>
-      <c r="E99" s="147"/>
-      <c r="F99" s="148"/>
-      <c r="G99" s="157"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="154">
+      <c r="D99" s="150"/>
+      <c r="E99" s="145"/>
+      <c r="F99" s="146"/>
+      <c r="G99" s="155"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B100" s="152">
         <v>557.79999999999995</v>
       </c>
-      <c r="C100" s="155">
+      <c r="C100" s="153">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="D100" s="152"/>
-      <c r="E100" s="147"/>
-      <c r="F100" s="148"/>
-      <c r="G100" s="157"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="154">
+      <c r="D100" s="150"/>
+      <c r="E100" s="145"/>
+      <c r="F100" s="146"/>
+      <c r="G100" s="155"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B101" s="152">
         <v>561.26</v>
       </c>
-      <c r="C101" s="155">
+      <c r="C101" s="153">
         <v>1.41E-3</v>
       </c>
-      <c r="D101" s="152"/>
-      <c r="E101" s="147"/>
-      <c r="F101" s="148"/>
-      <c r="G101" s="157"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="154">
+      <c r="D101" s="150"/>
+      <c r="E101" s="145"/>
+      <c r="F101" s="146"/>
+      <c r="G101" s="155"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B102" s="152">
         <v>562.98</v>
       </c>
-      <c r="C102" s="155">
+      <c r="C102" s="153">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="D102" s="152"/>
-      <c r="E102" s="147"/>
-      <c r="F102" s="148"/>
-      <c r="G102" s="157"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="154">
+      <c r="D102" s="150"/>
+      <c r="E102" s="145"/>
+      <c r="F102" s="146"/>
+      <c r="G102" s="155"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B103" s="152">
         <v>563.1</v>
       </c>
-      <c r="C103" s="155">
+      <c r="C103" s="153">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D103" s="152"/>
-      <c r="E103" s="147"/>
-      <c r="F103" s="148"/>
-      <c r="G103" s="157"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="154">
+      <c r="D103" s="150"/>
+      <c r="E103" s="145"/>
+      <c r="F103" s="146"/>
+      <c r="G103" s="155"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B104" s="152">
         <v>563.98599999999999</v>
       </c>
-      <c r="C104" s="155">
+      <c r="C104" s="153">
         <v>0.49399999999999999</v>
       </c>
-      <c r="D104" s="152"/>
-      <c r="E104" s="147"/>
-      <c r="F104" s="148"/>
-      <c r="G104" s="157"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="154">
+      <c r="D104" s="150"/>
+      <c r="E104" s="145"/>
+      <c r="F104" s="146"/>
+      <c r="G104" s="155"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B105" s="152">
         <v>566.43799999999999</v>
       </c>
-      <c r="C105" s="155">
+      <c r="C105" s="153">
         <v>0.13100000000000001</v>
       </c>
-      <c r="D105" s="152"/>
-      <c r="E105" s="147"/>
-      <c r="F105" s="148"/>
-      <c r="G105" s="157"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="154">
+      <c r="D105" s="150"/>
+      <c r="E105" s="145"/>
+      <c r="F105" s="146"/>
+      <c r="G105" s="155"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B106" s="152">
         <v>571.83000000000004</v>
       </c>
-      <c r="C106" s="155">
+      <c r="C106" s="153">
         <v>4.4400000000000004E-3</v>
       </c>
-      <c r="D106" s="152"/>
-      <c r="E106" s="147"/>
-      <c r="F106" s="148"/>
-      <c r="G106" s="157"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="154">
+      <c r="D106" s="150"/>
+      <c r="E106" s="145"/>
+      <c r="F106" s="146"/>
+      <c r="G106" s="155"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B107" s="152">
         <v>586.26480000000004</v>
       </c>
-      <c r="C107" s="155">
+      <c r="C107" s="153">
         <v>0.45500000000000002</v>
       </c>
-      <c r="D107" s="152"/>
-      <c r="E107" s="147"/>
-      <c r="F107" s="148"/>
-      <c r="G107" s="157"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="154">
+      <c r="D107" s="150"/>
+      <c r="E107" s="145"/>
+      <c r="F107" s="146"/>
+      <c r="G107" s="155"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B108" s="152">
         <v>588.6</v>
       </c>
-      <c r="C108" s="155">
+      <c r="C108" s="153">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D108" s="152"/>
-      <c r="E108" s="147"/>
-      <c r="F108" s="148"/>
-      <c r="G108" s="157"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="154">
+      <c r="D108" s="150"/>
+      <c r="E108" s="145"/>
+      <c r="F108" s="146"/>
+      <c r="G108" s="155"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B109" s="152">
         <v>589.83000000000004</v>
       </c>
-      <c r="C109" s="155">
+      <c r="C109" s="153">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D109" s="152"/>
-      <c r="E109" s="147"/>
-      <c r="F109" s="148"/>
-      <c r="G109" s="157"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="154">
+      <c r="D109" s="150"/>
+      <c r="E109" s="145"/>
+      <c r="F109" s="146"/>
+      <c r="G109" s="155"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B110" s="152">
         <v>595.61</v>
       </c>
-      <c r="C110" s="155">
+      <c r="C110" s="153">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D110" s="152"/>
-      <c r="E110" s="147"/>
-      <c r="F110" s="148"/>
-      <c r="G110" s="157"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="154">
+      <c r="D110" s="150"/>
+      <c r="E110" s="145"/>
+      <c r="F110" s="146"/>
+      <c r="G110" s="155"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B111" s="152">
         <v>608.05999999999995</v>
       </c>
-      <c r="C111" s="155">
+      <c r="C111" s="153">
         <v>2.7E-4</v>
       </c>
-      <c r="D111" s="152"/>
-      <c r="E111" s="147"/>
-      <c r="F111" s="148"/>
-      <c r="G111" s="157"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="154">
+      <c r="D111" s="150"/>
+      <c r="E111" s="145"/>
+      <c r="F111" s="146"/>
+      <c r="G111" s="155"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B112" s="152">
         <v>609.23</v>
       </c>
-      <c r="C112" s="155">
+      <c r="C112" s="153">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="D112" s="152"/>
-      <c r="E112" s="147"/>
-      <c r="F112" s="148"/>
-      <c r="G112" s="157"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="154">
+      <c r="D112" s="150"/>
+      <c r="E112" s="145"/>
+      <c r="F112" s="146"/>
+      <c r="G112" s="155"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B113" s="152">
         <v>615.41</v>
       </c>
-      <c r="C113" s="155"/>
-      <c r="D113" s="152"/>
-      <c r="E113" s="147"/>
-      <c r="F113" s="148"/>
-      <c r="G113" s="157"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="154">
+      <c r="C113" s="153"/>
+      <c r="D113" s="150"/>
+      <c r="E113" s="145"/>
+      <c r="F113" s="146"/>
+      <c r="G113" s="155"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B114" s="152">
         <v>616.04999999999995</v>
       </c>
-      <c r="C114" s="155">
+      <c r="C114" s="153">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="D114" s="152"/>
-      <c r="E114" s="147"/>
-      <c r="F114" s="148"/>
-      <c r="G114" s="157"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="154">
+      <c r="D114" s="150"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="146"/>
+      <c r="G114" s="155"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B115" s="152">
         <v>644.39</v>
       </c>
-      <c r="C115" s="155">
+      <c r="C115" s="153">
         <v>6.6E-3</v>
       </c>
-      <c r="D115" s="152"/>
-      <c r="E115" s="147"/>
-      <c r="F115" s="148"/>
-      <c r="G115" s="157"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="154">
+      <c r="D115" s="150"/>
+      <c r="E115" s="145"/>
+      <c r="F115" s="146"/>
+      <c r="G115" s="155"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B116" s="152">
         <v>656.48900000000003</v>
       </c>
-      <c r="C116" s="155">
+      <c r="C116" s="153">
         <v>0.14410000000000001</v>
       </c>
-      <c r="D116" s="152"/>
-      <c r="E116" s="147"/>
-      <c r="F116" s="148"/>
-      <c r="G116" s="157"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="154">
+      <c r="D116" s="150"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="146"/>
+      <c r="G116" s="155"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B117" s="152">
         <v>664.77</v>
       </c>
-      <c r="C117" s="155">
+      <c r="C117" s="153">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="D117" s="152"/>
-      <c r="E117" s="147"/>
-      <c r="F117" s="148"/>
-      <c r="G117" s="157"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="154">
+      <c r="D117" s="150"/>
+      <c r="E117" s="145"/>
+      <c r="F117" s="146"/>
+      <c r="G117" s="155"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B118" s="152">
         <v>671.15499999999997</v>
       </c>
-      <c r="C118" s="155">
+      <c r="C118" s="153">
         <v>2.4E-2</v>
       </c>
-      <c r="D118" s="152"/>
-      <c r="E118" s="147"/>
-      <c r="F118" s="148"/>
-      <c r="G118" s="157"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="154">
+      <c r="D118" s="150"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="146"/>
+      <c r="G118" s="155"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B119" s="152">
         <v>674.64</v>
       </c>
-      <c r="C119" s="155">
+      <c r="C119" s="153">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D119" s="152"/>
-      <c r="E119" s="147"/>
-      <c r="F119" s="148"/>
-      <c r="G119" s="157"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="154">
+      <c r="D119" s="150"/>
+      <c r="E119" s="145"/>
+      <c r="F119" s="146"/>
+      <c r="G119" s="155"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B120" s="152">
         <v>675</v>
       </c>
-      <c r="C120" s="155">
+      <c r="C120" s="153">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="D120" s="152"/>
-      <c r="E120" s="147"/>
-      <c r="F120" s="148"/>
-      <c r="G120" s="157"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="154">
+      <c r="D120" s="150"/>
+      <c r="E120" s="145"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="155"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B121" s="152">
         <v>678.62300000000005</v>
       </c>
-      <c r="C121" s="155">
+      <c r="C121" s="153">
         <v>0.47299999999999998</v>
       </c>
-      <c r="D121" s="152"/>
-      <c r="E121" s="147"/>
-      <c r="F121" s="148"/>
-      <c r="G121" s="157"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="154">
+      <c r="D121" s="150"/>
+      <c r="E121" s="145"/>
+      <c r="F121" s="146"/>
+      <c r="G121" s="155"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B122" s="152">
         <v>683.25</v>
       </c>
-      <c r="C122" s="155">
+      <c r="C122" s="153">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D122" s="152"/>
-      <c r="E122" s="147"/>
-      <c r="F122" s="148"/>
-      <c r="G122" s="157"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="154">
+      <c r="D122" s="150"/>
+      <c r="E122" s="145"/>
+      <c r="F122" s="146"/>
+      <c r="G122" s="155"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B123" s="152">
         <v>686.6</v>
       </c>
-      <c r="C123" s="155">
+      <c r="C123" s="153">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="D123" s="152"/>
-      <c r="E123" s="147"/>
-      <c r="F123" s="148"/>
-      <c r="G123" s="157"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="154">
+      <c r="D123" s="150"/>
+      <c r="E123" s="145"/>
+      <c r="F123" s="146"/>
+      <c r="G123" s="155"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B124" s="152">
         <v>688.67</v>
       </c>
-      <c r="C124" s="155">
+      <c r="C124" s="153">
         <v>0.85599999999999998</v>
       </c>
-      <c r="D124" s="152"/>
-      <c r="E124" s="147"/>
-      <c r="F124" s="148"/>
-      <c r="G124" s="157"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="154">
+      <c r="D124" s="150"/>
+      <c r="E124" s="145"/>
+      <c r="F124" s="146"/>
+      <c r="G124" s="155"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B125" s="152">
         <v>696.87</v>
       </c>
-      <c r="C125" s="155">
+      <c r="C125" s="153">
         <v>1.6E-2</v>
       </c>
-      <c r="D125" s="152"/>
-      <c r="E125" s="147"/>
-      <c r="F125" s="148"/>
-      <c r="G125" s="157"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="154">
+      <c r="D125" s="150"/>
+      <c r="E125" s="145"/>
+      <c r="F125" s="146"/>
+      <c r="G125" s="155"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B126" s="152">
         <v>703.01</v>
       </c>
-      <c r="C126" s="155">
+      <c r="C126" s="153">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D126" s="152"/>
-      <c r="E126" s="147"/>
-      <c r="F126" s="148"/>
-      <c r="G126" s="157"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="154">
+      <c r="D126" s="150"/>
+      <c r="E126" s="145"/>
+      <c r="F126" s="146"/>
+      <c r="G126" s="155"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B127" s="152">
         <v>703.55</v>
       </c>
-      <c r="C127" s="155">
+      <c r="C127" s="153">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="D127" s="152"/>
-      <c r="E127" s="147"/>
-      <c r="F127" s="148"/>
-      <c r="G127" s="157"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="154">
+      <c r="D127" s="150"/>
+      <c r="E127" s="145"/>
+      <c r="F127" s="146"/>
+      <c r="G127" s="155"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B128" s="152">
         <v>707.16</v>
       </c>
-      <c r="C128" s="155">
+      <c r="C128" s="153">
         <v>1.42E-3</v>
       </c>
-      <c r="D128" s="152"/>
-      <c r="E128" s="147"/>
-      <c r="F128" s="148"/>
-      <c r="G128" s="157"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="154">
+      <c r="D128" s="150"/>
+      <c r="E128" s="145"/>
+      <c r="F128" s="146"/>
+      <c r="G128" s="155"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B129" s="152">
         <v>712.83</v>
       </c>
-      <c r="C129" s="155">
+      <c r="C129" s="153">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="D129" s="152"/>
-      <c r="E129" s="147"/>
-      <c r="F129" s="148"/>
-      <c r="G129" s="157"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="154">
+      <c r="D129" s="150"/>
+      <c r="E129" s="145"/>
+      <c r="F129" s="146"/>
+      <c r="G129" s="155"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B130" s="152">
         <v>719.346</v>
       </c>
-      <c r="C130" s="155">
+      <c r="C130" s="153">
         <v>0.25</v>
       </c>
-      <c r="D130" s="152"/>
-      <c r="E130" s="147"/>
-      <c r="F130" s="148"/>
-      <c r="G130" s="157"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="154">
+      <c r="D130" s="150"/>
+      <c r="E130" s="145"/>
+      <c r="F130" s="146"/>
+      <c r="G130" s="155"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B131" s="152">
         <v>719.36</v>
       </c>
-      <c r="C131" s="155">
+      <c r="C131" s="153">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D131" s="152"/>
-      <c r="E131" s="147"/>
-      <c r="F131" s="148"/>
-      <c r="G131" s="157"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="154">
+      <c r="D131" s="150"/>
+      <c r="E131" s="145"/>
+      <c r="F131" s="146"/>
+      <c r="G131" s="155"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B132" s="152">
         <v>728.04</v>
       </c>
-      <c r="C132" s="155">
+      <c r="C132" s="153">
         <v>1.11E-2</v>
       </c>
-      <c r="D132" s="152"/>
-      <c r="E132" s="147"/>
-      <c r="F132" s="148"/>
-      <c r="G132" s="157"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="154">
+      <c r="D132" s="150"/>
+      <c r="E132" s="145"/>
+      <c r="F132" s="146"/>
+      <c r="G132" s="155"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B133" s="152">
         <v>734.14</v>
       </c>
-      <c r="C133" s="155">
+      <c r="C133" s="153">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D133" s="152"/>
-      <c r="E133" s="147"/>
-      <c r="F133" s="148"/>
-      <c r="G133" s="157"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="154">
+      <c r="D133" s="150"/>
+      <c r="E133" s="145"/>
+      <c r="F133" s="146"/>
+      <c r="G133" s="155"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B134" s="152">
         <v>735.43</v>
       </c>
-      <c r="C134" s="155">
+      <c r="C134" s="153">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="D134" s="152"/>
-      <c r="E134" s="147"/>
-      <c r="F134" s="148"/>
-      <c r="G134" s="157"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="154">
+      <c r="D134" s="150"/>
+      <c r="E134" s="145"/>
+      <c r="F134" s="146"/>
+      <c r="G134" s="155"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B135" s="152">
         <v>756.16</v>
       </c>
-      <c r="C135" s="155">
+      <c r="C135" s="153">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="D135" s="152"/>
-      <c r="E135" s="147"/>
-      <c r="F135" s="148"/>
-      <c r="G135" s="157"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="154">
+      <c r="D135" s="150"/>
+      <c r="E135" s="145"/>
+      <c r="F135" s="146"/>
+      <c r="G135" s="155"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B136" s="152">
         <v>764.88</v>
       </c>
-      <c r="C136" s="155">
+      <c r="C136" s="153">
         <v>0.189</v>
       </c>
-      <c r="D136" s="152"/>
-      <c r="E136" s="147"/>
-      <c r="F136" s="148"/>
-      <c r="G136" s="157"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="154">
+      <c r="D136" s="150"/>
+      <c r="E136" s="145"/>
+      <c r="F136" s="146"/>
+      <c r="G136" s="155"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B137" s="152">
         <v>766.38</v>
       </c>
-      <c r="C137" s="155">
+      <c r="C137" s="153">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="D137" s="152"/>
-      <c r="E137" s="147"/>
-      <c r="F137" s="148"/>
-      <c r="G137" s="157"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="154">
+      <c r="D137" s="150"/>
+      <c r="E137" s="145"/>
+      <c r="F137" s="146"/>
+      <c r="G137" s="155"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B138" s="152">
         <v>768.96</v>
       </c>
-      <c r="C138" s="155">
+      <c r="C138" s="153">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D138" s="152"/>
-      <c r="E138" s="147"/>
-      <c r="F138" s="148"/>
-      <c r="G138" s="157"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="150">
+      <c r="D138" s="150"/>
+      <c r="E138" s="145"/>
+      <c r="F138" s="146"/>
+      <c r="G138" s="155"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B139" s="148">
         <v>778.90449999999998</v>
       </c>
-      <c r="C139" s="151">
+      <c r="C139" s="149">
         <v>12.93</v>
       </c>
-      <c r="D139" s="152"/>
-      <c r="E139" s="147">
+      <c r="D139" s="150"/>
+      <c r="E139" s="145">
         <v>2415</v>
       </c>
-      <c r="F139" s="148"/>
-      <c r="G139" s="157"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="154">
+      <c r="F139" s="146"/>
+      <c r="G139" s="155"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B140" s="152">
         <v>794.78</v>
       </c>
-      <c r="C140" s="155">
+      <c r="C140" s="153">
         <v>2.63E-2</v>
       </c>
-      <c r="D140" s="152"/>
-      <c r="E140" s="147"/>
-      <c r="F140" s="148"/>
-      <c r="G140" s="157"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="154">
+      <c r="D140" s="150"/>
+      <c r="E140" s="145"/>
+      <c r="F140" s="146"/>
+      <c r="G140" s="155"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B141" s="152">
         <v>802</v>
       </c>
-      <c r="C141" s="155">
+      <c r="C141" s="153">
         <v>4.0999999999999999E-4</v>
       </c>
-      <c r="D141" s="152"/>
-      <c r="E141" s="147"/>
-      <c r="F141" s="148"/>
-      <c r="G141" s="158"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="154">
+      <c r="D141" s="150"/>
+      <c r="E141" s="145"/>
+      <c r="F141" s="146"/>
+      <c r="G141" s="156"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B142" s="152">
         <v>805.71</v>
       </c>
-      <c r="C142" s="155">
+      <c r="C142" s="153">
         <v>1.52E-2</v>
       </c>
-      <c r="D142" s="152"/>
-      <c r="E142" s="147"/>
-      <c r="F142" s="148"/>
-      <c r="G142" s="157"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="154">
+      <c r="D142" s="150"/>
+      <c r="E142" s="145"/>
+      <c r="F142" s="146"/>
+      <c r="G142" s="155"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B143" s="152">
         <v>810.45100000000002</v>
       </c>
-      <c r="C143" s="155">
+      <c r="C143" s="153">
         <v>0.317</v>
       </c>
-      <c r="D143" s="152"/>
-      <c r="E143" s="147"/>
-      <c r="F143" s="148"/>
-      <c r="G143" s="157"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="154">
+      <c r="D143" s="150"/>
+      <c r="E143" s="145"/>
+      <c r="F143" s="146"/>
+      <c r="G143" s="155"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B144" s="152">
         <v>813.21</v>
       </c>
-      <c r="C144" s="155">
+      <c r="C144" s="153">
         <v>4.3E-3</v>
       </c>
-      <c r="D144" s="152"/>
-      <c r="E144" s="147"/>
-      <c r="F144" s="148"/>
-      <c r="G144" s="157"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="154">
+      <c r="D144" s="150"/>
+      <c r="E144" s="145"/>
+      <c r="F144" s="146"/>
+      <c r="G144" s="155"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B145" s="152">
         <v>839.36</v>
       </c>
-      <c r="C145" s="155">
+      <c r="C145" s="153">
         <v>1.77E-2</v>
       </c>
-      <c r="D145" s="152"/>
-      <c r="E145" s="147"/>
-      <c r="F145" s="148"/>
-      <c r="G145" s="157"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B146" s="154">
+      <c r="D145" s="150"/>
+      <c r="E145" s="145"/>
+      <c r="F145" s="146"/>
+      <c r="G145" s="155"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B146" s="152">
         <v>841.57399999999996</v>
       </c>
-      <c r="C146" s="155">
+      <c r="C146" s="153">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D146" s="152"/>
-      <c r="E146" s="147"/>
-      <c r="F146" s="148"/>
-      <c r="G146" s="157"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="154">
+      <c r="D146" s="150"/>
+      <c r="E146" s="145"/>
+      <c r="F146" s="146"/>
+      <c r="G146" s="155"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B147" s="152">
         <v>850.1</v>
       </c>
-      <c r="C147" s="155">
+      <c r="C147" s="153">
         <v>7.6999999999999996E-4</v>
       </c>
-      <c r="D147" s="152"/>
-      <c r="E147" s="147"/>
-      <c r="F147" s="148"/>
-      <c r="G147" s="157"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="154">
+      <c r="D147" s="150"/>
+      <c r="E147" s="145"/>
+      <c r="F147" s="146"/>
+      <c r="G147" s="155"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B148" s="152">
         <v>855.21</v>
       </c>
-      <c r="C148" s="155">
+      <c r="C148" s="153">
         <v>1.97E-3</v>
       </c>
-      <c r="D148" s="152"/>
-      <c r="E148" s="147"/>
-      <c r="F148" s="148"/>
-      <c r="G148" s="157"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="150">
+      <c r="D148" s="150"/>
+      <c r="E148" s="145"/>
+      <c r="F148" s="146"/>
+      <c r="G148" s="155"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B149" s="148">
         <v>867.38</v>
       </c>
-      <c r="C149" s="151">
+      <c r="C149" s="149">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D149" s="152"/>
-      <c r="E149" s="147">
+      <c r="D149" s="150"/>
+      <c r="E149" s="145">
         <v>2689</v>
       </c>
-      <c r="F149" s="148"/>
-      <c r="G149" s="157"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B150" s="154">
+      <c r="F149" s="146"/>
+      <c r="G149" s="155"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B150" s="152">
         <v>896.59</v>
       </c>
-      <c r="C150" s="155">
+      <c r="C150" s="153">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D150" s="152"/>
-      <c r="E150" s="147"/>
-      <c r="F150" s="148"/>
-      <c r="G150" s="157"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B151" s="154">
+      <c r="D150" s="150"/>
+      <c r="E150" s="145"/>
+      <c r="F150" s="146"/>
+      <c r="G150" s="155"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B151" s="152">
         <v>901.19</v>
       </c>
-      <c r="C151" s="155">
+      <c r="C151" s="153">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="D151" s="152"/>
-      <c r="E151" s="147"/>
-      <c r="F151" s="148"/>
-      <c r="G151" s="158"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B152" s="154">
+      <c r="D151" s="150"/>
+      <c r="E151" s="145"/>
+      <c r="F151" s="146"/>
+      <c r="G151" s="156"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B152" s="152">
         <v>906.06</v>
       </c>
-      <c r="C152" s="155">
+      <c r="C152" s="153">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="D152" s="152"/>
-      <c r="E152" s="147"/>
-      <c r="F152" s="148"/>
-      <c r="G152" s="157"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="154">
+      <c r="D152" s="150"/>
+      <c r="E152" s="145"/>
+      <c r="F152" s="146"/>
+      <c r="G152" s="155"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B153" s="152">
         <v>919.33699999999999</v>
       </c>
-      <c r="C153" s="155">
+      <c r="C153" s="153">
         <v>0.41899999999999998</v>
       </c>
-      <c r="D153" s="152"/>
-      <c r="E153" s="147"/>
-      <c r="F153" s="148"/>
-      <c r="G153" s="157"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="154">
+      <c r="D153" s="150"/>
+      <c r="E153" s="145"/>
+      <c r="F153" s="146"/>
+      <c r="G153" s="155"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B154" s="152">
         <v>919.74</v>
       </c>
-      <c r="C154" s="155">
+      <c r="C154" s="153">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="D154" s="152"/>
-      <c r="E154" s="147"/>
-      <c r="F154" s="148"/>
-      <c r="G154" s="157"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="154">
+      <c r="D154" s="150"/>
+      <c r="E154" s="145"/>
+      <c r="F154" s="146"/>
+      <c r="G154" s="155"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B155" s="152">
         <v>926.31</v>
       </c>
-      <c r="C155" s="155">
+      <c r="C155" s="153">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D155" s="152"/>
-      <c r="E155" s="147"/>
-      <c r="F155" s="148"/>
-      <c r="G155" s="157"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="154">
+      <c r="D155" s="150"/>
+      <c r="E155" s="145"/>
+      <c r="F155" s="146"/>
+      <c r="G155" s="155"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B156" s="152">
         <v>930.59</v>
       </c>
-      <c r="C156" s="155">
+      <c r="C156" s="153">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="D156" s="152"/>
-      <c r="E156" s="147"/>
-      <c r="F156" s="148"/>
-      <c r="G156" s="157"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="154">
+      <c r="D156" s="150"/>
+      <c r="E156" s="145"/>
+      <c r="F156" s="146"/>
+      <c r="G156" s="155"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B157" s="152">
         <v>937.05</v>
       </c>
-      <c r="C157" s="155">
+      <c r="C157" s="153">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="D157" s="152"/>
-      <c r="E157" s="147"/>
-      <c r="F157" s="148"/>
-      <c r="G157" s="157"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="154">
+      <c r="D157" s="150"/>
+      <c r="E157" s="145"/>
+      <c r="F157" s="146"/>
+      <c r="G157" s="155"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B158" s="152">
         <v>947.15</v>
       </c>
-      <c r="C158" s="155">
+      <c r="C158" s="153">
         <v>1.09E-3</v>
       </c>
-      <c r="D158" s="152"/>
-      <c r="E158" s="147"/>
-      <c r="F158" s="148"/>
-      <c r="G158" s="157"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="154">
+      <c r="D158" s="150"/>
+      <c r="E158" s="145"/>
+      <c r="F158" s="146"/>
+      <c r="G158" s="155"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B159" s="152">
         <v>958.63</v>
       </c>
-      <c r="C159" s="155">
+      <c r="C159" s="153">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="D159" s="152"/>
-      <c r="E159" s="147"/>
-      <c r="F159" s="148"/>
-      <c r="G159" s="157"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="154">
+      <c r="D159" s="150"/>
+      <c r="E159" s="145"/>
+      <c r="F159" s="146"/>
+      <c r="G159" s="155"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B160" s="152">
         <v>961.08</v>
       </c>
-      <c r="C160" s="155">
+      <c r="C160" s="153">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D160" s="152"/>
-      <c r="E160" s="147"/>
-      <c r="F160" s="148"/>
-      <c r="G160" s="157"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B161" s="154">
+      <c r="D160" s="150"/>
+      <c r="E160" s="145"/>
+      <c r="F160" s="146"/>
+      <c r="G160" s="155"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B161" s="152">
         <v>963.36699999999996</v>
       </c>
-      <c r="C161" s="155">
+      <c r="C161" s="153">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D161" s="152"/>
-      <c r="E161" s="147"/>
-      <c r="F161" s="148"/>
-      <c r="G161" s="157"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B162" s="150">
+      <c r="D161" s="150"/>
+      <c r="E161" s="145"/>
+      <c r="F161" s="146"/>
+      <c r="G161" s="155"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B162" s="148">
         <v>964.05700000000002</v>
       </c>
-      <c r="C162" s="151">
+      <c r="C162" s="149">
         <v>14.51</v>
       </c>
-      <c r="D162" s="152"/>
-      <c r="E162" s="147">
+      <c r="D162" s="150"/>
+      <c r="E162" s="145">
         <v>2990</v>
       </c>
-      <c r="F162" s="148"/>
-      <c r="G162" s="157"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B163" s="154">
+      <c r="F162" s="146"/>
+      <c r="G162" s="155"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B163" s="152">
         <v>968.65</v>
       </c>
-      <c r="C163" s="155">
+      <c r="C163" s="153">
         <v>7.92E-3</v>
       </c>
-      <c r="D163" s="152"/>
-      <c r="E163" s="147"/>
-      <c r="F163" s="148"/>
-      <c r="G163" s="157"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B164" s="154">
+      <c r="D163" s="150"/>
+      <c r="E163" s="145"/>
+      <c r="F163" s="146"/>
+      <c r="G163" s="155"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B164" s="152">
         <v>970.22</v>
       </c>
-      <c r="C164" s="155">
+      <c r="C164" s="153">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D164" s="152"/>
-      <c r="E164" s="147"/>
-      <c r="F164" s="148"/>
-      <c r="G164" s="158"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="154">
+      <c r="D164" s="150"/>
+      <c r="E164" s="145"/>
+      <c r="F164" s="146"/>
+      <c r="G164" s="156"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B165" s="152">
         <v>974.09</v>
       </c>
-      <c r="C165" s="155">
+      <c r="C165" s="153">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="D165" s="152"/>
-      <c r="E165" s="147"/>
-      <c r="F165" s="148"/>
-      <c r="G165" s="157"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B166" s="154">
+      <c r="D165" s="150"/>
+      <c r="E165" s="145"/>
+      <c r="F165" s="146"/>
+      <c r="G165" s="155"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B166" s="152">
         <v>990.18</v>
       </c>
-      <c r="C166" s="155">
+      <c r="C166" s="153">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="D166" s="152"/>
-      <c r="E166" s="147"/>
-      <c r="F166" s="148"/>
-      <c r="G166" s="157"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B167" s="154">
+      <c r="D166" s="150"/>
+      <c r="E166" s="145"/>
+      <c r="F166" s="146"/>
+      <c r="G166" s="155"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B167" s="152">
         <v>1001.1</v>
       </c>
-      <c r="C167" s="155">
+      <c r="C167" s="153">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D167" s="152"/>
-      <c r="E167" s="147"/>
-      <c r="F167" s="148"/>
-      <c r="G167" s="157"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="154">
+      <c r="D167" s="150"/>
+      <c r="E167" s="145"/>
+      <c r="F167" s="146"/>
+      <c r="G167" s="155"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B168" s="152">
         <v>1005.27</v>
       </c>
-      <c r="C168" s="155">
+      <c r="C168" s="153">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D168" s="152"/>
-      <c r="E168" s="147"/>
-      <c r="F168" s="148"/>
-      <c r="G168" s="157"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B169" s="154">
+      <c r="D168" s="150"/>
+      <c r="E168" s="145"/>
+      <c r="F168" s="146"/>
+      <c r="G168" s="155"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B169" s="152">
         <v>1050.0999999999999</v>
       </c>
-      <c r="C169" s="155">
+      <c r="C169" s="153">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D169" s="152"/>
-      <c r="E169" s="147"/>
-      <c r="F169" s="148"/>
-      <c r="G169" s="157"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="154">
+      <c r="D169" s="150"/>
+      <c r="E169" s="145"/>
+      <c r="F169" s="146"/>
+      <c r="G169" s="155"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B170" s="152">
         <v>1084</v>
       </c>
-      <c r="C170" s="155">
+      <c r="C170" s="153">
         <v>0.245</v>
       </c>
-      <c r="D170" s="152"/>
-      <c r="E170" s="147"/>
-      <c r="F170" s="148"/>
-      <c r="G170" s="157"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="154">
+      <c r="D170" s="150"/>
+      <c r="E170" s="145"/>
+      <c r="F170" s="146"/>
+      <c r="G170" s="155"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B171" s="152">
         <v>1084.3800000000001</v>
       </c>
-      <c r="C171" s="155">
+      <c r="C171" s="153">
         <v>1.06E-2</v>
       </c>
-      <c r="D171" s="152"/>
-      <c r="E171" s="147"/>
-      <c r="F171" s="148"/>
-      <c r="G171" s="157"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B172" s="150">
+      <c r="D171" s="150"/>
+      <c r="E171" s="145"/>
+      <c r="F171" s="146"/>
+      <c r="G171" s="155"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B172" s="148">
         <v>1085.837</v>
       </c>
-      <c r="C172" s="151">
+      <c r="C172" s="149">
         <v>10.11</v>
       </c>
-      <c r="D172" s="152"/>
-      <c r="E172" s="147">
+      <c r="D172" s="150"/>
+      <c r="E172" s="145">
         <v>3366</v>
       </c>
-      <c r="F172" s="148"/>
-      <c r="G172" s="157"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="150">
+      <c r="F172" s="146"/>
+      <c r="G172" s="155"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B173" s="148">
         <v>1089.7370000000001</v>
       </c>
-      <c r="C173" s="151">
+      <c r="C173" s="149">
         <v>1.734</v>
       </c>
-      <c r="D173" s="152"/>
-      <c r="E173" s="147"/>
-      <c r="F173" s="148"/>
-      <c r="G173" s="157"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B174" s="154">
+      <c r="D173" s="150"/>
+      <c r="E173" s="145"/>
+      <c r="F173" s="146"/>
+      <c r="G173" s="155"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B174" s="152">
         <v>1109.18</v>
       </c>
-      <c r="C174" s="155">
+      <c r="C174" s="153">
         <v>0.189</v>
       </c>
-      <c r="D174" s="152"/>
-      <c r="E174" s="147"/>
-      <c r="F174" s="148"/>
-      <c r="G174" s="158"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="150">
+      <c r="D174" s="150"/>
+      <c r="E174" s="145"/>
+      <c r="F174" s="146"/>
+      <c r="G174" s="156"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B175" s="148">
         <v>1112.076</v>
       </c>
-      <c r="C175" s="151">
+      <c r="C175" s="149">
         <v>13.67</v>
       </c>
-      <c r="D175" s="152"/>
-      <c r="E175" s="147">
+      <c r="D175" s="150"/>
+      <c r="E175" s="145">
         <v>3449</v>
       </c>
-      <c r="F175" s="148"/>
-      <c r="G175" s="157"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B176" s="154">
+      <c r="F175" s="146"/>
+      <c r="G175" s="155"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B176" s="152">
         <v>1139</v>
       </c>
-      <c r="C176" s="155">
+      <c r="C176" s="153">
         <v>1.25E-3</v>
       </c>
-      <c r="D176" s="152"/>
-      <c r="E176" s="147"/>
-      <c r="F176" s="148"/>
-      <c r="G176" s="157"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B177" s="154">
+      <c r="D176" s="150"/>
+      <c r="E176" s="145"/>
+      <c r="F176" s="146"/>
+      <c r="G176" s="155"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B177" s="152">
         <v>1170.97</v>
       </c>
-      <c r="C177" s="155">
+      <c r="C177" s="153">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="D177" s="152"/>
-      <c r="E177" s="147"/>
-      <c r="F177" s="148"/>
-      <c r="G177" s="158"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="154">
+      <c r="D177" s="150"/>
+      <c r="E177" s="145"/>
+      <c r="F177" s="146"/>
+      <c r="G177" s="156"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B178" s="152">
         <v>1206.0899999999999</v>
       </c>
-      <c r="C178" s="155">
+      <c r="C178" s="153">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D178" s="152"/>
-      <c r="E178" s="147"/>
-      <c r="F178" s="148"/>
-      <c r="G178" s="157"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="159">
+      <c r="D178" s="150"/>
+      <c r="E178" s="145"/>
+      <c r="F178" s="146"/>
+      <c r="G178" s="155"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B179" s="157">
         <v>1212.9480000000001</v>
       </c>
-      <c r="C179" s="160">
+      <c r="C179" s="158">
         <v>1.415</v>
       </c>
-      <c r="D179" s="152"/>
-      <c r="E179" s="147"/>
-      <c r="F179" s="148"/>
-      <c r="G179" s="157"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B180" s="159">
+      <c r="D179" s="150"/>
+      <c r="E179" s="145"/>
+      <c r="F179" s="146"/>
+      <c r="G179" s="155"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B180" s="157">
         <v>1246.3399999999999</v>
       </c>
-      <c r="C180" s="160">
+      <c r="C180" s="158">
         <v>9.3000000000000005E-4</v>
       </c>
-      <c r="D180" s="152"/>
-      <c r="E180" s="147"/>
-      <c r="F180" s="148"/>
-      <c r="G180" s="157"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="159">
+      <c r="D180" s="150"/>
+      <c r="E180" s="145"/>
+      <c r="F180" s="146"/>
+      <c r="G180" s="155"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B181" s="157">
         <v>1249.94</v>
       </c>
-      <c r="C181" s="160">
+      <c r="C181" s="158">
         <v>0.187</v>
       </c>
-      <c r="D181" s="152"/>
-      <c r="E181" s="147"/>
-      <c r="F181" s="148"/>
-      <c r="G181" s="157"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B182" s="159">
+      <c r="D181" s="150"/>
+      <c r="E181" s="145"/>
+      <c r="F181" s="146"/>
+      <c r="G181" s="155"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B182" s="157">
         <v>1261.3499999999999</v>
       </c>
-      <c r="C182" s="160">
+      <c r="C182" s="158">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="D182" s="152"/>
-      <c r="E182" s="147"/>
-      <c r="F182" s="148"/>
-      <c r="G182" s="157"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B183" s="159">
+      <c r="D182" s="150"/>
+      <c r="E182" s="145"/>
+      <c r="F182" s="146"/>
+      <c r="G182" s="155"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B183" s="157">
         <v>1292.78</v>
       </c>
-      <c r="C183" s="160">
+      <c r="C183" s="158">
         <v>0.10100000000000001</v>
       </c>
-      <c r="D183" s="152"/>
-      <c r="E183" s="147"/>
-      <c r="F183" s="148"/>
-      <c r="G183" s="157"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="159">
+      <c r="D183" s="150"/>
+      <c r="E183" s="145"/>
+      <c r="F183" s="146"/>
+      <c r="G183" s="155"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B184" s="157">
         <v>1299.1420000000001</v>
       </c>
-      <c r="C184" s="160">
+      <c r="C184" s="158">
         <v>1.633</v>
       </c>
-      <c r="D184" s="152"/>
-      <c r="E184" s="147"/>
-      <c r="F184" s="148"/>
-      <c r="G184" s="157"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="159">
+      <c r="D184" s="150"/>
+      <c r="E184" s="145"/>
+      <c r="F184" s="146"/>
+      <c r="G184" s="155"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B185" s="157">
         <v>1314.6</v>
       </c>
-      <c r="C185" s="160">
+      <c r="C185" s="158">
         <v>1.9E-3</v>
       </c>
-      <c r="D185" s="152"/>
-      <c r="E185" s="147"/>
-      <c r="F185" s="148"/>
-      <c r="G185" s="157"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B186" s="159">
+      <c r="D185" s="150"/>
+      <c r="E185" s="145"/>
+      <c r="F185" s="146"/>
+      <c r="G185" s="155"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B186" s="157">
         <v>1315.58</v>
       </c>
-      <c r="C186" s="160">
+      <c r="C186" s="158">
         <v>3.64E-3</v>
       </c>
-      <c r="D186" s="152"/>
-      <c r="E186" s="147"/>
-      <c r="F186" s="148"/>
-      <c r="G186" s="157"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="159">
+      <c r="D186" s="150"/>
+      <c r="E186" s="145"/>
+      <c r="F186" s="146"/>
+      <c r="G186" s="155"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B187" s="157">
         <v>1318.38</v>
       </c>
-      <c r="C187" s="160">
+      <c r="C187" s="158">
         <v>1.57E-3</v>
       </c>
-      <c r="D187" s="152"/>
-      <c r="E187" s="147"/>
-      <c r="F187" s="148"/>
-      <c r="G187" s="157"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B188" s="159">
+      <c r="D187" s="150"/>
+      <c r="E187" s="145"/>
+      <c r="F187" s="146"/>
+      <c r="G187" s="155"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B188" s="157">
         <v>1348.1</v>
       </c>
-      <c r="C188" s="160">
+      <c r="C188" s="158">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="D188" s="152"/>
-      <c r="E188" s="147"/>
-      <c r="F188" s="148"/>
-      <c r="G188" s="157"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B189" s="159">
+      <c r="D188" s="150"/>
+      <c r="E188" s="145"/>
+      <c r="F188" s="146"/>
+      <c r="G188" s="155"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B189" s="157">
         <v>1363.78</v>
       </c>
-      <c r="C189" s="160">
+      <c r="C189" s="158">
         <v>2.58E-2</v>
       </c>
-      <c r="D189" s="152"/>
-      <c r="E189" s="147"/>
-      <c r="F189" s="148"/>
-      <c r="G189" s="157"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B190" s="159">
+      <c r="D189" s="150"/>
+      <c r="E189" s="145"/>
+      <c r="F189" s="146"/>
+      <c r="G189" s="155"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B190" s="157">
         <v>1390.5</v>
       </c>
-      <c r="C190" s="160">
+      <c r="C190" s="158">
         <v>4.2500000000000003E-3</v>
       </c>
-      <c r="D190" s="152"/>
-      <c r="E190" s="147"/>
-      <c r="F190" s="148"/>
-      <c r="G190" s="157"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B191" s="159">
+      <c r="D190" s="150"/>
+      <c r="E190" s="145"/>
+      <c r="F190" s="146"/>
+      <c r="G190" s="155"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B191" s="157">
         <v>1408.0129999999999</v>
       </c>
-      <c r="C191" s="160">
+      <c r="C191" s="158">
         <v>20.87</v>
       </c>
-      <c r="D191" s="152"/>
-      <c r="E191" s="147"/>
-      <c r="F191" s="148"/>
-      <c r="G191" s="157"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B192" s="154">
+      <c r="D191" s="150"/>
+      <c r="E191" s="145"/>
+      <c r="F191" s="146"/>
+      <c r="G191" s="155"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B192" s="152">
         <v>1455.1</v>
       </c>
-      <c r="C192" s="155">
+      <c r="C192" s="153">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D192" s="152"/>
-      <c r="E192" s="147"/>
-      <c r="F192" s="148"/>
-      <c r="G192" s="157"/>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B193" s="154">
+      <c r="D192" s="150"/>
+      <c r="E192" s="145"/>
+      <c r="F192" s="146"/>
+      <c r="G192" s="155"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B193" s="152">
         <v>1457.643</v>
       </c>
-      <c r="C193" s="155">
+      <c r="C193" s="153">
         <v>0.497</v>
       </c>
-      <c r="D193" s="152"/>
-      <c r="E193" s="147"/>
-      <c r="F193" s="148"/>
-      <c r="G193" s="157"/>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B194" s="154">
+      <c r="D193" s="150"/>
+      <c r="E193" s="145"/>
+      <c r="F193" s="146"/>
+      <c r="G193" s="155"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B194" s="152">
         <v>1485.9</v>
       </c>
-      <c r="C194" s="155">
+      <c r="C194" s="153">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="D194" s="152"/>
-      <c r="E194" s="147"/>
-      <c r="F194" s="148"/>
-      <c r="G194" s="157"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="154">
+      <c r="D194" s="150"/>
+      <c r="E194" s="145"/>
+      <c r="F194" s="146"/>
+      <c r="G194" s="155"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B195" s="152">
         <v>1491.4</v>
       </c>
-      <c r="C195" s="155">
+      <c r="C195" s="153">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="D195" s="152"/>
-      <c r="E195" s="147"/>
-      <c r="F195" s="148"/>
-      <c r="G195" s="157"/>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B196" s="154">
+      <c r="D195" s="150"/>
+      <c r="E195" s="145"/>
+      <c r="F195" s="146"/>
+      <c r="G195" s="155"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B196" s="152">
         <v>1528.1</v>
       </c>
-      <c r="C196" s="155">
+      <c r="C196" s="153">
         <v>0.27900000000000003</v>
       </c>
-      <c r="D196" s="152"/>
-      <c r="E196" s="147"/>
-      <c r="F196" s="148"/>
-      <c r="G196" s="157"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B197" s="154">
+      <c r="D196" s="150"/>
+      <c r="E196" s="145"/>
+      <c r="F196" s="146"/>
+      <c r="G196" s="155"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B197" s="152">
         <v>1605.62</v>
       </c>
-      <c r="C197" s="155">
+      <c r="C197" s="153">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="D197" s="152"/>
-      <c r="E197" s="147"/>
-      <c r="F197" s="148"/>
-      <c r="G197" s="157"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B198" s="154">
+      <c r="D197" s="150"/>
+      <c r="E197" s="145"/>
+      <c r="F197" s="146"/>
+      <c r="G197" s="155"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B198" s="152">
         <v>1608.36</v>
       </c>
-      <c r="C198" s="155">
+      <c r="C198" s="153">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D198" s="152"/>
-      <c r="E198" s="147"/>
-      <c r="F198" s="148"/>
-      <c r="G198" s="157"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B199" s="154">
+      <c r="D198" s="150"/>
+      <c r="E198" s="145"/>
+      <c r="F198" s="146"/>
+      <c r="G198" s="155"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B199" s="152">
         <v>1635.38</v>
       </c>
-      <c r="C199" s="155">
+      <c r="C199" s="153">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="D199" s="152"/>
-      <c r="E199" s="147"/>
-      <c r="F199" s="148"/>
-      <c r="G199" s="157"/>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B200" s="154">
+      <c r="D199" s="150"/>
+      <c r="E199" s="145"/>
+      <c r="F199" s="146"/>
+      <c r="G199" s="155"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B200" s="152">
         <v>1647.44</v>
       </c>
-      <c r="C200" s="155">
+      <c r="C200" s="153">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="D200" s="152"/>
-      <c r="E200" s="147"/>
-      <c r="F200" s="148"/>
-      <c r="G200" s="157"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B201" s="154">
+      <c r="D200" s="150"/>
+      <c r="E200" s="145"/>
+      <c r="F200" s="146"/>
+      <c r="G200" s="155"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B201" s="152">
         <v>1674.31</v>
       </c>
-      <c r="C201" s="155">
+      <c r="C201" s="153">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="D201" s="152"/>
-      <c r="E201" s="147"/>
-      <c r="F201" s="148"/>
-      <c r="G201" s="157"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B202" s="154">
+      <c r="D201" s="150"/>
+      <c r="E201" s="145"/>
+      <c r="F201" s="146"/>
+      <c r="G201" s="155"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B202" s="152">
         <v>1698.1</v>
       </c>
-      <c r="C202" s="155">
+      <c r="C202" s="153">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D202" s="152"/>
-      <c r="E202" s="147"/>
-      <c r="F202" s="148"/>
-      <c r="G202" s="157"/>
-    </row>
-    <row r="203" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="161">
+      <c r="D202" s="150"/>
+      <c r="E202" s="145"/>
+      <c r="F202" s="146"/>
+      <c r="G202" s="155"/>
+    </row>
+    <row r="203" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B203" s="159">
         <v>1769.09</v>
       </c>
-      <c r="C203" s="162">
+      <c r="C203" s="160">
         <v>9.3100000000000006E-3</v>
       </c>
-      <c r="D203" s="163"/>
-      <c r="E203" s="164"/>
-      <c r="F203" s="165"/>
-      <c r="G203" s="166"/>
+      <c r="D203" s="161"/>
+      <c r="E203" s="162"/>
+      <c r="F203" s="163"/>
+      <c r="G203" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8152,14 +8507,14 @@
       <selection activeCell="B10" sqref="B10:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8179,8 +8534,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="165" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="125">
@@ -8194,268 +8549,268 @@
       </c>
       <c r="E3" s="129"/>
       <c r="F3" s="129"/>
-      <c r="G3" s="130">
+      <c r="G3" s="323">
         <f>(B3*C3+B4*C4)/(C3+C4)</f>
         <v>4.2846126126126123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="137">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="135">
         <v>4.2859999999999996</v>
       </c>
-      <c r="C4" s="169">
+      <c r="C4" s="167">
         <v>100</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135">
+      <c r="E4" s="134"/>
+      <c r="F4" s="134">
         <v>138</v>
       </c>
-      <c r="G4" s="136"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="137">
+      <c r="G4" s="326"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="135">
         <v>4.6189999999999998</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="133" t="s">
+      <c r="C5" s="167"/>
+      <c r="D5" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135">
+      <c r="E5" s="134"/>
+      <c r="F5" s="134">
         <v>149</v>
       </c>
-      <c r="G5" s="184"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="137">
+      <c r="G5" s="182"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="135">
         <v>4.9359999999999999</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="133" t="s">
+      <c r="C6" s="167"/>
+      <c r="D6" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135">
+      <c r="E6" s="134"/>
+      <c r="F6" s="134">
         <v>159</v>
       </c>
-      <c r="G6" s="184"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="137">
+      <c r="G6" s="182"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="135">
         <v>5.28</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="133" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135">
+      <c r="E7" s="134"/>
+      <c r="F7" s="134">
         <v>170</v>
       </c>
-      <c r="G7" s="184"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="267">
+      <c r="G7" s="182"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="262">
         <v>30.625</v>
       </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="245" t="s">
+      <c r="C8" s="263"/>
+      <c r="D8" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="247">
+      <c r="E8" s="327"/>
+      <c r="F8" s="244">
         <v>987</v>
       </c>
-      <c r="G8" s="276"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="272">
+      <c r="G8" s="329"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="267">
         <v>30.972999999999999</v>
       </c>
-      <c r="C9" s="273"/>
-      <c r="D9" s="251" t="s">
+      <c r="C9" s="268"/>
+      <c r="D9" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="275"/>
-      <c r="F9" s="253">
+      <c r="E9" s="328"/>
+      <c r="F9" s="249">
         <v>998</v>
       </c>
-      <c r="G9" s="277"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="267">
+      <c r="G9" s="330"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="262">
         <v>34.918999999999997</v>
       </c>
-      <c r="C10" s="268">
+      <c r="C10" s="263">
         <v>9</v>
       </c>
-      <c r="D10" s="245" t="s">
+      <c r="D10" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247">
+      <c r="E10" s="244"/>
+      <c r="F10" s="244">
         <v>1126</v>
       </c>
-      <c r="G10" s="248">
+      <c r="G10" s="325">
         <f>(B10*C10+B11*C11)/(C10+C11)</f>
         <v>34.964333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="137">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="135">
         <v>34.987000000000002</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="136">
         <v>18</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="134">
         <v>109</v>
       </c>
-      <c r="F11" s="135"/>
-      <c r="G11" s="136"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="269">
+      <c r="F11" s="134"/>
+      <c r="G11" s="326"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="264">
         <v>35.822000000000003</v>
       </c>
-      <c r="C12" s="270"/>
-      <c r="D12" s="271" t="s">
+      <c r="C12" s="265"/>
+      <c r="D12" s="266" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142">
+      <c r="E12" s="140"/>
+      <c r="F12" s="140">
         <v>1154</v>
       </c>
-      <c r="G12" s="187"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="170" t="s">
+      <c r="G12" s="185"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="171">
+      <c r="B13" s="169">
         <v>53.162199999999999</v>
       </c>
-      <c r="C13" s="172">
+      <c r="C13" s="170">
         <v>2.1407250000000002</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174">
+      <c r="D13" s="171"/>
+      <c r="E13" s="172">
         <v>165</v>
       </c>
-      <c r="F13" s="175"/>
-      <c r="G13" s="185"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="261">
+      <c r="F13" s="173"/>
+      <c r="G13" s="183"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="256">
         <v>79.614199999999997</v>
       </c>
-      <c r="C14" s="262">
+      <c r="C14" s="257">
         <v>2.6495350000000002</v>
       </c>
-      <c r="D14" s="263"/>
-      <c r="E14" s="264"/>
-      <c r="F14" s="265"/>
-      <c r="G14" s="266"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="255">
+      <c r="D14" s="258"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="261"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="250">
         <v>80.997900000000001</v>
       </c>
-      <c r="C15" s="256">
+      <c r="C15" s="251">
         <v>32.948549999999997</v>
       </c>
-      <c r="D15" s="257"/>
-      <c r="E15" s="258">
+      <c r="D15" s="252"/>
+      <c r="E15" s="253">
         <v>252</v>
       </c>
-      <c r="F15" s="259"/>
-      <c r="G15" s="260"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="176">
+      <c r="F15" s="254"/>
+      <c r="G15" s="255"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="174">
         <v>160.61199999999999</v>
       </c>
-      <c r="C16" s="177">
+      <c r="C16" s="175">
         <v>0.63787400000000005</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="185"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="176">
+      <c r="D16" s="176"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="183"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="174">
         <v>223.23679999999999</v>
       </c>
-      <c r="C17" s="177">
+      <c r="C17" s="175">
         <v>0.45296500000000001</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="185"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="176">
+      <c r="D17" s="176"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="183"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="174">
         <v>276.39890000000003</v>
       </c>
-      <c r="C18" s="177">
+      <c r="C18" s="175">
         <v>7.1605699999999999</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="174">
+      <c r="D18" s="176"/>
+      <c r="E18" s="172">
         <v>857</v>
       </c>
-      <c r="F18" s="175"/>
-      <c r="G18" s="185"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="176">
+      <c r="F18" s="173"/>
+      <c r="G18" s="183"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="174">
         <v>302.85079999999999</v>
       </c>
-      <c r="C19" s="177">
+      <c r="C19" s="175">
         <v>18.335775000000002</v>
       </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="174">
+      <c r="D19" s="176"/>
+      <c r="E19" s="172">
         <v>940</v>
       </c>
-      <c r="F19" s="175"/>
-      <c r="G19" s="185"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="176">
+      <c r="F19" s="173"/>
+      <c r="G19" s="183"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="174">
         <v>356.0129</v>
       </c>
-      <c r="C20" s="177">
+      <c r="C20" s="175">
         <v>62.05</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="174">
+      <c r="D20" s="176"/>
+      <c r="E20" s="172">
         <v>1103</v>
       </c>
-      <c r="F20" s="175"/>
-      <c r="G20" s="185"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="179">
+      <c r="F20" s="173"/>
+      <c r="G20" s="183"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="177">
         <v>383.8485</v>
       </c>
-      <c r="C21" s="180">
+      <c r="C21" s="178">
         <v>8.9414049999999996</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="182">
+      <c r="D21" s="179"/>
+      <c r="E21" s="180">
         <v>1191</v>
       </c>
-      <c r="F21" s="183"/>
-      <c r="G21" s="186"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8477,13 +8832,13 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8496,123 +8851,123 @@
       <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="200" t="s">
+      <c r="F2" s="197" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="194">
+      <c r="B3" s="192">
         <v>4.9660000000000002</v>
       </c>
       <c r="C3" s="126">
         <v>0.91486925200000002</v>
       </c>
-      <c r="D3" s="195" t="s">
+      <c r="D3" s="193" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="129"/>
-      <c r="F3" s="201"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="196">
+      <c r="F3" s="198"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="194">
         <v>31.815999999999999</v>
       </c>
-      <c r="C4" s="197">
+      <c r="C4" s="195">
         <v>1.9904773259678901</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="199"/>
-      <c r="F4" s="139">
+      <c r="E4" s="331"/>
+      <c r="F4" s="137">
         <f>(B4*C4+B5*C5)/(C4+C5)</f>
         <v>32.060360902255638</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="196">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="194">
         <v>32.192999999999998</v>
       </c>
-      <c r="C5" s="197">
+      <c r="C5" s="195">
         <v>3.6670547641265498</v>
       </c>
-      <c r="D5" s="198" t="s">
+      <c r="D5" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="199"/>
-      <c r="F5" s="139"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="196">
+      <c r="E5" s="331"/>
+      <c r="F5" s="137"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="194">
         <v>36.481999999999999</v>
       </c>
-      <c r="C6" s="197">
+      <c r="C6" s="195">
         <v>1.0786365095092201</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="199"/>
-      <c r="F6" s="139">
+      <c r="E6" s="331"/>
+      <c r="F6" s="137">
         <f>(B6*C6+B7*C7+B8*C8)/(C6+C7+C8)</f>
         <v>36.732293929712462</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="196">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="194">
         <v>36.826999999999998</v>
       </c>
-      <c r="C7" s="197">
+      <c r="C7" s="195">
         <v>1.35045290990554</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="199"/>
-      <c r="F7" s="139"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="196">
+      <c r="E7" s="331"/>
+      <c r="F7" s="137"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="194">
         <v>37.255000000000003</v>
       </c>
-      <c r="C8" s="132">
+      <c r="C8" s="131">
         <v>0.27181640039632399</v>
       </c>
-      <c r="D8" s="198" t="s">
+      <c r="D8" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="187"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="170" t="s">
+      <c r="E8" s="134"/>
+      <c r="F8" s="185"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="171">
+      <c r="B9" s="169">
         <v>283.5</v>
       </c>
-      <c r="C9" s="172">
+      <c r="C9" s="170">
         <v>5.8E-4</v>
       </c>
-      <c r="D9" s="188"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="202"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="189">
+      <c r="D9" s="186"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="199"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="187">
         <v>661.65700000000004</v>
       </c>
-      <c r="C10" s="190">
+      <c r="C10" s="188">
         <v>85.1</v>
       </c>
-      <c r="D10" s="191"/>
-      <c r="E10" s="192">
+      <c r="D10" s="189"/>
+      <c r="E10" s="190">
         <v>2052</v>
       </c>
-      <c r="F10" s="203"/>
+      <c r="F10" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8632,12 +8987,12 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8651,133 +9006,133 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="219">
+      <c r="B3" s="216">
         <v>0.874</v>
       </c>
-      <c r="C3" s="220">
+      <c r="C3" s="217">
         <v>3.2925827471659498E-4</v>
       </c>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="222"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="223">
+      <c r="E3" s="219"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="220">
         <v>7.4610000000000003</v>
       </c>
-      <c r="C4" s="224">
+      <c r="C4" s="221">
         <v>3.3076588035486801E-3</v>
       </c>
-      <c r="D4" s="225" t="s">
+      <c r="D4" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="226"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="223">
+      <c r="E4" s="223"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="220">
         <v>7.4779999999999998</v>
       </c>
-      <c r="C5" s="224">
+      <c r="C5" s="221">
         <v>6.4552279538420696E-3</v>
       </c>
-      <c r="D5" s="225" t="s">
+      <c r="D5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="226"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="223">
+      <c r="E5" s="223"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="220">
         <v>8.2959999999999994</v>
       </c>
-      <c r="C6" s="224">
+      <c r="C6" s="221">
         <v>1.3453257951684401E-3</v>
       </c>
-      <c r="D6" s="225" t="s">
+      <c r="D6" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="226"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="227">
+      <c r="E6" s="223"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="224">
         <v>8.2959999999999994</v>
       </c>
-      <c r="C7" s="228">
+      <c r="C7" s="225">
         <v>1.3453257951684401E-3</v>
       </c>
-      <c r="D7" s="229" t="s">
+      <c r="D7" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="230"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="170" t="s">
+      <c r="E7" s="227"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="204">
+      <c r="B8" s="201">
         <v>347.14</v>
       </c>
-      <c r="C8" s="205">
+      <c r="C8" s="202">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D8" s="206"/>
-      <c r="E8" s="207"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="208">
+      <c r="D8" s="203"/>
+      <c r="E8" s="204"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="205">
         <v>826.1</v>
       </c>
-      <c r="C9" s="209">
+      <c r="C9" s="206">
         <v>7.6E-3</v>
       </c>
-      <c r="D9" s="210"/>
-      <c r="E9" s="207"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="211">
+      <c r="D9" s="207"/>
+      <c r="E9" s="204"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="208">
         <v>1173.2280000000001</v>
       </c>
-      <c r="C10" s="212">
+      <c r="C10" s="209">
         <v>99.85</v>
       </c>
-      <c r="D10" s="213"/>
-      <c r="E10" s="214">
+      <c r="D10" s="210"/>
+      <c r="E10" s="211">
         <v>3638</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="208">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="205">
         <v>1332.492</v>
       </c>
-      <c r="C11" s="209">
+      <c r="C11" s="206">
         <v>99.982600000000005</v>
       </c>
-      <c r="D11" s="210"/>
-      <c r="E11" s="207"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="208">
+      <c r="D11" s="207"/>
+      <c r="E11" s="204"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="205">
         <v>2158.5700000000002</v>
       </c>
-      <c r="C12" s="209">
+      <c r="C12" s="206">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D12" s="210"/>
-      <c r="E12" s="207"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="215">
+      <c r="D12" s="207"/>
+      <c r="E12" s="204"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="212">
         <v>2505.692</v>
       </c>
-      <c r="C13" s="216">
+      <c r="C13" s="213">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="D13" s="217"/>
-      <c r="E13" s="218"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8793,34 +9148,34 @@
       <selection activeCell="C2" sqref="C2:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C2" s="231" t="s">
+    <row r="2" spans="2:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="C2" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="232" t="s">
+      <c r="D2" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="233" t="s">
+      <c r="E2" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="232" t="s">
+      <c r="F2" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="234" t="s">
+      <c r="G2" s="231" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="26"/>
-      <c r="C3" s="235">
+      <c r="C3" s="232">
         <f t="shared" ref="C3:C50" si="0">F3*0.3225-0.0825</f>
         <v>24.427500000000002</v>
       </c>
@@ -8828,13 +9183,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="27"/>
-      <c r="F3" s="239">
+      <c r="F3" s="236">
         <v>76</v>
       </c>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="236">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="233">
         <f t="shared" si="0"/>
         <v>27.6525</v>
       </c>
@@ -8842,13 +9197,13 @@
         <v>27</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="240">
+      <c r="F4" s="237">
         <v>86</v>
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="236">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="233">
         <f t="shared" si="0"/>
         <v>47.002499999999998</v>
       </c>
@@ -8856,13 +9211,13 @@
         <v>28</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="240">
+      <c r="F5" s="237">
         <v>146</v>
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="236">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="233">
         <f t="shared" si="0"/>
         <v>59.58</v>
       </c>
@@ -8870,13 +9225,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="240">
+      <c r="F6" s="237">
         <v>185</v>
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="236">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="233">
         <f t="shared" si="0"/>
         <v>63.772500000000001</v>
       </c>
@@ -8884,14 +9239,14 @@
         <v>30</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="240">
+      <c r="F7" s="237">
         <v>198</v>
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="26"/>
-      <c r="C8" s="236">
+      <c r="C8" s="233">
         <f t="shared" si="0"/>
         <v>75.382500000000007</v>
       </c>
@@ -8899,13 +9254,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="240">
+      <c r="F8" s="237">
         <v>234</v>
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="236">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="233">
         <f t="shared" si="0"/>
         <v>77.31750000000001</v>
       </c>
@@ -8913,13 +9268,13 @@
         <v>32</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="240">
+      <c r="F9" s="237">
         <v>240</v>
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="236">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="233">
         <f t="shared" si="0"/>
         <v>84.412500000000009</v>
       </c>
@@ -8927,13 +9282,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="240">
+      <c r="F10" s="237">
         <v>262</v>
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="236">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="233">
         <f t="shared" si="0"/>
         <v>87.637500000000003</v>
       </c>
@@ -8941,13 +9296,13 @@
         <v>34</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="240">
+      <c r="F11" s="237">
         <v>272</v>
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="236">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="233">
         <f t="shared" si="0"/>
         <v>90.217500000000001</v>
       </c>
@@ -8955,13 +9310,13 @@
         <v>35</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="240">
+      <c r="F12" s="237">
         <v>280</v>
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="237">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="234">
         <f t="shared" si="0"/>
         <v>93.12</v>
       </c>
@@ -8969,25 +9324,25 @@
         <v>36</v>
       </c>
       <c r="E13" s="28"/>
-      <c r="F13" s="241">
+      <c r="F13" s="238">
         <v>289</v>
       </c>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="236">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="233">
         <f t="shared" si="0"/>
         <v>144.39750000000001</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="240">
+      <c r="F14" s="237">
         <v>448</v>
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="236">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="233">
         <f t="shared" si="0"/>
         <v>186.32249999999999</v>
       </c>
@@ -8995,25 +9350,25 @@
         <v>37</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="240">
+      <c r="F15" s="237">
         <v>578</v>
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="236">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="233">
         <f t="shared" si="0"/>
         <v>209.86500000000001</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="240">
+      <c r="F16" s="237">
         <v>651</v>
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="236">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="233">
         <f t="shared" si="0"/>
         <v>238.89</v>
       </c>
@@ -9023,13 +9378,13 @@
       <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="240">
+      <c r="F17" s="237">
         <v>741</v>
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="236">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="233">
         <f t="shared" si="0"/>
         <v>242.11500000000001</v>
       </c>
@@ -9039,25 +9394,25 @@
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="240">
+      <c r="F18" s="237">
         <v>751</v>
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="236">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="233">
         <f t="shared" si="0"/>
         <v>270.495</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="240">
+      <c r="F19" s="237">
         <v>839</v>
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="236">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="233">
         <f t="shared" si="0"/>
         <v>295.32750000000004</v>
       </c>
@@ -9067,13 +9422,13 @@
       <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="240">
+      <c r="F20" s="237">
         <v>916</v>
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="236">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="233">
         <f t="shared" si="0"/>
         <v>300.16500000000002</v>
       </c>
@@ -9083,25 +9438,25 @@
       <c r="E21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="240">
+      <c r="F21" s="237">
         <v>931</v>
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="236">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="233">
         <f t="shared" si="0"/>
         <v>338.54250000000002</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="240">
+      <c r="F22" s="237">
         <v>1050</v>
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="236">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="233">
         <f t="shared" si="0"/>
         <v>352.08750000000003</v>
       </c>
@@ -9111,73 +9466,73 @@
       <c r="E23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="240">
+      <c r="F23" s="237">
         <v>1092</v>
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="236">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24" s="233">
         <f t="shared" si="0"/>
         <v>409.49250000000001</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="240">
+      <c r="F24" s="237">
         <v>1270</v>
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="236">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25" s="233">
         <f t="shared" si="0"/>
         <v>462.70500000000004</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="240">
+      <c r="F25" s="237">
         <v>1435</v>
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="236">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="233">
         <f t="shared" si="0"/>
         <v>481.08750000000003</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="240">
+      <c r="F26" s="237">
         <v>1492</v>
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="238">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="235">
         <f t="shared" si="0"/>
         <v>511.08000000000004</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="242">
+      <c r="F27" s="239">
         <v>1585</v>
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="236">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="233">
         <f t="shared" si="0"/>
         <v>533.97750000000008</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="240">
+      <c r="F28" s="237">
         <v>1656</v>
       </c>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="236">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29" s="233">
         <f t="shared" si="0"/>
         <v>570.09750000000008</v>
       </c>
@@ -9185,13 +9540,13 @@
         <v>42</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="240">
+      <c r="F29" s="237">
         <v>1768</v>
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="236">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="233">
         <f t="shared" si="0"/>
         <v>583.32000000000005</v>
       </c>
@@ -9201,13 +9556,13 @@
       <c r="E30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="240">
+      <c r="F30" s="237">
         <v>1809</v>
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="236">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="233">
         <f t="shared" si="0"/>
         <v>609.4425</v>
       </c>
@@ -9217,13 +9572,13 @@
       <c r="E31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="240">
+      <c r="F31" s="237">
         <v>1890</v>
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="236">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C32" s="233">
         <f t="shared" si="0"/>
         <v>665.5575</v>
       </c>
@@ -9233,13 +9588,13 @@
       <c r="E32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="240">
+      <c r="F32" s="237">
         <v>2064</v>
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="236">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C33" s="233">
         <f t="shared" si="0"/>
         <v>727.15500000000009</v>
       </c>
@@ -9249,13 +9604,13 @@
       <c r="E33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="240">
+      <c r="F33" s="237">
         <v>2255</v>
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="236">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="233">
         <f t="shared" si="0"/>
         <v>768.75750000000005</v>
       </c>
@@ -9265,13 +9620,13 @@
       <c r="E34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="240">
+      <c r="F34" s="237">
         <v>2384</v>
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="236">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C35" s="233">
         <f t="shared" si="0"/>
         <v>784.88250000000005</v>
       </c>
@@ -9281,25 +9636,25 @@
       <c r="E35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="240">
+      <c r="F35" s="237">
         <v>2434</v>
       </c>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="236">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="233">
         <f t="shared" si="0"/>
         <v>794.88</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="240">
+      <c r="F36" s="237">
         <v>2465</v>
       </c>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="236">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="233">
         <f t="shared" si="0"/>
         <v>806.16750000000002</v>
       </c>
@@ -9309,25 +9664,25 @@
       <c r="E37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="240">
+      <c r="F37" s="237">
         <v>2500</v>
       </c>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="236">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="233">
         <f t="shared" si="0"/>
         <v>839.38499999999999</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="240">
+      <c r="F38" s="237">
         <v>2603</v>
       </c>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="236">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="233">
         <f t="shared" si="0"/>
         <v>860.99250000000006</v>
       </c>
@@ -9337,25 +9692,25 @@
       <c r="E39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="240">
+      <c r="F39" s="237">
         <v>2670</v>
       </c>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="236">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="233">
         <f t="shared" si="0"/>
         <v>911.30250000000001</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="240">
+      <c r="F40" s="237">
         <v>2826</v>
       </c>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="236">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C41" s="233">
         <f t="shared" si="0"/>
         <v>934.2</v>
       </c>
@@ -9365,13 +9720,13 @@
       <c r="E41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="240">
+      <c r="F41" s="237">
         <v>2897</v>
       </c>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="236">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="233">
         <f t="shared" si="0"/>
         <v>964.83750000000009</v>
       </c>
@@ -9379,25 +9734,25 @@
         <v>46</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="240">
+      <c r="F42" s="237">
         <v>2992</v>
       </c>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="236">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="233">
         <f t="shared" si="0"/>
         <v>968.7075000000001</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="240">
+      <c r="F43" s="237">
         <v>3004</v>
       </c>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="236">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="233">
         <f t="shared" si="0"/>
         <v>1001.2800000000001</v>
       </c>
@@ -9407,37 +9762,37 @@
       <c r="E44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="240">
+      <c r="F44" s="237">
         <v>3105</v>
       </c>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="236">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="233">
         <f t="shared" si="0"/>
         <v>1051.9125000000001</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="240">
+      <c r="F45" s="237">
         <v>3262</v>
       </c>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="236">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="233">
         <f t="shared" si="0"/>
         <v>1069.9725000000001</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="240">
+      <c r="F46" s="237">
         <v>3318</v>
       </c>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="236">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C47" s="233">
         <f t="shared" si="0"/>
         <v>1120.605</v>
       </c>
@@ -9447,13 +9802,13 @@
       <c r="E47" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="240">
+      <c r="F47" s="237">
         <v>3475</v>
       </c>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="236">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="233">
         <f t="shared" si="0"/>
         <v>1155.4349999999999</v>
       </c>
@@ -9463,13 +9818,13 @@
       <c r="E48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="240">
+      <c r="F48" s="237">
         <v>3583</v>
       </c>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="236">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C49" s="233">
         <f t="shared" si="0"/>
         <v>1238.6400000000001</v>
       </c>
@@ -9479,13 +9834,13 @@
       <c r="E49" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="240">
+      <c r="F49" s="237">
         <v>3841</v>
       </c>
       <c r="G49" s="22"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="237">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="234">
         <f t="shared" si="0"/>
         <v>1280.8875</v>
       </c>
@@ -9495,7 +9850,7 @@
       <c r="E50" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="241">
+      <c r="F50" s="238">
         <v>3972</v>
       </c>
       <c r="G50" s="25"/>
@@ -9514,46 +9869,46 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="286" t="s">
+    <row r="2" spans="2:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="277" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="277" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="286" t="s">
+      <c r="D2" s="277" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="286" t="s">
+      <c r="E2" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="287" t="s">
+      <c r="F2" s="278" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="288" t="s">
+      <c r="G2" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="289" t="s">
+      <c r="H2" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="289" t="s">
+      <c r="I2" s="280" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="290" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="281" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -9574,7 +9929,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="124" t="s">
         <v>55</v>
       </c>
@@ -9596,7 +9951,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="124" t="s">
         <v>55</v>
       </c>
@@ -9618,7 +9973,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="124" t="s">
         <v>55</v>
       </c>
@@ -9638,7 +9993,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="124" t="s">
         <v>55</v>
       </c>
@@ -9660,7 +10015,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="124" t="s">
         <v>55</v>
       </c>
@@ -9682,7 +10037,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="124" t="s">
         <v>55</v>
       </c>
@@ -9704,7 +10059,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="124" t="s">
         <v>55</v>
       </c>
@@ -9726,7 +10081,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="124" t="s">
         <v>55</v>
       </c>
@@ -9750,7 +10105,7 @@
       </c>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="124" t="s">
         <v>55</v>
       </c>
@@ -9774,7 +10129,7 @@
       </c>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="124" t="s">
         <v>55</v>
       </c>
@@ -9798,7 +10153,7 @@
       </c>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="124" t="s">
         <v>55</v>
       </c>
@@ -9822,7 +10177,7 @@
       </c>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="35" t="s">
         <v>55</v>
       </c>
@@ -9846,8 +10201,8 @@
       </c>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="291" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="282" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="32" t="s">
@@ -9868,7 +10223,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="124" t="s">
         <v>55</v>
       </c>
@@ -9890,7 +10245,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="124" t="s">
         <v>55</v>
       </c>
@@ -9912,7 +10267,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="124" t="s">
         <v>55</v>
       </c>
@@ -9934,7 +10289,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="30"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="124" t="s">
         <v>55</v>
       </c>
@@ -9956,7 +10311,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="124" t="s">
         <v>55</v>
       </c>
@@ -9978,7 +10333,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="124" t="s">
         <v>55</v>
       </c>
@@ -10000,7 +10355,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="124" t="s">
         <v>55</v>
       </c>
@@ -10020,7 +10375,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="124" t="s">
         <v>55</v>
       </c>
@@ -10044,7 +10399,7 @@
       </c>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="124" t="s">
         <v>55</v>
       </c>
@@ -10068,7 +10423,7 @@
       </c>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="124" t="s">
         <v>55</v>
       </c>
@@ -10092,7 +10447,7 @@
       </c>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="124" t="s">
         <v>55</v>
       </c>
@@ -10116,7 +10471,7 @@
       </c>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="124" t="s">
         <v>55</v>
       </c>
@@ -10140,7 +10495,7 @@
       </c>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="124" t="s">
         <v>55</v>
       </c>
@@ -10164,7 +10519,7 @@
       </c>
       <c r="I29" s="33"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="124" t="s">
         <v>55</v>
       </c>
@@ -10188,7 +10543,7 @@
       </c>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="124" t="s">
         <v>55</v>
       </c>
@@ -10212,7 +10567,7 @@
       </c>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="124" t="s">
         <v>55</v>
       </c>
@@ -10236,7 +10591,7 @@
       </c>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="124" t="s">
         <v>55</v>
       </c>
@@ -10258,7 +10613,7 @@
       <c r="H33" s="63"/>
       <c r="I33" s="30"/>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="35" t="s">
         <v>55</v>
       </c>
@@ -10282,8 +10637,8 @@
       </c>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="292" t="s">
+    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="283" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="37" t="s">
@@ -10306,8 +10661,8 @@
       </c>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="290" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="281" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="30" t="s">
@@ -10345,27 +10700,27 @@
   <dimension ref="A2:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
     <col min="3" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:33" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:33" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="52" t="s">
         <v>63</v>
       </c>
@@ -10409,7 +10764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>46</v>
       </c>
@@ -10471,7 +10826,7 @@
       <c r="AF4" s="50"/>
       <c r="AG4" s="50"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="58"/>
       <c r="B5" s="10">
         <v>2</v>
@@ -10531,7 +10886,7 @@
       <c r="AF5" s="51"/>
       <c r="AG5" s="51"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="58"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -10584,7 +10939,7 @@
       </c>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="58"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -10637,7 +10992,7 @@
       </c>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="58"/>
       <c r="B8" s="10">
         <v>5</v>
@@ -10690,7 +11045,7 @@
       </c>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="58"/>
       <c r="B9" s="10">
         <v>6</v>
@@ -10743,7 +11098,7 @@
       </c>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="58"/>
       <c r="B10" s="10">
         <v>7</v>
@@ -10796,7 +11151,7 @@
       </c>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
       <c r="B11" s="10">
         <v>8</v>
@@ -10849,7 +11204,7 @@
       </c>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="10">
         <v>9</v>
@@ -10902,7 +11257,7 @@
       </c>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="59"/>
       <c r="B13" s="10">
         <v>10</v>
@@ -10955,7 +11310,7 @@
       </c>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
         <v>51</v>
       </c>
@@ -10965,7 +11320,7 @@
       <c r="C14" s="91">
         <v>30.8</v>
       </c>
-      <c r="D14" s="284">
+      <c r="D14" s="275">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>3.0800000000000001E-2</v>
       </c>
@@ -10992,7 +11347,7 @@
         <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
         <v>4.773E-4</v>
       </c>
-      <c r="L14" s="285">
+      <c r="L14" s="276">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
         <v>2.2786432933499995E-5</v>
       </c>
@@ -11010,15 +11365,15 @@
       </c>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="278"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" s="269"/>
       <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" s="124">
         <v>34.963999999999999</v>
       </c>
-      <c r="D15" s="281">
+      <c r="D15" s="272">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>3.4964000000000002E-2</v>
       </c>
@@ -11063,15 +11418,15 @@
       </c>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="278"/>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A16" s="269"/>
       <c r="B16" s="10">
         <v>3</v>
       </c>
       <c r="C16" s="33">
         <v>81</v>
       </c>
-      <c r="D16" s="281">
+      <c r="D16" s="272">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>8.1000000000000003E-2</v>
       </c>
@@ -11107,7 +11462,7 @@
         <v>3.5136418446315325</v>
       </c>
       <c r="N16" s="75">
-        <f>K16/D16</f>
+        <f t="shared" ref="N16:N24" si="1">K16/D16</f>
         <v>5.6935185185185179E-3</v>
       </c>
       <c r="O16" s="98">
@@ -11116,15 +11471,15 @@
       </c>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="58"/>
       <c r="B17" s="10">
         <v>4</v>
       </c>
-      <c r="C17" s="280">
+      <c r="C17" s="271">
         <v>276.39999999999998</v>
       </c>
-      <c r="D17" s="281">
+      <c r="D17" s="272">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.27639999999999998</v>
       </c>
@@ -11160,7 +11515,7 @@
         <v>1.9020896422713336</v>
       </c>
       <c r="N17" s="75">
-        <f>K17/D17</f>
+        <f t="shared" si="1"/>
         <v>1.9018632416787265E-3</v>
       </c>
       <c r="O17" s="98">
@@ -11169,15 +11524,15 @@
       </c>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
       <c r="B18" s="44">
         <v>5</v>
       </c>
-      <c r="C18" s="280">
+      <c r="C18" s="271">
         <v>302.85000000000002</v>
       </c>
-      <c r="D18" s="281">
+      <c r="D18" s="272">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.30285000000000001</v>
       </c>
@@ -11213,7 +11568,7 @@
         <v>1.8171308893357248</v>
       </c>
       <c r="N18" s="75">
-        <f>K18/D18</f>
+        <f t="shared" si="1"/>
         <v>1.7464091134224864E-3</v>
       </c>
       <c r="O18" s="98">
@@ -11222,15 +11577,15 @@
       </c>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="58"/>
       <c r="B19" s="40">
         <v>6</v>
       </c>
-      <c r="C19" s="280">
+      <c r="C19" s="271">
         <v>356.01</v>
       </c>
-      <c r="D19" s="281">
+      <c r="D19" s="272">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.35600999999999999</v>
       </c>
@@ -11266,7 +11621,7 @@
         <v>1.6759802690015555</v>
       </c>
       <c r="N19" s="75">
-        <f>K19/D19</f>
+        <f t="shared" si="1"/>
         <v>1.5762197691076094E-3</v>
       </c>
       <c r="O19" s="98">
@@ -11275,15 +11630,15 @@
       </c>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="59"/>
       <c r="B20" s="96">
         <v>7</v>
       </c>
-      <c r="C20" s="282">
+      <c r="C20" s="273">
         <v>383.85</v>
       </c>
-      <c r="D20" s="283">
+      <c r="D20" s="274">
         <f>Tabela3[[#This Row],[ Energy (keV) ]]/1000</f>
         <v>0.38385000000000002</v>
       </c>
@@ -11319,7 +11674,7 @@
         <v>1.6140583374805302</v>
       </c>
       <c r="N20" s="106">
-        <f>K20/D20</f>
+        <f t="shared" si="1"/>
         <v>1.5123094958968348E-3</v>
       </c>
       <c r="O20" s="104">
@@ -11328,14 +11683,14 @@
       </c>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="60" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="40">
         <v>1</v>
       </c>
-      <c r="C21" s="279">
+      <c r="C21" s="270">
         <v>32.060400000000001</v>
       </c>
       <c r="D21" s="99">
@@ -11374,7 +11729,7 @@
         <v>5.584901677582395</v>
       </c>
       <c r="N21" s="75">
-        <f>K21/D21</f>
+        <f t="shared" si="1"/>
         <v>1.5289890331998351E-2</v>
       </c>
       <c r="O21" s="98">
@@ -11383,12 +11738,12 @@
       </c>
       <c r="AD21" s="64"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
       <c r="B22" s="42">
         <v>2</v>
       </c>
-      <c r="C22" s="293">
+      <c r="C22" s="284">
         <v>36.732300000000002</v>
       </c>
       <c r="D22" s="100">
@@ -11407,18 +11762,18 @@
       <c r="H22" s="41">
         <v>1.99</v>
       </c>
-      <c r="I22" s="294">
+      <c r="I22" s="285">
         <v>0.17</v>
       </c>
-      <c r="J22" s="295">
+      <c r="J22" s="286">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>4.6864499999999998</v>
       </c>
-      <c r="K22" s="296">
+      <c r="K22" s="287">
         <f>(Tabela3[[#This Row],[ Sigma ]]*0.3225)/1000</f>
         <v>6.4177500000000003E-4</v>
       </c>
-      <c r="L22" s="297">
+      <c r="L22" s="288">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.32252559/1000</f>
         <v>1.291231199565E-4</v>
       </c>
@@ -11427,16 +11782,16 @@
         <v>5.2176619590881597</v>
       </c>
       <c r="N22" s="75">
-        <f>K22/D22</f>
+        <f t="shared" si="1"/>
         <v>1.7471680237828833E-2</v>
       </c>
-      <c r="O22" s="297">
+      <c r="O22" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>3.5152473424343153E-3</v>
       </c>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="50"/>
       <c r="B23" s="95">
         <v>3</v>
@@ -11480,7 +11835,7 @@
         <v>1.2293698549682632</v>
       </c>
       <c r="N23" s="106">
-        <f>K23/D23</f>
+        <f t="shared" si="1"/>
         <v>1.0381842638212981E-3</v>
       </c>
       <c r="O23" s="104">
@@ -11489,7 +11844,7 @@
       </c>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="61" t="s">
         <v>62</v>
       </c>
@@ -11535,7 +11890,7 @@
         <v>0.92323864057627025</v>
       </c>
       <c r="N24" s="114">
-        <f>K24/D24</f>
+        <f t="shared" si="1"/>
         <v>7.9442976474599389E-4</v>
       </c>
       <c r="O24" s="112">
@@ -11544,7 +11899,7 @@
       </c>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="62"/>
       <c r="B25" s="38"/>
       <c r="C25" s="39"/>
@@ -11562,58 +11917,58 @@
       <c r="O25" s="5"/>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="298">
+      <c r="B26" s="289">
         <v>1</v>
       </c>
-      <c r="C26" s="299">
+      <c r="C26" s="290">
         <v>4.2850000000000001</v>
       </c>
-      <c r="D26" s="300">
-        <f t="shared" ref="D26:D41" si="1">C26/1000</f>
+      <c r="D26" s="291">
+        <f t="shared" ref="D26:D41" si="2">C26/1000</f>
         <v>4.2849999999999997E-3</v>
       </c>
-      <c r="E26" s="298"/>
-      <c r="F26" s="301"/>
-      <c r="G26" s="299">
+      <c r="E26" s="289"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="290">
         <v>139.04</v>
       </c>
-      <c r="H26" s="299">
+      <c r="H26" s="290">
         <v>1.78</v>
       </c>
-      <c r="I26" s="302">
+      <c r="I26" s="293">
         <v>0.04</v>
       </c>
-      <c r="J26" s="303">
+      <c r="J26" s="294">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>4.1919000000000004</v>
       </c>
-      <c r="K26" s="304">
-        <f t="shared" ref="K26:K33" si="2">J26*0.0310589/1000</f>
+      <c r="K26" s="295">
+        <f t="shared" ref="K26:K33" si="3">J26*0.0310589/1000</f>
         <v>1.3019580291000001E-4</v>
       </c>
-      <c r="L26" s="305">
+      <c r="L26" s="296">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>2.9257483800000004E-6</v>
       </c>
-      <c r="M26" s="306">
-        <f t="shared" ref="M26:M35" si="3">1/SQRT(D26)</f>
+      <c r="M26" s="297">
+        <f t="shared" ref="M26:M35" si="4">1/SQRT(D26)</f>
         <v>15.276525413351823</v>
       </c>
       <c r="N26" s="113">
-        <f t="shared" ref="N26:N35" si="4">K26/D26</f>
+        <f t="shared" ref="N26:N35" si="5">K26/D26</f>
         <v>3.0384084693115522E-2</v>
       </c>
-      <c r="O26" s="307">
+      <c r="O26" s="298">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>6.827884200700118E-4</v>
       </c>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="55"/>
       <c r="B27" s="42">
         <v>2</v>
@@ -11622,7 +11977,7 @@
         <v>4.6189999999999998</v>
       </c>
       <c r="D27" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6189999999999998E-3</v>
       </c>
       <c r="E27" s="42"/>
@@ -11633,36 +11988,36 @@
       <c r="H27" s="43">
         <v>2.13</v>
       </c>
-      <c r="I27" s="294">
+      <c r="I27" s="285">
         <v>0.1</v>
       </c>
-      <c r="J27" s="308">
+      <c r="J27" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>5.0161499999999997</v>
       </c>
-      <c r="K27" s="309">
-        <f t="shared" si="2"/>
+      <c r="K27" s="300">
+        <f t="shared" si="3"/>
         <v>1.5579610123499999E-4</v>
       </c>
-      <c r="L27" s="310">
+      <c r="L27" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>7.3143709500000005E-6</v>
       </c>
       <c r="M27" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.713839651479711</v>
       </c>
       <c r="N27" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3729400570469796E-2</v>
       </c>
-      <c r="O27" s="297">
+      <c r="O27" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>1.5835399328859062E-3</v>
       </c>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="55"/>
       <c r="B28" s="42">
         <v>3</v>
@@ -11671,7 +12026,7 @@
         <v>4.9359999999999999</v>
       </c>
       <c r="D28" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9360000000000003E-3</v>
       </c>
       <c r="E28" s="42"/>
@@ -11682,36 +12037,36 @@
       <c r="H28" s="43">
         <v>2.4700000000000002</v>
       </c>
-      <c r="I28" s="294">
+      <c r="I28" s="285">
         <v>0.26</v>
       </c>
-      <c r="J28" s="308">
+      <c r="J28" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>5.8168500000000005</v>
       </c>
-      <c r="K28" s="309">
-        <f t="shared" si="2"/>
+      <c r="K28" s="300">
+        <f t="shared" si="3"/>
         <v>1.8066496246500004E-4</v>
       </c>
-      <c r="L28" s="310">
+      <c r="L28" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>1.9017364470000002E-5</v>
       </c>
       <c r="M28" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.233523557739298</v>
       </c>
       <c r="N28" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6601491585291739E-2</v>
       </c>
-      <c r="O28" s="297">
+      <c r="O28" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>3.852788587925446E-3</v>
       </c>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="55"/>
       <c r="B29" s="42">
         <v>4</v>
@@ -11720,7 +12075,7 @@
         <v>5.28</v>
       </c>
       <c r="D29" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.28E-3</v>
       </c>
       <c r="E29" s="42"/>
@@ -11731,36 +12086,36 @@
       <c r="H29" s="43">
         <v>2.13</v>
       </c>
-      <c r="I29" s="294">
+      <c r="I29" s="285">
         <v>0.12</v>
       </c>
-      <c r="J29" s="308">
+      <c r="J29" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>5.0161499999999997</v>
       </c>
-      <c r="K29" s="309">
-        <f t="shared" si="2"/>
+      <c r="K29" s="300">
+        <f t="shared" si="3"/>
         <v>1.5579610123499999E-4</v>
       </c>
-      <c r="L29" s="310">
+      <c r="L29" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>8.7772451399999986E-6</v>
       </c>
       <c r="M29" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.762047064079507</v>
       </c>
       <c r="N29" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9506837355113634E-2</v>
       </c>
-      <c r="O29" s="297">
+      <c r="O29" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>1.6623570340909089E-3</v>
       </c>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="55"/>
       <c r="B30" s="45">
         <v>5</v>
@@ -11769,7 +12124,7 @@
         <v>30.625</v>
       </c>
       <c r="D30" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0624999999999999E-2</v>
       </c>
       <c r="E30" s="45"/>
@@ -11788,7 +12143,7 @@
         <v>6.1701000000000006</v>
       </c>
       <c r="K30" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9163651889000002E-4</v>
       </c>
       <c r="L30" s="118">
@@ -11796,11 +12151,11 @@
         <v>7.3143709500000009E-7</v>
       </c>
       <c r="M30" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7142857142857144</v>
       </c>
       <c r="N30" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2575189841632666E-3</v>
       </c>
       <c r="O30" s="119">
@@ -11809,7 +12164,7 @@
       </c>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="55"/>
       <c r="B31" s="42">
         <v>6</v>
@@ -11818,7 +12173,7 @@
         <v>30.972999999999999</v>
       </c>
       <c r="D31" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0973000000000001E-2</v>
       </c>
       <c r="E31" s="42"/>
@@ -11829,36 +12184,36 @@
       <c r="H31" s="43">
         <v>4.32</v>
       </c>
-      <c r="I31" s="294">
+      <c r="I31" s="285">
         <v>0.23</v>
       </c>
-      <c r="J31" s="308">
+      <c r="J31" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>10.1736</v>
       </c>
-      <c r="K31" s="309">
-        <f t="shared" si="2"/>
+      <c r="K31" s="300">
+        <f t="shared" si="3"/>
         <v>3.1598082504000002E-4</v>
       </c>
-      <c r="L31" s="310">
+      <c r="L31" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>1.6823053184999998E-5</v>
       </c>
       <c r="M31" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6820933415026795</v>
       </c>
       <c r="N31" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0201815292028541E-2</v>
       </c>
-      <c r="O31" s="297">
+      <c r="O31" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>5.4315220304781574E-4</v>
       </c>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
       <c r="B32" s="42">
         <v>7</v>
@@ -11867,96 +12222,96 @@
         <v>34.963999999999999</v>
       </c>
       <c r="D32" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4964000000000002E-2</v>
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="41"/>
-      <c r="G32" s="311">
+      <c r="G32" s="302">
         <v>998.84</v>
       </c>
-      <c r="H32" s="311">
+      <c r="H32" s="302">
         <v>3.86</v>
       </c>
-      <c r="I32" s="294">
+      <c r="I32" s="285">
         <v>0.01</v>
       </c>
-      <c r="J32" s="308">
+      <c r="J32" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>9.0902999999999992</v>
       </c>
-      <c r="K32" s="309">
-        <f t="shared" si="2"/>
+      <c r="K32" s="300">
+        <f t="shared" si="3"/>
         <v>2.8233471867E-4</v>
       </c>
-      <c r="L32" s="310">
+      <c r="L32" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>7.3143709500000009E-7</v>
       </c>
       <c r="M32" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3479759334779091</v>
       </c>
       <c r="N32" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.07501197431644E-3</v>
       </c>
-      <c r="O32" s="297">
+      <c r="O32" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>2.0919720140716168E-5</v>
       </c>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="56"/>
-      <c r="B33" s="312">
+      <c r="B33" s="303">
         <v>8</v>
       </c>
-      <c r="C33" s="313">
+      <c r="C33" s="304">
         <v>35.822000000000003</v>
       </c>
-      <c r="D33" s="314">
-        <f t="shared" si="1"/>
+      <c r="D33" s="305">
+        <f t="shared" si="2"/>
         <v>3.5822E-2</v>
       </c>
-      <c r="E33" s="312"/>
-      <c r="F33" s="315"/>
-      <c r="G33" s="313">
+      <c r="E33" s="303"/>
+      <c r="F33" s="306"/>
+      <c r="G33" s="304">
         <v>1127</v>
       </c>
-      <c r="H33" s="313">
+      <c r="H33" s="304">
         <v>4.83</v>
       </c>
-      <c r="I33" s="316">
+      <c r="I33" s="307">
         <v>0.01</v>
       </c>
-      <c r="J33" s="317">
+      <c r="J33" s="308">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>11.374650000000001</v>
       </c>
-      <c r="K33" s="318">
-        <f t="shared" si="2"/>
+      <c r="K33" s="309">
+        <f t="shared" si="3"/>
         <v>3.5328411688500004E-4</v>
       </c>
-      <c r="L33" s="319">
+      <c r="L33" s="310">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>7.3143709500000009E-7</v>
       </c>
-      <c r="M33" s="320">
-        <f t="shared" si="3"/>
+      <c r="M33" s="311">
+        <f t="shared" si="4"/>
         <v>5.2835410407526107</v>
       </c>
       <c r="N33" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.8622108448718684E-3</v>
       </c>
-      <c r="O33" s="321">
+      <c r="O33" s="312">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>2.0418655993523536E-5</v>
       </c>
       <c r="AD33" s="5"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="54" t="s">
         <v>46</v>
       </c>
@@ -11967,7 +12322,7 @@
         <v>5.633</v>
       </c>
       <c r="D34" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.633E-3</v>
       </c>
       <c r="E34" s="42"/>
@@ -11978,36 +12333,36 @@
       <c r="H34" s="43">
         <v>1.88</v>
       </c>
-      <c r="I34" s="294">
+      <c r="I34" s="285">
         <v>0.04</v>
       </c>
-      <c r="J34" s="308">
+      <c r="J34" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>4.4273999999999996</v>
       </c>
-      <c r="K34" s="309">
-        <f>J34*0.0310589/1000</f>
+      <c r="K34" s="300">
+        <f t="shared" ref="K34:K41" si="6">J34*0.0310589/1000</f>
         <v>1.3751017385999999E-4</v>
       </c>
-      <c r="L34" s="310">
+      <c r="L34" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>2.9257483800000004E-6</v>
       </c>
       <c r="M34" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.323861953460529</v>
       </c>
       <c r="N34" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4411534503816792E-2</v>
       </c>
-      <c r="O34" s="297">
+      <c r="O34" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>5.1939435114503824E-4</v>
       </c>
       <c r="AD34" s="5"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="55"/>
       <c r="B35" s="42">
         <v>2</v>
@@ -12016,7 +12371,7 @@
         <v>6.2050000000000001</v>
       </c>
       <c r="D35" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2050000000000004E-3</v>
       </c>
       <c r="E35" s="42"/>
@@ -12027,36 +12382,36 @@
       <c r="H35" s="43">
         <v>2.29</v>
       </c>
-      <c r="I35" s="294">
+      <c r="I35" s="285">
         <v>0.1</v>
       </c>
-      <c r="J35" s="308">
+      <c r="J35" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>5.3929499999999999</v>
       </c>
-      <c r="K35" s="309">
-        <f>J35*0.0310589/1000</f>
+      <c r="K35" s="300">
+        <f t="shared" si="6"/>
         <v>1.6749909475500001E-4</v>
       </c>
-      <c r="L35" s="310">
+      <c r="L35" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>7.3143709500000005E-6</v>
       </c>
       <c r="M35" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.694894822438663</v>
       </c>
       <c r="N35" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6994213497985496E-2</v>
       </c>
-      <c r="O35" s="297">
+      <c r="O35" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>1.1787866156325543E-3</v>
       </c>
       <c r="AD35" s="5"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="55"/>
       <c r="B36" s="42">
         <v>3</v>
@@ -12065,7 +12420,7 @@
         <v>6.5869999999999997</v>
       </c>
       <c r="D36" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.587E-3</v>
       </c>
       <c r="E36" s="42"/>
@@ -12076,36 +12431,36 @@
       <c r="H36" s="43">
         <v>2.92</v>
       </c>
-      <c r="I36" s="294">
+      <c r="I36" s="285">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J36" s="308">
+      <c r="J36" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>6.8765999999999998</v>
       </c>
-      <c r="K36" s="309">
-        <f>J36*0.0310589/1000</f>
+      <c r="K36" s="300">
+        <f t="shared" si="6"/>
         <v>2.1357963174E-4</v>
       </c>
-      <c r="L36" s="310">
+      <c r="L36" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>2.1211675754999999E-5</v>
       </c>
       <c r="M36" s="81">
-        <f t="shared" ref="M36:M37" si="5">1/SQRT(D36)</f>
+        <f t="shared" ref="M36:M37" si="7">1/SQRT(D36)</f>
         <v>12.321289682673649</v>
       </c>
       <c r="N36" s="75">
-        <f t="shared" ref="N36:N37" si="6">K36/D36</f>
+        <f t="shared" ref="N36:N37" si="8">K36/D36</f>
         <v>3.2424416538636709E-2</v>
       </c>
-      <c r="O36" s="297">
+      <c r="O36" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>3.2202331493851525E-3</v>
       </c>
       <c r="AD36" s="5"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="55"/>
       <c r="B37" s="42">
         <v>4</v>
@@ -12114,7 +12469,7 @@
         <v>7.1779999999999999</v>
       </c>
       <c r="D37" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1780000000000004E-3</v>
       </c>
       <c r="E37" s="42"/>
@@ -12125,36 +12480,36 @@
       <c r="H37" s="43">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I37" s="294">
+      <c r="I37" s="285">
         <v>0.18</v>
       </c>
-      <c r="J37" s="308">
+      <c r="J37" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>5.9581499999999998</v>
       </c>
-      <c r="K37" s="309">
-        <f>J37*0.0310589/1000</f>
+      <c r="K37" s="300">
+        <f t="shared" si="6"/>
         <v>1.8505358503499998E-4</v>
       </c>
-      <c r="L37" s="310">
+      <c r="L37" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>1.3165867710000001E-5</v>
       </c>
       <c r="M37" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.803159420437522</v>
       </c>
       <c r="N37" s="75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5780661052521591E-2</v>
       </c>
-      <c r="O37" s="297">
+      <c r="O37" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>1.8341972290331569E-3</v>
       </c>
       <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="55"/>
       <c r="B38" s="42">
         <v>5</v>
@@ -12163,7 +12518,7 @@
         <v>39.521999999999998</v>
       </c>
       <c r="D38" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9522000000000002E-2</v>
       </c>
       <c r="E38" s="42"/>
@@ -12174,18 +12529,18 @@
       <c r="H38" s="43">
         <v>5.12</v>
       </c>
-      <c r="I38" s="294">
+      <c r="I38" s="285">
         <v>0.23</v>
       </c>
-      <c r="J38" s="308">
+      <c r="J38" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>12.057600000000001</v>
       </c>
-      <c r="K38" s="309">
-        <f>J38*0.0310589/1000</f>
+      <c r="K38" s="300">
+        <f t="shared" si="6"/>
         <v>3.7449579264000005E-4</v>
       </c>
-      <c r="L38" s="310">
+      <c r="L38" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>1.6823053184999998E-5</v>
       </c>
@@ -12197,13 +12552,13 @@
         <f>K38/D38</f>
         <v>9.4756285775011388E-3</v>
       </c>
-      <c r="O38" s="297">
+      <c r="O38" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>4.2566300250493388E-4</v>
       </c>
       <c r="AD38" s="5"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="55"/>
       <c r="B39" s="42">
         <v>6</v>
@@ -12212,7 +12567,7 @@
         <v>40.116999999999997</v>
       </c>
       <c r="D39" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0117E-2</v>
       </c>
       <c r="E39" s="42"/>
@@ -12223,18 +12578,18 @@
       <c r="H39" s="43">
         <v>4.97</v>
       </c>
-      <c r="I39" s="294">
+      <c r="I39" s="285">
         <v>0.13</v>
       </c>
-      <c r="J39" s="308">
+      <c r="J39" s="299">
         <f>Tabela3[[#This Row],[ Sigma ]]*2.355</f>
         <v>11.70435</v>
       </c>
-      <c r="K39" s="309">
-        <f>J39*0.0310589/1000</f>
+      <c r="K39" s="300">
+        <f t="shared" si="6"/>
         <v>3.6352423621500003E-4</v>
       </c>
-      <c r="L39" s="310">
+      <c r="L39" s="301">
         <f>2.355*Tabela3[[#This Row],[dSigma]]*0.0310589/1000</f>
         <v>9.508682235000001E-6</v>
       </c>
@@ -12246,13 +12601,13 @@
         <f>K39/D39</f>
         <v>9.0616007232594675E-3</v>
       </c>
-      <c r="O39" s="297">
+      <c r="O39" s="288">
         <f>Tabela3[[#This Row],[dFWHM (MeV)]]/Tabela3[[#This Row],[Energy (MeV)]]</f>
         <v>2.3702376137298405E-4</v>
       </c>
       <c r="AD39" s="5"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="55"/>
       <c r="B40" s="42">
         <v>7</v>
@@ -12261,7 +12616,7 @@
         <v>45.37</v>
       </c>
       <c r="D40" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5370000000000001E-2</v>
       </c>
       <c r="E40" s="42"/>
@@ -12272,15 +12627,15 @@
       <c r="H40" s="43">
         <v>5.97</v>
       </c>
-      <c r="I40" s="322">
+      <c r="I40" s="313">
         <v>0.38</v>
       </c>
-      <c r="J40" s="308">
+      <c r="J40" s="299">
         <f>H40*2.355</f>
         <v>14.059349999999998</v>
       </c>
-      <c r="K40" s="296">
-        <f>J40*0.0310589/1000</f>
+      <c r="K40" s="287">
+        <f t="shared" si="6"/>
         <v>4.3666794571499998E-4</v>
       </c>
       <c r="L40" s="43">
@@ -12295,36 +12650,36 @@
         <f>K40/D40</f>
         <v>9.6245965553228997E-3</v>
       </c>
-      <c r="O40" s="297">
+      <c r="O40" s="288">
         <f>L40/D40</f>
         <v>6.1262088626845936E-4</v>
       </c>
       <c r="AD40" s="38"/>
     </row>
-    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="56"/>
-      <c r="B41" s="323">
+      <c r="B41" s="314">
         <v>8</v>
       </c>
-      <c r="C41" s="324">
+      <c r="C41" s="315">
         <v>46.578000000000003</v>
       </c>
-      <c r="D41" s="325">
-        <f t="shared" si="1"/>
+      <c r="D41" s="316">
+        <f t="shared" si="2"/>
         <v>4.6578000000000001E-2</v>
       </c>
-      <c r="E41" s="323"/>
-      <c r="F41" s="326"/>
-      <c r="G41" s="324"/>
-      <c r="H41" s="326"/>
-      <c r="I41" s="327"/>
-      <c r="J41" s="328"/>
-      <c r="K41" s="329">
-        <f>J41*0.0310589/1000</f>
+      <c r="E41" s="314"/>
+      <c r="F41" s="317"/>
+      <c r="G41" s="315"/>
+      <c r="H41" s="317"/>
+      <c r="I41" s="318"/>
+      <c r="J41" s="319"/>
+      <c r="K41" s="320">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L41" s="324"/>
-      <c r="M41" s="330">
+      <c r="L41" s="315"/>
+      <c r="M41" s="321">
         <f>1/SQRT(D41)</f>
         <v>4.6335044209201888</v>
       </c>
@@ -12332,7 +12687,7 @@
         <f>K41/D41</f>
         <v>0</v>
       </c>
-      <c r="O41" s="331"/>
+      <c r="O41" s="322"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/CNA/Calibrations/Detectors_E-Calib.xlsx
+++ b/CNA/Calibrations/Detectors_E-Calib.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - Universidade de Lisboa\NUCRIA\TESE\Activations\116Sn(p,g)117Sb_Analysis\CNA\Calibrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_6D59A76F99683EB83AAFF0829EC629416EC23B67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7040" tabRatio="749" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7035" tabRatio="749" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="152Eu" sheetId="1" r:id="rId1"/>
@@ -20,8 +19,9 @@
     <sheet name="Background" sheetId="5" r:id="rId5"/>
     <sheet name="Energy Calibration" sheetId="6" r:id="rId6"/>
     <sheet name="Resolution" sheetId="7" r:id="rId7"/>
+    <sheet name="117Sb Decay" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="84">
   <si>
     <t>Energy (keV)</t>
   </si>
@@ -289,20 +289,29 @@
   <si>
     <t>Need to use these values to perform energy calibration</t>
   </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Relative intensity (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -782,9 +791,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -904,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -949,13 +958,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,16 +976,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -985,7 +994,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1018,52 +1027,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1072,13 +1081,13 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,7 +1102,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1117,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1413,7 +1422,7 @@
     <xf numFmtId="1" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1428,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1504,16 +1513,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,28 +1549,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1576,7 +1585,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1591,19 +1600,19 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1621,10 +1630,28 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -1642,7 +1669,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1682,11 +1709,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1698,9 +1728,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1892,9 +1919,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1991,7 +2018,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2003,7 +2030,7 @@
             <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2035,6 +2062,10 @@
                         </a:solidFill>
                       </a:rPr>
                       <a:t>y = 0,0310589x - 0,0041372</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
                     </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -2163,7 +2194,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F97F-464F-8EF8-0A58DE08EF11}"/>
             </c:ext>
@@ -2177,11 +2208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627023904"/>
-        <c:axId val="627027712"/>
+        <c:axId val="-1817143696"/>
+        <c:axId val="-1817146960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627023904"/>
+        <c:axId val="-1817143696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,15 +2286,15 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627027712"/>
+        <c:crossAx val="-1817146960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627027712"/>
+        <c:axId val="-1817146960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,10 +2376,10 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627023904"/>
+        <c:crossAx val="-1817143696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2383,9 +2414,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2459,7 +2490,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2522,7 +2553,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2534,7 +2565,7 @@
             <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2584,6 +2615,10 @@
                       </a:rPr>
                       <a:t>y = 0,32252559x - 0,45562629</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
                     </a:br>
@@ -2621,7 +2656,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2747,7 +2782,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B850-4637-9D13-11CBBB845B9D}"/>
             </c:ext>
@@ -2761,11 +2796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627022816"/>
-        <c:axId val="627030432"/>
+        <c:axId val="-1817143152"/>
+        <c:axId val="-1817151856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627022816"/>
+        <c:axId val="-1817143152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2866,15 +2901,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627030432"/>
+        <c:crossAx val="-1817151856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627030432"/>
+        <c:axId val="-1817151856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2950,7 +2985,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2983,10 +3018,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627022816"/>
+        <c:crossAx val="-1817143152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3022,7 +3057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3034,9 +3069,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3110,7 +3145,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3170,7 +3205,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -3182,7 +3217,7 @@
             <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3249,6 +3284,10 @@
                       </a:rPr>
                       <a:t> - 0,000427x + 0,000702</a:t>
                     </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
                     </a:br>
@@ -3286,7 +3325,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3300,7 +3339,7 @@
               <c:numRef>
                 <c:f>Resolution!$O$4:$O$24</c:f>
                 <c:numCache>
-                  <c:formatCode>0.00000</c:formatCode>
+                  <c:formatCode>General</c:formatCode>
                   <c:ptCount val="21"/>
                   <c:pt idx="0">
                     <c:v>6.2370484845623259E-5</c:v>
@@ -3372,7 +3411,7 @@
               <c:numRef>
                 <c:f>Resolution!$O$4:$O$24</c:f>
                 <c:numCache>
-                  <c:formatCode>0.00000</c:formatCode>
+                  <c:formatCode>General</c:formatCode>
                   <c:ptCount val="21"/>
                   <c:pt idx="0">
                     <c:v>6.2370484845623259E-5</c:v>
@@ -3619,7 +3658,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E7EB-4B6A-BF95-C96C206A7788}"/>
             </c:ext>
@@ -3633,11 +3672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627028256"/>
-        <c:axId val="627028800"/>
+        <c:axId val="-1817149680"/>
+        <c:axId val="-1817145328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627028256"/>
+        <c:axId val="-1817149680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3683,6 +3722,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3705,7 +3745,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3738,15 +3778,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627028800"/>
+        <c:crossAx val="-1817145328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627028800"/>
+        <c:axId val="-1817145328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,6 +3832,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3814,7 +3855,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3847,10 +3888,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627028256"/>
+        <c:crossAx val="-1817149680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3886,7 +3927,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3898,9 +3939,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3994,7 +4035,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4006,7 +4047,7 @@
             <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4045,7 +4086,7 @@
               <c:numRef>
                 <c:f>Resolution!$O$26:$O$40</c:f>
                 <c:numCache>
-                  <c:formatCode>0.00000</c:formatCode>
+                  <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
                     <c:v>6.827884200700118E-4</c:v>
@@ -4099,7 +4140,7 @@
               <c:numRef>
                 <c:f>Resolution!$O$26:$O$40</c:f>
                 <c:numCache>
-                  <c:formatCode>0.00000</c:formatCode>
+                  <c:formatCode>General</c:formatCode>
                   <c:ptCount val="15"/>
                   <c:pt idx="0">
                     <c:v>6.827884200700118E-4</c:v>
@@ -4259,7 +4300,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-78D7-41B8-B3B6-C592AA9A404E}"/>
             </c:ext>
@@ -4273,11 +4314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="627023360"/>
-        <c:axId val="627030976"/>
+        <c:axId val="-1817140432"/>
+        <c:axId val="-1817139888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="627023360"/>
+        <c:axId val="-1817140432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,6 +4360,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4351,15 +4393,15 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627030976"/>
+        <c:crossAx val="-1817139888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627030976"/>
+        <c:axId val="-1817139888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,6 +4443,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4433,10 +4476,10 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627023360"/>
+        <c:crossAx val="-1817140432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5428,7 +5471,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5464,7 +5507,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5505,7 +5548,7 @@
         <xdr:cNvPr id="4" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5541,7 +5584,7 @@
         <xdr:cNvPr id="5" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5563,8 +5606,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B2:F203" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24">
-  <autoFilter ref="B2:F203" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:F203" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24">
+  <autoFilter ref="B2:F203">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -5572,19 +5615,19 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Energy (keV)" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="intensity (%)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="shell"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="HPGe Channel"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SDD Channel" dataDxfId="22"/>
+    <tableColumn id="1" name="Energy (keV)" dataDxfId="23"/>
+    <tableColumn id="2" name="intensity (%)"/>
+    <tableColumn id="3" name="shell"/>
+    <tableColumn id="4" name="HPGe Channel"/>
+    <tableColumn id="5" name="SDD Channel" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="B2:I36" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="B2:I36" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B2:I36" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="B2:I36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -5595,22 +5638,22 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Source"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Line"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Parent"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Shell" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Energy (keV)" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SDD Channel" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="HPGe Channel"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Mean energy (keV)"/>
+    <tableColumn id="1" name="Source"/>
+    <tableColumn id="2" name="Line"/>
+    <tableColumn id="3" name="Parent"/>
+    <tableColumn id="4" name="Shell" dataDxfId="19"/>
+    <tableColumn id="5" name="Energy (keV)" dataDxfId="18"/>
+    <tableColumn id="7" name="SDD Channel" dataDxfId="17"/>
+    <tableColumn id="10" name="HPGe Channel"/>
+    <tableColumn id="11" name="Mean energy (keV)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="B3:O41" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="14">
-  <autoFilter ref="B3:O41" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:O41" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
+  <autoFilter ref="B3:O41">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -5627,22 +5670,22 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Peak nr." dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name=" Energy (keV) " dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Energy (MeV)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name=" ROId " dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name=" ROIu " dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Centroid " dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name=" Sigma " dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="dSigma" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name=" FWHM " dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="FWHM (MeV)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="dFWHM (MeV)" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="1/sqrt(E') (MeV)^-0.5" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="R = FWHM/E" dataDxfId="1">
+    <tableColumn id="1" name="Peak nr." dataDxfId="13"/>
+    <tableColumn id="2" name=" Energy (keV) " dataDxfId="12"/>
+    <tableColumn id="3" name="Energy (MeV)" dataDxfId="11"/>
+    <tableColumn id="4" name=" ROId " dataDxfId="10"/>
+    <tableColumn id="5" name=" ROIu " dataDxfId="9"/>
+    <tableColumn id="6" name="Centroid " dataDxfId="8"/>
+    <tableColumn id="7" name=" Sigma " dataDxfId="7"/>
+    <tableColumn id="8" name="dSigma" dataDxfId="6"/>
+    <tableColumn id="9" name=" FWHM " dataDxfId="5"/>
+    <tableColumn id="10" name="FWHM (MeV)" dataDxfId="4"/>
+    <tableColumn id="11" name="dFWHM (MeV)" dataDxfId="3"/>
+    <tableColumn id="13" name="1/sqrt(E') (MeV)^-0.5" dataDxfId="2"/>
+    <tableColumn id="14" name="R = FWHM/E" dataDxfId="1">
       <calculatedColumnFormula>K4/D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="dR" dataDxfId="0"/>
+    <tableColumn id="15" name="dR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5910,14 +5953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
@@ -5927,8 +5970,8 @@
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1"/>
-    <row r="2" spans="1:10" ht="44.1" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5951,7 +5994,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
         <v>6</v>
       </c>
@@ -5971,7 +6014,7 @@
         <v>5.6333243243243238</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="229">
         <v>5.6360000000000001</v>
       </c>
@@ -5987,7 +6030,7 @@
       </c>
       <c r="G4" s="286"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="122">
         <v>6.2050000000000001</v>
       </c>
@@ -6001,7 +6044,7 @@
       </c>
       <c r="G5" s="124"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="122">
         <v>6.5869999999999997</v>
       </c>
@@ -6015,7 +6058,7 @@
       </c>
       <c r="G6" s="124"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="122">
         <v>7.1779999999999999</v>
       </c>
@@ -6029,7 +6072,7 @@
       </c>
       <c r="G7" s="124"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="117">
         <v>39.521999999999998</v>
       </c>
@@ -6043,7 +6086,7 @@
       </c>
       <c r="G8" s="125"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="117">
         <v>40.116999999999997</v>
       </c>
@@ -6057,7 +6100,7 @@
       </c>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="224">
         <v>45.289000000000001</v>
       </c>
@@ -6074,7 +6117,7 @@
         <v>45.37024137931035</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="229">
         <v>45.412999999999997</v>
       </c>
@@ -6090,7 +6133,7 @@
       </c>
       <c r="G11" s="286"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="117">
         <v>46.578000000000003</v>
       </c>
@@ -6104,7 +6147,7 @@
       </c>
       <c r="G12" s="128"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="153" t="s">
         <v>17</v>
       </c>
@@ -6119,7 +6162,7 @@
       <c r="F13" s="133"/>
       <c r="G13" s="134"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="135">
         <v>121.7817</v>
       </c>
@@ -6133,7 +6176,7 @@
       <c r="F14" s="133"/>
       <c r="G14" s="138"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="139">
         <v>125.68</v>
       </c>
@@ -6145,7 +6188,7 @@
       <c r="F15" s="133"/>
       <c r="G15" s="141"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="139">
         <v>137.56</v>
       </c>
@@ -6157,7 +6200,7 @@
       <c r="F16" s="133"/>
       <c r="G16" s="134"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="139">
         <v>148</v>
       </c>
@@ -6169,7 +6212,7 @@
       <c r="F17" s="133"/>
       <c r="G17" s="142"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="139">
         <v>150.13</v>
       </c>
@@ -6181,7 +6224,7 @@
       <c r="F18" s="133"/>
       <c r="G18" s="142"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="139">
         <v>166.91</v>
       </c>
@@ -6193,7 +6236,7 @@
       <c r="F19" s="133"/>
       <c r="G19" s="142"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="139">
         <v>172.1</v>
       </c>
@@ -6205,7 +6248,7 @@
       <c r="F20" s="133"/>
       <c r="G20" s="142"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="139">
         <v>174.8</v>
       </c>
@@ -6217,7 +6260,7 @@
       <c r="F21" s="133"/>
       <c r="G21" s="142"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="139">
         <v>175.18</v>
       </c>
@@ -6229,7 +6272,7 @@
       <c r="F22" s="133"/>
       <c r="G22" s="142"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="139">
         <v>192.6</v>
       </c>
@@ -6241,7 +6284,7 @@
       <c r="F23" s="133"/>
       <c r="G23" s="142"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="139">
         <v>195.22</v>
       </c>
@@ -6253,7 +6296,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="142"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="139">
         <v>202.74</v>
       </c>
@@ -6265,7 +6308,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="142"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="139">
         <v>207.03</v>
       </c>
@@ -6277,7 +6320,7 @@
       <c r="F26" s="133"/>
       <c r="G26" s="142"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="139">
         <v>207.64</v>
       </c>
@@ -6289,7 +6332,7 @@
       <c r="F27" s="133"/>
       <c r="G27" s="142"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="139">
         <v>209.3</v>
       </c>
@@ -6301,7 +6344,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="142"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="139">
         <v>209.41</v>
       </c>
@@ -6313,7 +6356,7 @@
       <c r="F29" s="133"/>
       <c r="G29" s="142"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="139">
         <v>209.97</v>
       </c>
@@ -6325,7 +6368,7 @@
       <c r="F30" s="133"/>
       <c r="G30" s="142"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="139">
         <v>210.95</v>
       </c>
@@ -6337,7 +6380,7 @@
       <c r="F31" s="133"/>
       <c r="G31" s="142"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="139">
         <v>212.43</v>
       </c>
@@ -6349,7 +6392,7 @@
       <c r="F32" s="133"/>
       <c r="G32" s="142"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="139">
         <v>237.1</v>
       </c>
@@ -6361,7 +6404,7 @@
       <c r="F33" s="133"/>
       <c r="G33" s="142"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="139">
         <v>239.33</v>
       </c>
@@ -6373,7 +6416,7 @@
       <c r="F34" s="133"/>
       <c r="G34" s="142"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="139">
         <v>241</v>
       </c>
@@ -6385,7 +6428,7 @@
       <c r="F35" s="133"/>
       <c r="G35" s="142"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="135">
         <v>244.69739999999999</v>
       </c>
@@ -6399,7 +6442,7 @@
       <c r="F36" s="133"/>
       <c r="G36" s="142"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="139">
         <v>251.63300000000001</v>
       </c>
@@ -6411,7 +6454,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="142"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="139">
         <v>269.83999999999997</v>
       </c>
@@ -6423,7 +6466,7 @@
       <c r="F38" s="133"/>
       <c r="G38" s="143"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="139">
         <v>271.08</v>
       </c>
@@ -6435,7 +6478,7 @@
       <c r="F39" s="133"/>
       <c r="G39" s="142"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="139">
         <v>272.41000000000003</v>
       </c>
@@ -6447,7 +6490,7 @@
       <c r="F40" s="133"/>
       <c r="G40" s="142"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="139">
         <v>275.42</v>
       </c>
@@ -6459,7 +6502,7 @@
       <c r="F41" s="133"/>
       <c r="G41" s="142"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="139">
         <v>285.98</v>
       </c>
@@ -6471,7 +6514,7 @@
       <c r="F42" s="133"/>
       <c r="G42" s="142"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="139">
         <v>286.5</v>
       </c>
@@ -6483,7 +6526,7 @@
       <c r="F43" s="133"/>
       <c r="G43" s="142"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="139">
         <v>287.10000000000002</v>
       </c>
@@ -6495,7 +6538,7 @@
       <c r="F44" s="133"/>
       <c r="G44" s="142"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="139">
         <v>295.93869999999998</v>
       </c>
@@ -6507,7 +6550,7 @@
       <c r="F45" s="133"/>
       <c r="G45" s="142"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="139">
         <v>315.10000000000002</v>
       </c>
@@ -6519,7 +6562,7 @@
       <c r="F46" s="133"/>
       <c r="G46" s="142"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="139">
         <v>316.13</v>
       </c>
@@ -6531,7 +6574,7 @@
       <c r="F47" s="133"/>
       <c r="G47" s="142"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="139">
         <v>320.10000000000002</v>
       </c>
@@ -6543,7 +6586,7 @@
       <c r="F48" s="133"/>
       <c r="G48" s="142"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="139">
         <v>324.83</v>
       </c>
@@ -6555,7 +6598,7 @@
       <c r="F49" s="133"/>
       <c r="G49" s="142"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="139">
         <v>324.91399999999999</v>
       </c>
@@ -6567,7 +6610,7 @@
       <c r="F50" s="133"/>
       <c r="G50" s="142"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="139">
         <v>328.76400000000001</v>
       </c>
@@ -6579,7 +6622,7 @@
       <c r="F51" s="133"/>
       <c r="G51" s="142"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="139">
         <v>329.41</v>
       </c>
@@ -6591,7 +6634,7 @@
       <c r="F52" s="133"/>
       <c r="G52" s="142"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="139">
         <v>330.58</v>
       </c>
@@ -6603,7 +6646,7 @@
       <c r="F53" s="133"/>
       <c r="G53" s="142"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="139">
         <v>340.46</v>
       </c>
@@ -6615,7 +6658,7 @@
       <c r="F54" s="133"/>
       <c r="G54" s="142"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="135">
         <v>344.27850000000001</v>
       </c>
@@ -6629,7 +6672,7 @@
       <c r="F55" s="133"/>
       <c r="G55" s="142"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="139">
         <v>345.54</v>
       </c>
@@ -6641,7 +6684,7 @@
       <c r="F56" s="133"/>
       <c r="G56" s="142"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="139">
         <v>348.75200000000001</v>
       </c>
@@ -6653,7 +6696,7 @@
       <c r="F57" s="133"/>
       <c r="G57" s="143"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="139">
         <v>351.66</v>
       </c>
@@ -6665,7 +6708,7 @@
       <c r="F58" s="133"/>
       <c r="G58" s="142"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="139">
         <v>354.16</v>
       </c>
@@ -6677,7 +6720,7 @@
       <c r="F59" s="133"/>
       <c r="G59" s="142"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="139">
         <v>357.26</v>
       </c>
@@ -6689,7 +6732,7 @@
       <c r="F60" s="133"/>
       <c r="G60" s="142"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="139">
         <v>358.48</v>
       </c>
@@ -6701,7 +6744,7 @@
       <c r="F61" s="133"/>
       <c r="G61" s="142"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="139">
         <v>367.78910000000002</v>
       </c>
@@ -6713,7 +6756,7 @@
       <c r="F62" s="133"/>
       <c r="G62" s="142"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="139">
         <v>378.15</v>
       </c>
@@ -6725,7 +6768,7 @@
       <c r="F63" s="133"/>
       <c r="G63" s="142"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="139">
         <v>379.36</v>
       </c>
@@ -6737,7 +6780,7 @@
       <c r="F64" s="133"/>
       <c r="G64" s="142"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="139">
         <v>385.61</v>
       </c>
@@ -6749,7 +6792,7 @@
       <c r="F65" s="133"/>
       <c r="G65" s="142"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="139">
         <v>387.9</v>
       </c>
@@ -6761,7 +6804,7 @@
       <c r="F66" s="133"/>
       <c r="G66" s="142"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="139">
         <v>389.07</v>
       </c>
@@ -6773,7 +6816,7 @@
       <c r="F67" s="133"/>
       <c r="G67" s="142"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="139">
         <v>391.19</v>
       </c>
@@ -6785,7 +6828,7 @@
       <c r="F68" s="133"/>
       <c r="G68" s="142"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="139">
         <v>395.75</v>
       </c>
@@ -6797,7 +6840,7 @@
       <c r="F69" s="133"/>
       <c r="G69" s="142"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="139">
         <v>397.75</v>
       </c>
@@ -6809,7 +6852,7 @@
       <c r="F70" s="133"/>
       <c r="G70" s="142"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="139">
         <v>401.29</v>
       </c>
@@ -6821,7 +6864,7 @@
       <c r="F71" s="133"/>
       <c r="G71" s="142"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="139">
         <v>406.74</v>
       </c>
@@ -6833,7 +6876,7 @@
       <c r="F72" s="133"/>
       <c r="G72" s="142"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="135">
         <v>411.11649999999997</v>
       </c>
@@ -6847,7 +6890,7 @@
       <c r="F73" s="133"/>
       <c r="G73" s="142"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="139">
         <v>416.02</v>
       </c>
@@ -6859,7 +6902,7 @@
       <c r="F74" s="133"/>
       <c r="G74" s="142"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="139">
         <v>423.45</v>
       </c>
@@ -6871,7 +6914,7 @@
       <c r="F75" s="133"/>
       <c r="G75" s="143"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="139">
         <v>440.86</v>
       </c>
@@ -6883,7 +6926,7 @@
       <c r="F76" s="133"/>
       <c r="G76" s="142"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="139">
         <v>441</v>
       </c>
@@ -6893,7 +6936,7 @@
       <c r="F77" s="133"/>
       <c r="G77" s="142"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="135">
         <v>443.9606</v>
       </c>
@@ -6907,7 +6950,7 @@
       <c r="F78" s="133"/>
       <c r="G78" s="142"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="139">
         <v>444.01</v>
       </c>
@@ -6919,7 +6962,7 @@
       <c r="F79" s="133"/>
       <c r="G79" s="142"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="139">
         <v>464.28</v>
       </c>
@@ -6931,7 +6974,7 @@
       <c r="F80" s="133"/>
       <c r="G80" s="143"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="139">
         <v>476.42</v>
       </c>
@@ -6943,7 +6986,7 @@
       <c r="F81" s="133"/>
       <c r="G81" s="142"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="139">
         <v>482.33</v>
       </c>
@@ -6955,7 +6998,7 @@
       <c r="F82" s="133"/>
       <c r="G82" s="142"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="139">
         <v>482.4</v>
       </c>
@@ -6967,7 +7010,7 @@
       <c r="F83" s="133"/>
       <c r="G83" s="142"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="139">
         <v>488.67919999999998</v>
       </c>
@@ -6979,7 +7022,7 @@
       <c r="F84" s="133"/>
       <c r="G84" s="142"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="139">
         <v>493.54</v>
       </c>
@@ -6991,7 +7034,7 @@
       <c r="F85" s="133"/>
       <c r="G85" s="142"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="139">
         <v>493.78</v>
       </c>
@@ -7003,7 +7046,7 @@
       <c r="F86" s="133"/>
       <c r="G86" s="142"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="139">
         <v>496.4</v>
       </c>
@@ -7015,7 +7058,7 @@
       <c r="F87" s="133"/>
       <c r="G87" s="142"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="139">
         <v>496.56</v>
       </c>
@@ -7027,7 +7070,7 @@
       <c r="F88" s="133"/>
       <c r="G88" s="142"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="139">
         <v>503.46699999999998</v>
       </c>
@@ -7039,7 +7082,7 @@
       <c r="F89" s="133"/>
       <c r="G89" s="142"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="139">
         <v>514.78</v>
       </c>
@@ -7051,7 +7094,7 @@
       <c r="F90" s="133"/>
       <c r="G90" s="142"/>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="139">
         <v>520.24</v>
       </c>
@@ -7063,7 +7106,7 @@
       <c r="F91" s="133"/>
       <c r="G91" s="142"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="139">
         <v>523.13</v>
       </c>
@@ -7075,7 +7118,7 @@
       <c r="F92" s="133"/>
       <c r="G92" s="142"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="139">
         <v>526.88</v>
       </c>
@@ -7087,7 +7130,7 @@
       <c r="F93" s="133"/>
       <c r="G93" s="142"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="139">
         <v>527.1</v>
       </c>
@@ -7099,7 +7142,7 @@
       <c r="F94" s="133"/>
       <c r="G94" s="142"/>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="139">
         <v>534.25</v>
       </c>
@@ -7111,7 +7154,7 @@
       <c r="F95" s="133"/>
       <c r="G95" s="142"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="139">
         <v>535.44000000000005</v>
       </c>
@@ -7123,7 +7166,7 @@
       <c r="F96" s="133"/>
       <c r="G96" s="142"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="139">
         <v>536.23</v>
       </c>
@@ -7133,7 +7176,7 @@
       <c r="F97" s="133"/>
       <c r="G97" s="142"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="139">
         <v>538.29</v>
       </c>
@@ -7145,7 +7188,7 @@
       <c r="F98" s="133"/>
       <c r="G98" s="142"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="139">
         <v>556.48</v>
       </c>
@@ -7157,7 +7200,7 @@
       <c r="F99" s="133"/>
       <c r="G99" s="142"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="139">
         <v>557.79999999999995</v>
       </c>
@@ -7169,7 +7212,7 @@
       <c r="F100" s="133"/>
       <c r="G100" s="142"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="139">
         <v>561.26</v>
       </c>
@@ -7181,7 +7224,7 @@
       <c r="F101" s="133"/>
       <c r="G101" s="142"/>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="139">
         <v>562.98</v>
       </c>
@@ -7193,7 +7236,7 @@
       <c r="F102" s="133"/>
       <c r="G102" s="142"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="139">
         <v>563.1</v>
       </c>
@@ -7205,7 +7248,7 @@
       <c r="F103" s="133"/>
       <c r="G103" s="142"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="139">
         <v>563.98599999999999</v>
       </c>
@@ -7217,7 +7260,7 @@
       <c r="F104" s="133"/>
       <c r="G104" s="142"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="139">
         <v>566.43799999999999</v>
       </c>
@@ -7229,7 +7272,7 @@
       <c r="F105" s="133"/>
       <c r="G105" s="142"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="139">
         <v>571.83000000000004</v>
       </c>
@@ -7241,7 +7284,7 @@
       <c r="F106" s="133"/>
       <c r="G106" s="142"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="139">
         <v>586.26480000000004</v>
       </c>
@@ -7253,7 +7296,7 @@
       <c r="F107" s="133"/>
       <c r="G107" s="142"/>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="139">
         <v>588.6</v>
       </c>
@@ -7265,7 +7308,7 @@
       <c r="F108" s="133"/>
       <c r="G108" s="142"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="139">
         <v>589.83000000000004</v>
       </c>
@@ -7277,7 +7320,7 @@
       <c r="F109" s="133"/>
       <c r="G109" s="142"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="139">
         <v>595.61</v>
       </c>
@@ -7289,7 +7332,7 @@
       <c r="F110" s="133"/>
       <c r="G110" s="142"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="139">
         <v>608.05999999999995</v>
       </c>
@@ -7301,7 +7344,7 @@
       <c r="F111" s="133"/>
       <c r="G111" s="142"/>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="139">
         <v>609.23</v>
       </c>
@@ -7313,7 +7356,7 @@
       <c r="F112" s="133"/>
       <c r="G112" s="142"/>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="139">
         <v>615.41</v>
       </c>
@@ -7323,7 +7366,7 @@
       <c r="F113" s="133"/>
       <c r="G113" s="142"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="139">
         <v>616.04999999999995</v>
       </c>
@@ -7335,7 +7378,7 @@
       <c r="F114" s="133"/>
       <c r="G114" s="142"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="139">
         <v>644.39</v>
       </c>
@@ -7347,7 +7390,7 @@
       <c r="F115" s="133"/>
       <c r="G115" s="142"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="139">
         <v>656.48900000000003</v>
       </c>
@@ -7359,7 +7402,7 @@
       <c r="F116" s="133"/>
       <c r="G116" s="142"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="139">
         <v>664.77</v>
       </c>
@@ -7371,7 +7414,7 @@
       <c r="F117" s="133"/>
       <c r="G117" s="142"/>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="139">
         <v>671.15499999999997</v>
       </c>
@@ -7383,7 +7426,7 @@
       <c r="F118" s="133"/>
       <c r="G118" s="142"/>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="139">
         <v>674.64</v>
       </c>
@@ -7395,7 +7438,7 @@
       <c r="F119" s="133"/>
       <c r="G119" s="142"/>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="139">
         <v>675</v>
       </c>
@@ -7407,7 +7450,7 @@
       <c r="F120" s="133"/>
       <c r="G120" s="142"/>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="139">
         <v>678.62300000000005</v>
       </c>
@@ -7419,7 +7462,7 @@
       <c r="F121" s="133"/>
       <c r="G121" s="142"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="139">
         <v>683.25</v>
       </c>
@@ -7431,7 +7474,7 @@
       <c r="F122" s="133"/>
       <c r="G122" s="142"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="139">
         <v>686.6</v>
       </c>
@@ -7443,7 +7486,7 @@
       <c r="F123" s="133"/>
       <c r="G123" s="142"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="139">
         <v>688.67</v>
       </c>
@@ -7455,7 +7498,7 @@
       <c r="F124" s="133"/>
       <c r="G124" s="142"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="139">
         <v>696.87</v>
       </c>
@@ -7467,7 +7510,7 @@
       <c r="F125" s="133"/>
       <c r="G125" s="142"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="139">
         <v>703.01</v>
       </c>
@@ -7479,7 +7522,7 @@
       <c r="F126" s="133"/>
       <c r="G126" s="142"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="139">
         <v>703.55</v>
       </c>
@@ -7491,7 +7534,7 @@
       <c r="F127" s="133"/>
       <c r="G127" s="142"/>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="139">
         <v>707.16</v>
       </c>
@@ -7503,7 +7546,7 @@
       <c r="F128" s="133"/>
       <c r="G128" s="142"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="139">
         <v>712.83</v>
       </c>
@@ -7515,7 +7558,7 @@
       <c r="F129" s="133"/>
       <c r="G129" s="142"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="139">
         <v>719.346</v>
       </c>
@@ -7527,7 +7570,7 @@
       <c r="F130" s="133"/>
       <c r="G130" s="142"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="139">
         <v>719.36</v>
       </c>
@@ -7539,7 +7582,7 @@
       <c r="F131" s="133"/>
       <c r="G131" s="142"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="139">
         <v>728.04</v>
       </c>
@@ -7551,7 +7594,7 @@
       <c r="F132" s="133"/>
       <c r="G132" s="142"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="139">
         <v>734.14</v>
       </c>
@@ -7563,7 +7606,7 @@
       <c r="F133" s="133"/>
       <c r="G133" s="142"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="139">
         <v>735.43</v>
       </c>
@@ -7575,7 +7618,7 @@
       <c r="F134" s="133"/>
       <c r="G134" s="142"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="139">
         <v>756.16</v>
       </c>
@@ -7587,7 +7630,7 @@
       <c r="F135" s="133"/>
       <c r="G135" s="142"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="139">
         <v>764.88</v>
       </c>
@@ -7599,7 +7642,7 @@
       <c r="F136" s="133"/>
       <c r="G136" s="142"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="139">
         <v>766.38</v>
       </c>
@@ -7611,7 +7654,7 @@
       <c r="F137" s="133"/>
       <c r="G137" s="142"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="139">
         <v>768.96</v>
       </c>
@@ -7623,7 +7666,7 @@
       <c r="F138" s="133"/>
       <c r="G138" s="142"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="135">
         <v>778.90449999999998</v>
       </c>
@@ -7637,7 +7680,7 @@
       <c r="F139" s="133"/>
       <c r="G139" s="142"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="139">
         <v>794.78</v>
       </c>
@@ -7649,7 +7692,7 @@
       <c r="F140" s="133"/>
       <c r="G140" s="142"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="139">
         <v>802</v>
       </c>
@@ -7661,7 +7704,7 @@
       <c r="F141" s="133"/>
       <c r="G141" s="143"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="139">
         <v>805.71</v>
       </c>
@@ -7673,7 +7716,7 @@
       <c r="F142" s="133"/>
       <c r="G142" s="142"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="139">
         <v>810.45100000000002</v>
       </c>
@@ -7685,7 +7728,7 @@
       <c r="F143" s="133"/>
       <c r="G143" s="142"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="139">
         <v>813.21</v>
       </c>
@@ -7697,7 +7740,7 @@
       <c r="F144" s="133"/>
       <c r="G144" s="142"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="139">
         <v>839.36</v>
       </c>
@@ -7709,7 +7752,7 @@
       <c r="F145" s="133"/>
       <c r="G145" s="142"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="139">
         <v>841.57399999999996</v>
       </c>
@@ -7721,7 +7764,7 @@
       <c r="F146" s="133"/>
       <c r="G146" s="142"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="139">
         <v>850.1</v>
       </c>
@@ -7733,7 +7776,7 @@
       <c r="F147" s="133"/>
       <c r="G147" s="142"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="139">
         <v>855.21</v>
       </c>
@@ -7745,7 +7788,7 @@
       <c r="F148" s="133"/>
       <c r="G148" s="142"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="135">
         <v>867.38</v>
       </c>
@@ -7759,7 +7802,7 @@
       <c r="F149" s="133"/>
       <c r="G149" s="142"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="139">
         <v>896.59</v>
       </c>
@@ -7771,7 +7814,7 @@
       <c r="F150" s="133"/>
       <c r="G150" s="142"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="139">
         <v>901.19</v>
       </c>
@@ -7783,7 +7826,7 @@
       <c r="F151" s="133"/>
       <c r="G151" s="143"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="139">
         <v>906.06</v>
       </c>
@@ -7795,7 +7838,7 @@
       <c r="F152" s="133"/>
       <c r="G152" s="142"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="139">
         <v>919.33699999999999</v>
       </c>
@@ -7807,7 +7850,7 @@
       <c r="F153" s="133"/>
       <c r="G153" s="142"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="139">
         <v>919.74</v>
       </c>
@@ -7819,7 +7862,7 @@
       <c r="F154" s="133"/>
       <c r="G154" s="142"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="139">
         <v>926.31</v>
       </c>
@@ -7831,7 +7874,7 @@
       <c r="F155" s="133"/>
       <c r="G155" s="142"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="139">
         <v>930.59</v>
       </c>
@@ -7843,7 +7886,7 @@
       <c r="F156" s="133"/>
       <c r="G156" s="142"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="139">
         <v>937.05</v>
       </c>
@@ -7855,7 +7898,7 @@
       <c r="F157" s="133"/>
       <c r="G157" s="142"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="139">
         <v>947.15</v>
       </c>
@@ -7867,7 +7910,7 @@
       <c r="F158" s="133"/>
       <c r="G158" s="142"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="139">
         <v>958.63</v>
       </c>
@@ -7879,7 +7922,7 @@
       <c r="F159" s="133"/>
       <c r="G159" s="142"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="139">
         <v>961.08</v>
       </c>
@@ -7891,7 +7934,7 @@
       <c r="F160" s="133"/>
       <c r="G160" s="142"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="139">
         <v>963.36699999999996</v>
       </c>
@@ -7903,7 +7946,7 @@
       <c r="F161" s="133"/>
       <c r="G161" s="142"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="135">
         <v>964.05700000000002</v>
       </c>
@@ -7917,7 +7960,7 @@
       <c r="F162" s="133"/>
       <c r="G162" s="142"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="139">
         <v>968.65</v>
       </c>
@@ -7929,7 +7972,7 @@
       <c r="F163" s="133"/>
       <c r="G163" s="142"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="139">
         <v>970.22</v>
       </c>
@@ -7941,7 +7984,7 @@
       <c r="F164" s="133"/>
       <c r="G164" s="143"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="139">
         <v>974.09</v>
       </c>
@@ -7953,7 +7996,7 @@
       <c r="F165" s="133"/>
       <c r="G165" s="142"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="139">
         <v>990.18</v>
       </c>
@@ -7965,7 +8008,7 @@
       <c r="F166" s="133"/>
       <c r="G166" s="142"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="139">
         <v>1001.1</v>
       </c>
@@ -7977,7 +8020,7 @@
       <c r="F167" s="133"/>
       <c r="G167" s="142"/>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="139">
         <v>1005.27</v>
       </c>
@@ -7989,7 +8032,7 @@
       <c r="F168" s="133"/>
       <c r="G168" s="142"/>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="139">
         <v>1050.0999999999999</v>
       </c>
@@ -8001,7 +8044,7 @@
       <c r="F169" s="133"/>
       <c r="G169" s="142"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="139">
         <v>1084</v>
       </c>
@@ -8013,7 +8056,7 @@
       <c r="F170" s="133"/>
       <c r="G170" s="142"/>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="139">
         <v>1084.3800000000001</v>
       </c>
@@ -8025,7 +8068,7 @@
       <c r="F171" s="133"/>
       <c r="G171" s="142"/>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="135">
         <v>1085.837</v>
       </c>
@@ -8039,7 +8082,7 @@
       <c r="F172" s="133"/>
       <c r="G172" s="142"/>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="135">
         <v>1089.7370000000001</v>
       </c>
@@ -8051,7 +8094,7 @@
       <c r="F173" s="133"/>
       <c r="G173" s="142"/>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="139">
         <v>1109.18</v>
       </c>
@@ -8063,7 +8106,7 @@
       <c r="F174" s="133"/>
       <c r="G174" s="143"/>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="135">
         <v>1112.076</v>
       </c>
@@ -8077,7 +8120,7 @@
       <c r="F175" s="133"/>
       <c r="G175" s="142"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="139">
         <v>1139</v>
       </c>
@@ -8089,7 +8132,7 @@
       <c r="F176" s="133"/>
       <c r="G176" s="142"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="139">
         <v>1170.97</v>
       </c>
@@ -8101,7 +8144,7 @@
       <c r="F177" s="133"/>
       <c r="G177" s="143"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="139">
         <v>1206.0899999999999</v>
       </c>
@@ -8113,7 +8156,7 @@
       <c r="F178" s="133"/>
       <c r="G178" s="142"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="144">
         <v>1212.9480000000001</v>
       </c>
@@ -8125,7 +8168,7 @@
       <c r="F179" s="133"/>
       <c r="G179" s="142"/>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="144">
         <v>1246.3399999999999</v>
       </c>
@@ -8137,7 +8180,7 @@
       <c r="F180" s="133"/>
       <c r="G180" s="142"/>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="144">
         <v>1249.94</v>
       </c>
@@ -8149,7 +8192,7 @@
       <c r="F181" s="133"/>
       <c r="G181" s="142"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="144">
         <v>1261.3499999999999</v>
       </c>
@@ -8161,7 +8204,7 @@
       <c r="F182" s="133"/>
       <c r="G182" s="142"/>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="144">
         <v>1292.78</v>
       </c>
@@ -8173,7 +8216,7 @@
       <c r="F183" s="133"/>
       <c r="G183" s="142"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="144">
         <v>1299.1420000000001</v>
       </c>
@@ -8185,7 +8228,7 @@
       <c r="F184" s="133"/>
       <c r="G184" s="142"/>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="144">
         <v>1314.6</v>
       </c>
@@ -8197,7 +8240,7 @@
       <c r="F185" s="133"/>
       <c r="G185" s="142"/>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="144">
         <v>1315.58</v>
       </c>
@@ -8209,7 +8252,7 @@
       <c r="F186" s="133"/>
       <c r="G186" s="142"/>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="144">
         <v>1318.38</v>
       </c>
@@ -8221,7 +8264,7 @@
       <c r="F187" s="133"/>
       <c r="G187" s="142"/>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="144">
         <v>1348.1</v>
       </c>
@@ -8233,7 +8276,7 @@
       <c r="F188" s="133"/>
       <c r="G188" s="142"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="144">
         <v>1363.78</v>
       </c>
@@ -8245,7 +8288,7 @@
       <c r="F189" s="133"/>
       <c r="G189" s="142"/>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="144">
         <v>1390.5</v>
       </c>
@@ -8257,7 +8300,7 @@
       <c r="F190" s="133"/>
       <c r="G190" s="142"/>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="144">
         <v>1408.0129999999999</v>
       </c>
@@ -8269,7 +8312,7 @@
       <c r="F191" s="133"/>
       <c r="G191" s="142"/>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="139">
         <v>1455.1</v>
       </c>
@@ -8281,7 +8324,7 @@
       <c r="F192" s="133"/>
       <c r="G192" s="142"/>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="139">
         <v>1457.643</v>
       </c>
@@ -8293,7 +8336,7 @@
       <c r="F193" s="133"/>
       <c r="G193" s="142"/>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="139">
         <v>1485.9</v>
       </c>
@@ -8305,7 +8348,7 @@
       <c r="F194" s="133"/>
       <c r="G194" s="142"/>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="139">
         <v>1491.4</v>
       </c>
@@ -8317,7 +8360,7 @@
       <c r="F195" s="133"/>
       <c r="G195" s="142"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="139">
         <v>1528.1</v>
       </c>
@@ -8329,7 +8372,7 @@
       <c r="F196" s="133"/>
       <c r="G196" s="142"/>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="139">
         <v>1605.62</v>
       </c>
@@ -8341,7 +8384,7 @@
       <c r="F197" s="133"/>
       <c r="G197" s="142"/>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="139">
         <v>1608.36</v>
       </c>
@@ -8353,7 +8396,7 @@
       <c r="F198" s="133"/>
       <c r="G198" s="142"/>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="139">
         <v>1635.38</v>
       </c>
@@ -8365,7 +8408,7 @@
       <c r="F199" s="133"/>
       <c r="G199" s="142"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="139">
         <v>1647.44</v>
       </c>
@@ -8377,7 +8420,7 @@
       <c r="F200" s="133"/>
       <c r="G200" s="142"/>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="139">
         <v>1674.31</v>
       </c>
@@ -8389,7 +8432,7 @@
       <c r="F201" s="133"/>
       <c r="G201" s="142"/>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="139">
         <v>1698.1</v>
       </c>
@@ -8401,7 +8444,7 @@
       <c r="F202" s="133"/>
       <c r="G202" s="142"/>
     </row>
-    <row r="203" spans="2:7" ht="15" thickBot="1">
+    <row r="203" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="146">
         <v>1769.09</v>
       </c>
@@ -8427,21 +8470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1"/>
-    <row r="2" spans="1:7" ht="47.1" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8461,7 +8504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
         <v>6</v>
       </c>
@@ -8481,7 +8524,7 @@
         <v>4.2846126126126123</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="122">
         <v>4.2859999999999996</v>
       </c>
@@ -8497,7 +8540,7 @@
       </c>
       <c r="G4" s="288"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="122">
         <v>4.6189999999999998</v>
       </c>
@@ -8511,7 +8554,7 @@
       </c>
       <c r="G5" s="168"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="122">
         <v>4.9359999999999999</v>
       </c>
@@ -8525,7 +8568,7 @@
       </c>
       <c r="G6" s="168"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="122">
         <v>5.28</v>
       </c>
@@ -8539,7 +8582,7 @@
       </c>
       <c r="G7" s="168"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="246">
         <v>30.625</v>
       </c>
@@ -8553,7 +8596,7 @@
       </c>
       <c r="G8" s="291"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="251">
         <v>30.972999999999999</v>
       </c>
@@ -8567,7 +8610,7 @@
       </c>
       <c r="G9" s="292"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="246">
         <v>34.918999999999997</v>
       </c>
@@ -8586,7 +8629,7 @@
         <v>34.964333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="122">
         <v>34.987000000000002</v>
       </c>
@@ -8602,7 +8645,7 @@
       <c r="F11" s="121"/>
       <c r="G11" s="288"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="248">
         <v>35.822000000000003</v>
       </c>
@@ -8616,7 +8659,7 @@
       </c>
       <c r="G12" s="171"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="154" t="s">
         <v>17</v>
       </c>
@@ -8633,7 +8676,7 @@
       <c r="F13" s="159"/>
       <c r="G13" s="169"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="240">
         <v>79.614199999999997</v>
       </c>
@@ -8645,7 +8688,7 @@
       <c r="F14" s="244"/>
       <c r="G14" s="245"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="234">
         <v>80.997900000000001</v>
       </c>
@@ -8659,7 +8702,7 @@
       <c r="F15" s="238"/>
       <c r="G15" s="239"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="160">
         <v>160.61199999999999</v>
       </c>
@@ -8671,7 +8714,7 @@
       <c r="F16" s="159"/>
       <c r="G16" s="169"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="160">
         <v>223.23679999999999</v>
       </c>
@@ -8683,7 +8726,7 @@
       <c r="F17" s="159"/>
       <c r="G17" s="169"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="160">
         <v>276.39890000000003</v>
       </c>
@@ -8697,7 +8740,7 @@
       <c r="F18" s="159"/>
       <c r="G18" s="169"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="160">
         <v>302.85079999999999</v>
       </c>
@@ -8711,7 +8754,7 @@
       <c r="F19" s="159"/>
       <c r="G19" s="169"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="160">
         <v>356.0129</v>
       </c>
@@ -8725,7 +8768,7 @@
       <c r="F20" s="159"/>
       <c r="G20" s="169"/>
     </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1">
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="163">
         <v>383.8485</v>
       </c>
@@ -8752,20 +8795,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1"/>
-    <row r="2" spans="1:6" ht="31.5" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8782,7 +8825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
         <v>6</v>
       </c>
@@ -8798,7 +8841,7 @@
       <c r="E3" s="116"/>
       <c r="F3" s="182"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="180">
         <v>31.815999999999999</v>
       </c>
@@ -8814,7 +8857,7 @@
         <v>32.060360902255638</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="180">
         <v>32.192999999999998</v>
       </c>
@@ -8827,7 +8870,7 @@
       <c r="E5" s="293"/>
       <c r="F5" s="124"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="180">
         <v>36.481999999999999</v>
       </c>
@@ -8843,7 +8886,7 @@
         <v>36.732293929712462</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="180">
         <v>36.826999999999998</v>
       </c>
@@ -8856,7 +8899,7 @@
       <c r="E7" s="293"/>
       <c r="F7" s="124"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="180">
         <v>37.255000000000003</v>
       </c>
@@ -8869,7 +8912,7 @@
       <c r="E8" s="121"/>
       <c r="F8" s="171"/>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="154" t="s">
         <v>17</v>
       </c>
@@ -8883,7 +8926,7 @@
       <c r="E9" s="177"/>
       <c r="F9" s="183"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="173">
         <v>661.65700000000004</v>
       </c>
@@ -8907,19 +8950,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="31.5" thickBot="1">
+    <row r="2" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8933,7 +8976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
         <v>6</v>
       </c>
@@ -8948,7 +8991,7 @@
       </c>
       <c r="E3" s="203"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="204">
         <v>7.4610000000000003</v>
       </c>
@@ -8960,7 +9003,7 @@
       </c>
       <c r="E4" s="207"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="204">
         <v>7.4779999999999998</v>
       </c>
@@ -8972,7 +9015,7 @@
       </c>
       <c r="E5" s="207"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="204">
         <v>8.2959999999999994</v>
       </c>
@@ -8984,7 +9027,7 @@
       </c>
       <c r="E6" s="207"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="208">
         <v>8.2959999999999994</v>
       </c>
@@ -8996,7 +9039,7 @@
       </c>
       <c r="E7" s="211"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="154" t="s">
         <v>17</v>
       </c>
@@ -9009,7 +9052,7 @@
       <c r="D8" s="187"/>
       <c r="E8" s="188"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="189">
         <v>826.1</v>
       </c>
@@ -9019,7 +9062,7 @@
       <c r="D9" s="191"/>
       <c r="E9" s="188"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="192">
         <v>1173.2280000000001</v>
       </c>
@@ -9031,7 +9074,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="189">
         <v>1332.492</v>
       </c>
@@ -9041,7 +9084,7 @@
       <c r="D11" s="191"/>
       <c r="E11" s="188"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="189">
         <v>2158.5700000000002</v>
       </c>
@@ -9051,7 +9094,7 @@
       <c r="D12" s="191"/>
       <c r="E12" s="188"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="196">
         <v>2505.692</v>
       </c>
@@ -9068,14 +9111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
@@ -9083,7 +9126,7 @@
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="30.95">
+    <row r="2" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C2" s="212" t="s">
         <v>0</v>
       </c>
@@ -9100,7 +9143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="216">
         <f t="shared" ref="C3:C50" si="0">F3*0.3225-0.0825</f>
@@ -9115,7 +9158,7 @@
       </c>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="217">
         <f t="shared" si="0"/>
         <v>27.6525</v>
@@ -9129,7 +9172,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="217">
         <f t="shared" si="0"/>
         <v>47.002499999999998</v>
@@ -9143,7 +9186,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="217">
         <f t="shared" si="0"/>
         <v>59.58</v>
@@ -9157,7 +9200,7 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" s="217">
         <f t="shared" si="0"/>
         <v>63.772500000000001</v>
@@ -9171,7 +9214,7 @@
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="26"/>
       <c r="C8" s="217">
         <f t="shared" si="0"/>
@@ -9186,7 +9229,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="217">
         <f t="shared" si="0"/>
         <v>77.31750000000001</v>
@@ -9200,7 +9243,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="217">
         <f t="shared" si="0"/>
         <v>84.412500000000009</v>
@@ -9214,7 +9257,7 @@
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" s="217">
         <f t="shared" si="0"/>
         <v>87.637500000000003</v>
@@ -9228,7 +9271,7 @@
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="217">
         <f t="shared" si="0"/>
         <v>90.217500000000001</v>
@@ -9242,7 +9285,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" s="218">
         <f t="shared" si="0"/>
         <v>93.12</v>
@@ -9256,7 +9299,7 @@
       </c>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="217">
         <f t="shared" si="0"/>
         <v>144.39750000000001</v>
@@ -9268,7 +9311,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="217">
         <f t="shared" si="0"/>
         <v>186.32249999999999</v>
@@ -9282,7 +9325,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="217">
         <f t="shared" si="0"/>
         <v>209.86500000000001</v>
@@ -9294,7 +9337,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="217">
         <f t="shared" si="0"/>
         <v>238.89</v>
@@ -9310,7 +9353,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="217">
         <f t="shared" si="0"/>
         <v>242.11500000000001</v>
@@ -9326,7 +9369,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="217">
         <f t="shared" si="0"/>
         <v>270.495</v>
@@ -9338,7 +9381,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="217">
         <f t="shared" si="0"/>
         <v>295.32750000000004</v>
@@ -9354,7 +9397,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="217">
         <f t="shared" si="0"/>
         <v>300.16500000000002</v>
@@ -9370,7 +9413,7 @@
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="217">
         <f t="shared" si="0"/>
         <v>338.54250000000002</v>
@@ -9382,7 +9425,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="217">
         <f t="shared" si="0"/>
         <v>352.08750000000003</v>
@@ -9398,7 +9441,7 @@
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="217">
         <f t="shared" si="0"/>
         <v>409.49250000000001</v>
@@ -9410,7 +9453,7 @@
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="217">
         <f t="shared" si="0"/>
         <v>462.70500000000004</v>
@@ -9422,7 +9465,7 @@
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="217">
         <f t="shared" si="0"/>
         <v>481.08750000000003</v>
@@ -9434,7 +9477,7 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="219">
         <f t="shared" si="0"/>
         <v>511.08000000000004</v>
@@ -9446,7 +9489,7 @@
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="217">
         <f t="shared" si="0"/>
         <v>533.97750000000008</v>
@@ -9458,7 +9501,7 @@
       </c>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="217">
         <f t="shared" si="0"/>
         <v>570.09750000000008</v>
@@ -9472,7 +9515,7 @@
       </c>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="217">
         <f t="shared" si="0"/>
         <v>583.32000000000005</v>
@@ -9488,7 +9531,7 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="3:7">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="217">
         <f t="shared" si="0"/>
         <v>609.4425</v>
@@ -9504,7 +9547,7 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="217">
         <f t="shared" si="0"/>
         <v>665.5575</v>
@@ -9520,7 +9563,7 @@
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="217">
         <f t="shared" si="0"/>
         <v>727.15500000000009</v>
@@ -9536,7 +9579,7 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="217">
         <f t="shared" si="0"/>
         <v>768.75750000000005</v>
@@ -9552,7 +9595,7 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="217">
         <f t="shared" si="0"/>
         <v>784.88250000000005</v>
@@ -9568,7 +9611,7 @@
       </c>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="217">
         <f t="shared" si="0"/>
         <v>794.88</v>
@@ -9580,7 +9623,7 @@
       </c>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="217">
         <f t="shared" si="0"/>
         <v>806.16750000000002</v>
@@ -9596,7 +9639,7 @@
       </c>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="217">
         <f t="shared" si="0"/>
         <v>839.38499999999999</v>
@@ -9608,7 +9651,7 @@
       </c>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="3:7">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="217">
         <f t="shared" si="0"/>
         <v>860.99250000000006</v>
@@ -9624,7 +9667,7 @@
       </c>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="3:7">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="217">
         <f t="shared" si="0"/>
         <v>911.30250000000001</v>
@@ -9636,7 +9679,7 @@
       </c>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="3:7">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="217">
         <f t="shared" si="0"/>
         <v>934.2</v>
@@ -9652,7 +9695,7 @@
       </c>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="3:7">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="217">
         <f t="shared" si="0"/>
         <v>964.83750000000009</v>
@@ -9666,7 +9709,7 @@
       </c>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="3:7">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="217">
         <f t="shared" si="0"/>
         <v>968.7075000000001</v>
@@ -9678,7 +9721,7 @@
       </c>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="3:7">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="217">
         <f t="shared" si="0"/>
         <v>1001.2800000000001</v>
@@ -9694,7 +9737,7 @@
       </c>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="3:7">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" s="217">
         <f t="shared" si="0"/>
         <v>1051.9125000000001</v>
@@ -9706,7 +9749,7 @@
       </c>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="3:7">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" s="217">
         <f t="shared" si="0"/>
         <v>1069.9725000000001</v>
@@ -9718,7 +9761,7 @@
       </c>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="3:7">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" s="217">
         <f t="shared" si="0"/>
         <v>1120.605</v>
@@ -9734,7 +9777,7 @@
       </c>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="3:7">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" s="217">
         <f t="shared" si="0"/>
         <v>1155.4349999999999</v>
@@ -9750,7 +9793,7 @@
       </c>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="217">
         <f t="shared" si="0"/>
         <v>1238.6400000000001</v>
@@ -9766,7 +9809,7 @@
       </c>
       <c r="G49" s="22"/>
     </row>
-    <row r="50" spans="3:7">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="218">
         <f t="shared" si="0"/>
         <v>1280.8875</v>
@@ -9789,14 +9832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
@@ -9808,7 +9851,7 @@
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="44.1" thickBot="1">
+    <row r="2" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="259" t="s">
         <v>49</v>
       </c>
@@ -9834,7 +9877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="263" t="s">
         <v>53</v>
       </c>
@@ -9856,7 +9899,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>57</v>
       </c>
@@ -9878,7 +9921,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>57</v>
       </c>
@@ -9900,7 +9943,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>57</v>
       </c>
@@ -9920,7 +9963,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>57</v>
       </c>
@@ -9942,7 +9985,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>57</v>
       </c>
@@ -9964,7 +10007,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="2:9" ht="29.1">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>57</v>
       </c>
@@ -9986,7 +10029,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
         <v>57</v>
       </c>
@@ -10008,7 +10051,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>57</v>
       </c>
@@ -10032,7 +10075,7 @@
       </c>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>57</v>
       </c>
@@ -10056,7 +10099,7 @@
       </c>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>57</v>
       </c>
@@ -10080,7 +10123,7 @@
       </c>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
         <v>57</v>
       </c>
@@ -10104,7 +10147,7 @@
       </c>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
         <v>57</v>
       </c>
@@ -10128,7 +10171,7 @@
       </c>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="264" t="s">
         <v>47</v>
       </c>
@@ -10150,7 +10193,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="32"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>57</v>
       </c>
@@ -10172,7 +10215,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
         <v>57</v>
       </c>
@@ -10194,7 +10237,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>57</v>
       </c>
@@ -10216,7 +10259,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="30"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="30" t="s">
         <v>57</v>
       </c>
@@ -10238,7 +10281,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>57</v>
       </c>
@@ -10260,7 +10303,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="2:9" ht="29.1">
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>57</v>
       </c>
@@ -10282,7 +10325,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>57</v>
       </c>
@@ -10302,7 +10345,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>57</v>
       </c>
@@ -10326,7 +10369,7 @@
       </c>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>57</v>
       </c>
@@ -10350,7 +10393,7 @@
       </c>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
         <v>57</v>
       </c>
@@ -10374,7 +10417,7 @@
       </c>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>57</v>
       </c>
@@ -10398,7 +10441,7 @@
       </c>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>57</v>
       </c>
@@ -10422,7 +10465,7 @@
       </c>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>57</v>
       </c>
@@ -10446,7 +10489,7 @@
       </c>
       <c r="I29" s="33"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>57</v>
       </c>
@@ -10470,7 +10513,7 @@
       </c>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>57</v>
       </c>
@@ -10494,7 +10537,7 @@
       </c>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>57</v>
       </c>
@@ -10518,7 +10561,7 @@
       </c>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
         <v>57</v>
       </c>
@@ -10540,7 +10583,7 @@
       <c r="H33" s="56"/>
       <c r="I33" s="30"/>
     </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1">
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="35" t="s">
         <v>57</v>
       </c>
@@ -10564,7 +10607,7 @@
       </c>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:9" ht="15" thickBot="1">
+    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="265" t="s">
         <v>63</v>
       </c>
@@ -10588,7 +10631,7 @@
       </c>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="263" t="s">
         <v>64</v>
       </c>
@@ -10623,14 +10666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="4" width="8" customWidth="1"/>
@@ -10646,8 +10689,8 @@
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="15" thickBot="1"/>
-    <row r="3" spans="1:33" ht="29.45" thickBot="1">
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:33" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
         <v>65</v>
       </c>
@@ -10691,7 +10734,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>47</v>
       </c>
@@ -10753,7 +10796,7 @@
       <c r="AF4" s="43"/>
       <c r="AG4" s="43"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="10">
         <v>2</v>
@@ -10813,7 +10856,7 @@
       <c r="AF5" s="44"/>
       <c r="AG5" s="44"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="10">
         <v>3</v>
@@ -10866,7 +10909,7 @@
       </c>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="10">
         <v>4</v>
@@ -10919,7 +10962,7 @@
       </c>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="10">
         <v>5</v>
@@ -10972,7 +11015,7 @@
       </c>
       <c r="AD8" s="5"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="10">
         <v>6</v>
@@ -11025,7 +11068,7 @@
       </c>
       <c r="AD9" s="5"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="10">
         <v>7</v>
@@ -11078,7 +11121,7 @@
       </c>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="10">
         <v>8</v>
@@ -11131,7 +11174,7 @@
       </c>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="10">
         <v>9</v>
@@ -11184,7 +11227,7 @@
       </c>
       <c r="AD12" s="5"/>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1">
+    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="10">
         <v>10</v>
@@ -11237,7 +11280,7 @@
       </c>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>53</v>
       </c>
@@ -11292,7 +11335,7 @@
       </c>
       <c r="AD14" s="5"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="253"/>
       <c r="B15" s="10">
         <v>2</v>
@@ -11345,7 +11388,7 @@
       </c>
       <c r="AD15" s="5"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="253"/>
       <c r="B16" s="10">
         <v>3</v>
@@ -11398,7 +11441,7 @@
       </c>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="10">
         <v>4</v>
@@ -11451,7 +11494,7 @@
       </c>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="10">
         <v>5</v>
@@ -11504,7 +11547,7 @@
       </c>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="38">
         <v>6</v>
@@ -11557,7 +11600,7 @@
       </c>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" ht="15" thickBot="1">
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="52"/>
       <c r="B20" s="86">
         <v>7</v>
@@ -11610,7 +11653,7 @@
       </c>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>63</v>
       </c>
@@ -11665,7 +11708,7 @@
       </c>
       <c r="AD21" s="57"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="38">
         <v>2</v>
@@ -11718,7 +11761,7 @@
       </c>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" ht="15" thickBot="1">
+    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="84">
         <v>3</v>
@@ -11771,7 +11814,7 @@
       </c>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="1:30" ht="15" thickBot="1">
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54" t="s">
         <v>64</v>
       </c>
@@ -11826,7 +11869,7 @@
       </c>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="1:30" ht="15" thickBot="1">
+    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
@@ -11844,7 +11887,7 @@
       <c r="O25" s="5"/>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>53</v>
       </c>
@@ -11895,7 +11938,7 @@
       </c>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="38">
         <v>2</v>
@@ -11944,7 +11987,7 @@
       </c>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="38">
         <v>3</v>
@@ -11993,7 +12036,7 @@
       </c>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="38">
         <v>4</v>
@@ -12042,7 +12085,7 @@
       </c>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="39">
         <v>5</v>
@@ -12091,7 +12134,7 @@
       </c>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="38">
         <v>6</v>
@@ -12140,7 +12183,7 @@
       </c>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="38">
         <v>7</v>
@@ -12189,7 +12232,7 @@
       </c>
       <c r="AD32" s="5"/>
     </row>
-    <row r="33" spans="1:30" ht="15" thickBot="1">
+    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="49"/>
       <c r="B33" s="86">
         <v>8</v>
@@ -12238,7 +12281,7 @@
       </c>
       <c r="AD33" s="5"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>47</v>
       </c>
@@ -12289,7 +12332,7 @@
       </c>
       <c r="AD34" s="5"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="38">
         <v>2</v>
@@ -12338,7 +12381,7 @@
       </c>
       <c r="AD35" s="5"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="38">
         <v>3</v>
@@ -12387,7 +12430,7 @@
       </c>
       <c r="AD36" s="5"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="38">
         <v>4</v>
@@ -12436,7 +12479,7 @@
       </c>
       <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="38">
         <v>5</v>
@@ -12485,7 +12528,7 @@
       </c>
       <c r="AD38" s="5"/>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="38">
         <v>6</v>
@@ -12534,7 +12577,7 @@
       </c>
       <c r="AD39" s="5"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="38">
         <v>7</v>
@@ -12583,7 +12626,7 @@
       </c>
       <c r="AD40" s="5"/>
     </row>
-    <row r="41" spans="1:30" ht="15" thickBot="1">
+    <row r="41" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="49"/>
       <c r="B41" s="281">
         <v>8</v>
@@ -12624,4 +12667,146 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="296" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="295" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>158.6</v>
+      </c>
+      <c r="E4" s="30">
+        <v>158.6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="41">
+        <f>0.002162/(E4/1000)-0.002756/SQRT(E4/1000)+0.003346</f>
+        <v>1.0057435036091411E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>25.271000000000001</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="298">
+        <f>(C5*D5+C6*D6)/(D5+D6)</f>
+        <v>25.192366013071894</v>
+      </c>
+      <c r="F5" s="297">
+        <v>1</v>
+      </c>
+      <c r="G5" s="299">
+        <f>0.002162/(E5/1000)-0.002756/SQRT(E5/1000)+0.003346</f>
+        <v>7.1801850267983594E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>25.044</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+      <c r="E6" s="298"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="299"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>28.486000000000001</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7" s="298">
+        <f>(C7*D7+C8*D8)/(D7+D8)</f>
+        <v>28.47146153846154</v>
+      </c>
+      <c r="F7" s="297">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="299">
+        <f>0.002162/(E7/1000)-0.002756/SQRT(E7/1000)+0.003346</f>
+        <v>6.294837248963138E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>28.443999999999999</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" s="298"/>
+      <c r="F8" s="297"/>
+      <c r="G8" s="299"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="294"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>